--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13440" windowHeight="8265"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,11 +137,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -746,26 +747,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,25 +1083,25 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="118.625" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="118.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1115,18 +1110,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1">
@@ -1135,18 +1130,18 @@
       <c r="D2" s="1">
         <v>67</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>45838</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>300896</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
@@ -1155,18 +1150,18 @@
       <c r="D3" s="1">
         <v>127</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>45838</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>603195</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1">
@@ -1175,18 +1170,18 @@
       <c r="D4" s="1">
         <v>78</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>45838</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>300760</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1">
@@ -1195,18 +1190,18 @@
       <c r="D5" s="1">
         <v>67</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>45838</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>300529</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1">
@@ -1215,18 +1210,18 @@
       <c r="D6" s="1">
         <v>102</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>45838</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>603605</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1">
@@ -1235,18 +1230,18 @@
       <c r="D7" s="1">
         <v>45</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>45838</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>300573</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1">
@@ -1255,18 +1250,18 @@
       <c r="D8" s="1">
         <v>90</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>45838</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1">
@@ -1275,18 +1270,18 @@
       <c r="D9" s="1">
         <v>48</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>45838</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>603833</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1">
@@ -1295,18 +1290,18 @@
       <c r="D10" s="1">
         <v>90</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>45838</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>300628</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="1">
@@ -1315,18 +1310,18 @@
       <c r="D11" s="1">
         <v>63</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>45838</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="1">
@@ -1335,18 +1330,18 @@
       <c r="D12" s="1">
         <v>49</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>45838</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1">
@@ -1355,10 +1350,10 @@
       <c r="D13" s="1">
         <v>60</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>45838</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1367,7 +1362,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A12:A13 A9 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A9 A12:A13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -137,12 +137,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -747,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +756,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1084,17 +1088,17 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="118.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="6" width="118.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1104,36 +1108,36 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>9.9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>67</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>45838</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1144,16 +1148,16 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>12.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>127</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>45838</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1164,16 +1168,16 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>78</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>45838</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1184,16 +1188,16 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>8.9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>67</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>45838</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1204,16 +1208,16 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>10.2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>102</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>45838</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1224,16 +1228,16 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>45</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>45838</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1244,36 +1248,36 @@
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1">
-        <v>90</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3">
         <v>45838</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>48</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>45838</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1284,16 +1288,16 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>90</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>45838</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1304,56 +1308,56 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>11</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>63</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>45838</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>49</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>45838</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>60</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>45838</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1362,7 +1366,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A9 A12:A13" numberStoredAsText="1"/>
+    <ignoredError sqref="A12:A13 A9 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>代码</t>
   </si>
@@ -94,6 +94,24 @@
     <t>底部震荡中，买入1200股底仓</t>
   </si>
   <si>
+    <t>600276</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>上涨趋势中，买入500股底仓</t>
+  </si>
+  <si>
+    <t>603259</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>上涨趋势中，买入400股底仓</t>
+  </si>
+  <si>
     <t>002032</t>
   </si>
   <si>
@@ -131,6 +149,15 @@
   </si>
   <si>
     <t>上涨趋势中，买入2400股底仓</t>
+  </si>
+  <si>
+    <t>605305</t>
+  </si>
+  <si>
+    <t>中际联合</t>
+  </si>
+  <si>
+    <t>上涨趋势中，买入1400股底仓</t>
   </si>
 </sst>
 </file>
@@ -826,13 +853,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1085,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1262,103 +1282,163 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3">
-        <v>45838</v>
+        <v>45761</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>603833</v>
+      <c r="A10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="D10" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3">
-        <v>45838</v>
+        <v>45762</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>300628</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2">
-        <v>63</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45838</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3">
         <v>45838</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>603833</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C13" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3">
         <v>45838</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>300628</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45838</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45838</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45838</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45847</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1446,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A12:A13 A9 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A9:A10 A15:A17 A12 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>代码</t>
   </si>
@@ -139,9 +139,6 @@
     <t>山西焦煤</t>
   </si>
   <si>
-    <t>等待底部确认，观察不买入</t>
-  </si>
-  <si>
     <t>002690</t>
   </si>
   <si>
@@ -158,6 +155,33 @@
   </si>
   <si>
     <t>上涨趋势中，买入1400股底仓</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
+    <t>底部震荡中，买入500股底仓</t>
+  </si>
+  <si>
+    <t>002773</t>
+  </si>
+  <si>
+    <t>康弘药业</t>
+  </si>
+  <si>
+    <t>002648</t>
+  </si>
+  <si>
+    <t>卫星化学</t>
+  </si>
+  <si>
+    <t>002507</t>
+  </si>
+  <si>
+    <t>涪陵榨菜</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1381,7 +1405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -1397,16 +1421,13 @@
       <c r="E15" s="3">
         <v>45838</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -1418,15 +1439,15 @@
         <v>45838</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>8</v>
@@ -1438,7 +1459,81 @@
         <v>45847</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>84</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45848</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45848</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>65</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45848</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1541,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A9:A10 A15:A17 A12 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A9:A10 A15:A21 A12 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>代码</t>
   </si>
@@ -43,10 +43,13 @@
     <t>评分</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>计划</t>
+    <t>评分日期</t>
+  </si>
+  <si>
+    <t>当前计划</t>
+  </si>
+  <si>
+    <t>新计划（2025/7/15）</t>
   </si>
   <si>
     <t>000858</t>
@@ -55,43 +58,40 @@
     <t>五粮液</t>
   </si>
   <si>
-    <t>等待底部确认，买入200股底仓</t>
+    <t>买了2.5w，不确定白酒是否会继续下跌</t>
   </si>
   <si>
     <t>爱美客</t>
   </si>
   <si>
-    <t>底部震荡中，买入400股底仓</t>
+    <t>买了6.9w，等反转</t>
   </si>
   <si>
     <t>公牛集团</t>
   </si>
   <si>
-    <t>筑底过程中，买入900股底仓</t>
+    <t>买了6.8w，等反转</t>
   </si>
   <si>
     <t>迈瑞医疗</t>
   </si>
   <si>
-    <t>上涨趋势中，买入200股底仓</t>
-  </si>
-  <si>
     <t>健帆生物</t>
   </si>
   <si>
-    <t>底部震荡中，买入3000股底仓</t>
+    <t>买了6.5w，等反转</t>
   </si>
   <si>
     <t>珀莱雅</t>
   </si>
   <si>
-    <t>筑底过程中，买入300股底仓</t>
+    <t>买了2.5w，等反转</t>
   </si>
   <si>
     <t>兴齐眼药</t>
   </si>
   <si>
-    <t>底部震荡中，买入1200股底仓</t>
+    <t>买了6.1w，等反转</t>
   </si>
   <si>
     <t>600276</t>
@@ -100,7 +100,10 @@
     <t>恒瑞医药</t>
   </si>
   <si>
-    <t>上涨趋势中，买入500股底仓</t>
+    <t>买了2.2w，右侧上涨中，考虑加仓做右侧</t>
+  </si>
+  <si>
+    <t>右侧择机加仓2w</t>
   </si>
   <si>
     <t>603259</t>
@@ -109,7 +112,7 @@
     <t>药明康德</t>
   </si>
   <si>
-    <t>上涨趋势中，买入400股底仓</t>
+    <t>买了2.6w，右侧上涨中，考虑加仓做右侧</t>
   </si>
   <si>
     <t>002032</t>
@@ -118,19 +121,19 @@
     <t>苏泊尔</t>
   </si>
   <si>
-    <t>筑底过程中，买入400股底仓</t>
+    <t>买了2.1w，等反转</t>
   </si>
   <si>
     <t>欧派家居</t>
   </si>
   <si>
-    <t>等待底部确认，买入400股底仓</t>
+    <t>买了4.5w，不确定房地产是否会继续下跌</t>
   </si>
   <si>
     <t>亿联网络</t>
   </si>
   <si>
-    <t>上涨趋势中，买入1200股底仓</t>
+    <t>买了4.2w，等反转</t>
   </si>
   <si>
     <t>000983</t>
@@ -139,13 +142,16 @@
     <t>山西焦煤</t>
   </si>
   <si>
+    <t>买了2w，等反转</t>
+  </si>
+  <si>
     <t>002690</t>
   </si>
   <si>
     <t>美亚光电</t>
   </si>
   <si>
-    <t>上涨趋势中，买入2400股底仓</t>
+    <t>买了6.3w，右侧上涨中</t>
   </si>
   <si>
     <t>605305</t>
@@ -154,34 +160,31 @@
     <t>中际联合</t>
   </si>
   <si>
-    <t>上涨趋势中，买入1400股底仓</t>
+    <t>买了4.1w，右侧上涨中</t>
+  </si>
+  <si>
+    <t>002773</t>
+  </si>
+  <si>
+    <t>康弘药业</t>
+  </si>
+  <si>
+    <t>右侧上涨中</t>
+  </si>
+  <si>
+    <t>择机买入4w</t>
+  </si>
+  <si>
+    <t>002648</t>
+  </si>
+  <si>
+    <t>卫星化学</t>
   </si>
   <si>
     <t>600763</t>
   </si>
   <si>
     <t>通策医疗</t>
-  </si>
-  <si>
-    <t>底部震荡中，买入500股底仓</t>
-  </si>
-  <si>
-    <t>002773</t>
-  </si>
-  <si>
-    <t>康弘药业</t>
-  </si>
-  <si>
-    <t>002648</t>
-  </si>
-  <si>
-    <t>卫星化学</t>
-  </si>
-  <si>
-    <t>002507</t>
-  </si>
-  <si>
-    <t>涪陵榨菜</t>
   </si>
 </sst>
 </file>
@@ -1129,23 +1132,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="6" max="6" width="118.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="42" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,13 +1168,16 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>9.9</v>
@@ -1182,7 +1189,7 @@
         <v>45838</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1190,7 +1197,7 @@
         <v>300896</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>12.5</v>
@@ -1202,7 +1209,7 @@
         <v>45838</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1210,7 +1217,7 @@
         <v>603195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>9</v>
@@ -1222,7 +1229,7 @@
         <v>45838</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1230,7 +1237,7 @@
         <v>300760</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>8.9</v>
@@ -1242,7 +1249,7 @@
         <v>45838</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1305,7 +1312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1324,13 +1331,16 @@
       <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>8.5</v>
@@ -1342,15 +1352,18 @@
         <v>45762</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>12</v>
@@ -1362,7 +1375,7 @@
         <v>45838</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1370,7 +1383,7 @@
         <v>603833</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -1382,7 +1395,7 @@
         <v>45838</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1390,7 +1403,7 @@
         <v>300628</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>11</v>
@@ -1402,15 +1415,15 @@
         <v>45838</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -1421,13 +1434,16 @@
       <c r="E15" s="3">
         <v>45838</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -1439,15 +1455,15 @@
         <v>45838</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2">
         <v>8</v>
@@ -1459,38 +1475,44 @@
         <v>45847</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2">
-        <v>4.6</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
         <v>45848</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>40</v>
@@ -1498,42 +1520,28 @@
       <c r="E19" s="3">
         <v>45848</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45848</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="D21" s="2">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E21" s="3">
         <v>45848</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1549,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A9:A10 A15:A21 A12 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A12 A15:A19 A9:A10 A21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1568,7 +1576,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -7,9 +7,8 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>代码</t>
   </si>
@@ -113,6 +112,15 @@
   </si>
   <si>
     <t>买了2.6w，右侧上涨中，考虑加仓做右侧</t>
+  </si>
+  <si>
+    <t>603129</t>
+  </si>
+  <si>
+    <t>春风动力</t>
+  </si>
+  <si>
+    <t>买了4.5w，回调中，等待加仓机会</t>
   </si>
   <si>
     <t>002032</t>
@@ -1132,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1358,78 +1366,78 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C11" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45762</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>48</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45838</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>603833</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>90</v>
       </c>
       <c r="E13" s="3">
         <v>45838</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>300628</v>
+        <v>603833</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3">
         <v>45838</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
+      <c r="A15" s="1">
+        <v>300628</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3">
         <v>45838</v>
@@ -1449,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3">
         <v>45838</v>
@@ -1458,27 +1466,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3">
-        <v>45847</v>
+        <v>45838</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1489,30 +1494,30 @@
         <v>45</v>
       </c>
       <c r="C18" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C19" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <v>40</v>
@@ -1521,27 +1526,50 @@
         <v>45848</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2">
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45848</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2">
         <v>4.6</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>84</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>45848</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>30</v>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1549,29 +1577,12 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A12 A15:A19 A9:A10 A21" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A13 A16:A20 A9:A10 A22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>代码</t>
   </si>
@@ -48,7 +48,7 @@
     <t>当前计划</t>
   </si>
   <si>
-    <t>新计划（2025/7/15）</t>
+    <t>新计划（2025/7/30）</t>
   </si>
   <si>
     <t>000858</t>
@@ -69,10 +69,16 @@
     <t>公牛集团</t>
   </si>
   <si>
+    <t>买了6.7w，等反转</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
     <t>买了6.8w，等反转</t>
   </si>
   <si>
-    <t>迈瑞医疗</t>
+    <t>择机卖出2w</t>
   </si>
   <si>
     <t>健帆生物</t>
@@ -84,13 +90,13 @@
     <t>珀莱雅</t>
   </si>
   <si>
-    <t>买了2.5w，等反转</t>
+    <t>买了5w，等反转</t>
   </si>
   <si>
     <t>兴齐眼药</t>
   </si>
   <si>
-    <t>买了6.1w，等反转</t>
+    <t>买了6.4w，右侧上涨中</t>
   </si>
   <si>
     <t>600276</t>
@@ -99,10 +105,7 @@
     <t>恒瑞医药</t>
   </si>
   <si>
-    <t>买了2.2w，右侧上涨中，考虑加仓做右侧</t>
-  </si>
-  <si>
-    <t>右侧择机加仓2w</t>
+    <t>买了2.2w，右侧上涨中</t>
   </si>
   <si>
     <t>603259</t>
@@ -111,7 +114,10 @@
     <t>药明康德</t>
   </si>
   <si>
-    <t>买了2.6w，右侧上涨中，考虑加仓做右侧</t>
+    <t>买了2.6w，右侧上涨中</t>
+  </si>
+  <si>
+    <t>可以考虑加2w</t>
   </si>
   <si>
     <t>603129</t>
@@ -120,7 +126,25 @@
     <t>春风动力</t>
   </si>
   <si>
-    <t>买了4.5w，回调中，等待加仓机会</t>
+    <t>买了4.5w，右侧上涨中</t>
+  </si>
+  <si>
+    <t>002714</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>买了2.4w,右侧上涨中</t>
+  </si>
+  <si>
+    <t>605117</t>
+  </si>
+  <si>
+    <t>德业股份</t>
+  </si>
+  <si>
+    <t>买了6.4w,等反转</t>
   </si>
   <si>
     <t>002032</t>
@@ -141,7 +165,7 @@
     <t>亿联网络</t>
   </si>
   <si>
-    <t>买了4.2w，等反转</t>
+    <t>买了4.1w，等反转</t>
   </si>
   <si>
     <t>000983</t>
@@ -150,7 +174,7 @@
     <t>山西焦煤</t>
   </si>
   <si>
-    <t>买了2w，等反转</t>
+    <t>买了2.3w，右侧上涨中</t>
   </si>
   <si>
     <t>002690</t>
@@ -159,7 +183,7 @@
     <t>美亚光电</t>
   </si>
   <si>
-    <t>买了6.3w，右侧上涨中</t>
+    <t>买了6.2w，右侧上涨中</t>
   </si>
   <si>
     <t>605305</t>
@@ -177,16 +201,34 @@
     <t>康弘药业</t>
   </si>
   <si>
-    <t>右侧上涨中</t>
-  </si>
-  <si>
-    <t>择机买入4w</t>
+    <t>买了2.1w，右侧上涨中</t>
+  </si>
+  <si>
+    <t>300558</t>
+  </si>
+  <si>
+    <t>贝达药业</t>
+  </si>
+  <si>
+    <t>买了3.2w，右侧上涨中</t>
+  </si>
+  <si>
+    <t>可以考虑加1w</t>
   </si>
   <si>
     <t>002648</t>
   </si>
   <si>
     <t>卫星化学</t>
+  </si>
+  <si>
+    <t>买了2w，右侧上涨中</t>
+  </si>
+  <si>
+    <t>福斯达</t>
+  </si>
+  <si>
+    <t>不买，观察</t>
   </si>
   <si>
     <t>600763</t>
@@ -810,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,6 +867,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1140,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1181,7 +1226,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1231,16 +1276,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3">
-        <v>45838</v>
+        <v>45863</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>300760</v>
       </c>
@@ -1257,7 +1302,10 @@
         <v>45838</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,7 +1313,7 @@
         <v>300529</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>10.2</v>
@@ -1277,15 +1325,15 @@
         <v>45838</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>603605</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
@@ -1297,15 +1345,18 @@
         <v>45838</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>300573</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>9.7</v>
@@ -1317,61 +1368,61 @@
         <v>45838</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3">
-        <v>45761</v>
+        <v>45867</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="D10" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
-        <v>45762</v>
+        <v>45867</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>12.9</v>
@@ -1383,35 +1434,38 @@
         <v>45762</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
+      <c r="A13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3">
-        <v>45838</v>
+        <v>45867</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>603833</v>
+      <c r="A14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
@@ -1420,156 +1474,245 @@
         <v>90</v>
       </c>
       <c r="E14" s="3">
-        <v>45838</v>
+        <v>45867</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>300628</v>
+      <c r="A15" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3">
         <v>45838</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>38</v>
+      <c r="A16" s="1">
+        <v>603833</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E16" s="3">
         <v>45838</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>41</v>
+      <c r="A17" s="1">
+        <v>300628</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3">
         <v>45838</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3">
-        <v>45847</v>
+        <v>45838</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
+      <c r="A19" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3">
-        <v>45848</v>
+        <v>45838</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2">
         <v>8</v>
       </c>
       <c r="D20" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3">
+        <v>45847</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45861</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>70</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45861</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3">
         <v>45848</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="F24" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5">
+        <v>603173</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45863</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2">
         <v>4.6</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D27" s="2">
         <v>84</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E27" s="3">
         <v>45848</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>33</v>
+      <c r="F27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1720,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A13 A16:A20 A9:A10 A22" numberStoredAsText="1"/>
+    <ignoredError sqref="A24 A13:A15 A27 A9:A11 A18:A22 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>代码</t>
   </si>
@@ -129,6 +129,12 @@
     <t>买了4.5w，右侧上涨中</t>
   </si>
   <si>
+    <t>亿联网络</t>
+  </si>
+  <si>
+    <t>买了4.1w，等反转</t>
+  </si>
+  <si>
     <t>002714</t>
   </si>
   <si>
@@ -160,12 +166,6 @@
   </si>
   <si>
     <t>买了4.5w，不确定房地产是否会继续下跌</t>
-  </si>
-  <si>
-    <t>亿联网络</t>
-  </si>
-  <si>
-    <t>买了4.1w，等反转</t>
   </si>
   <si>
     <t>000983</t>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1440,78 +1440,81 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>300628</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C12" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>87</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45868</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45867</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>35</v>
+      <c r="G12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C14" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
         <v>45867</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>90</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45867</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2">
-        <v>48</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45838</v>
-      </c>
-      <c r="F15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>603833</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3">
         <v>45838</v>
@@ -1522,16 +1525,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>300628</v>
+        <v>603833</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3">
         <v>45838</v>
@@ -1720,7 +1723,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A24 A13:A15 A27 A9:A11 A18:A22 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A18:A22 A9:A11 A27 A14:A16 A24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>代码</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>不买，观察</t>
+  </si>
+  <si>
+    <t>002847</t>
+  </si>
+  <si>
+    <t>盐津铺子</t>
   </si>
   <si>
     <t>600763</t>
@@ -1185,10 +1191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1695,26 +1701,43 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C26" s="2">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2">
         <v>4.6</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>84</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="3">
         <v>45848</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1723,7 +1746,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A18:A22 A9:A11 A27 A14:A16 A24" numberStoredAsText="1"/>
+    <ignoredError sqref="A26 A24 A14:A16 A28 A9:A11 A18:A22 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>代码</t>
   </si>
@@ -216,6 +216,21 @@
     <t>可以考虑加1w</t>
   </si>
   <si>
+    <t>603087</t>
+  </si>
+  <si>
+    <t>甘李药业</t>
+  </si>
+  <si>
+    <t>买了4.3w，右侧上涨中</t>
+  </si>
+  <si>
+    <t>300750</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
     <t>002648</t>
   </si>
   <si>
@@ -237,10 +252,19 @@
     <t>盐津铺子</t>
   </si>
   <si>
+    <t>下跌中，观察</t>
+  </si>
+  <si>
     <t>600763</t>
   </si>
   <si>
     <t>通策医疗</t>
+  </si>
+  <si>
+    <t>300015</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
   </si>
 </sst>
 </file>
@@ -1191,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1282,10 +1306,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3">
-        <v>45863</v>
+        <v>45874</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
@@ -1497,13 +1521,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E15" s="3">
-        <v>45867</v>
+        <v>45873</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>40</v>
@@ -1661,47 +1685,44 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45873</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E24" s="3">
-        <v>45848</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5">
-        <v>603173</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="2">
-        <v>10</v>
-      </c>
-      <c r="D25" s="2">
-        <v>18</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45863</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -1709,36 +1730,96 @@
         <v>68</v>
       </c>
       <c r="C26" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="D26" s="2">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45848</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5">
+        <v>603173</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>18</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45863</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2">
         <v>14</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D28" s="2">
         <v>30</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E28" s="3">
         <v>45869</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="F28" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2">
         <v>4.6</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D30" s="2">
         <v>84</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E30" s="3">
         <v>45848</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G30" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45873</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1827,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A26 A24 A14:A16 A28 A9:A11 A18:A22 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A18:A24 A9:A11 A30:A31 A14:A16 A26 A28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>代码</t>
   </si>
@@ -39,7 +39,19 @@
     <t>评星</t>
   </si>
   <si>
+    <t>星权重</t>
+  </si>
+  <si>
     <t>评分</t>
+  </si>
+  <si>
+    <t>分权重</t>
+  </si>
+  <si>
+    <t>加减分</t>
+  </si>
+  <si>
+    <t>仓位</t>
   </si>
   <si>
     <t>评分日期</t>
@@ -271,13 +283,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -882,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,11 +908,14 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,24 +1231,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17" style="4" customWidth="1"/>
+    <col min="10" max="10" width="42" style="5" customWidth="1"/>
+    <col min="11" max="11" width="39.875" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,583 +1263,901 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>9.9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
         <v>67</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(D2+F2+G2)*2</f>
+        <v>6</v>
+      </c>
+      <c r="I2" s="4">
         <v>45838</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>300896</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>12.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>127</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H12" si="0">(D3+F3+G3)*2</f>
+        <v>12</v>
+      </c>
+      <c r="I3" s="4">
         <v>45838</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>603195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
         <v>89</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="4">
         <v>45874</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>300760</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>8.9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>67</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I5" s="4">
         <v>45838</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="J5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>300529</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>10.2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
         <v>102</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="4">
         <v>45838</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>603605</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
         <v>45</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
         <v>45838</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="J7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>300573</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>9.7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
         <v>71</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I8" s="4">
         <v>45838</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="J8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
         <v>25</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
         <v>45867</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>9.1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
         <v>50</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I10" s="4">
         <v>45867</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>12.9</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
         <v>25</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
         <v>45762</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="J11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>300628</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2">
         <v>12.1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
         <v>87</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="4">
         <v>45868</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="J12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>40</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" ref="H13:H31" si="1">(D14+F14+G14)*2</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
         <v>45867</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="J14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2">
         <v>11</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
         <v>71</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="4">
         <v>45873</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>41</v>
+      <c r="J15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2">
         <v>12</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
         <v>48</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="4">
         <v>45838</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="J16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>603833</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2">
         <v>10</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
         <v>90</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="4">
         <v>45838</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
-        <v>46</v>
+      <c r="J17" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
         <v>49</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I18" s="4">
         <v>45838</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>49</v>
+      <c r="J18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
         <v>60</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="4">
         <v>45838</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2">
         <v>8</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>70</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I20" s="4">
         <v>45847</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
         <v>26</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="4">
         <v>45861</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2">
         <v>8</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>70</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="4">
         <v>45861</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="J22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2">
         <v>10</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
         <v>57</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I23" s="4">
         <v>45873</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="J23" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>37</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
         <v>45873</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2">
         <v>5.8</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
         <v>17</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
         <v>45848</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5">
+      <c r="J26" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
         <v>603173</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2">
         <v>10</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
         <v>18</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I27" s="4">
         <v>45863</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="J27" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2">
         <v>14</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
         <v>30</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I28" s="4">
         <v>45869</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="J28" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2">
         <v>4.6</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
         <v>84</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="4">
         <v>45848</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="J30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C31" s="2">
         <v>3.5</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
         <v>81</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I31" s="4">
         <v>45873</v>
       </c>
     </row>
@@ -1827,7 +2166,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A18:A24 A9:A11 A30:A31 A14:A16 A26 A28" numberStoredAsText="1"/>
+    <ignoredError sqref="A28 A26 A14:A16 A30:A31 A9:A11 A18:A24 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24165" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>代码</t>
   </si>
@@ -60,7 +60,7 @@
     <t>当前计划</t>
   </si>
   <si>
-    <t>新计划（2025/7/30）</t>
+    <t>新计划（2025/8/5）</t>
   </si>
   <si>
     <t>000858</t>
@@ -72,6 +72,9 @@
     <t>买了2.5w，不确定白酒是否会继续下跌</t>
   </si>
   <si>
+    <t>跌了就买</t>
+  </si>
+  <si>
     <t>爱美客</t>
   </si>
   <si>
@@ -90,9 +93,6 @@
     <t>买了6.8w，等反转</t>
   </si>
   <si>
-    <t>择机卖出2w</t>
-  </si>
-  <si>
     <t>健帆生物</t>
   </si>
   <si>
@@ -129,9 +129,6 @@
     <t>买了2.6w，右侧上涨中</t>
   </si>
   <si>
-    <t>可以考虑加2w</t>
-  </si>
-  <si>
     <t>603129</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
   </si>
   <si>
     <t>买了3.2w，右侧上涨中</t>
-  </si>
-  <si>
-    <t>可以考虑加1w</t>
   </si>
   <si>
     <t>603087</t>
@@ -1233,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1288,7 +1282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1320,13 +1314,16 @@
       <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>300896</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>12.5</v>
@@ -1351,15 +1348,18 @@
         <v>45838</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>603195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>9</v>
@@ -1384,15 +1384,18 @@
         <v>45874</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>300760</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>8.9</v>
@@ -1417,13 +1420,10 @@
         <v>45838</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>300529</v>
       </c>
@@ -1455,8 +1455,11 @@
       <c r="J6" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>603605</v>
       </c>
@@ -1488,9 +1491,6 @@
       <c r="J7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
@@ -1525,10 +1525,10 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1560,6 +1560,9 @@
       <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -1594,15 +1597,15 @@
         <v>32</v>
       </c>
       <c r="K10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>12.9</v>
@@ -1627,10 +1630,7 @@
         <v>45762</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1638,7 +1638,7 @@
         <v>300628</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <v>12.1</v>
@@ -1663,18 +1663,18 @@
         <v>45868</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
@@ -1696,15 +1696,15 @@
         <v>45867</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C15" s="2">
         <v>11</v>
@@ -1726,15 +1726,15 @@
         <v>45873</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C16" s="2">
         <v>12</v>
@@ -1756,15 +1756,18 @@
         <v>45838</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>603833</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2">
         <v>10</v>
@@ -1789,15 +1792,18 @@
         <v>45838</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
@@ -1819,15 +1825,18 @@
         <v>45838</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -1849,18 +1858,15 @@
         <v>45838</v>
       </c>
       <c r="J19" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C20" s="2">
         <v>8</v>
@@ -1882,18 +1888,15 @@
         <v>45847</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
@@ -1915,18 +1918,18 @@
         <v>45861</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C22" s="2">
         <v>8</v>
@@ -1948,18 +1951,18 @@
         <v>45861</v>
       </c>
       <c r="J22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K22" t="s">
+      <c r="B23" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C23" s="2">
         <v>10</v>
@@ -1981,15 +1984,18 @@
         <v>45873</v>
       </c>
       <c r="J23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
@@ -2010,13 +2016,16 @@
       <c r="I24" s="4">
         <v>45873</v>
       </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2">
         <v>5.8</v>
@@ -2038,7 +2047,7 @@
         <v>45848</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2046,7 +2055,7 @@
         <v>603173</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2">
         <v>10</v>
@@ -2068,15 +2077,15 @@
         <v>45863</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2">
         <v>14</v>
@@ -2098,15 +2107,15 @@
         <v>45869</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2">
         <v>4.6</v>
@@ -2128,18 +2137,18 @@
         <v>45848</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2">
         <v>3.5</v>
@@ -2159,6 +2168,9 @@
       </c>
       <c r="I31" s="4">
         <v>45873</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2178,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A28 A26 A14:A16 A30:A31 A9:A11 A18:A24 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A18:A24 A9:A11 A30:A31 A14:A16 A26 A28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24165" windowHeight="9945"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>代码</t>
   </si>
@@ -237,6 +237,12 @@
     <t>宁德时代</t>
   </si>
   <si>
+    <t>603676</t>
+  </si>
+  <si>
+    <t>卫信康</t>
+  </si>
+  <si>
     <t>002648</t>
   </si>
   <si>
@@ -271,6 +277,27 @@
   </si>
   <si>
     <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>云南锗业</t>
+  </si>
+  <si>
+    <t>华钰矿业</t>
+  </si>
+  <si>
+    <t>华大智造</t>
+  </si>
+  <si>
+    <t>东方锆业</t>
+  </si>
+  <si>
+    <t>航天动力</t>
+  </si>
+  <si>
+    <t>钢研高纳</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2020,127 +2047,109 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>17</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>45848</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="C25" s="2">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>60</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <f>(D25+F25+G25)*2</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="4">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1">
-        <v>603173</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="2">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="I27" s="4">
-        <v>45863</v>
+        <v>45848</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="1">
+        <v>603173</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C28" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="I28" s="4">
+        <v>45863</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="2">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>30</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
         <v>45869</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="J29" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C30" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>84</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I30" s="4">
-        <v>45848</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2151,26 +2160,115 @@
         <v>80</v>
       </c>
       <c r="C31" s="2">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="1"/>
+        <f>(D31+F31+G31)*2</f>
         <v>4</v>
       </c>
       <c r="I31" s="4">
-        <v>45873</v>
+        <v>45848</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="K31" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>81</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
+        <f>(D32+F32+G32)*2</f>
+        <v>4</v>
+      </c>
+      <c r="I32" s="4">
+        <v>45873</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2276,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A18:A24 A9:A11 A30:A31 A14:A16 A26 A28" numberStoredAsText="1"/>
+    <ignoredError sqref="A29 A27 A14:A16 A31:A32 A9:A11 A18:A24 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>代码</t>
   </si>
@@ -51,7 +51,7 @@
     <t>加减分</t>
   </si>
   <si>
-    <t>仓位</t>
+    <t>权重</t>
   </si>
   <si>
     <t>评分日期</t>
@@ -60,7 +60,7 @@
     <t>当前计划</t>
   </si>
   <si>
-    <t>新计划（2025/8/5）</t>
+    <t>新计划（2025/8/9）</t>
   </si>
   <si>
     <t>000858</t>
@@ -72,9 +72,6 @@
     <t>买了2.5w，不确定白酒是否会继续下跌</t>
   </si>
   <si>
-    <t>跌了就买</t>
-  </si>
-  <si>
     <t>爱美客</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
     <t>买了4.1w，等反转</t>
   </si>
   <si>
+    <t>605117</t>
+  </si>
+  <si>
+    <t>德业股份</t>
+  </si>
+  <si>
+    <t>买了6.4w,等反转</t>
+  </si>
+  <si>
     <t>002714</t>
   </si>
   <si>
@@ -153,15 +159,6 @@
     <t>买了2.4w,右侧上涨中</t>
   </si>
   <si>
-    <t>605117</t>
-  </si>
-  <si>
-    <t>德业股份</t>
-  </si>
-  <si>
-    <t>买了6.4w,等反转</t>
-  </si>
-  <si>
     <t>002032</t>
   </si>
   <si>
@@ -267,6 +264,18 @@
     <t>下跌中，观察</t>
   </si>
   <si>
+    <t>000538</t>
+  </si>
+  <si>
+    <t>云南白药</t>
+  </si>
+  <si>
+    <t>603477</t>
+  </si>
+  <si>
+    <t>巨星农牧</t>
+  </si>
+  <si>
     <t>600763</t>
   </si>
   <si>
@@ -279,25 +288,76 @@
     <t>爱尔眼科</t>
   </si>
   <si>
+    <t>002594</t>
+  </si>
+  <si>
     <t>比亚迪</t>
   </si>
   <si>
+    <t>002428</t>
+  </si>
+  <si>
     <t>云南锗业</t>
   </si>
   <si>
+    <t>601020</t>
+  </si>
+  <si>
     <t>华钰矿业</t>
   </si>
   <si>
+    <t>688114</t>
+  </si>
+  <si>
     <t>华大智造</t>
   </si>
   <si>
+    <t>002167</t>
+  </si>
+  <si>
     <t>东方锆业</t>
   </si>
   <si>
+    <t>600343</t>
+  </si>
+  <si>
     <t>航天动力</t>
   </si>
   <si>
+    <t>300034</t>
+  </si>
+  <si>
     <t>钢研高纳</t>
+  </si>
+  <si>
+    <t>06862</t>
+  </si>
+  <si>
+    <t>海底捞</t>
+  </si>
+  <si>
+    <t>02313</t>
+  </si>
+  <si>
+    <t>申洲国际</t>
+  </si>
+  <si>
+    <t>03690</t>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>02020</t>
+  </si>
+  <si>
+    <t>安踏体育</t>
+  </si>
+  <si>
+    <t>00175</t>
+  </si>
+  <si>
+    <t>吉利汽车</t>
   </si>
 </sst>
 </file>
@@ -916,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +994,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1252,26 +1315,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.3727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.2545454545455" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7545454545455" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.8727272727273" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.7545454545455" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="4" customWidth="1"/>
     <col min="10" max="10" width="42" style="5" customWidth="1"/>
-    <col min="11" max="11" width="39.875" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="39.8727272727273" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.12727272727273" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1305,12 +1368,12 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1326,14 +1389,14 @@
         <v>67</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H2" s="3">
-        <f>(D2+F2+G2)*2</f>
-        <v>6</v>
+        <f>D2+F2+G2</f>
+        <v>2</v>
       </c>
       <c r="I2" s="4">
         <v>45838</v>
@@ -1341,8 +1404,9 @@
       <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="K2" s="6">
+        <f>H2*3</f>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1350,7 +1414,7 @@
         <v>300896</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>12.5</v>
@@ -1362,23 +1426,22 @@
         <v>127</v>
       </c>
       <c r="F3" s="3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H12" si="0">(D3+F3+G3)*2</f>
-        <v>12</v>
+        <f t="shared" ref="H3:H12" si="0">D3+F3+G3</f>
+        <v>6</v>
       </c>
       <c r="I3" s="4">
         <v>45838</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K12" si="1">H3*3</f>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1386,7 +1449,7 @@
         <v>603195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>9</v>
@@ -1398,31 +1461,32 @@
         <v>89</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I4" s="4">
         <v>45874</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>300760</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>8.9</v>
@@ -1434,20 +1498,22 @@
         <v>67</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
         <v>45838</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1455,7 +1521,7 @@
         <v>300529</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>10.2</v>
@@ -1467,31 +1533,30 @@
         <v>102</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4">
         <v>45838</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>603605</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
@@ -1503,20 +1568,22 @@
         <v>45</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="4">
         <v>45838</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1524,7 +1591,7 @@
         <v>300573</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>9.7</v>
@@ -1536,31 +1603,30 @@
         <v>71</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="4">
         <v>45838</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>11</v>
@@ -1574,29 +1640,28 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="4">
         <v>45867</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>9.1</v>
@@ -1610,29 +1675,28 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I10" s="4">
         <v>45867</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>12.9</v>
@@ -1646,18 +1710,20 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
         <v>45762</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1665,7 +1731,7 @@
         <v>300628</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>12.1</v>
@@ -1677,91 +1743,103 @@
         <v>87</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I12" s="4">
         <v>45868</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>71</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <f>D13+F13+G13</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>45873</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2">
+      <c r="K13" s="6">
+        <f>H13*3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2">
         <v>8</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>40</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" ref="H13:H31" si="1">(D14+F14+G14)*2</f>
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>45867</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>71</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
+      <c r="G15" s="3">
+        <v>-1</v>
+      </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>D15+F15+G15</f>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>45873</v>
+        <v>45867</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="6">
+        <f>H15*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C16" s="2">
         <v>12</v>
@@ -1773,20 +1851,24 @@
         <v>48</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-1</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="H16:H31" si="2">D16+F16+G16</f>
+        <v>2</v>
       </c>
       <c r="I16" s="4">
         <v>45838</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" ref="K16:K25" si="3">H16*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1794,43 +1876,44 @@
         <v>603833</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <v>45838</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
@@ -1842,28 +1925,32 @@
         <v>49</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="I18" s="4">
         <v>45838</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -1875,25 +1962,30 @@
         <v>60</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I19" s="4">
         <v>45838</v>
       </c>
       <c r="J19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C20" s="2">
         <v>8</v>
@@ -1905,25 +1997,29 @@
         <v>70</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I20" s="4">
         <v>45847</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
@@ -1938,25 +2034,26 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="I21" s="4">
         <v>45861</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C22" s="2">
         <v>8</v>
@@ -1968,28 +2065,29 @@
         <v>70</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I22" s="4">
         <v>45861</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" t="s">
-        <v>14</v>
+        <v>62</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C23" s="2">
         <v>10</v>
@@ -2001,28 +2099,29 @@
         <v>57</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I23" s="4">
         <v>45873</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
@@ -2034,25 +2133,26 @@
         <v>37</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I24" s="4">
         <v>45873</v>
       </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -2064,22 +2164,26 @@
         <v>60</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3">
-        <f>(D25+F25+G25)*2</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I25" s="4">
         <v>45877</v>
       </c>
+      <c r="K25" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C27" s="2">
         <v>5.8</v>
@@ -2093,11 +2197,15 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I27" s="4">
         <v>45848</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2105,7 +2213,7 @@
         <v>603173</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2">
         <v>10</v>
@@ -2119,19 +2227,23 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="I28" s="4">
         <v>45863</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C29" s="2">
         <v>14</v>
@@ -2145,130 +2257,369 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="I29" s="4">
         <v>45869</v>
       </c>
       <c r="J29" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>68</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>47</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="2">
         <v>4.6</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E33" s="2">
         <v>84</v>
       </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3">
-        <f>(D31+F31+G31)*2</f>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
+        <f>D33+F33+G33</f>
+        <v>2</v>
+      </c>
+      <c r="I33" s="4">
+        <v>45848</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" ref="K26:K42" si="4">H33*2</f>
         <v>4</v>
       </c>
-      <c r="I31" s="4">
-        <v>45848</v>
-      </c>
-      <c r="J31" s="5" t="s">
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>81</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
+        <f>D34+F34+G34</f>
+        <v>2</v>
+      </c>
+      <c r="I34" s="4">
+        <v>45873</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>45878</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="3">
+        <v>8</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="3">
+        <v>10</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="3">
+        <v>15</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>110</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+      <c r="I44" s="4">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>140</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4</v>
+      </c>
+      <c r="I45" s="4">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>90</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="I46" s="4">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>150</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4</v>
+      </c>
+      <c r="I47" s="4">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
         <v>60</v>
       </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>81</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3">
-        <f>(D32+F32+G32)*2</f>
-        <v>4</v>
-      </c>
-      <c r="I32" s="4">
-        <v>45873</v>
-      </c>
-      <c r="K32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H38" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="3">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>45878</v>
       </c>
     </row>
   </sheetData>
@@ -2276,7 +2627,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A29 A27 A14:A16 A31:A32 A9:A11 A18:A24 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A29 A27 A15:A16 A33:A34 A9:A11 A18:A25 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2290,7 +2641,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>代码</t>
   </si>
@@ -294,40 +294,61 @@
     <t>比亚迪</t>
   </si>
   <si>
+    <t>4.2w</t>
+  </si>
+  <si>
     <t>002428</t>
   </si>
   <si>
     <t>云南锗业</t>
   </si>
   <si>
+    <t>4.9w</t>
+  </si>
+  <si>
     <t>601020</t>
   </si>
   <si>
     <t>华钰矿业</t>
   </si>
   <si>
+    <t>4.6w</t>
+  </si>
+  <si>
     <t>688114</t>
   </si>
   <si>
     <t>华大智造</t>
   </si>
   <si>
+    <t>6.8w</t>
+  </si>
+  <si>
     <t>002167</t>
   </si>
   <si>
     <t>东方锆业</t>
   </si>
   <si>
+    <t>4.7w</t>
+  </si>
+  <si>
     <t>600343</t>
   </si>
   <si>
     <t>航天动力</t>
   </si>
   <si>
+    <t>2.8w</t>
+  </si>
+  <si>
     <t>300034</t>
   </si>
   <si>
     <t>钢研高纳</t>
+  </si>
+  <si>
+    <t>2.1w</t>
   </si>
   <si>
     <t>06862</t>
@@ -1317,8 +1338,8 @@
   <sheetPr/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1428,9 +1449,8 @@
       <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="3"/>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H12" si="0">D3+F3+G3</f>
+        <f t="shared" ref="H3:H13" si="0">D3+F3+G3</f>
         <v>6</v>
       </c>
       <c r="I3" s="4">
@@ -1440,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K12" si="1">H3*3</f>
+        <f t="shared" ref="K3:K13" si="1">H3*3</f>
         <v>18</v>
       </c>
     </row>
@@ -1489,21 +1509,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>3</v>
+      </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="4">
         <v>45838</v>
@@ -1513,7 +1532,7 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1535,13 +1554,12 @@
       <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="3"/>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I6" s="4">
-        <v>45838</v>
+        <v>45879</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>21</v>
@@ -1570,7 +1588,6 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3"/>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1605,7 +1622,6 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="3"/>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1640,7 +1656,6 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3"/>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1675,7 +1690,6 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3"/>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1710,7 +1724,6 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="3"/>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1783,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="3">
-        <f>D13+F13+G13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I13" s="4">
@@ -1793,7 +1806,7 @@
         <v>39</v>
       </c>
       <c r="K13" s="6">
-        <f>H13*3</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -1964,7 +1977,6 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="3"/>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2412,6 +2424,9 @@
       <c r="I36" s="4">
         <v>45878</v>
       </c>
+      <c r="J36" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="K36" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2419,13 +2434,19 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H37" s="3">
         <v>8</v>
+      </c>
+      <c r="I37" s="4">
+        <v>45878</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="K37" s="6">
         <f t="shared" si="4"/>
@@ -2434,13 +2455,19 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H38" s="3">
         <v>10</v>
+      </c>
+      <c r="I38" s="4">
+        <v>45878</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="4"/>
@@ -2449,13 +2476,19 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H39" s="3">
         <v>15</v>
+      </c>
+      <c r="I39" s="4">
+        <v>45878</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="4"/>
@@ -2464,13 +2497,19 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H40" s="3">
         <v>2</v>
+      </c>
+      <c r="I40" s="4">
+        <v>45878</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" si="4"/>
@@ -2479,13 +2518,19 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H41" s="3">
         <v>6</v>
+      </c>
+      <c r="I41" s="4">
+        <v>45878</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" si="4"/>
@@ -2494,13 +2539,19 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H42" s="3">
         <v>4</v>
+      </c>
+      <c r="I42" s="4">
+        <v>45878</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="K42" s="6">
         <f t="shared" si="4"/>
@@ -2509,10 +2560,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2">
         <v>9</v>
@@ -2532,10 +2583,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2">
         <v>9</v>
@@ -2555,10 +2606,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C46" s="2">
         <v>9</v>
@@ -2578,10 +2629,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2">
         <v>11</v>
@@ -2601,10 +2652,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2">
         <v>10</v>
@@ -2627,7 +2678,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A29 A27 A15:A16 A33:A34 A9:A11 A18:A25 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A18:A25 A9:A11 A33:A34 A15:A16 A27 A29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>代码</t>
   </si>
@@ -69,165 +69,102 @@
     <t>五粮液</t>
   </si>
   <si>
-    <t>买了2.5w，不确定白酒是否会继续下跌</t>
-  </si>
-  <si>
     <t>爱美客</t>
   </si>
   <si>
-    <t>买了6.9w，等反转</t>
-  </si>
-  <si>
     <t>公牛集团</t>
   </si>
   <si>
-    <t>买了6.7w，等反转</t>
-  </si>
-  <si>
     <t>迈瑞医疗</t>
   </si>
   <si>
-    <t>买了6.8w，等反转</t>
-  </si>
-  <si>
     <t>健帆生物</t>
   </si>
   <si>
-    <t>买了6.5w，等反转</t>
-  </si>
-  <si>
     <t>珀莱雅</t>
   </si>
   <si>
-    <t>买了5w，等反转</t>
-  </si>
-  <si>
     <t>兴齐眼药</t>
   </si>
   <si>
-    <t>买了6.4w，右侧上涨中</t>
-  </si>
-  <si>
     <t>600276</t>
   </si>
   <si>
     <t>恒瑞医药</t>
   </si>
   <si>
-    <t>买了2.2w，右侧上涨中</t>
-  </si>
-  <si>
     <t>603259</t>
   </si>
   <si>
     <t>药明康德</t>
   </si>
   <si>
-    <t>买了2.6w，右侧上涨中</t>
-  </si>
-  <si>
     <t>603129</t>
   </si>
   <si>
     <t>春风动力</t>
   </si>
   <si>
-    <t>买了4.5w，右侧上涨中</t>
-  </si>
-  <si>
     <t>亿联网络</t>
   </si>
   <si>
-    <t>买了4.1w，等反转</t>
-  </si>
-  <si>
     <t>605117</t>
   </si>
   <si>
     <t>德业股份</t>
   </si>
   <si>
-    <t>买了6.4w,等反转</t>
-  </si>
-  <si>
     <t>002714</t>
   </si>
   <si>
     <t>牧原股份</t>
   </si>
   <si>
-    <t>买了2.4w,右侧上涨中</t>
-  </si>
-  <si>
     <t>002032</t>
   </si>
   <si>
     <t>苏泊尔</t>
   </si>
   <si>
-    <t>买了2.1w，等反转</t>
-  </si>
-  <si>
     <t>欧派家居</t>
   </si>
   <si>
-    <t>买了4.5w，不确定房地产是否会继续下跌</t>
-  </si>
-  <si>
     <t>000983</t>
   </si>
   <si>
     <t>山西焦煤</t>
   </si>
   <si>
-    <t>买了2.3w，右侧上涨中</t>
-  </si>
-  <si>
     <t>002690</t>
   </si>
   <si>
     <t>美亚光电</t>
   </si>
   <si>
-    <t>买了6.2w，右侧上涨中</t>
-  </si>
-  <si>
     <t>605305</t>
   </si>
   <si>
     <t>中际联合</t>
   </si>
   <si>
-    <t>买了4.1w，右侧上涨中</t>
-  </si>
-  <si>
     <t>002773</t>
   </si>
   <si>
     <t>康弘药业</t>
   </si>
   <si>
-    <t>买了2.1w，右侧上涨中</t>
-  </si>
-  <si>
     <t>300558</t>
   </si>
   <si>
     <t>贝达药业</t>
   </si>
   <si>
-    <t>买了3.2w，右侧上涨中</t>
-  </si>
-  <si>
     <t>603087</t>
   </si>
   <si>
     <t>甘李药业</t>
   </si>
   <si>
-    <t>买了4.3w，右侧上涨中</t>
-  </si>
-  <si>
     <t>300750</t>
   </si>
   <si>
@@ -246,24 +183,15 @@
     <t>卫星化学</t>
   </si>
   <si>
-    <t>买了2w，右侧上涨中</t>
-  </si>
-  <si>
     <t>福斯达</t>
   </si>
   <si>
-    <t>不买，观察</t>
-  </si>
-  <si>
     <t>002847</t>
   </si>
   <si>
     <t>盐津铺子</t>
   </si>
   <si>
-    <t>下跌中，观察</t>
-  </si>
-  <si>
     <t>000538</t>
   </si>
   <si>
@@ -294,61 +222,40 @@
     <t>比亚迪</t>
   </si>
   <si>
-    <t>4.2w</t>
-  </si>
-  <si>
     <t>002428</t>
   </si>
   <si>
     <t>云南锗业</t>
   </si>
   <si>
-    <t>4.9w</t>
-  </si>
-  <si>
     <t>601020</t>
   </si>
   <si>
     <t>华钰矿业</t>
   </si>
   <si>
-    <t>4.6w</t>
-  </si>
-  <si>
     <t>688114</t>
   </si>
   <si>
     <t>华大智造</t>
   </si>
   <si>
-    <t>6.8w</t>
-  </si>
-  <si>
     <t>002167</t>
   </si>
   <si>
     <t>东方锆业</t>
   </si>
   <si>
-    <t>4.7w</t>
-  </si>
-  <si>
     <t>600343</t>
   </si>
   <si>
     <t>航天动力</t>
   </si>
   <si>
-    <t>2.8w</t>
-  </si>
-  <si>
     <t>300034</t>
   </si>
   <si>
     <t>钢研高纳</t>
-  </si>
-  <si>
-    <t>2.1w</t>
   </si>
   <si>
     <t>06862</t>
@@ -385,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -393,6 +300,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -547,12 +455,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -873,7 +787,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,16 +811,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -915,89 +829,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,13 +927,25 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1339,23 +1265,23 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.3727272727273" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3727272727273" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.2545454545455" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.2583333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.7545454545455" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.8727272727273" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.7545454545455" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7583333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.7583333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="4" customWidth="1"/>
-    <col min="10" max="10" width="42" style="5" customWidth="1"/>
-    <col min="11" max="11" width="39.8727272727273" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.12727272727273" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.9583333333333" style="5" customWidth="1"/>
+    <col min="11" max="11" width="39.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1394,7 +1320,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1422,8 +1348,8 @@
       <c r="I2" s="4">
         <v>45838</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
+      <c r="J2" s="10">
+        <v>2.5</v>
       </c>
       <c r="K2" s="6">
         <f>H2*3</f>
@@ -1434,8 +1360,8 @@
       <c r="A3" s="1">
         <v>300896</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>12.5</v>
@@ -1456,8 +1382,8 @@
       <c r="I3" s="4">
         <v>45838</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
+      <c r="J3" s="10">
+        <v>8.8</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" ref="K3:K13" si="1">H3*3</f>
@@ -1469,7 +1395,7 @@
         <v>603195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>9</v>
@@ -1493,8 +1419,8 @@
       <c r="I4" s="4">
         <v>45874</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
+      <c r="J4" s="11">
+        <v>6.75</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" si="1"/>
@@ -1505,14 +1431,14 @@
       <c r="A5" s="1">
         <v>300760</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
         <v>80</v>
@@ -1522,25 +1448,25 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4">
-        <v>45838</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
+        <v>45879</v>
+      </c>
+      <c r="J5" s="10">
+        <v>9.21</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>300529</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>10.2</v>
@@ -1561,8 +1487,8 @@
       <c r="I6" s="4">
         <v>45879</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>21</v>
+      <c r="J6" s="11">
+        <v>9.19</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="1"/>
@@ -1574,7 +1500,7 @@
         <v>603605</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
@@ -1595,8 +1521,8 @@
       <c r="I7" s="4">
         <v>45838</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>23</v>
+      <c r="J7" s="11">
+        <v>5.03</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="1"/>
@@ -1608,7 +1534,7 @@
         <v>300573</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>9.7</v>
@@ -1629,8 +1555,8 @@
       <c r="I8" s="4">
         <v>45838</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>25</v>
+      <c r="J8" s="11">
+        <v>6.36</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="1"/>
@@ -1639,10 +1565,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>11</v>
@@ -1663,8 +1589,8 @@
       <c r="I9" s="4">
         <v>45867</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>28</v>
+      <c r="J9" s="10">
+        <v>4.05</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="1"/>
@@ -1673,10 +1599,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>9.1</v>
@@ -1697,8 +1623,8 @@
       <c r="I10" s="4">
         <v>45867</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>31</v>
+      <c r="J10" s="11">
+        <v>5.32</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="1"/>
@@ -1707,10 +1633,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
         <v>12.9</v>
@@ -1731,8 +1657,8 @@
       <c r="I11" s="4">
         <v>45762</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>34</v>
+      <c r="J11" s="11">
+        <v>4.51</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="1"/>
@@ -1744,7 +1670,7 @@
         <v>300628</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
         <v>12.1</v>
@@ -1768,8 +1694,8 @@
       <c r="I12" s="4">
         <v>45868</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>36</v>
+      <c r="J12" s="11">
+        <v>4.12</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="1"/>
@@ -1778,44 +1704,44 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" s="4">
-        <v>45873</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>39</v>
+        <v>45880</v>
+      </c>
+      <c r="J13" s="11">
+        <v>8.44</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>8</v>
@@ -1839,8 +1765,8 @@
       <c r="I15" s="4">
         <v>45867</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>42</v>
+      <c r="J15" s="11">
+        <v>2.36</v>
       </c>
       <c r="K15" s="6">
         <f>H15*2</f>
@@ -1848,11 +1774,11 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="8" t="s">
-        <v>43</v>
+      <c r="A16" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>12</v>
@@ -1876,8 +1802,8 @@
       <c r="I16" s="4">
         <v>45838</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>45</v>
+      <c r="J16" s="11">
+        <v>2.13</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ref="K16:K25" si="3">H16*2</f>
@@ -1889,7 +1815,7 @@
         <v>603833</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
@@ -1913,8 +1839,8 @@
       <c r="I17" s="4">
         <v>45838</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>47</v>
+      <c r="J17" s="11">
+        <v>4.52</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="3"/>
@@ -1922,11 +1848,11 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="8" t="s">
-        <v>48</v>
+      <c r="A18" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
@@ -1950,8 +1876,8 @@
       <c r="I18" s="4">
         <v>45838</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>50</v>
+      <c r="J18" s="11">
+        <v>2.27</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="3"/>
@@ -1959,11 +1885,11 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="8" t="s">
-        <v>51</v>
+      <c r="A19" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -1984,8 +1910,8 @@
       <c r="I19" s="4">
         <v>45838</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>53</v>
+      <c r="J19" s="11">
+        <v>6.22</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="3"/>
@@ -1994,10 +1920,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2">
         <v>8</v>
@@ -2018,8 +1944,8 @@
       <c r="I20" s="4">
         <v>45847</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>56</v>
+      <c r="J20" s="11">
+        <v>4.07</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="3"/>
@@ -2028,10 +1954,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
@@ -2052,8 +1978,8 @@
       <c r="I21" s="4">
         <v>45861</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>59</v>
+      <c r="J21" s="11">
+        <v>2.1</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="3"/>
@@ -2062,10 +1988,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
         <v>8</v>
@@ -2086,8 +2012,8 @@
       <c r="I22" s="4">
         <v>45861</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>62</v>
+      <c r="J22" s="11">
+        <v>3.15</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="3"/>
@@ -2096,10 +2022,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2">
         <v>10</v>
@@ -2120,8 +2046,8 @@
       <c r="I23" s="4">
         <v>45873</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>65</v>
+      <c r="J23" s="11">
+        <v>4.27</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="3"/>
@@ -2130,10 +2056,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
@@ -2153,6 +2079,9 @@
       </c>
       <c r="I24" s="4">
         <v>45873</v>
+      </c>
+      <c r="J24" s="11">
+        <v>2.64</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="3"/>
@@ -2161,10 +2090,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -2185,17 +2114,20 @@
       <c r="I25" s="4">
         <v>45877</v>
       </c>
+      <c r="J25" s="11">
+        <v>3.08</v>
+      </c>
       <c r="K25" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2">
         <v>5.8</v>
@@ -2216,16 +2148,13 @@
       <c r="I27" s="4">
         <v>45848</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>603173</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2">
         <v>10</v>
@@ -2246,16 +2175,13 @@
       <c r="I28" s="4">
         <v>45863</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2">
         <v>14</v>
@@ -2276,16 +2202,13 @@
       <c r="I29" s="4">
         <v>45869</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -2309,10 +2232,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2">
         <v>7</v>
@@ -2333,10 +2256,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2">
         <v>4.6</v>
@@ -2357,8 +2280,8 @@
       <c r="I33" s="4">
         <v>45848</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>59</v>
+      <c r="J33" s="5">
+        <v>2.08</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ref="K26:K42" si="4">H33*2</f>
@@ -2367,10 +2290,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C34" s="2">
         <v>3.5</v>
@@ -2390,6 +2313,9 @@
       </c>
       <c r="I34" s="4">
         <v>45873</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2.08</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="4"/>
@@ -2398,10 +2324,10 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2">
         <v>6</v>
@@ -2424,9 +2350,7 @@
       <c r="I36" s="4">
         <v>45878</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="J36" s="5"/>
       <c r="K36" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2434,10 +2358,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="H37" s="3">
         <v>8</v>
@@ -2445,9 +2369,7 @@
       <c r="I37" s="4">
         <v>45878</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="J37" s="5"/>
       <c r="K37" s="6">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -2455,10 +2377,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="H38" s="3">
         <v>10</v>
@@ -2466,9 +2388,7 @@
       <c r="I38" s="4">
         <v>45878</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="J38" s="5"/>
       <c r="K38" s="6">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -2476,10 +2396,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="H39" s="3">
         <v>15</v>
@@ -2487,9 +2407,7 @@
       <c r="I39" s="4">
         <v>45878</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="J39" s="5"/>
       <c r="K39" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -2497,10 +2415,10 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="H40" s="3">
         <v>2</v>
@@ -2508,9 +2426,7 @@
       <c r="I40" s="4">
         <v>45878</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="J40" s="5"/>
       <c r="K40" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2518,10 +2434,10 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="H41" s="3">
         <v>6</v>
@@ -2529,9 +2445,7 @@
       <c r="I41" s="4">
         <v>45878</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="J41" s="5"/>
       <c r="K41" s="6">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2539,10 +2453,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="H42" s="3">
         <v>4</v>
@@ -2550,9 +2464,7 @@
       <c r="I42" s="4">
         <v>45878</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="J42" s="5"/>
       <c r="K42" s="6">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -2560,10 +2472,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2">
         <v>9</v>
@@ -2583,10 +2495,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2">
         <v>9</v>
@@ -2606,10 +2518,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2">
         <v>9</v>
@@ -2629,10 +2541,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2">
         <v>11</v>
@@ -2652,10 +2564,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2">
         <v>10</v>
@@ -2678,7 +2590,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A18:A25 A9:A11 A33:A34 A15:A16 A27 A29" numberStoredAsText="1"/>
+    <ignoredError sqref="A29 A27 A15:A16 A33:A34 A9:A11 A18:A25 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2692,7 +2604,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>代码</t>
   </si>
@@ -57,10 +57,10 @@
     <t>评分日期</t>
   </si>
   <si>
-    <t>当前计划</t>
-  </si>
-  <si>
-    <t>新计划（2025/8/9）</t>
+    <t>持仓</t>
+  </si>
+  <si>
+    <t>目标</t>
   </si>
   <si>
     <t>000858</t>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>巨星农牧</t>
+  </si>
+  <si>
+    <t>000596</t>
+  </si>
+  <si>
+    <t>古井贡酒</t>
+  </si>
+  <si>
+    <t>601991</t>
+  </si>
+  <si>
+    <t>大唐发电</t>
   </si>
   <si>
     <t>600763</t>
@@ -455,12 +467,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -787,7 +817,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,16 +841,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -829,89 +859,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,10 +966,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1262,10 +1298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,10 +1356,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2">
@@ -1339,28 +1375,28 @@
         <v>2</v>
       </c>
       <c r="G2" s="3">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H2" s="3">
         <f>D2+F2+G2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="4">
         <v>45838</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="12">
         <v>2.5</v>
       </c>
       <c r="K2" s="6">
         <f>H2*3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>300896</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2">
@@ -1375,26 +1411,29 @@
       <c r="F3" s="3">
         <v>4</v>
       </c>
+      <c r="G3" s="3">
+        <v>-1</v>
+      </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H13" si="0">D3+F3+G3</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="4">
         <v>45838</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="12">
         <v>8.8</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" ref="K3:K13" si="1">H3*3</f>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>603195</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2">
@@ -1409,29 +1448,27 @@
       <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
-        <v>-1</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="4">
         <v>45874</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="13">
         <v>6.75</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>300760</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2">
@@ -1446,26 +1483,29 @@
       <c r="F5" s="3">
         <v>3</v>
       </c>
+      <c r="G5" s="3">
+        <v>-1</v>
+      </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="4">
         <v>45879</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="12">
         <v>9.21</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>300529</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2">
@@ -1480,26 +1520,29 @@
       <c r="F6" s="3">
         <v>4</v>
       </c>
+      <c r="G6" s="3">
+        <v>-1</v>
+      </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="4">
         <v>45879</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="13">
         <v>9.19</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>603605</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2">
@@ -1521,7 +1564,7 @@
       <c r="I7" s="4">
         <v>45838</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="13">
         <v>5.03</v>
       </c>
       <c r="K7" s="6">
@@ -1533,7 +1576,7 @@
       <c r="A8" s="1">
         <v>300573</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
@@ -1548,26 +1591,29 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="4">
         <v>45838</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="13">
         <v>6.36</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2">
@@ -1582,26 +1628,29 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="4">
         <v>45867</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="12">
         <v>4.05</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2">
@@ -1616,26 +1665,29 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="4">
         <v>45867</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="13">
         <v>5.32</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2">
@@ -1650,26 +1702,29 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="4">
         <v>45762</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="13">
         <v>4.51</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>300628</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2">
@@ -1685,28 +1740,28 @@
         <v>3</v>
       </c>
       <c r="G12" s="3">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="4">
         <v>45868</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="13">
         <v>4.12</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
@@ -1721,26 +1776,29 @@
       <c r="F13" s="3">
         <v>4</v>
       </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="4">
         <v>45880</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="13">
         <v>8.44</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
@@ -1765,7 +1823,7 @@
       <c r="I15" s="4">
         <v>45867</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="13">
         <v>2.36</v>
       </c>
       <c r="K15" s="6">
@@ -1774,10 +1832,10 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="2">
@@ -1792,29 +1850,27 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="3">
-        <v>-1</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3">
         <f t="shared" ref="H16:H31" si="2">D16+F16+G16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="4">
         <v>45838</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="13">
         <v>2.13</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ref="K16:K25" si="3">H16*2</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>603833</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="2">
@@ -1839,7 +1895,7 @@
       <c r="I17" s="4">
         <v>45838</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="13">
         <v>4.52</v>
       </c>
       <c r="K17" s="6">
@@ -1848,10 +1904,10 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2">
@@ -1867,28 +1923,28 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <v>45838</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="13">
         <v>2.27</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="2">
@@ -1910,7 +1966,7 @@
       <c r="I19" s="4">
         <v>45838</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="13">
         <v>6.22</v>
       </c>
       <c r="K19" s="6">
@@ -1922,7 +1978,7 @@
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="2">
@@ -1937,26 +1993,29 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
       <c r="H20" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="4">
         <v>45847</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="13">
         <v>4.07</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2">
@@ -1971,26 +2030,29 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
       <c r="H21" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="4">
         <v>45861</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="13">
         <v>2.1</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="2">
@@ -2005,26 +2067,29 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="4">
         <v>45861</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="13">
         <v>3.15</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="2">
@@ -2039,19 +2104,22 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" s="4">
         <v>45873</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="13">
         <v>4.27</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2080,7 +2148,7 @@
       <c r="I24" s="4">
         <v>45873</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="13">
         <v>2.64</v>
       </c>
       <c r="K24" s="6">
@@ -2092,7 +2160,7 @@
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2">
@@ -2107,26 +2175,29 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
+      <c r="G25" s="3">
+        <v>-1</v>
+      </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="4">
         <v>45877</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="13">
         <v>3.08</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="2">
@@ -2153,7 +2224,7 @@
       <c r="A28" s="1">
         <v>603173</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="2">
@@ -2168,9 +2239,12 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
       <c r="H28" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="4">
         <v>45863</v>
@@ -2180,7 +2254,7 @@
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="2">
@@ -2195,9 +2269,12 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
       <c r="H29" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" s="4">
         <v>45869</v>
@@ -2207,7 +2284,7 @@
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="2">
@@ -2230,11 +2307,11 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="2">
@@ -2253,267 +2330,251 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="I31" s="4">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <v>67</v>
+      </c>
+      <c r="I32" s="4">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C33" s="2">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2">
+        <v>90</v>
+      </c>
+      <c r="I33" s="4">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2">
         <v>4.6</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D35" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E35" s="2">
         <v>84</v>
       </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
-      <c r="H33" s="3">
-        <f>D33+F33+G33</f>
-        <v>2</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3">
+        <f>D35+F35+G35</f>
+        <v>2</v>
+      </c>
+      <c r="I35" s="4">
         <v>45848</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J35" s="5">
         <v>2.08</v>
       </c>
-      <c r="K33" s="6">
-        <f t="shared" ref="K26:K42" si="4">H33*2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>81</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
-      <c r="H34" s="3">
-        <f>D34+F34+G34</f>
-        <v>2</v>
-      </c>
-      <c r="I34" s="4">
-        <v>45873</v>
-      </c>
-      <c r="J34" s="5">
-        <v>2.08</v>
-      </c>
-      <c r="K34" s="6">
-        <f t="shared" si="4"/>
+      <c r="K35" s="6">
+        <f t="shared" ref="K34:K44" si="4">H35*2</f>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C36" s="2">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="3">
+        <f>D36+F36+G36</f>
         <v>2</v>
       </c>
       <c r="I36" s="4">
-        <v>45878</v>
-      </c>
-      <c r="J36" s="5"/>
+        <v>45873</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2.08</v>
+      </c>
       <c r="K36" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="3">
-        <v>8</v>
-      </c>
-      <c r="I37" s="4">
-        <v>45878</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-    </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C38" s="2">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
       <c r="H38" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I38" s="4">
         <v>45878</v>
       </c>
-      <c r="J38" s="5"/>
       <c r="K38" s="6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="11" t="s">
         <v>69</v>
       </c>
       <c r="H39" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I39" s="4">
         <v>45878</v>
       </c>
-      <c r="J39" s="5"/>
       <c r="K39" s="6">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H40" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I40" s="4">
         <v>45878</v>
       </c>
-      <c r="J40" s="5"/>
       <c r="K40" s="6">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H41" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I41" s="4">
         <v>45878</v>
       </c>
-      <c r="J41" s="5"/>
       <c r="K41" s="6">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H42" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42" s="4">
         <v>45878</v>
       </c>
-      <c r="J42" s="5"/>
       <c r="K42" s="6">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6</v>
+      </c>
+      <c r="I43" s="4">
+        <v>45878</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="2">
-        <v>9</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2">
-        <v>110</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4</v>
       </c>
       <c r="I44" s="4">
         <v>45878</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="2">
-        <v>9</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <v>140</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4</v>
-      </c>
-      <c r="I45" s="4">
-        <v>45878</v>
+      <c r="K44" s="6">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2530,10 +2591,10 @@
         <v>2</v>
       </c>
       <c r="E46" s="2">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F46" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" s="4">
         <v>45878</v>
@@ -2547,13 +2608,13 @@
         <v>83</v>
       </c>
       <c r="C47" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" s="3">
         <v>2</v>
       </c>
       <c r="E47" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F47" s="3">
         <v>4</v>
@@ -2570,18 +2631,64 @@
         <v>85</v>
       </c>
       <c r="C48" s="2">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>90</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="I48" s="4">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>150</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4</v>
+      </c>
+      <c r="I49" s="4">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="2">
         <v>10</v>
       </c>
-      <c r="D48" s="3">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
         <v>60</v>
       </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4">
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
         <v>45878</v>
       </c>
     </row>
@@ -2590,7 +2697,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A29 A27 A15:A16 A33:A34 A9:A11 A18:A25 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A18:A25 A9:A11 A35:A36 A15:A16 A27 A29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>代码</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>601888</t>
+  </si>
+  <si>
+    <t>中国中免</t>
   </si>
   <si>
     <t>002594</t>
@@ -1298,10 +1304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1448,7 +1454,6 @@
       <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3"/>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1850,7 +1855,6 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="3"/>
       <c r="H16" s="3">
         <f t="shared" ref="H16:H31" si="2">D16+F16+G16</f>
         <v>3</v>
@@ -1923,11 +1927,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="4">
         <v>45838</v>
@@ -1937,7 +1941,7 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2385,11 +2389,11 @@
         <v>84</v>
       </c>
       <c r="F35" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="3">
         <f>D35+F35+G35</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35" s="4">
         <v>45848</v>
@@ -2398,8 +2402,8 @@
         <v>2.08</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" ref="K34:K44" si="4">H35*2</f>
-        <v>4</v>
+        <f>H35*2</f>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2419,11 +2423,11 @@
         <v>81</v>
       </c>
       <c r="F36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3">
         <f>D36+F36+G36</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" s="4">
         <v>45873</v>
@@ -2432,59 +2436,75 @@
         <v>2.08</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1" t="s">
+        <f>H36*2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B37" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="2">
-        <v>6</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="C37" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
-        <v>2</v>
-      </c>
-      <c r="I38" s="4">
-        <v>45878</v>
-      </c>
-      <c r="K38" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
+      <c r="E37" s="2">
+        <v>55</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="3">
+        <f>D37+F37+G37</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>45756</v>
+      </c>
+      <c r="K37" s="6">
+        <f>H37*2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="C39" s="2">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
       <c r="H39" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I39" s="4">
         <v>45878</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" ref="K38:K45" si="4">H39*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2495,14 +2515,14 @@
         <v>71</v>
       </c>
       <c r="H40" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I40" s="4">
         <v>45878</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2513,50 +2533,50 @@
         <v>73</v>
       </c>
       <c r="H41" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I41" s="4">
         <v>45878</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H42" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I42" s="4">
         <v>45878</v>
       </c>
       <c r="K42" s="6">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H43" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I43" s="4">
         <v>45878</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2567,37 +2587,32 @@
         <v>79</v>
       </c>
       <c r="H44" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I44" s="4">
         <v>45878</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4</v>
+      </c>
+      <c r="I45" s="4">
+        <v>45878</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="4"/>
         <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="2">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2">
-        <v>110</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3</v>
-      </c>
-      <c r="I46" s="4">
-        <v>45878</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2614,10 +2629,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="2">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F47" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" s="4">
         <v>45878</v>
@@ -2637,10 +2652,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="2">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F48" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I48" s="4">
         <v>45878</v>
@@ -2654,16 +2669,16 @@
         <v>87</v>
       </c>
       <c r="C49" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
       </c>
       <c r="E49" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F49" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49" s="4">
         <v>45878</v>
@@ -2677,18 +2692,41 @@
         <v>89</v>
       </c>
       <c r="C50" s="2">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>150</v>
+      </c>
+      <c r="F50" s="3">
+        <v>4</v>
+      </c>
+      <c r="I50" s="4">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="2">
         <v>10</v>
       </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
         <v>60</v>
       </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4">
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
         <v>45878</v>
       </c>
     </row>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1770,13 +1770,13 @@
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
@@ -1789,7 +1789,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="4">
-        <v>45880</v>
+        <v>45883</v>
       </c>
       <c r="J13" s="13">
         <v>8.44</v>
@@ -2097,10 +2097,10 @@
         <v>44</v>
       </c>
       <c r="C23" s="2">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
         <v>57</v>
@@ -2113,17 +2113,17 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="4">
-        <v>45873</v>
+        <v>45883</v>
       </c>
       <c r="J23" s="13">
         <v>4.27</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2551,14 +2551,14 @@
         <v>75</v>
       </c>
       <c r="H42" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I42" s="4">
         <v>45878</v>
       </c>
       <c r="K42" s="6">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:11">

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>代码</t>
   </si>
@@ -48,7 +48,16 @@
     <t>分权重</t>
   </si>
   <si>
-    <t>加减分</t>
+    <t>业绩</t>
+  </si>
+  <si>
+    <t>行业</t>
+  </si>
+  <si>
+    <t>情绪</t>
+  </si>
+  <si>
+    <t>预期</t>
   </si>
   <si>
     <t>权重</t>
@@ -177,6 +186,24 @@
     <t>卫信康</t>
   </si>
   <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
+    <t>300015</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>601888</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
     <t>002648</t>
   </si>
   <si>
@@ -214,24 +241,6 @@
   </si>
   <si>
     <t>大唐发电</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>通策医疗</t>
-  </si>
-  <si>
-    <t>300015</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>601888</t>
-  </si>
-  <si>
-    <t>中国中免</t>
   </si>
   <si>
     <t>002594</t>
@@ -947,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,6 +990,9 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,6 +1000,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1304,29 +1319,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.2583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.7583333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.7583333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.9583333333333" style="5" customWidth="1"/>
-    <col min="11" max="11" width="39.875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.8583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.41666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.79166666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.55833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.16666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.975" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.06666666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.69166666666667" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.70833333333333" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.325" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.325" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,22 +1369,31 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="14" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>9.9</v>
@@ -1380,30 +1407,36 @@
       <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="3">
-        <v>-1</v>
-      </c>
       <c r="H2" s="3">
-        <f>D2+F2+G2</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="3">
+        <f>D2+F2+I2+G2+H2+J2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
         <v>45838</v>
       </c>
-      <c r="J2" s="12">
+      <c r="M2" s="13">
         <v>2.5</v>
       </c>
-      <c r="K2" s="6">
-        <f>H2*3</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2" s="6">
+        <f>K2*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>300896</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>12.5</v>
@@ -1421,26 +1454,35 @@
         <v>-1</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H13" si="0">D3+F3+G3</f>
-        <v>5</v>
-      </c>
-      <c r="I3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K25" si="0">D3+F3+I3+G3+H3+J3</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="4">
         <v>45838</v>
       </c>
-      <c r="J3" s="12">
+      <c r="M3" s="13">
         <v>8.8</v>
       </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K13" si="1">H3*3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3" s="6">
+        <f t="shared" ref="N3:N13" si="1">K3*2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>603195</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>9</v>
@@ -1455,1278 +1497,1480 @@
         <v>3</v>
       </c>
       <c r="H4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L4" s="4">
+        <v>45874</v>
+      </c>
+      <c r="M4" s="14">
+        <v>6.75</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>300760</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>45879</v>
+      </c>
+      <c r="M5" s="13">
+        <v>9.21</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>300529</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>102</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>45879</v>
+      </c>
+      <c r="M6" s="14">
+        <v>9.19</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>603605</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45838</v>
+      </c>
+      <c r="M7" s="14">
+        <v>5.03</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>300573</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>71</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L8" s="4">
+        <v>45838</v>
+      </c>
+      <c r="M8" s="14">
+        <v>6.36</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L9" s="4">
+        <v>45867</v>
+      </c>
+      <c r="M9" s="13">
+        <v>4.05</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L10" s="4">
+        <v>45867</v>
+      </c>
+      <c r="M10" s="14">
+        <v>5.32</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I4" s="4">
-        <v>45874</v>
-      </c>
-      <c r="J4" s="13">
-        <v>6.75</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="L11" s="4">
+        <v>45762</v>
+      </c>
+      <c r="M11" s="14">
+        <v>4.51</v>
+      </c>
+      <c r="N11" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>300760</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>300628</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>87</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>45868</v>
+      </c>
+      <c r="M12" s="14">
+        <v>4.12</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>117</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L13" s="4">
+        <v>45883</v>
+      </c>
+      <c r="M13" s="14">
+        <v>8.44</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>45867</v>
+      </c>
+      <c r="M15" s="14">
+        <v>2.36</v>
+      </c>
+      <c r="N15" s="6">
+        <f>K15*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>45838</v>
+      </c>
+      <c r="M16" s="14">
+        <v>2.13</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" ref="N16:N25" si="2">K16*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>603833</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>80</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>45838</v>
+      </c>
+      <c r="M17" s="14">
+        <v>4.52</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>80</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>49</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>45838</v>
+      </c>
+      <c r="M18" s="14">
+        <v>2.27</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>60</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>45838</v>
+      </c>
+      <c r="M19" s="14">
+        <v>6.22</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>70</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>45847</v>
+      </c>
+      <c r="M20" s="14">
+        <v>4.07</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I5" s="4">
-        <v>45879</v>
-      </c>
-      <c r="J5" s="12">
-        <v>9.21</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>300529</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10.2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>102</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="L21" s="4">
+        <v>45861</v>
+      </c>
+      <c r="M21" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>70</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I6" s="4">
-        <v>45879</v>
-      </c>
-      <c r="J6" s="13">
-        <v>9.19</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>603605</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="L22" s="4">
+        <v>45861</v>
+      </c>
+      <c r="M22" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>57</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L23" s="4">
+        <v>45883</v>
+      </c>
+      <c r="M23" s="14">
+        <v>4.27</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>37</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I7" s="4">
-        <v>45838</v>
-      </c>
-      <c r="J7" s="13">
-        <v>5.03</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>300573</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="L24" s="4">
+        <v>45873</v>
+      </c>
+      <c r="M24" s="14">
+        <v>2.64</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>60</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>45877</v>
+      </c>
+      <c r="M25" s="14">
+        <v>3.08</v>
+      </c>
+      <c r="N25" s="15">
+        <f>K25*2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>84</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <f>D26+F26+I26+G26+H26+J26</f>
+        <v>2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>45848</v>
+      </c>
+      <c r="M26" s="5">
+        <v>2.08</v>
+      </c>
+      <c r="N26" s="15">
+        <f>K26*2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>81</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <f>D27+F27+I27+G27+H27+J27</f>
+        <v>2</v>
+      </c>
+      <c r="L27" s="4">
+        <v>45873</v>
+      </c>
+      <c r="M27" s="5">
+        <v>2.08</v>
+      </c>
+      <c r="N27" s="15">
+        <f>K27*2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>55</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <f>D28+F28+I28+G28+H28+J28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>45756</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2.46</v>
+      </c>
+      <c r="N28" s="6">
+        <f>K28*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="12" customHeight="1"/>
+    <row r="30" spans="2:2">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>17</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" ref="K35:K45" si="3">D35+F35+I35+G35+H35+J35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>603173</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
         <v>18</v>
       </c>
-      <c r="C8" s="2">
-        <v>9.7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>71</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I8" s="4">
-        <v>45838</v>
-      </c>
-      <c r="J8" s="13">
-        <v>6.36</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
-        <v>45867</v>
-      </c>
-      <c r="J9" s="12">
-        <v>4.05</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I10" s="4">
-        <v>45867</v>
-      </c>
-      <c r="J10" s="13">
-        <v>5.32</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12.9</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <v>45762</v>
-      </c>
-      <c r="J11" s="13">
-        <v>4.51</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>300628</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>87</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I12" s="4">
-        <v>45868</v>
-      </c>
-      <c r="J12" s="13">
-        <v>4.12</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>117</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I13" s="4">
-        <v>45883</v>
-      </c>
-      <c r="J13" s="13">
-        <v>8.44</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="3">
-        <f>D15+F15+G15</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>45867</v>
-      </c>
-      <c r="J15" s="13">
-        <v>2.36</v>
-      </c>
-      <c r="K15" s="6">
-        <f>H15*2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>48</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" ref="H16:H31" si="2">D16+F16+G16</f>
-        <v>3</v>
-      </c>
-      <c r="I16" s="4">
-        <v>45838</v>
-      </c>
-      <c r="J16" s="13">
-        <v>2.13</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" ref="K16:K25" si="3">H16*2</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>603833</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>80</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>-2</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
-        <v>45838</v>
-      </c>
-      <c r="J17" s="13">
-        <v>4.52</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>49</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I18" s="4">
-        <v>45838</v>
-      </c>
-      <c r="J18" s="13">
-        <v>2.27</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="L36" s="4">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="2">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>30</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>60</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I19" s="4">
-        <v>45838</v>
-      </c>
-      <c r="J19" s="13">
-        <v>6.22</v>
-      </c>
-      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>68</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>70</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I20" s="4">
-        <v>45847</v>
-      </c>
-      <c r="J20" s="13">
-        <v>4.07</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>26</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I21" s="4">
-        <v>45861</v>
-      </c>
-      <c r="J21" s="13">
-        <v>2.1</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>70</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I22" s="4">
-        <v>45861</v>
-      </c>
-      <c r="J22" s="13">
-        <v>3.15</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>57</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I23" s="4">
-        <v>45883</v>
-      </c>
-      <c r="J23" s="13">
-        <v>4.27</v>
-      </c>
-      <c r="K23" s="6">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>37</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I24" s="4">
-        <v>45873</v>
-      </c>
-      <c r="J24" s="13">
-        <v>2.64</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
         <v>47</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>60</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I25" s="4">
-        <v>45877</v>
-      </c>
-      <c r="J25" s="13">
-        <v>3.08</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>17</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1">
-        <v>603173</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I28" s="4">
-        <v>45863</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2">
-        <v>14</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>30</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I29" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>68</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I30" s="4">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="2">
-        <v>7</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>47</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="4">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="2">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2">
-        <v>67</v>
-      </c>
-      <c r="I32" s="4">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2">
-        <v>90</v>
-      </c>
-      <c r="I33" s="4">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>84</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3">
-        <f>D35+F35+G35</f>
-        <v>3</v>
-      </c>
-      <c r="I35" s="4">
-        <v>45848</v>
-      </c>
-      <c r="J35" s="5">
-        <v>2.08</v>
-      </c>
-      <c r="K35" s="6">
-        <f>H35*2</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>81</v>
-      </c>
-      <c r="F36" s="3">
-        <v>3</v>
-      </c>
-      <c r="H36" s="3">
-        <f>D36+F36+G36</f>
-        <v>3</v>
-      </c>
-      <c r="I36" s="4">
-        <v>45873</v>
-      </c>
-      <c r="J36" s="5">
-        <v>2.08</v>
-      </c>
-      <c r="K36" s="6">
-        <f>H36*2</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>55</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H37" s="3">
-        <f>D37+F37+G37</f>
-        <v>1</v>
-      </c>
-      <c r="I37" s="4">
-        <v>45756</v>
-      </c>
-      <c r="K37" s="6">
-        <f>H37*2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="2">
-        <v>6</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2</v>
-      </c>
-      <c r="I39" s="4">
+      <c r="K39" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L39" s="4">
         <v>45878</v>
       </c>
-      <c r="K39" s="6">
-        <f t="shared" ref="K38:K45" si="4">H39*2</f>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <v>67</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="2">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2">
+        <v>90</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2</v>
+      </c>
+      <c r="L47" s="4">
+        <v>45878</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" ref="N46:N53" si="4">K47*2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="3">
+    <row r="48" spans="1:14">
+      <c r="A48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="3">
         <v>8</v>
       </c>
-      <c r="I40" s="4">
+      <c r="L48" s="4">
         <v>45878</v>
       </c>
-      <c r="K40" s="6">
+      <c r="N48" s="6">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="3">
+    <row r="49" spans="1:14">
+      <c r="A49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49" s="3">
         <v>10</v>
       </c>
-      <c r="I41" s="4">
+      <c r="L49" s="4">
         <v>45878</v>
       </c>
-      <c r="K41" s="6">
+      <c r="N49" s="6">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="3">
+    <row r="50" spans="1:14">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" s="3">
         <v>20</v>
       </c>
-      <c r="I42" s="4">
+      <c r="L50" s="4">
         <v>45878</v>
       </c>
-      <c r="K42" s="6">
+      <c r="N50" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2</v>
-      </c>
-      <c r="I43" s="4">
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51" s="3">
+        <v>2</v>
+      </c>
+      <c r="L51" s="4">
         <v>45878</v>
       </c>
-      <c r="K43" s="6">
+      <c r="N51" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="3">
+    <row r="52" spans="1:14">
+      <c r="A52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K52" s="3">
         <v>6</v>
       </c>
-      <c r="I44" s="4">
+      <c r="L52" s="4">
         <v>45878</v>
       </c>
-      <c r="K44" s="6">
+      <c r="N52" s="6">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H45" s="3">
+    <row r="53" spans="1:14">
+      <c r="A53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K53" s="3">
         <v>4</v>
       </c>
-      <c r="I45" s="4">
+      <c r="L53" s="4">
         <v>45878</v>
       </c>
-      <c r="K45" s="6">
+      <c r="N53" s="6">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="2">
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="2">
         <v>9</v>
       </c>
-      <c r="D47" s="3">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2">
         <v>110</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F55" s="3">
         <v>3</v>
       </c>
-      <c r="I47" s="4">
+      <c r="L55" s="4">
         <v>45878</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="2">
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="2">
         <v>9</v>
       </c>
-      <c r="D48" s="3">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
         <v>140</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F56" s="3">
         <v>4</v>
       </c>
-      <c r="I48" s="4">
+      <c r="L56" s="4">
         <v>45878</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="2">
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="2">
         <v>9</v>
       </c>
-      <c r="D49" s="3">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2">
         <v>90</v>
       </c>
-      <c r="F49" s="3">
-        <v>2</v>
-      </c>
-      <c r="I49" s="4">
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="L57" s="4">
         <v>45878</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="2">
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="2">
         <v>11</v>
       </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
         <v>150</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F58" s="3">
         <v>4</v>
       </c>
-      <c r="I50" s="4">
+      <c r="L58" s="4">
         <v>45878</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="2">
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="2">
         <v>10</v>
       </c>
-      <c r="D51" s="3">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2">
         <v>60</v>
       </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4">
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="L59" s="4">
         <v>45878</v>
       </c>
     </row>
@@ -2735,7 +2979,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A18:A25 A9:A11 A35:A36 A15:A16 A27 A29" numberStoredAsText="1"/>
+    <ignoredError sqref="A35 A37 A15:A16 A9:A11 A18:A25 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="23410" windowHeight="13730"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>代码</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>目标</t>
+  </si>
+  <si>
+    <t>计划</t>
   </si>
   <si>
     <t>000858</t>
@@ -956,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -999,10 +1002,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1319,32 +1325,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.41666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.79166666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.55833333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.16666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.975" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.06666666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.69166666666667" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.70833333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3454545454545" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.41818181818182" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.79090909090909" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.55454545454545" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.16363636363636" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.97272727272727" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.06363636363636" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.87272727272727" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.69090909090909" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.70909090909091" style="3" customWidth="1"/>
     <col min="12" max="12" width="17" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.325" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.325" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.32727272727273" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.32727272727273" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.12727272727273" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,13 +1393,16 @@
       <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="16" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>9.9</v>
@@ -1405,38 +1414,35 @@
         <v>67</v>
       </c>
       <c r="F2" s="3">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3">
         <v>-1</v>
       </c>
       <c r="K2" s="3">
         <f>D2+F2+I2+G2+H2+J2</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" s="4">
         <v>45838</v>
       </c>
       <c r="M2" s="13">
+        <v>2.46</v>
+      </c>
+      <c r="N2" s="14">
+        <f>K2*2</f>
+        <v>8</v>
+      </c>
+      <c r="O2" s="15">
         <v>2.5</v>
       </c>
-      <c r="N2" s="6">
-        <f>K2*2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>300896</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>12.5</v>
@@ -1448,41 +1454,40 @@
         <v>127</v>
       </c>
       <c r="F3" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3">
         <v>-1</v>
       </c>
-      <c r="H3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>-1</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K25" si="0">D3+F3+I3+G3+H3+J3</f>
-        <v>4</v>
+        <f t="shared" ref="K3:K28" si="0">D3+F3+I3+G3+H3+J3</f>
+        <v>8</v>
       </c>
       <c r="L3" s="4">
         <v>45838</v>
       </c>
       <c r="M3" s="13">
-        <v>8.8</v>
+        <v>8.78</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" ref="N3:N13" si="1">K3*2</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>16</v>
+      </c>
+      <c r="O3" s="15">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>603195</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>9</v>
@@ -1494,30 +1499,27 @@
         <v>89</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L4" s="4">
         <v>45874</v>
       </c>
-      <c r="M4" s="14">
-        <v>6.75</v>
+      <c r="M4" s="16">
+        <v>6.65</v>
       </c>
       <c r="N4" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="O4" s="15">
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1525,7 +1527,7 @@
         <v>300760</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
@@ -1537,41 +1539,37 @@
         <v>80</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3">
         <v>-1</v>
       </c>
-      <c r="H5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-1</v>
-      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L5" s="4">
         <v>45879</v>
       </c>
       <c r="M5" s="13">
-        <v>9.21</v>
+        <v>9.18</v>
       </c>
       <c r="N5" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>300529</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>10.2</v>
@@ -1583,33 +1581,32 @@
         <v>102</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="3">
         <v>-1</v>
       </c>
-      <c r="H6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>-1</v>
-      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L6" s="4">
         <v>45879</v>
       </c>
-      <c r="M6" s="14">
-        <v>9.19</v>
+      <c r="M6" s="16">
+        <v>9.16</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="O6" s="15">
+        <v>2.8</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1617,7 +1614,7 @@
         <v>603605</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
@@ -1629,38 +1626,32 @@
         <v>45</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L7" s="4">
         <v>45838</v>
       </c>
-      <c r="M7" s="14">
-        <v>5.03</v>
+      <c r="M7" s="16">
+        <v>4.98</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>300573</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>9.7</v>
@@ -1672,13 +1663,9 @@
         <v>71</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
         <v>1</v>
       </c>
       <c r="J8" s="3">
@@ -1691,20 +1678,23 @@
       <c r="L8" s="4">
         <v>45838</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="16">
         <v>6.36</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="15">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>11</v>
@@ -1716,87 +1706,85 @@
         <v>25</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3">
         <v>1</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" s="4">
         <v>45867</v>
       </c>
       <c r="M9" s="13">
-        <v>4.05</v>
-      </c>
-      <c r="N9" s="15">
+        <v>4.06</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O9" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L10" s="4">
+        <v>45867</v>
+      </c>
+      <c r="M10" s="16">
+        <v>5.36</v>
+      </c>
+      <c r="N10" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L10" s="4">
-        <v>45867</v>
-      </c>
-      <c r="M10" s="14">
-        <v>5.32</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
+      <c r="O10" s="15">
+        <v>6.6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>12.9</v>
@@ -1808,12 +1796,9 @@
         <v>25</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="3">
@@ -1826,20 +1811,20 @@
       <c r="L11" s="4">
         <v>45762</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="16">
         <v>4.51</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>300628</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>12.1</v>
@@ -1851,38 +1836,35 @@
         <v>87</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>-1</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L12" s="4">
         <v>45868</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="16">
         <v>4.12</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>10</v>
+      </c>
+      <c r="O12" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>10.8</v>
@@ -1894,41 +1876,40 @@
         <v>117</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>-1</v>
-      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3">
         <v>1</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L13" s="4">
         <v>45883</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="16">
         <v>8.44</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="O13" s="15">
+        <v>9.5</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>8</v>
@@ -1940,38 +1921,32 @@
         <v>40</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
         <v>-1</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="4">
         <v>45867</v>
       </c>
-      <c r="M15" s="14">
-        <v>2.36</v>
+      <c r="M15" s="16">
+        <v>2.3</v>
       </c>
       <c r="N15" s="6">
         <f>K15*2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="16" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2">
         <v>12</v>
@@ -1983,84 +1958,80 @@
         <v>48</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
         <v>-1</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="4">
         <v>45838</v>
       </c>
-      <c r="M16" s="14">
-        <v>2.13</v>
+      <c r="M16" s="16">
+        <v>2.09</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16:N25" si="2">K16*2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <f t="shared" ref="N16:N28" si="2">K16*2</f>
+        <v>6</v>
+      </c>
+      <c r="O16" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>603833</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17" s="3">
         <v>-1</v>
       </c>
-      <c r="H17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>-1</v>
-      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="3">
         <v>-1</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="4">
         <v>45838</v>
       </c>
-      <c r="M17" s="14">
-        <v>4.52</v>
+      <c r="M17" s="16">
+        <v>4.28</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="16" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="O17" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
@@ -2072,41 +2043,40 @@
         <v>49</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3">
         <v>-1</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1</v>
-      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18" s="4">
         <v>45838</v>
       </c>
-      <c r="M18" s="14">
-        <v>2.27</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18" s="16">
+        <v>2.11</v>
+      </c>
+      <c r="N18" s="14">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="16" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="O18" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -2118,35 +2088,32 @@
         <v>60</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19" s="4">
         <v>45838</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="16">
         <v>6.22</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="O19" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2">
         <v>8</v>
@@ -2158,15 +2125,11 @@
         <v>70</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3"/>
       <c r="K20" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2174,20 +2137,20 @@
       <c r="L20" s="4">
         <v>45847</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="16">
         <v>4.07</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
@@ -2199,15 +2162,11 @@
         <v>26</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3"/>
       <c r="K21" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2215,20 +2174,20 @@
       <c r="L21" s="4">
         <v>45861</v>
       </c>
-      <c r="M21" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="N21" s="15">
+      <c r="M21" s="16">
+        <v>2.09</v>
+      </c>
+      <c r="N21" s="14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2">
         <v>8</v>
@@ -2240,15 +2199,11 @@
         <v>70</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3"/>
       <c r="K22" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2256,20 +2211,23 @@
       <c r="L22" s="4">
         <v>45861</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="16">
         <v>3.15</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="15">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2">
         <v>7.5</v>
@@ -2281,12 +2239,9 @@
         <v>57</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
         <v>1</v>
       </c>
       <c r="J23" s="3">
@@ -2299,20 +2254,23 @@
       <c r="L23" s="4">
         <v>45883</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="16">
         <v>4.27</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="14">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="15">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
@@ -2336,20 +2294,23 @@
       <c r="L24" s="4">
         <v>45873</v>
       </c>
-      <c r="M24" s="14">
-        <v>2.64</v>
-      </c>
-      <c r="N24" s="15">
+      <c r="M24" s="16">
+        <v>2.77</v>
+      </c>
+      <c r="N24" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="O24" s="15">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -2361,32 +2322,32 @@
         <v>60</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="3">
         <v>-1</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" s="4">
         <v>45877</v>
       </c>
-      <c r="M25" s="14">
-        <v>3.08</v>
-      </c>
-      <c r="N25" s="15">
-        <f>K25*2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="M25" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2">
         <v>4.6</v>
@@ -2398,20 +2359,11 @@
         <v>84</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K26" s="3">
-        <f>D26+F26+I26+G26+H26+J26</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="L26" s="4">
         <v>45848</v>
@@ -2419,17 +2371,20 @@
       <c r="M26" s="5">
         <v>2.08</v>
       </c>
-      <c r="N26" s="15">
-        <f>K26*2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="N26" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O26" s="15">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2">
         <v>3.5</v>
@@ -2441,20 +2396,11 @@
         <v>81</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27" s="3">
-        <f>D27+F27+I27+G27+H27+J27</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="L27" s="4">
         <v>45873</v>
@@ -2462,17 +2408,20 @@
       <c r="M27" s="5">
         <v>2.08</v>
       </c>
-      <c r="N27" s="15">
-        <f>K27*2</f>
-        <v>4</v>
+      <c r="N27" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O27" s="15">
+        <v>3.9</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2">
         <v>4.6</v>
@@ -2484,23 +2433,19 @@
         <v>55</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="3">
         <v>-1</v>
       </c>
-      <c r="H28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>-1</v>
-      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28" s="3">
-        <f>D28+F28+I28+G28+H28+J28</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="L28" s="4">
         <v>45756</v>
@@ -2508,9 +2453,9 @@
       <c r="M28" s="5">
         <v>2.46</v>
       </c>
-      <c r="N28" s="6">
-        <f>K28*2</f>
-        <v>0</v>
+      <c r="N28" s="14">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="29" ht="12" customHeight="1"/>
@@ -2531,10 +2476,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2">
         <v>5.8</v>
@@ -2561,7 +2506,7 @@
         <v>603173</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2">
         <v>10</v>
@@ -2591,10 +2536,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2">
         <v>14</v>
@@ -2627,10 +2572,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
@@ -2654,10 +2599,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2">
         <v>7</v>
@@ -2681,10 +2626,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" s="2">
         <v>10</v>
@@ -2702,10 +2647,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C41" s="2">
         <v>7</v>
@@ -2723,10 +2668,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" s="2">
         <v>6</v>
@@ -2753,10 +2698,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K48" s="3">
         <v>8</v>
@@ -2771,10 +2716,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K49" s="3">
         <v>10</v>
@@ -2789,10 +2734,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K50" s="3">
         <v>20</v>
@@ -2807,10 +2752,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K51" s="3">
         <v>2</v>
@@ -2825,10 +2770,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K52" s="3">
         <v>6</v>
@@ -2843,10 +2788,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" s="3">
         <v>4</v>
@@ -2861,10 +2806,10 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55" s="2">
         <v>9</v>
@@ -2884,10 +2829,10 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C56" s="2">
         <v>9</v>
@@ -2907,10 +2852,10 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C57" s="2">
         <v>9</v>
@@ -2930,10 +2875,10 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C58" s="2">
         <v>11</v>
@@ -2953,10 +2898,10 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2">
         <v>10</v>
@@ -2979,7 +2924,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A35 A37 A15:A16 A9:A11 A18:A25 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A18:A25 A9:A11 A15:A16 A37 A35" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2993,7 +2938,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23410" windowHeight="13730"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -126,6 +126,12 @@
     <t>德业股份</t>
   </si>
   <si>
+    <t>603087</t>
+  </si>
+  <si>
+    <t>甘李药业</t>
+  </si>
+  <si>
     <t>002714</t>
   </si>
   <si>
@@ -169,12 +175,6 @@
   </si>
   <si>
     <t>贝达药业</t>
-  </si>
-  <si>
-    <t>603087</t>
-  </si>
-  <si>
-    <t>甘李药业</t>
   </si>
   <si>
     <t>300750</t>
@@ -959,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,6 +991,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1325,10 +1328,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1398,7 +1401,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1426,14 +1429,14 @@
       <c r="L2" s="4">
         <v>45838</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="14">
         <v>2.46</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="15">
         <f>K2*2</f>
         <v>8</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="16">
         <v>2.5</v>
       </c>
     </row>
@@ -1459,30 +1462,28 @@
       <c r="G3" s="3">
         <v>-1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K28" si="0">D3+F3+I3+G3+H3+J3</f>
+        <f>D3+F3+I3+G3+H3+J3</f>
         <v>8</v>
       </c>
       <c r="L3" s="4">
         <v>45838</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="14">
         <v>8.78</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" ref="N3:N13" si="1">K3*2</f>
+        <f t="shared" ref="N3:N14" si="0">K3*2</f>
         <v>16</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="16">
         <v>3.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>603195</v>
       </c>
@@ -1505,21 +1506,24 @@
         <v>1</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="0"/>
+        <f>D4+F4+I4+G4+H4+J4</f>
         <v>7</v>
       </c>
       <c r="L4" s="4">
         <v>45874</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="17">
         <v>6.65</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="16">
         <v>5.4</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1544,23 +1548,21 @@
       <c r="G5" s="3">
         <v>-1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="0"/>
+        <f>D5+F5+I5+G5+H5+J5</f>
         <v>6</v>
       </c>
       <c r="L5" s="4">
         <v>45879</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="14">
         <v>9.18</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -1586,26 +1588,24 @@
       <c r="G6" s="3">
         <v>-1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="0"/>
+        <f>D6+F6+I6+G6+H6+J6</f>
         <v>7</v>
       </c>
       <c r="L6" s="4">
         <v>45879</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="17">
         <v>9.16</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="16">
         <v>2.8</v>
       </c>
     </row>
@@ -1632,21 +1632,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="0"/>
+        <f>D7+F7+I7+G7+H7+J7</f>
         <v>5</v>
       </c>
       <c r="L7" s="4">
         <v>45838</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="17">
         <v>4.98</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>300573</v>
       </c>
@@ -1672,24 +1672,27 @@
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="0"/>
+        <f>D8+F8+I8+G8+H8+J8</f>
         <v>7</v>
       </c>
       <c r="L8" s="4">
         <v>45838</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="17">
         <v>6.36</v>
       </c>
-      <c r="N8" s="14">
-        <f t="shared" si="1"/>
+      <c r="N8" s="15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="16">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1711,30 +1714,31 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
       <c r="J9" s="3">
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="0"/>
+        <f>D9+F9+I9+G9+H9+J9</f>
         <v>5</v>
       </c>
       <c r="L9" s="4">
         <v>45867</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="14">
         <v>4.06</v>
       </c>
-      <c r="N9" s="14">
-        <f t="shared" si="1"/>
+      <c r="N9" s="15">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1756,27 +1760,28 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="0"/>
+        <f>D10+F10+I10+G10+H10+J10</f>
         <v>6</v>
       </c>
       <c r="L10" s="4">
         <v>45867</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="17">
         <v>5.36</v>
       </c>
-      <c r="N10" s="14">
-        <f t="shared" si="1"/>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="16">
         <v>6.6</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1805,17 +1810,17 @@
         <v>1</v>
       </c>
       <c r="K11" s="3">
+        <f>D11+F11+I11+G11+H11+J11</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>45854</v>
+      </c>
+      <c r="M11" s="17">
+        <v>4.51</v>
+      </c>
+      <c r="N11" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L11" s="4">
-        <v>45762</v>
-      </c>
-      <c r="M11" s="16">
-        <v>4.51</v>
-      </c>
-      <c r="N11" s="14">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1842,24 +1847,24 @@
         <v>-1</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="0"/>
+        <f>D12+F12+I12+G12+H12+J12</f>
         <v>5</v>
       </c>
       <c r="L12" s="4">
         <v>45868</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="17">
         <v>4.12</v>
       </c>
-      <c r="N12" s="14">
-        <f t="shared" si="1"/>
+      <c r="N12" s="15">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O12" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1881,81 +1886,110 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
       <c r="J13" s="3">
         <v>1</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="0"/>
+        <f>D13+F13+I13+G13+H13+J13</f>
         <v>9</v>
       </c>
       <c r="L13" s="4">
         <v>45883</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="17">
         <v>8.44</v>
       </c>
-      <c r="N13" s="14">
-        <f t="shared" si="1"/>
+      <c r="N13" s="15">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="16">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
+      <c r="P13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:16">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="C14" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>103</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <f>D14+F14+I14+G14+H14+J14</f>
+        <v>9</v>
+      </c>
+      <c r="L14" s="4">
+        <v>45886</v>
+      </c>
+      <c r="M14" s="17">
+        <v>4.27</v>
+      </c>
+      <c r="N14" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>45867</v>
-      </c>
-      <c r="M15" s="16">
-        <v>2.3</v>
-      </c>
-      <c r="N15" s="6">
-        <f>K15*2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="16">
+        <v>13.7</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -1964,305 +1998,301 @@
         <v>-1</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="K16:K29" si="1">D16+F16+I16+G16+H16+J16</f>
+        <v>2</v>
       </c>
       <c r="L16" s="4">
-        <v>45838</v>
-      </c>
-      <c r="M16" s="16">
-        <v>2.09</v>
+        <v>45867</v>
+      </c>
+      <c r="M16" s="17">
+        <v>2.3</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16:N28" si="2">K16*2</f>
-        <v>6</v>
-      </c>
-      <c r="O16" s="15">
-        <v>2</v>
+        <f>K16*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>603833</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="18" t="s">
         <v>36</v>
       </c>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C17" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>2</v>
+      </c>
       <c r="J17" s="3">
         <v>-1</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="L17" s="4">
         <v>45838</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="17">
+        <v>2.09</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" ref="N17:N29" si="2">K17*2</f>
+        <v>6</v>
+      </c>
+      <c r="O17" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>603833</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>130</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>45884</v>
+      </c>
+      <c r="M18" s="17">
         <v>4.28</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N18" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O17" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="O18" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
         <v>49</v>
       </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
         <v>-1</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="0"/>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L19" s="4">
         <v>45838</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M19" s="17">
         <v>2.11</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N19" s="15">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O18" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="O19" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
         <v>60</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="K19" s="3">
-        <f t="shared" si="0"/>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L20" s="4">
         <v>45838</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M20" s="17">
         <v>6.22</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N20" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O19" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="O20" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>80</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L21" s="4">
+        <v>45886</v>
+      </c>
+      <c r="M21" s="17">
+        <v>4.07</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O21" s="16">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>26</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L22" s="4">
+        <v>45861</v>
+      </c>
+      <c r="M22" s="17">
+        <v>2.09</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>70</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="0"/>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L20" s="4">
-        <v>45847</v>
-      </c>
-      <c r="M20" s="16">
-        <v>4.07</v>
-      </c>
-      <c r="N20" s="14">
+      <c r="L23" s="4">
+        <v>45861</v>
+      </c>
+      <c r="M23" s="17">
+        <v>3.15</v>
+      </c>
+      <c r="N23" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>26</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L21" s="4">
-        <v>45861</v>
-      </c>
-      <c r="M21" s="16">
-        <v>2.09</v>
-      </c>
-      <c r="N21" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>70</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="O23" s="16">
+        <v>6.8</v>
+      </c>
+      <c r="P23">
         <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L22" s="4">
-        <v>45861</v>
-      </c>
-      <c r="M22" s="16">
-        <v>3.15</v>
-      </c>
-      <c r="N22" s="14">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="O22" s="15">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>57</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L23" s="4">
-        <v>45883</v>
-      </c>
-      <c r="M23" s="16">
-        <v>4.27</v>
-      </c>
-      <c r="N23" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="O23" s="15">
-        <v>7.7</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2288,20 +2318,20 @@
         <v>1</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="0"/>
+        <f>D24+F24+I24+G24+H24+J24</f>
         <v>3</v>
       </c>
       <c r="L24" s="4">
         <v>45873</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="17">
         <v>2.77</v>
       </c>
-      <c r="N24" s="14">
-        <f t="shared" si="2"/>
+      <c r="N24" s="15">
+        <f>K24*2</f>
         <v>6</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="16">
         <v>2.8</v>
       </c>
     </row>
@@ -2328,17 +2358,17 @@
         <v>-1</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="0"/>
+        <f>D25+F25+I25+G25+H25+J25</f>
         <v>3</v>
       </c>
       <c r="L25" s="4">
         <v>45877</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="17">
         <v>3.06</v>
       </c>
-      <c r="N25" s="14">
-        <f t="shared" si="2"/>
+      <c r="N25" s="15">
+        <f>K25*2</f>
         <v>6</v>
       </c>
     </row>
@@ -2362,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="0"/>
+        <f>D26+F26+I26+G26+H26+J26</f>
         <v>4</v>
       </c>
       <c r="L26" s="4">
@@ -2371,11 +2401,11 @@
       <c r="M26" s="5">
         <v>2.08</v>
       </c>
-      <c r="N26" s="14">
-        <f t="shared" si="2"/>
+      <c r="N26" s="15">
+        <f>K26*2</f>
         <v>8</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="16">
         <v>3.9</v>
       </c>
     </row>
@@ -2399,7 +2429,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="0"/>
+        <f>D27+F27+I27+G27+H27+J27</f>
         <v>4</v>
       </c>
       <c r="L27" s="4">
@@ -2408,11 +2438,11 @@
       <c r="M27" s="5">
         <v>2.08</v>
       </c>
-      <c r="N27" s="14">
-        <f t="shared" si="2"/>
+      <c r="N27" s="15">
+        <f>K27*2</f>
         <v>8</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="16">
         <v>3.9</v>
       </c>
     </row>
@@ -2438,13 +2468,11 @@
       <c r="G28" s="3">
         <v>-1</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="0"/>
+        <f>D28+F28+I28+G28+H28+J28</f>
         <v>3</v>
       </c>
       <c r="L28" s="4">
@@ -2453,26 +2481,26 @@
       <c r="M28" s="5">
         <v>2.46</v>
       </c>
-      <c r="N28" s="14">
-        <f t="shared" si="2"/>
+      <c r="N28" s="15">
+        <f>K28*2</f>
         <v>6</v>
       </c>
     </row>
     <row r="29" ht="12" customHeight="1"/>
     <row r="30" spans="2:2">
-      <c r="B30" s="11"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="11"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="11"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="11"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="11"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
@@ -2700,7 +2728,7 @@
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>75</v>
       </c>
       <c r="K48" s="3">
@@ -2718,7 +2746,7 @@
       <c r="A49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>77</v>
       </c>
       <c r="K49" s="3">
@@ -2736,7 +2764,7 @@
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>79</v>
       </c>
       <c r="K50" s="3">
@@ -2772,7 +2800,7 @@
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>83</v>
       </c>
       <c r="K52" s="3">
@@ -2790,7 +2818,7 @@
       <c r="A53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>85</v>
       </c>
       <c r="K53" s="3">
@@ -2924,7 +2952,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A18:A25 A9:A11 A15:A16 A37 A35" numberStoredAsText="1"/>
+    <ignoredError sqref="A35 A37 A16:A17 A9:A11 A19:A25 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>代码</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>目标</t>
+  </si>
+  <si>
+    <t>差值</t>
   </si>
   <si>
     <t>计划</t>
@@ -485,36 +488,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -835,7 +814,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,16 +838,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -877,13 +856,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,26 +937,17 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,37 +963,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1331,1201 +1295,1280 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.8545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3454545454545" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.41818181818182" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.79090909090909" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.55454545454545" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.16363636363636" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.97272727272727" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.06363636363636" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.87272727272727" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.69090909090909" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.70909090909091" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.32727272727273" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.32727272727273" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.12727272727273" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.8583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3416666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.41666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.79166666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.55833333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.16666666666667" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.975" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.06666666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.69166666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.70833333333333" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.325" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.325" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="18" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
         <v>9.9</v>
       </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
         <v>67</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>-1</v>
       </c>
-      <c r="K2" s="3">
-        <f>D2+F2+I2+G2+H2+J2</f>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:K14" si="0">D2+F2+I2+G2+H2+J2</f>
         <v>4</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>45838</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="10">
         <v>2.46</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="11">
         <f>K2*2</f>
         <v>8</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="12">
+        <f>N2-M2</f>
+        <v>5.54</v>
+      </c>
+      <c r="P2" s="8">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>300896</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
         <v>12.5</v>
       </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
         <v>127</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>-1</v>
       </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <f>D3+F3+I3+G3+H3+J3</f>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>45838</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="10">
         <v>8.78</v>
       </c>
-      <c r="N3" s="6">
-        <f t="shared" ref="N3:N14" si="0">K3*2</f>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N14" si="1">K3*2</f>
         <v>16</v>
       </c>
-      <c r="O3" s="16">
-        <v>3.6</v>
+      <c r="O3" s="12">
+        <f t="shared" ref="O3:O28" si="2">N3-M3</f>
+        <v>7.22</v>
+      </c>
+      <c r="P3" s="8">
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>603195</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
         <v>89</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <f>D4+F4+I4+G4+H4+J4</f>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>45874</v>
       </c>
-      <c r="M4" s="17">
-        <v>6.65</v>
-      </c>
-      <c r="N4" s="6">
-        <f t="shared" si="0"/>
+      <c r="M4" s="6">
+        <v>9.08</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O4" s="16">
-        <v>5.4</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="12">
+        <f t="shared" si="2"/>
+        <v>4.92</v>
+      </c>
+      <c r="P4" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>300760</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
         <v>80</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>-1</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <f>D5+F5+I5+G5+H5+J5</f>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>45879</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="10">
         <v>9.18</v>
       </c>
-      <c r="N5" s="6">
-        <f t="shared" si="0"/>
+      <c r="N5" s="7">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5" s="12">
+        <f t="shared" si="2"/>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>300529</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
         <v>10.2</v>
       </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
         <v>102</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>-1</v>
       </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <f>D6+F6+I6+G6+H6+J6</f>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>45879</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="6">
         <v>9.16</v>
       </c>
-      <c r="N6" s="6">
-        <f t="shared" si="0"/>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O6" s="16">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="12">
+        <f t="shared" si="2"/>
+        <v>4.84</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>603605</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
         <v>45</v>
       </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <f>D7+F7+I7+G7+H7+J7</f>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <v>45838</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="6">
         <v>4.98</v>
       </c>
-      <c r="N7" s="6">
-        <f t="shared" si="0"/>
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
         <v>10</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="2"/>
+        <v>5.02</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>300573</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
         <v>9.7</v>
       </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
         <v>71</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <f>D8+F8+I8+G8+H8+J8</f>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <v>45838</v>
       </c>
-      <c r="M8" s="17">
-        <v>6.36</v>
-      </c>
-      <c r="N8" s="15">
-        <f t="shared" si="0"/>
+      <c r="M8" s="6">
+        <v>9.52</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O8" s="16">
-        <v>6.6</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
+      <c r="O8" s="12">
+        <f t="shared" si="2"/>
+        <v>4.48</v>
+      </c>
+      <c r="P8" s="8">
+        <v>4.48</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
         <v>11</v>
       </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
         <v>25</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <f>D9+F9+I9+G9+H9+J9</f>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="5">
         <v>45867</v>
       </c>
-      <c r="M9" s="14">
-        <v>4.06</v>
-      </c>
-      <c r="N9" s="15">
-        <f t="shared" si="0"/>
+      <c r="M9" s="10">
+        <v>6.59</v>
+      </c>
+      <c r="N9" s="11">
+        <f>K9*2</f>
         <v>10</v>
       </c>
-      <c r="O9" s="16">
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
+      <c r="O9" s="12">
+        <f t="shared" si="2"/>
+        <v>3.41</v>
+      </c>
+      <c r="P9" s="8">
+        <v>3.41</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45867</v>
+      </c>
+      <c r="M10" s="6">
+        <v>8.29</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="2"/>
+        <v>3.71</v>
+      </c>
+      <c r="P10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
         <v>25</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <f>D10+F10+I10+G10+H10+J10</f>
-        <v>6</v>
-      </c>
-      <c r="L10" s="4">
-        <v>45867</v>
-      </c>
-      <c r="M10" s="17">
-        <v>5.36</v>
-      </c>
-      <c r="N10" s="15">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O10" s="16">
-        <v>6.6</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12.9</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <f>D11+F11+I11+G11+H11+J11</f>
         <v>5</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <v>45854</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="6">
         <v>4.51</v>
       </c>
-      <c r="N11" s="15">
-        <f t="shared" si="0"/>
+      <c r="N11" s="11">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11" s="12">
+        <f t="shared" si="2"/>
+        <v>5.49</v>
+      </c>
+      <c r="P11" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>300628</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
         <v>12.1</v>
       </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
         <v>87</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>-1</v>
       </c>
-      <c r="K12" s="3">
-        <f>D12+F12+I12+G12+H12+J12</f>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <v>45868</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="6">
         <v>4.12</v>
       </c>
-      <c r="N12" s="15">
-        <f t="shared" si="0"/>
+      <c r="N12" s="11">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="O12" s="16">
-        <v>2</v>
+      <c r="O12" s="12">
+        <f t="shared" si="2"/>
+        <v>5.88</v>
+      </c>
+      <c r="P12" s="8">
+        <v>3.88</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2">
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3">
         <v>10.8</v>
       </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
         <v>117</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <f>D13+F13+I13+G13+H13+J13</f>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <v>45883</v>
       </c>
-      <c r="M13" s="17">
-        <v>8.44</v>
-      </c>
-      <c r="N13" s="15">
-        <f t="shared" si="0"/>
+      <c r="M13" s="6">
+        <v>13.61</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="O13" s="16">
-        <v>9.5</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
+      <c r="O13" s="12">
+        <f t="shared" si="2"/>
+        <v>4.39</v>
+      </c>
+      <c r="P13" s="8">
+        <v>4.39</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2">
+      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
         <v>9.7</v>
       </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
         <v>103</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
-        <f>D14+F14+I14+G14+H14+J14</f>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="5">
         <v>45886</v>
       </c>
-      <c r="M14" s="17">
-        <v>4.27</v>
-      </c>
-      <c r="N14" s="15">
-        <f t="shared" si="0"/>
+      <c r="M14" s="6">
+        <v>11.14</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="O14" s="16">
-        <v>13.7</v>
-      </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:15">
+      <c r="O14" s="12">
+        <f t="shared" si="2"/>
+        <v>6.86</v>
+      </c>
+      <c r="P14" s="8">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:16">
       <c r="A15" s="1"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2">
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3">
         <v>8</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>40</v>
       </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
         <v>-1</v>
       </c>
-      <c r="K16" s="3">
-        <f t="shared" ref="K16:K29" si="1">D16+F16+I16+G16+H16+J16</f>
-        <v>2</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="K16" s="4">
+        <f t="shared" ref="K16:K29" si="3">D16+F16+I16+G16+H16+J16</f>
+        <v>2</v>
+      </c>
+      <c r="L16" s="5">
         <v>45867</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="6">
         <v>2.3</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="7">
         <f>K16*2</f>
         <v>4</v>
       </c>
+      <c r="O16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2">
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
         <v>48</v>
       </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
         <v>-1</v>
       </c>
-      <c r="K17" s="3">
-        <f t="shared" si="1"/>
+      <c r="K17" s="4">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <v>45838</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="6">
         <v>2.09</v>
       </c>
-      <c r="N17" s="6">
-        <f t="shared" ref="N17:N29" si="2">K17*2</f>
+      <c r="N17" s="7">
+        <f t="shared" ref="N17:N29" si="4">K17*2</f>
         <v>6</v>
       </c>
-      <c r="O17" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="O17" s="12">
+        <f t="shared" si="2"/>
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>603833</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3">
         <v>8</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
         <v>130</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>6</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>-1</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <v>-1</v>
       </c>
-      <c r="K18" s="3">
-        <f t="shared" si="1"/>
+      <c r="K18" s="4">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <v>45884</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="6">
         <v>4.28</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O18" s="12">
         <f t="shared" si="2"/>
+        <v>5.72</v>
+      </c>
+      <c r="P18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>49</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45838</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2.11</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="2"/>
+        <v>5.89</v>
+      </c>
+      <c r="P19" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>60</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="5">
+        <v>45838</v>
+      </c>
+      <c r="M20" s="6">
+        <v>6.22</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O18" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="O20" s="12">
+        <f t="shared" si="2"/>
+        <v>3.78</v>
+      </c>
+      <c r="P20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3">
         <v>9</v>
       </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>49</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="1"/>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>80</v>
+      </c>
+      <c r="F21" s="4">
         <v>4</v>
       </c>
-      <c r="L19" s="4">
-        <v>45838</v>
-      </c>
-      <c r="M19" s="17">
-        <v>2.11</v>
-      </c>
-      <c r="N19" s="15">
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L21" s="5">
+        <v>45886</v>
+      </c>
+      <c r="M21" s="6">
+        <v>4.07</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="O21" s="12">
         <f t="shared" si="2"/>
+        <v>9.93</v>
+      </c>
+      <c r="P21" s="8">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L22" s="5">
+        <v>45861</v>
+      </c>
+      <c r="M22" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O19" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>60</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L20" s="4">
-        <v>45838</v>
-      </c>
-      <c r="M20" s="17">
-        <v>6.22</v>
-      </c>
-      <c r="N20" s="6">
+      <c r="O22" s="12">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="O20" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>80</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L21" s="4">
-        <v>45886</v>
-      </c>
-      <c r="M21" s="17">
-        <v>4.07</v>
-      </c>
-      <c r="N21" s="15">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="O21" s="16">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>26</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L22" s="4">
-        <v>45861</v>
-      </c>
-      <c r="M22" s="17">
-        <v>2.09</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5.91</v>
+      </c>
+      <c r="P22" s="8">
+        <v>3.91</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2">
+      <c r="B23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3">
         <v>8</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
         <v>70</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="1"/>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="5">
         <v>45861</v>
       </c>
-      <c r="M23" s="17">
-        <v>3.15</v>
-      </c>
-      <c r="N23" s="15">
+      <c r="M23" s="6">
+        <v>5.87</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O23" s="12">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="O23" s="16">
-        <v>6.8</v>
-      </c>
-      <c r="P23">
+        <v>4.13</v>
+      </c>
+      <c r="P23" s="8">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>37</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="L24" s="5">
+        <v>45873</v>
+      </c>
+      <c r="M24" s="6">
+        <v>2.77</v>
+      </c>
+      <c r="N24" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="2"/>
+        <v>3.23</v>
+      </c>
+      <c r="P24" s="8">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3">
         <v>8</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>37</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
-        <f>D24+F24+I24+G24+H24+J24</f>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>60</v>
+      </c>
+      <c r="F25" s="4">
         <v>3</v>
       </c>
-      <c r="L24" s="4">
+      <c r="G25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="5">
+        <v>45877</v>
+      </c>
+      <c r="M25" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="2"/>
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>84</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L26" s="5">
+        <v>45848</v>
+      </c>
+      <c r="M26" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="2"/>
+        <v>5.92</v>
+      </c>
+      <c r="P26" s="8">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>81</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L27" s="5">
         <v>45873</v>
       </c>
-      <c r="M24" s="17">
-        <v>2.77</v>
-      </c>
-      <c r="N24" s="15">
-        <f>K24*2</f>
+      <c r="M27" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="N27" s="11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="2"/>
+        <v>5.92</v>
+      </c>
+      <c r="P27" s="8">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>55</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45756</v>
+      </c>
+      <c r="M28" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O24" s="16">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>60</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K25" s="3">
-        <f>D25+F25+I25+G25+H25+J25</f>
-        <v>3</v>
-      </c>
-      <c r="L25" s="4">
-        <v>45877</v>
-      </c>
-      <c r="M25" s="17">
-        <v>3.06</v>
-      </c>
-      <c r="N25" s="15">
-        <f>K25*2</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>84</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
-        <f>D26+F26+I26+G26+H26+J26</f>
-        <v>4</v>
-      </c>
-      <c r="L26" s="4">
-        <v>45848</v>
-      </c>
-      <c r="M26" s="5">
-        <v>2.08</v>
-      </c>
-      <c r="N26" s="15">
-        <f>K26*2</f>
-        <v>8</v>
-      </c>
-      <c r="O26" s="16">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>81</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
-        <f>D27+F27+I27+G27+H27+J27</f>
-        <v>4</v>
-      </c>
-      <c r="L27" s="4">
-        <v>45873</v>
-      </c>
-      <c r="M27" s="5">
-        <v>2.08</v>
-      </c>
-      <c r="N27" s="15">
-        <f>K27*2</f>
-        <v>8</v>
-      </c>
-      <c r="O27" s="16">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>55</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
-        <f>D28+F28+I28+G28+H28+J28</f>
-        <v>3</v>
-      </c>
-      <c r="L28" s="4">
-        <v>45756</v>
-      </c>
-      <c r="M28" s="5">
-        <v>2.46</v>
-      </c>
-      <c r="N28" s="15">
-        <f>K28*2</f>
-        <v>6</v>
+      <c r="O28" s="12">
+        <f t="shared" si="2"/>
+        <v>3.54</v>
+      </c>
+      <c r="P28" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="29" ht="12" customHeight="1"/>
-    <row r="30" spans="2:2">
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="12"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="12"/>
-    </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="2">
+      <c r="B35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="3">
         <v>5.8</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>0</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>17</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>0</v>
       </c>
-      <c r="K35" s="3">
-        <f t="shared" ref="K35:K45" si="3">D35+F35+I35+G35+H35+J35</f>
+      <c r="K35" s="4">
+        <f t="shared" ref="K35:K45" si="5">D35+F35+I35+G35+H35+J35</f>
         <v>0</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="5">
         <v>45848</v>
       </c>
     </row>
@@ -2533,417 +2576,417 @@
       <c r="A36" s="1">
         <v>603173</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="3">
         <v>10</v>
       </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3">
         <v>18</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>0</v>
       </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="3"/>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="5">
         <v>45863</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="2">
+      <c r="B37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="3">
         <v>14</v>
       </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
         <v>30</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>0</v>
       </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
         <v>-1</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="4">
         <v>-1</v>
       </c>
-      <c r="K37" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L37" s="4">
+      <c r="K37" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
         <v>45869</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="2">
+      <c r="B38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="3">
         <v>5</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>68</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L38" s="4">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
         <v>45878</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="2">
+      <c r="B39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="3">
         <v>7</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
         <v>47</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>0</v>
       </c>
-      <c r="K39" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L39" s="4">
+      <c r="K39" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
         <v>45878</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="2">
+      <c r="B40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="3">
         <v>10</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>67</v>
       </c>
-      <c r="K40" s="3">
-        <f t="shared" si="3"/>
+      <c r="K40" s="4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="5">
         <v>45881</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="2">
+      <c r="B41" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="3">
         <v>7</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>90</v>
       </c>
-      <c r="K41" s="3">
-        <f t="shared" si="3"/>
+      <c r="K41" s="4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="5">
         <v>45881</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="2">
+      <c r="B47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="3">
         <v>6</v>
       </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
-        <v>2</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4">
         <v>0</v>
       </c>
-      <c r="K47" s="3">
-        <v>2</v>
-      </c>
-      <c r="L47" s="4">
+      <c r="K47" s="4">
+        <v>2</v>
+      </c>
+      <c r="L47" s="5">
         <v>45878</v>
       </c>
-      <c r="N47" s="6">
-        <f t="shared" ref="N46:N53" si="4">K47*2</f>
+      <c r="N47" s="7">
+        <f t="shared" ref="N46:N53" si="6">K47*2</f>
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="3">
+      <c r="B48" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48" s="4">
         <v>8</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="5">
         <v>45878</v>
       </c>
-      <c r="N48" s="6">
-        <f t="shared" si="4"/>
+      <c r="N48" s="7">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="K49" s="3">
+      <c r="B49" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49" s="4">
         <v>10</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="5">
         <v>45878</v>
       </c>
-      <c r="N49" s="6">
-        <f t="shared" si="4"/>
+      <c r="N49" s="7">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K50" s="3">
+      <c r="B50" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K50" s="4">
         <v>20</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="5">
         <v>45878</v>
       </c>
-      <c r="N50" s="6">
-        <f t="shared" si="4"/>
+      <c r="N50" s="7">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K51" s="3">
-        <v>2</v>
-      </c>
-      <c r="L51" s="4">
+      <c r="B51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K51" s="4">
+        <v>2</v>
+      </c>
+      <c r="L51" s="5">
         <v>45878</v>
       </c>
-      <c r="N51" s="6">
-        <f t="shared" si="4"/>
+      <c r="N51" s="7">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K52" s="3">
+      <c r="B52" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K52" s="4">
         <v>6</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="5">
         <v>45878</v>
       </c>
-      <c r="N52" s="6">
-        <f t="shared" si="4"/>
+      <c r="N52" s="7">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="3">
+      <c r="B53" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K53" s="4">
         <v>4</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="5">
         <v>45878</v>
       </c>
-      <c r="N53" s="6">
-        <f t="shared" si="4"/>
+      <c r="N53" s="7">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="2">
+      <c r="B55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="3">
         <v>9</v>
       </c>
-      <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
         <v>110</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>3</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="5">
         <v>45878</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="2">
+      <c r="B56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="3">
         <v>9</v>
       </c>
-      <c r="D56" s="3">
-        <v>2</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
         <v>140</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <v>4</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="5">
         <v>45878</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="3">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
         <v>90</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="2">
-        <v>9</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="2">
-        <v>90</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2</v>
-      </c>
-      <c r="L57" s="4">
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="L57" s="5">
         <v>45878</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="2">
+      <c r="B58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="3">
         <v>11</v>
       </c>
-      <c r="D58" s="3">
-        <v>2</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3">
         <v>150</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>4</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="5">
         <v>45878</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="2">
+      <c r="B59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="3">
         <v>10</v>
       </c>
-      <c r="D59" s="3">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
         <v>60</v>
       </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="L59" s="4">
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5">
         <v>45878</v>
       </c>
     </row>
@@ -2952,7 +2995,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A35 A37 A16:A17 A9:A11 A19:A25 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A19:A25 A9:A11 A16:A17 A37 A35" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2966,7 +3009,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>代码</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>中国中免</t>
+  </si>
+  <si>
+    <t>002558</t>
+  </si>
+  <si>
+    <t>巨人网络</t>
+  </si>
+  <si>
+    <t>603501</t>
+  </si>
+  <si>
+    <t>豪威集团</t>
   </si>
   <si>
     <t>002648</t>
@@ -488,12 +500,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -814,7 +832,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,16 +856,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -856,89 +874,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,19 +981,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1292,10 +1304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="$A21:$XFD21"/>
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1315,7 +1327,7 @@
     <col min="13" max="13" width="9.325" style="6" customWidth="1"/>
     <col min="14" max="14" width="9.325" style="7" customWidth="1"/>
     <col min="15" max="15" width="9.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9" style="8"/>
+    <col min="16" max="16" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1364,15 +1376,15 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3">
@@ -1397,18 +1409,18 @@
       <c r="L2" s="5">
         <v>45838</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>2.46</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <f>K2*2</f>
         <v>8</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="9">
         <f>N2-M2</f>
         <v>5.54</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>2.5</v>
       </c>
     </row>
@@ -1416,7 +1428,7 @@
       <c r="A3" s="1">
         <v>300896</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="3">
@@ -1426,10 +1438,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="F3" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4">
         <v>-1</v>
@@ -1439,31 +1451,31 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L3" s="5">
-        <v>45838</v>
-      </c>
-      <c r="M3" s="10">
+        <v>45888</v>
+      </c>
+      <c r="M3" s="9">
         <v>8.78</v>
       </c>
       <c r="N3" s="7">
         <f t="shared" ref="N3:N14" si="1">K3*2</f>
-        <v>16</v>
-      </c>
-      <c r="O3" s="12">
-        <f t="shared" ref="O3:O28" si="2">N3-M3</f>
-        <v>7.22</v>
-      </c>
-      <c r="P3" s="8">
-        <v>5.5</v>
+        <v>20</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3:O30" si="2">N3-M3</f>
+        <v>11.22</v>
+      </c>
+      <c r="P3" s="9">
+        <v>11.22</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>603195</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3">
@@ -1495,11 +1507,11 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="9">
         <f t="shared" si="2"/>
         <v>4.92</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>4.8</v>
       </c>
     </row>
@@ -1507,7 +1519,7 @@
       <c r="A5" s="1">
         <v>300760</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="3">
@@ -1535,14 +1547,14 @@
       <c r="L5" s="5">
         <v>45879</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>9.18</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="9">
         <f t="shared" si="2"/>
         <v>2.82</v>
       </c>
@@ -1551,7 +1563,7 @@
       <c r="A6" s="1">
         <v>300529</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3">
@@ -1586,11 +1598,11 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="9">
         <f t="shared" si="2"/>
         <v>4.84</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>2.84</v>
       </c>
     </row>
@@ -1598,7 +1610,7 @@
       <c r="A7" s="1">
         <v>603605</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3">
@@ -1630,7 +1642,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="9">
         <f t="shared" si="2"/>
         <v>5.02</v>
       </c>
@@ -1639,7 +1651,7 @@
       <c r="A8" s="1">
         <v>300573</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3">
@@ -1670,15 +1682,15 @@
       <c r="M8" s="6">
         <v>9.52</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="9">
         <f t="shared" si="2"/>
         <v>4.48</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>4.48</v>
       </c>
     </row>
@@ -1686,7 +1698,7 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3">
@@ -1714,18 +1726,18 @@
       <c r="L9" s="5">
         <v>45867</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>6.59</v>
       </c>
-      <c r="N9" s="11">
-        <f>K9*2</f>
+      <c r="N9" s="10">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="9">
         <f t="shared" si="2"/>
         <v>3.41</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>3.41</v>
       </c>
     </row>
@@ -1733,7 +1745,7 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="3">
@@ -1764,15 +1776,15 @@
       <c r="M10" s="6">
         <v>8.29</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="9">
         <f t="shared" si="2"/>
         <v>3.71</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1780,7 +1792,7 @@
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="3">
@@ -1811,15 +1823,15 @@
       <c r="M11" s="6">
         <v>4.51</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="9">
         <f t="shared" si="2"/>
         <v>5.49</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>2.8</v>
       </c>
     </row>
@@ -1827,7 +1839,7 @@
       <c r="A12" s="1">
         <v>300628</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="3">
@@ -1842,12 +1854,15 @@
       <c r="F12" s="4">
         <v>4</v>
       </c>
+      <c r="G12" s="4">
+        <v>-1</v>
+      </c>
       <c r="J12" s="4">
         <v>-1</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" s="5">
         <v>45868</v>
@@ -1855,23 +1870,23 @@
       <c r="M12" s="6">
         <v>4.12</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O12" s="12">
+        <v>8</v>
+      </c>
+      <c r="O12" s="9">
         <f t="shared" si="2"/>
-        <v>5.88</v>
-      </c>
-      <c r="P12" s="8">
         <v>3.88</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1.88</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="3">
@@ -1902,15 +1917,15 @@
       <c r="M13" s="6">
         <v>13.61</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="9">
         <f t="shared" si="2"/>
         <v>4.39</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <v>4.39</v>
       </c>
     </row>
@@ -1918,7 +1933,7 @@
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="3">
@@ -1951,15 +1966,15 @@
       <c r="M14" s="6">
         <v>11.14</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="9">
         <f t="shared" si="2"/>
         <v>6.86</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <v>6.86</v>
       </c>
     </row>
@@ -1978,14 +1993,14 @@
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="3">
@@ -2004,7 +2019,7 @@
         <v>-1</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" ref="K16:K29" si="3">D16+F16+I16+G16+H16+J16</f>
+        <f t="shared" ref="K16:K30" si="3">D16+F16+I16+G16+H16+J16</f>
         <v>2</v>
       </c>
       <c r="L16" s="5">
@@ -2017,16 +2032,16 @@
         <f>K16*2</f>
         <v>4</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="9">
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="3">
@@ -2055,10 +2070,10 @@
         <v>2.09</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" ref="N17:N29" si="4">K17*2</f>
+        <f t="shared" ref="N17:N30" si="4">K17*2</f>
         <v>6</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="9">
         <f t="shared" si="2"/>
         <v>3.91</v>
       </c>
@@ -2067,7 +2082,7 @@
       <c r="A18" s="1">
         <v>603833</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="3">
@@ -2102,19 +2117,19 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="9">
         <f t="shared" si="2"/>
         <v>5.72</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3">
@@ -2145,23 +2160,23 @@
       <c r="M19" s="6">
         <v>2.11</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="9">
         <f t="shared" si="2"/>
         <v>5.89</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="3">
@@ -2190,11 +2205,11 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="9">
         <f t="shared" si="2"/>
         <v>3.78</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="7">
         <v>2</v>
       </c>
     </row>
@@ -2202,7 +2217,7 @@
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="3">
@@ -2230,15 +2245,15 @@
       <c r="M21" s="6">
         <v>4.07</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="10">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="9">
         <f t="shared" si="2"/>
         <v>9.93</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="7">
         <v>7.93</v>
       </c>
     </row>
@@ -2246,7 +2261,7 @@
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="3">
@@ -2274,15 +2289,15 @@
       <c r="M22" s="6">
         <v>2.09</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="9">
         <f t="shared" si="2"/>
         <v>5.91</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="7">
         <v>3.91</v>
       </c>
     </row>
@@ -2290,7 +2305,7 @@
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="3">
@@ -2318,15 +2333,15 @@
       <c r="M23" s="6">
         <v>5.87</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="10">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="9">
         <f t="shared" si="2"/>
         <v>4.13</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="7">
         <v>4.13</v>
       </c>
     </row>
@@ -2334,7 +2349,7 @@
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="3">
@@ -2362,15 +2377,15 @@
       <c r="M24" s="6">
         <v>2.77</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="9">
         <f t="shared" si="2"/>
         <v>3.23</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="7">
         <v>3.23</v>
       </c>
     </row>
@@ -2378,7 +2393,7 @@
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="3">
@@ -2406,11 +2421,11 @@
       <c r="M25" s="6">
         <v>3.06</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="9">
         <f t="shared" si="2"/>
         <v>2.94</v>
       </c>
@@ -2419,7 +2434,7 @@
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="3">
@@ -2444,15 +2459,15 @@
       <c r="M26" s="6">
         <v>2.08</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="9">
         <f t="shared" si="2"/>
         <v>5.92</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="7">
         <v>5.92</v>
       </c>
     </row>
@@ -2460,7 +2475,7 @@
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="3">
@@ -2485,15 +2500,15 @@
       <c r="M27" s="6">
         <v>2.08</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="9">
         <f t="shared" si="2"/>
         <v>5.92</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="7">
         <v>5.92</v>
       </c>
     </row>
@@ -2501,7 +2516,7 @@
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="3">
@@ -2532,61 +2547,181 @@
       <c r="M28" s="6">
         <v>2.46</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="9">
         <f t="shared" si="2"/>
         <v>3.54</v>
       </c>
-      <c r="P28" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" ht="12" customHeight="1"/>
+      <c r="P28" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>33</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L29" s="5">
+        <v>45888</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P29" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>48</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L30" s="5">
+        <v>45888</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P30" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>17</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" ref="K34:K44" si="5">D34+F34+I34+G34+H34+J34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>45848</v>
+      </c>
+    </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>61</v>
+      <c r="A35" s="1">
+        <v>603173</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C35" s="3">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
       <c r="K35" s="4">
-        <f t="shared" ref="K35:K45" si="5">D35+F35+I35+G35+H35+J35</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="L35" s="5">
-        <v>45848</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="1">
-        <v>603173</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>62</v>
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C36" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D36" s="4">
         <v>2</v>
       </c>
       <c r="E36" s="3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -2594,71 +2729,59 @@
       <c r="G36" s="4">
         <v>1</v>
       </c>
-      <c r="I36" s="4">
-        <v>1</v>
-      </c>
       <c r="K36" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" s="5">
-        <v>45863</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D37" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I37" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L37" s="5">
-        <v>45869</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C38" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>47</v>
+      </c>
+      <c r="F38" s="4">
         <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>68</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="5"/>
@@ -2670,43 +2793,37 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="3">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3">
         <v>67</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="3">
-        <v>7</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>47</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="5">
-        <v>45878</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C40" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E40" s="3">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="5"/>
@@ -2716,171 +2833,173 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="3">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3">
-        <v>90</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="5"/>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4">
         <v>0</v>
       </c>
-      <c r="L41" s="5">
-        <v>45881</v>
+      <c r="K46" s="4">
+        <v>2</v>
+      </c>
+      <c r="L46" s="5">
+        <v>45878</v>
+      </c>
+      <c r="N46" s="7">
+        <f t="shared" ref="N45:N52" si="6">K46*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="3">
-        <v>6</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K47" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L47" s="5">
         <v>45878</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" ref="N46:N53" si="6">K47*2</f>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="K48" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L48" s="5">
         <v>45878</v>
       </c>
       <c r="N48" s="7">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="K49" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L49" s="5">
         <v>45878</v>
       </c>
       <c r="N49" s="7">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="K50" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L50" s="5">
         <v>45878</v>
       </c>
       <c r="N50" s="7">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K51" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L51" s="5">
         <v>45878</v>
       </c>
       <c r="N51" s="7">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="K52" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L52" s="5">
         <v>45878</v>
       </c>
       <c r="N52" s="7">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K53" s="4">
-        <v>4</v>
-      </c>
-      <c r="L53" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="3">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>110</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3</v>
+      </c>
+      <c r="L54" s="5">
         <v>45878</v>
-      </c>
-      <c r="N53" s="7">
-        <f t="shared" si="6"/>
-        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C55" s="3">
         <v>9</v>
@@ -2889,10 +3008,10 @@
         <v>2</v>
       </c>
       <c r="E55" s="3">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F55" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L55" s="5">
         <v>45878</v>
@@ -2900,10 +3019,10 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C56" s="3">
         <v>9</v>
@@ -2912,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="E56" s="3">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="F56" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L56" s="5">
         <v>45878</v>
@@ -2923,22 +3042,22 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C57" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
       </c>
       <c r="E57" s="3">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F57" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L57" s="5">
         <v>45878</v>
@@ -2946,47 +3065,24 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C58" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
       </c>
       <c r="E58" s="3">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F58" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L58" s="5">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="3">
-        <v>10</v>
-      </c>
-      <c r="D59" s="4">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3">
-        <v>60</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="L59" s="5">
         <v>45878</v>
       </c>
     </row>
@@ -2995,7 +3091,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A19:A25 A9:A11 A16:A17 A37 A35" numberStoredAsText="1"/>
+    <ignoredError sqref="A34 A36 A16:A17 A9:A11 A19:A25 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>代码</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>豪威集团</t>
+  </si>
+  <si>
+    <t>603288</t>
+  </si>
+  <si>
+    <t>海天味业</t>
   </si>
   <si>
     <t>002648</t>
@@ -347,10 +353,16 @@
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -826,137 +838,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,6 +1000,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1307,27 +1325,27 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3416666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.41666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.79166666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.55833333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.16666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.975" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.06666666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.69166666666667" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.70833333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.41818181818182" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.79090909090909" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.55454545454545" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.16363636363636" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.97272727272727" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.06363636363636" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.87272727272727" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.69090909090909" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.70909090909091" style="4" customWidth="1"/>
     <col min="12" max="12" width="17" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.325" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.325" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9" style="7"/>
+    <col min="13" max="13" width="9.32727272727273" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.32727272727273" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.12727272727273" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1376,12 +1394,12 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1420,7 +1438,7 @@
         <f>N2-M2</f>
         <v>5.54</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="11">
         <v>2.5</v>
       </c>
     </row>
@@ -1467,8 +1485,8 @@
         <f t="shared" ref="O3:O30" si="2">N3-M3</f>
         <v>11.22</v>
       </c>
-      <c r="P3" s="9">
-        <v>11.22</v>
+      <c r="P3" s="11">
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1511,8 +1529,8 @@
         <f t="shared" si="2"/>
         <v>4.92</v>
       </c>
-      <c r="P4" s="7">
-        <v>4.8</v>
+      <c r="P4" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1602,8 +1620,8 @@
         <f t="shared" si="2"/>
         <v>4.84</v>
       </c>
-      <c r="P6" s="7">
-        <v>2.84</v>
+      <c r="P6" s="11">
+        <v>2.8</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1690,8 +1708,8 @@
         <f t="shared" si="2"/>
         <v>4.48</v>
       </c>
-      <c r="P8" s="7">
-        <v>4.48</v>
+      <c r="P8" s="11">
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1737,8 +1755,8 @@
         <f t="shared" si="2"/>
         <v>3.41</v>
       </c>
-      <c r="P9" s="7">
-        <v>3.41</v>
+      <c r="P9" s="11">
+        <v>3.4</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1784,8 +1802,8 @@
         <f t="shared" si="2"/>
         <v>3.71</v>
       </c>
-      <c r="P10" s="7">
-        <v>3</v>
+      <c r="P10" s="11">
+        <v>3.7</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,11 +1849,11 @@
         <f t="shared" si="2"/>
         <v>5.49</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="11">
         <v>2.8</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>300628</v>
       </c>
@@ -1878,9 +1896,6 @@
         <f t="shared" si="2"/>
         <v>3.88</v>
       </c>
-      <c r="P12" s="7">
-        <v>1.88</v>
-      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
@@ -1925,8 +1940,8 @@
         <f t="shared" si="2"/>
         <v>4.39</v>
       </c>
-      <c r="P13" s="7">
-        <v>4.39</v>
+      <c r="P13" s="11">
+        <v>4.4</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:16">
@@ -1974,8 +1989,8 @@
         <f t="shared" si="2"/>
         <v>6.86</v>
       </c>
-      <c r="P14" s="7">
-        <v>6.86</v>
+      <c r="P14" s="11">
+        <v>6.8</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:16">
@@ -1994,7 +2009,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
@@ -2038,7 +2053,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2121,12 +2136,12 @@
         <f t="shared" si="2"/>
         <v>5.72</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2168,12 +2183,12 @@
         <f t="shared" si="2"/>
         <v>5.89</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2209,8 +2224,8 @@
         <f t="shared" si="2"/>
         <v>3.78</v>
       </c>
-      <c r="P20" s="7">
-        <v>2</v>
+      <c r="P20" s="12">
+        <v>3.78</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2253,8 +2268,8 @@
         <f t="shared" si="2"/>
         <v>9.93</v>
       </c>
-      <c r="P21" s="7">
-        <v>7.93</v>
+      <c r="P21" s="11">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2297,8 +2312,8 @@
         <f t="shared" si="2"/>
         <v>5.91</v>
       </c>
-      <c r="P22" s="7">
-        <v>3.91</v>
+      <c r="P22" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2341,7 +2356,7 @@
         <f t="shared" si="2"/>
         <v>4.13</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="11">
         <v>4.13</v>
       </c>
     </row>
@@ -2385,8 +2400,8 @@
         <f t="shared" si="2"/>
         <v>3.23</v>
       </c>
-      <c r="P24" s="7">
-        <v>3.23</v>
+      <c r="P24" s="11">
+        <v>2.8</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2467,8 +2482,8 @@
         <f t="shared" si="2"/>
         <v>5.92</v>
       </c>
-      <c r="P26" s="7">
-        <v>5.92</v>
+      <c r="P26" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2508,8 +2523,8 @@
         <f t="shared" si="2"/>
         <v>5.92</v>
       </c>
-      <c r="P27" s="7">
-        <v>5.92</v>
+      <c r="P27" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2555,7 +2570,7 @@
         <f t="shared" si="2"/>
         <v>3.54</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2599,7 +2614,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="11">
         <v>8</v>
       </c>
     </row>
@@ -2643,16 +2658,60 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3">
         <v>6</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>120</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <f>D31+F31+I31+G31+H31+J31</f>
+        <v>7</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45889</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
+        <f>K31*2</f>
+        <v>14</v>
+      </c>
+      <c r="O31" s="9">
+        <f>N31-M31</f>
+        <v>14</v>
+      </c>
+      <c r="P31" s="11">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3">
         <v>5.8</v>
@@ -2679,7 +2738,7 @@
         <v>603173</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3">
         <v>10</v>
@@ -2709,10 +2768,10 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36" s="3">
         <v>14</v>
@@ -2739,10 +2798,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
@@ -2766,10 +2825,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="3">
         <v>7</v>
@@ -2793,10 +2852,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39" s="3">
         <v>10</v>
@@ -2814,10 +2873,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3">
         <v>7</v>
@@ -2835,10 +2894,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
@@ -2865,10 +2924,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K47" s="4">
         <v>8</v>
@@ -2883,10 +2942,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K48" s="4">
         <v>10</v>
@@ -2901,10 +2960,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K49" s="4">
         <v>20</v>
@@ -2919,10 +2978,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K50" s="4">
         <v>2</v>
@@ -2937,10 +2996,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K51" s="4">
         <v>6</v>
@@ -2955,10 +3014,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K52" s="4">
         <v>4</v>
@@ -2973,10 +3032,10 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C54" s="3">
         <v>9</v>
@@ -2996,10 +3055,10 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C55" s="3">
         <v>9</v>
@@ -3019,10 +3078,10 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C56" s="3">
         <v>9</v>
@@ -3042,10 +3101,10 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C57" s="3">
         <v>11</v>
@@ -3065,10 +3124,10 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C58" s="3">
         <v>10</v>
@@ -3091,7 +3150,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A34 A36 A16:A17 A9:A11 A19:A25 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A19:A25 A9:A11 A16:A17 A36 A34" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3105,7 +3164,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>代码</t>
   </si>
@@ -135,6 +135,30 @@
     <t>甘李药业</t>
   </si>
   <si>
+    <t>300750</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>603501</t>
+  </si>
+  <si>
+    <t>豪威集团</t>
+  </si>
+  <si>
+    <t>601888</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
+    <t>000513</t>
+  </si>
+  <si>
+    <t>丽珠集团</t>
+  </si>
+  <si>
     <t>002714</t>
   </si>
   <si>
@@ -180,12 +204,6 @@
     <t>贝达药业</t>
   </si>
   <si>
-    <t>300750</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
     <t>603676</t>
   </si>
   <si>
@@ -204,22 +222,10 @@
     <t>爱尔眼科</t>
   </si>
   <si>
-    <t>601888</t>
-  </si>
-  <si>
-    <t>中国中免</t>
-  </si>
-  <si>
     <t>002558</t>
   </si>
   <si>
     <t>巨人网络</t>
-  </si>
-  <si>
-    <t>603501</t>
-  </si>
-  <si>
-    <t>豪威集团</t>
   </si>
   <si>
     <t>603288</t>
@@ -968,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,19 +999,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1322,30 +1325,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.8545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.41818181818182" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.79090909090909" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.55454545454545" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.16363636363636" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.97272727272727" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.06363636363636" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.87272727272727" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.69090909090909" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.70909090909091" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3416666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.41666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.79166666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.55833333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.16666666666667" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.975" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.06666666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.69166666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.70833333333333" style="4" customWidth="1"/>
     <col min="12" max="12" width="17" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.32727272727273" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.32727272727273" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.12727272727273" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9" style="6"/>
+    <col min="13" max="13" width="9.325" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.325" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1394,12 +1397,12 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1421,28 +1424,25 @@
         <v>-1</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K14" si="0">D2+F2+I2+G2+H2+J2</f>
+        <f t="shared" ref="K2:K17" si="0">D2+F2+I2+G2+H2+J2</f>
         <v>4</v>
       </c>
       <c r="L2" s="5">
         <v>45838</v>
       </c>
-      <c r="M2" s="9">
-        <v>2.46</v>
+      <c r="M2" s="8">
+        <v>4.98</v>
       </c>
       <c r="N2" s="10">
         <f>K2*2</f>
         <v>8</v>
       </c>
-      <c r="O2" s="9">
-        <f>N2-M2</f>
-        <v>5.54</v>
-      </c>
-      <c r="P2" s="11">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="O2" s="8">
+        <f t="shared" ref="O2:O17" si="1">N2-M2</f>
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>300896</v>
       </c>
@@ -1474,22 +1474,19 @@
       <c r="L3" s="5">
         <v>45888</v>
       </c>
-      <c r="M3" s="9">
-        <v>8.78</v>
+      <c r="M3" s="8">
+        <v>16</v>
       </c>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N14" si="1">K3*2</f>
+        <f t="shared" ref="N3:N17" si="2">K3*2</f>
         <v>20</v>
       </c>
-      <c r="O3" s="9">
-        <f t="shared" ref="O3:O30" si="2">N3-M3</f>
-        <v>11.22</v>
-      </c>
-      <c r="P3" s="11">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="O3" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>603195</v>
       </c>
@@ -1519,18 +1516,15 @@
         <v>45874</v>
       </c>
       <c r="M4" s="6">
-        <v>9.08</v>
+        <v>13.86</v>
       </c>
       <c r="N4" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O4" s="8">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="O4" s="9">
-        <f t="shared" si="2"/>
-        <v>4.92</v>
-      </c>
-      <c r="P4" s="11">
-        <v>5</v>
+        <v>0.140000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1565,19 +1559,19 @@
       <c r="L5" s="5">
         <v>45879</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>9.18</v>
       </c>
       <c r="N5" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O5" s="8">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="O5" s="9">
-        <f t="shared" si="2"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>300529</v>
       </c>
@@ -1610,18 +1604,15 @@
         <v>45879</v>
       </c>
       <c r="M6" s="6">
-        <v>9.16</v>
+        <v>11.97</v>
       </c>
       <c r="N6" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O6" s="8">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" si="2"/>
-        <v>4.84</v>
-      </c>
-      <c r="P6" s="11">
-        <v>2.8</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1654,18 +1645,18 @@
         <v>45838</v>
       </c>
       <c r="M7" s="6">
-        <v>4.98</v>
+        <v>5.03</v>
       </c>
       <c r="N7" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O7" s="8">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" si="2"/>
-        <v>5.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>300573</v>
       </c>
@@ -1698,21 +1689,18 @@
         <v>45838</v>
       </c>
       <c r="M8" s="6">
-        <v>9.52</v>
+        <v>13.97</v>
       </c>
       <c r="N8" s="10">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O8" s="8">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="2"/>
-        <v>4.48</v>
-      </c>
-      <c r="P8" s="11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.0299999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,22 +1732,19 @@
       <c r="L9" s="5">
         <v>45867</v>
       </c>
-      <c r="M9" s="9">
-        <v>6.59</v>
+      <c r="M9" s="8">
+        <v>9.67</v>
       </c>
       <c r="N9" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O9" s="8">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="2"/>
-        <v>3.41</v>
-      </c>
-      <c r="P9" s="11">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1792,21 +1777,18 @@
         <v>45867</v>
       </c>
       <c r="M10" s="6">
-        <v>8.29</v>
+        <v>11.87</v>
       </c>
       <c r="N10" s="10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O10" s="8">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="O10" s="9">
-        <f t="shared" si="2"/>
-        <v>3.71</v>
-      </c>
-      <c r="P10" s="11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0.130000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1839,18 +1821,15 @@
         <v>45854</v>
       </c>
       <c r="M11" s="6">
-        <v>4.51</v>
+        <v>7.31</v>
       </c>
       <c r="N11" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O11" s="8">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O11" s="9">
-        <f t="shared" si="2"/>
-        <v>5.49</v>
-      </c>
-      <c r="P11" s="11">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1889,15 +1868,15 @@
         <v>4.12</v>
       </c>
       <c r="N12" s="10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O12" s="8">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="O12" s="9">
-        <f t="shared" si="2"/>
         <v>3.88</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1930,18 +1909,15 @@
         <v>45883</v>
       </c>
       <c r="M13" s="6">
-        <v>13.61</v>
+        <v>18.15</v>
       </c>
       <c r="N13" s="10">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O13" s="8">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="O13" s="9">
-        <f t="shared" si="2"/>
-        <v>4.39</v>
-      </c>
-      <c r="P13" s="11">
-        <v>4.4</v>
+        <v>-0.149999999999999</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:16">
@@ -1979,430 +1955,394 @@
         <v>45886</v>
       </c>
       <c r="M14" s="6">
-        <v>11.14</v>
+        <v>17.85</v>
       </c>
       <c r="N14" s="10">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O14" s="8">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="O14" s="9">
+        <v>0.149999999999999</v>
+      </c>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>37</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45873</v>
+      </c>
+      <c r="M15" s="6">
+        <v>5.47</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="2"/>
-        <v>6.86</v>
-      </c>
-      <c r="P14" s="11">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="3">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>48</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45888</v>
+      </c>
+      <c r="M16" s="6">
+        <v>10</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>55</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45756</v>
+      </c>
+      <c r="M17" s="6">
+        <v>4.43</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="18" spans="14:15">
+      <c r="N18" s="10"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="4">
+        <f>D19+F19+I19+G19+H19+J19</f>
+        <v>4</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45889</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <f>K19*2</f>
         <v>8</v>
       </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="O19" s="8">
+        <f>N19-M19</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
         <v>40</v>
       </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20" s="4">
         <v>-1</v>
       </c>
-      <c r="K16" s="4">
-        <f t="shared" ref="K16:K30" si="3">D16+F16+I16+G16+H16+J16</f>
-        <v>2</v>
-      </c>
-      <c r="L16" s="5">
+      <c r="K20" s="4">
+        <f t="shared" ref="K20:K35" si="3">D20+F20+I20+G20+H20+J20</f>
+        <v>2</v>
+      </c>
+      <c r="L20" s="5">
         <v>45867</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M20" s="6">
         <v>2.3</v>
       </c>
-      <c r="N16" s="7">
-        <f>K16*2</f>
+      <c r="N20" s="7">
+        <f>K20*2</f>
         <v>4</v>
       </c>
-      <c r="O16" s="9">
-        <f t="shared" si="2"/>
+      <c r="O20" s="8">
+        <f t="shared" ref="O20:O35" si="4">N20-M20</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="21" spans="1:15">
+      <c r="A21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
         <v>48</v>
       </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
         <v>-1</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K21" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L21" s="5">
         <v>45838</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M21" s="6">
         <v>2.09</v>
       </c>
-      <c r="N17" s="7">
-        <f t="shared" ref="N17:N30" si="4">K17*2</f>
+      <c r="N21" s="7">
+        <f t="shared" ref="N21:N35" si="5">K21*2</f>
         <v>6</v>
       </c>
-      <c r="O17" s="9">
-        <f t="shared" si="2"/>
+      <c r="O21" s="8">
+        <f t="shared" si="4"/>
         <v>3.91</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1">
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
         <v>603833</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
         <v>8</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>130</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F22" s="4">
         <v>6</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G22" s="4">
         <v>-1</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J22" s="4">
         <v>-1</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K22" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L22" s="5">
         <v>45884</v>
       </c>
-      <c r="M18" s="6">
-        <v>4.28</v>
-      </c>
-      <c r="N18" s="7">
+      <c r="M22" s="6">
+        <v>6.34</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O22" s="8">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="O18" s="9">
-        <f t="shared" si="2"/>
-        <v>5.72</v>
-      </c>
-      <c r="P18" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3">
         <v>9</v>
       </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
         <v>49</v>
       </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
         <v>-1</v>
       </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L23" s="5">
         <v>45838</v>
       </c>
-      <c r="M19" s="6">
-        <v>2.11</v>
-      </c>
-      <c r="N19" s="10">
+      <c r="M23" s="6">
+        <v>6.11</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O23" s="8">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O19" s="9">
-        <f t="shared" si="2"/>
-        <v>5.89</v>
-      </c>
-      <c r="P19" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3">
         <v>9</v>
       </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
         <v>60</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F24" s="4">
         <v>3</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K24" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L24" s="5">
         <v>45838</v>
       </c>
-      <c r="M20" s="6">
-        <v>6.22</v>
-      </c>
-      <c r="N20" s="7">
+      <c r="M24" s="6">
+        <v>9.89</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O24" s="8">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="O20" s="9">
-        <f t="shared" si="2"/>
-        <v>3.78</v>
-      </c>
-      <c r="P20" s="12">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>80</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L21" s="5">
-        <v>45886</v>
-      </c>
-      <c r="M21" s="6">
-        <v>4.07</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O21" s="9">
-        <f t="shared" si="2"/>
-        <v>9.93</v>
-      </c>
-      <c r="P21" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>26</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L22" s="5">
-        <v>45861</v>
-      </c>
-      <c r="M22" s="6">
-        <v>2.09</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O22" s="9">
-        <f t="shared" si="2"/>
-        <v>5.91</v>
-      </c>
-      <c r="P22" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="3">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>70</v>
-      </c>
-      <c r="F23" s="4">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L23" s="5">
-        <v>45861</v>
-      </c>
-      <c r="M23" s="6">
-        <v>5.87</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="O23" s="9">
-        <f t="shared" si="2"/>
-        <v>4.13</v>
-      </c>
-      <c r="P23" s="11">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="3">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>37</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L24" s="5">
-        <v>45873</v>
-      </c>
-      <c r="M24" s="6">
-        <v>2.77</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O24" s="9">
-        <f t="shared" si="2"/>
-        <v>3.23</v>
-      </c>
-      <c r="P24" s="11">
-        <v>2.8</v>
-      </c>
+        <v>0.109999999999999</v>
+      </c>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
@@ -2412,40 +2352,40 @@
         <v>53</v>
       </c>
       <c r="C25" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L25" s="5">
-        <v>45877</v>
+        <v>45886</v>
       </c>
       <c r="M25" s="6">
-        <v>3.06</v>
+        <v>12</v>
       </c>
       <c r="N25" s="10">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="O25" s="8">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O25" s="9">
-        <f t="shared" si="2"/>
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2453,40 +2393,43 @@
         <v>55</v>
       </c>
       <c r="C26" s="3">
-        <v>4.6</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="F26" s="4">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>-1</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" s="5">
-        <v>45848</v>
+        <v>45861</v>
       </c>
       <c r="M26" s="6">
-        <v>2.08</v>
+        <v>4.25</v>
       </c>
       <c r="N26" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O26" s="8">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="2"/>
-        <v>5.92</v>
-      </c>
-      <c r="P26" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2494,40 +2437,37 @@
         <v>57</v>
       </c>
       <c r="C27" s="3">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L27" s="5">
-        <v>45873</v>
+        <v>45861</v>
       </c>
       <c r="M27" s="6">
-        <v>2.08</v>
+        <v>9.63</v>
       </c>
       <c r="N27" s="10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O27" s="8">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="2"/>
-        <v>5.92</v>
-      </c>
-      <c r="P27" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>-1.63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -2535,13 +2475,13 @@
         <v>59</v>
       </c>
       <c r="C28" s="3">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="D28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F28" s="4">
         <v>3</v>
@@ -2550,31 +2490,28 @@
         <v>-1</v>
       </c>
       <c r="J28" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28" s="5">
-        <v>45756</v>
+        <v>45877</v>
       </c>
       <c r="M28" s="6">
-        <v>2.46</v>
+        <v>3.06</v>
       </c>
       <c r="N28" s="10">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O28" s="8">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O28" s="9">
-        <f t="shared" si="2"/>
-        <v>3.54</v>
-      </c>
-      <c r="P28" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -2582,43 +2519,37 @@
         <v>61</v>
       </c>
       <c r="C29" s="3">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="D29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L29" s="5">
-        <v>45888</v>
+        <v>45848</v>
       </c>
       <c r="M29" s="6">
-        <v>0</v>
+        <v>8.03</v>
       </c>
       <c r="N29" s="10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O29" s="8">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O29" s="9">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="P29" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>-0.0299999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -2626,43 +2557,37 @@
         <v>63</v>
       </c>
       <c r="C30" s="3">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="D30" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F30" s="4">
-        <v>2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" s="5">
-        <v>45888</v>
+        <v>45873</v>
       </c>
       <c r="M30" s="6">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="N30" s="10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O30" s="8">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="O30" s="9">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="P30" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>0.0499999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -2670,117 +2595,119 @@
         <v>65</v>
       </c>
       <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>33</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45888</v>
+      </c>
+      <c r="M31" s="6">
+        <v>7.86</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="4"/>
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="3">
         <v>6</v>
       </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
         <v>120</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>5</v>
       </c>
-      <c r="J31" s="4">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4">
-        <f>D31+F31+I31+G31+H31+J31</f>
-        <v>7</v>
-      </c>
-      <c r="L31" s="5">
+      <c r="K32" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L32" s="5">
         <v>45889</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M32" s="6">
+        <v>13.65</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D35" s="4">
         <v>0</v>
       </c>
-      <c r="N31" s="10">
-        <f>K31*2</f>
-        <v>14</v>
-      </c>
-      <c r="O31" s="9">
-        <f>N31-M31</f>
-        <v>14</v>
-      </c>
-      <c r="P31" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="E35" s="3">
         <v>17</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" ref="K34:K44" si="5">D34+F34+I34+G34+H34+J34</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1">
-        <v>603173</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="3">
-        <v>10</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3">
-        <v>18</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4">
-        <v>1</v>
-      </c>
       <c r="K35" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" ref="K35:K45" si="6">D35+F35+I35+G35+H35+J35</f>
+        <v>0</v>
       </c>
       <c r="L35" s="5">
-        <v>45863</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
+      <c r="A36" s="1">
+        <v>603173</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4">
         <v>2</v>
       </c>
       <c r="E36" s="3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -2788,12 +2715,15 @@
       <c r="G36" s="4">
         <v>1</v>
       </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
       <c r="K36" s="4">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="L36" s="5">
-        <v>45869</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2804,23 +2734,26 @@
         <v>72</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>30</v>
+      </c>
+      <c r="F37" s="4">
         <v>0</v>
       </c>
-      <c r="E37" s="3">
-        <v>68</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>1</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="L37" s="5">
-        <v>45878</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2831,19 +2764,19 @@
         <v>74</v>
       </c>
       <c r="C38" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L38" s="5">
@@ -2858,17 +2791,23 @@
         <v>76</v>
       </c>
       <c r="C39" s="3">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
       </c>
       <c r="E39" s="3">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L39" s="5">
-        <v>45881</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2879,47 +2818,38 @@
         <v>78</v>
       </c>
       <c r="C40" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E40" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L40" s="5">
         <v>45881</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="1" t="s">
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="3">
-        <v>6</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="C41" s="3">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>90</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K46" s="4">
-        <v>2</v>
-      </c>
-      <c r="L46" s="5">
-        <v>45878</v>
-      </c>
-      <c r="N46" s="7">
-        <f t="shared" ref="N45:N52" si="6">K46*2</f>
-        <v>4</v>
+      <c r="L41" s="5">
+        <v>45881</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2929,15 +2859,27 @@
       <c r="B47" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="C47" s="3">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
       <c r="K47" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L47" s="5">
         <v>45878</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" ref="N46:N53" si="7">K47*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2948,14 +2890,14 @@
         <v>84</v>
       </c>
       <c r="K48" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L48" s="5">
         <v>45878</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2966,14 +2908,14 @@
         <v>86</v>
       </c>
       <c r="K49" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L49" s="5">
         <v>45878</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2984,14 +2926,14 @@
         <v>88</v>
       </c>
       <c r="K50" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L50" s="5">
         <v>45878</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3002,14 +2944,14 @@
         <v>90</v>
       </c>
       <c r="K51" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L51" s="5">
         <v>45878</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3020,37 +2962,32 @@
         <v>92</v>
       </c>
       <c r="K52" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L52" s="5">
         <v>45878</v>
       </c>
       <c r="N52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" s="4">
+        <v>4</v>
+      </c>
+      <c r="L53" s="5">
+        <v>45878</v>
+      </c>
+      <c r="N53" s="7">
+        <f t="shared" si="7"/>
         <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="3">
-        <v>9</v>
-      </c>
-      <c r="D54" s="4">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3">
-        <v>110</v>
-      </c>
-      <c r="F54" s="4">
-        <v>3</v>
-      </c>
-      <c r="L54" s="5">
-        <v>45878</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3067,10 +3004,10 @@
         <v>2</v>
       </c>
       <c r="E55" s="3">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F55" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L55" s="5">
         <v>45878</v>
@@ -3090,10 +3027,10 @@
         <v>2</v>
       </c>
       <c r="E56" s="3">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F56" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L56" s="5">
         <v>45878</v>
@@ -3107,16 +3044,16 @@
         <v>100</v>
       </c>
       <c r="C57" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
       </c>
       <c r="E57" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F57" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L57" s="5">
         <v>45878</v>
@@ -3130,18 +3067,41 @@
         <v>102</v>
       </c>
       <c r="C58" s="3">
+        <v>11</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3">
+        <v>150</v>
+      </c>
+      <c r="F58" s="4">
+        <v>4</v>
+      </c>
+      <c r="L58" s="5">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="3">
         <v>10</v>
       </c>
-      <c r="D58" s="4">
-        <v>2</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
         <v>60</v>
       </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="L58" s="5">
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5">
         <v>45878</v>
       </c>
     </row>
@@ -3150,7 +3110,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A19:A25 A9:A11 A16:A17 A36 A34" numberStoredAsText="1"/>
+    <ignoredError sqref="A35 A37 A20:A21 A9:A11 A2 A13:A17 A23:A32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3164,7 +3124,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -518,7 +518,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +856,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,16 +880,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -892,89 +898,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,6 +1012,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1327,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1402,7 +1414,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1437,7 +1449,7 @@
         <f>K2*2</f>
         <v>8</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="11">
         <f t="shared" ref="O2:O17" si="1">N2-M2</f>
         <v>3.02</v>
       </c>
@@ -1481,7 +1493,7 @@
         <f t="shared" ref="N3:N17" si="2">K3*2</f>
         <v>20</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1566,7 +1578,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="11">
         <f t="shared" si="1"/>
         <v>2.82</v>
       </c>
@@ -1610,7 +1622,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="11">
         <f t="shared" si="1"/>
         <v>2.03</v>
       </c>
@@ -1651,7 +1663,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="11">
         <f t="shared" si="1"/>
         <v>4.97</v>
       </c>
@@ -1827,7 +1839,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="11">
         <f t="shared" si="1"/>
         <v>2.69</v>
       </c>
@@ -1871,7 +1883,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="11">
         <f t="shared" si="1"/>
         <v>3.88</v>
       </c>
@@ -2016,23 +2028,23 @@
         <v>38</v>
       </c>
       <c r="C16" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16" s="5">
         <v>45888</v>
@@ -2042,11 +2054,11 @@
       </c>
       <c r="N16" s="10">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="O16" s="8">
+        <v>6</v>
+      </c>
+      <c r="O16" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2124,7 +2136,7 @@
         <v>45889</v>
       </c>
       <c r="M19" s="6">
-        <v>0</v>
+        <v>7.84</v>
       </c>
       <c r="N19" s="10">
         <f>K19*2</f>
@@ -2132,7 +2144,7 @@
       </c>
       <c r="O19" s="8">
         <f>N19-M19</f>
-        <v>8</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2177,7 +2189,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -2256,13 +2268,13 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="11">
         <f t="shared" si="4"/>
         <v>3.66</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2300,13 +2312,13 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="11">
         <f t="shared" si="4"/>
         <v>1.89</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2342,7 +2354,7 @@
         <f t="shared" si="4"/>
         <v>0.109999999999999</v>
       </c>
-      <c r="P24" s="11"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
@@ -2380,7 +2392,7 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="11">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -2424,7 +2436,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="11">
         <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
@@ -2462,7 +2474,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="12">
         <f t="shared" si="4"/>
         <v>-1.63</v>
       </c>
@@ -2642,28 +2654,28 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F32" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L32" s="5">
         <v>45889</v>
       </c>
       <c r="M32" s="6">
-        <v>13.65</v>
+        <v>12.1</v>
       </c>
       <c r="N32" s="10">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="O32" s="8">
+        <v>14</v>
+      </c>
+      <c r="O32" s="11">
         <f t="shared" si="4"/>
-        <v>-1.65</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3110,7 +3122,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A35 A37 A20:A21 A9:A11 A2 A13:A17 A23:A32" numberStoredAsText="1"/>
+    <ignoredError sqref="A23:A32 A13:A17 A2 A9:A11 A19:A21 A37 A35" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -153,6 +153,12 @@
     <t>中国中免</t>
   </si>
   <si>
+    <t>002690</t>
+  </si>
+  <si>
+    <t>美亚光电</t>
+  </si>
+  <si>
     <t>000513</t>
   </si>
   <si>
@@ -178,12 +184,6 @@
   </si>
   <si>
     <t>山西焦煤</t>
-  </si>
-  <si>
-    <t>002690</t>
-  </si>
-  <si>
-    <t>美亚光电</t>
   </si>
   <si>
     <t>605305</t>
@@ -1339,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2102,107 +2102,105 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="18" spans="14:15">
-      <c r="N18" s="10"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:16">
+      <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>64</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="C18" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>49</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4">
+        <f>D18+F18+I18+G18+H18+J18</f>
         <v>3</v>
       </c>
-      <c r="J19" s="4">
-        <v>-1</v>
-      </c>
-      <c r="K19" s="4">
-        <f>D19+F19+I19+G19+H19+J19</f>
-        <v>4</v>
-      </c>
-      <c r="L19" s="5">
-        <v>45889</v>
-      </c>
-      <c r="M19" s="6">
-        <v>7.84</v>
-      </c>
-      <c r="N19" s="10">
-        <f>K19*2</f>
-        <v>8</v>
-      </c>
-      <c r="O19" s="8">
-        <f>N19-M19</f>
-        <v>0.16</v>
-      </c>
+      <c r="L18" s="5">
+        <v>45890</v>
+      </c>
+      <c r="M18" s="6">
+        <v>9.89</v>
+      </c>
+      <c r="N18" s="7">
+        <f>K18*2</f>
+        <v>6</v>
+      </c>
+      <c r="O18" s="12">
+        <f>N18-M18</f>
+        <v>-3.89</v>
+      </c>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="14:15">
+      <c r="N19" s="10"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="4">
         <v>-1</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" ref="K20:K35" si="3">D20+F20+I20+G20+H20+J20</f>
-        <v>2</v>
+        <f>D20+F20+I20+G20+H20+J20</f>
+        <v>4</v>
       </c>
       <c r="L20" s="5">
-        <v>45867</v>
+        <v>45889</v>
       </c>
       <c r="M20" s="6">
-        <v>2.3</v>
-      </c>
-      <c r="N20" s="7">
+        <v>7.84</v>
+      </c>
+      <c r="N20" s="10">
         <f>K20*2</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" ref="O20:O35" si="4">N20-M20</f>
-        <v>1.7</v>
+        <f>N20-M20</f>
+        <v>0.16</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -2211,113 +2209,110 @@
         <v>-1</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>D21+F21+I21+G21+H21+J21</f>
+        <v>2</v>
       </c>
       <c r="L21" s="5">
-        <v>45838</v>
+        <v>45867</v>
       </c>
       <c r="M21" s="6">
-        <v>2.09</v>
+        <v>2.3</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" ref="N21:N35" si="5">K21*2</f>
-        <v>6</v>
+        <f>K21*2</f>
+        <v>4</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="4"/>
-        <v>3.91</v>
+        <f>N21-M21</f>
+        <v>1.7</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>603833</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="B22" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F22" s="4">
-        <v>6</v>
-      </c>
-      <c r="G22" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="4">
         <v>-1</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>D22+F22+I22+G22+H22+J22</f>
+        <v>3</v>
       </c>
       <c r="L22" s="5">
-        <v>45884</v>
+        <v>45838</v>
       </c>
       <c r="M22" s="6">
-        <v>6.34</v>
+        <v>2.09</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O22" s="11">
-        <f t="shared" si="4"/>
-        <v>3.66</v>
+        <f>K22*2</f>
+        <v>6</v>
+      </c>
+      <c r="O22" s="8">
+        <f>N22-M22</f>
+        <v>3.91</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="14" t="s">
-        <v>48</v>
+      <c r="A23" s="1">
+        <v>603833</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="F23" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="4">
         <v>-1</v>
       </c>
       <c r="J23" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>D23+F23+I23+G23+H23+J23</f>
+        <v>5</v>
       </c>
       <c r="L23" s="5">
-        <v>45838</v>
+        <v>45884</v>
       </c>
       <c r="M23" s="6">
-        <v>6.11</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>6.34</v>
+      </c>
+      <c r="N23" s="7">
+        <f>K23*2</f>
+        <v>10</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" si="4"/>
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <f>N23-M23</f>
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -2331,30 +2326,35 @@
         <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F24" s="4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>D24+F24+I24+G24+H24+J24</f>
+        <v>4</v>
       </c>
       <c r="L24" s="5">
         <v>45838</v>
       </c>
       <c r="M24" s="6">
-        <v>9.89</v>
-      </c>
-      <c r="N24" s="7">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="4"/>
-        <v>0.109999999999999</v>
-      </c>
-      <c r="P24" s="13"/>
+        <v>6.11</v>
+      </c>
+      <c r="N24" s="10">
+        <f>K24*2</f>
+        <v>8</v>
+      </c>
+      <c r="O24" s="11">
+        <f>N24-M24</f>
+        <v>1.89</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K25:K35" si="3">D25+F25+I25+G25+H25+J25</f>
         <v>7</v>
       </c>
       <c r="L25" s="5">
@@ -2389,11 +2389,11 @@
         <v>12</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N25:N35" si="4">K25*2</f>
         <v>14</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O25:O35" si="5">N25-M25</f>
         <v>2</v>
       </c>
     </row>
@@ -2433,11 +2433,11 @@
         <v>4.25</v>
       </c>
       <c r="N26" s="10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O26" s="11">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="O26" s="11">
-        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
     </row>
@@ -2471,11 +2471,11 @@
         <v>9.63</v>
       </c>
       <c r="N27" s="10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O27" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="O27" s="12">
-        <f t="shared" si="4"/>
         <v>-1.63</v>
       </c>
     </row>
@@ -2515,11 +2515,11 @@
         <v>3.06</v>
       </c>
       <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O28" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O28" s="8">
-        <f t="shared" si="4"/>
         <v>0.94</v>
       </c>
     </row>
@@ -2553,11 +2553,11 @@
         <v>8.03</v>
       </c>
       <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O29" s="8">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="O29" s="8">
-        <f t="shared" si="4"/>
         <v>-0.0299999999999994</v>
       </c>
     </row>
@@ -2591,11 +2591,11 @@
         <v>7.95</v>
       </c>
       <c r="N30" s="10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O30" s="8">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="O30" s="8">
-        <f t="shared" si="4"/>
         <v>0.0499999999999998</v>
       </c>
     </row>
@@ -2632,11 +2632,11 @@
         <v>7.86</v>
       </c>
       <c r="N31" s="10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O31" s="8">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="4"/>
         <v>0.14</v>
       </c>
     </row>
@@ -2670,11 +2670,11 @@
         <v>12.1</v>
       </c>
       <c r="N32" s="10">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="O32" s="11">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="O32" s="11">
-        <f t="shared" si="4"/>
         <v>1.9</v>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A23:A32 A13:A17 A2 A9:A11 A19:A21 A37 A35" numberStoredAsText="1"/>
+    <ignoredError sqref="A35 A37 A20:A22 A9:A11 A2 A13:A17 A24 A25:A32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>代码</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>海天味业</t>
+  </si>
+  <si>
+    <t>002947</t>
+  </si>
+  <si>
+    <t>恒铭达</t>
   </si>
   <si>
     <t>002648</t>
@@ -980,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,10 +1023,13 @@
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1340,7 +1349,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1414,7 +1423,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1436,7 +1445,7 @@
         <v>-1</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K17" si="0">D2+F2+I2+G2+H2+J2</f>
+        <f t="shared" ref="K2:K18" si="0">D2+F2+I2+G2+H2+J2</f>
         <v>4</v>
       </c>
       <c r="L2" s="5">
@@ -1450,7 +1459,7 @@
         <v>8</v>
       </c>
       <c r="O2" s="11">
-        <f t="shared" ref="O2:O17" si="1">N2-M2</f>
+        <f t="shared" ref="O2:O18" si="1">N2-M2</f>
         <v>3.02</v>
       </c>
     </row>
@@ -1490,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N17" si="2">K3*2</f>
+        <f t="shared" ref="N3:N18" si="2">K3*2</f>
         <v>20</v>
       </c>
       <c r="O3" s="11">
@@ -1591,13 +1600,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="3">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
@@ -1613,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="L6" s="5">
-        <v>45879</v>
+        <v>45891</v>
       </c>
       <c r="M6" s="6">
         <v>11.97</v>
@@ -2050,15 +2059,15 @@
         <v>45888</v>
       </c>
       <c r="M16" s="6">
-        <v>10</v>
+        <v>6.26</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="8">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2103,7 +2112,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2122,24 +2131,24 @@
         <v>2</v>
       </c>
       <c r="K18" s="4">
-        <f>D18+F18+I18+G18+H18+J18</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L18" s="5">
         <v>45890</v>
       </c>
       <c r="M18" s="6">
-        <v>9.89</v>
+        <v>6.12</v>
       </c>
       <c r="N18" s="7">
-        <f>K18*2</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O18" s="12">
-        <f>N18-M18</f>
-        <v>-3.89</v>
-      </c>
-      <c r="P18" s="13"/>
+      <c r="O18" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.12</v>
+      </c>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="14:15">
       <c r="N19" s="10"/>
@@ -2228,7 +2237,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2313,7 +2322,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2364,13 +2373,13 @@
         <v>53</v>
       </c>
       <c r="C25" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4">
         <v>4</v>
@@ -2380,21 +2389,21 @@
       </c>
       <c r="K25" s="4">
         <f t="shared" ref="K25:K35" si="3">D25+F25+I25+G25+H25+J25</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L25" s="5">
-        <v>45886</v>
+        <v>45891</v>
       </c>
       <c r="M25" s="6">
         <v>12</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ref="N25:N35" si="4">K25*2</f>
-        <v>14</v>
-      </c>
-      <c r="O25" s="11">
+        <v>12</v>
+      </c>
+      <c r="O25" s="13">
         <f t="shared" ref="O25:O35" si="5">N25-M25</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2449,23 +2458,21 @@
         <v>57</v>
       </c>
       <c r="C27" s="3">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="3">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F27" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L27" s="5">
-        <v>45861</v>
+        <v>45891</v>
       </c>
       <c r="M27" s="6">
         <v>9.63</v>
@@ -2474,7 +2481,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="14">
         <f t="shared" si="5"/>
         <v>-1.63</v>
       </c>
@@ -2678,12 +2685,53 @@
         <v>1.9</v>
       </c>
     </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>34</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <f>D33+F33+I33+G33+H33+J33</f>
+        <v>4</v>
+      </c>
+      <c r="L33" s="5">
+        <v>45891</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
+        <f>K33*2</f>
+        <v>8</v>
+      </c>
+      <c r="O33" s="11">
+        <f>N33-M33</f>
+        <v>8</v>
+      </c>
+    </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3">
         <v>5.8</v>
@@ -2710,7 +2758,7 @@
         <v>603173</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3">
         <v>10</v>
@@ -2740,10 +2788,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="3">
         <v>14</v>
@@ -2770,10 +2818,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -2797,10 +2845,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="3">
         <v>7</v>
@@ -2824,10 +2872,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="3">
         <v>10</v>
@@ -2845,10 +2893,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3">
         <v>7</v>
@@ -2866,10 +2914,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C47" s="3">
         <v>6</v>
@@ -2896,10 +2944,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K48" s="4">
         <v>8</v>
@@ -2914,10 +2962,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K49" s="4">
         <v>10</v>
@@ -2932,10 +2980,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K50" s="4">
         <v>20</v>
@@ -2950,10 +2998,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K51" s="4">
         <v>2</v>
@@ -2968,10 +3016,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K52" s="4">
         <v>6</v>
@@ -2986,10 +3034,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K53" s="4">
         <v>4</v>
@@ -3004,10 +3052,10 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C55" s="3">
         <v>9</v>
@@ -3027,10 +3075,10 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C56" s="3">
         <v>9</v>
@@ -3050,10 +3098,10 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C57" s="3">
         <v>9</v>
@@ -3073,10 +3121,10 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C58" s="3">
         <v>11</v>
@@ -3096,10 +3144,10 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C59" s="3">
         <v>10</v>
@@ -3122,7 +3170,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A35 A37 A20:A22 A9:A11 A2 A13:A17 A24 A25:A32" numberStoredAsText="1"/>
+    <ignoredError sqref="A35 A37 A20:A22 A9:A11 A2 A13:A17 A24:A32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="25640" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>代码</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>恒铭达</t>
+  </si>
+  <si>
+    <t>300595</t>
+  </si>
+  <si>
+    <t>欧普康视</t>
+  </si>
+  <si>
+    <t>300724</t>
+  </si>
+  <si>
+    <t>捷佳伟创</t>
   </si>
   <si>
     <t>002648</t>
@@ -986,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,9 +1036,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1346,29 +1355,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3416666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.41666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.79166666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.55833333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.16666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.975" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.06666666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.69166666666667" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.70833333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.41818181818182" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.79090909090909" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.55454545454545" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.16363636363636" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.97272727272727" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.06363636363636" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.87272727272727" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.69090909090909" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.70909090909091" style="4" customWidth="1"/>
     <col min="12" max="12" width="17" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.325" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.325" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.32727272727273" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.32727272727273" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.12727272727273" style="6" customWidth="1"/>
     <col min="16" max="16" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -1423,7 +1432,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1463,7 +1472,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>300896</v>
       </c>
@@ -1506,6 +1515,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="P3" s="8">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
@@ -1592,7 +1604,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>300529</v>
       </c>
@@ -1635,6 +1647,9 @@
         <f t="shared" si="1"/>
         <v>2.03</v>
       </c>
+      <c r="P6" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
@@ -1809,7 +1824,7 @@
         <v>0.130000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1852,6 +1867,9 @@
         <f t="shared" si="1"/>
         <v>2.69</v>
       </c>
+      <c r="P11" s="8">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
@@ -2112,7 +2130,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2237,7 +2255,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2322,7 +2340,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2401,7 +2419,7 @@
         <f t="shared" ref="N25:N35" si="4">K25*2</f>
         <v>12</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="8">
         <f t="shared" ref="O25:O35" si="5">N25-M25</f>
         <v>0</v>
       </c>
@@ -2450,7 +2468,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2460,7 +2478,6 @@
       <c r="C27" s="3">
         <v>4</v>
       </c>
-      <c r="D27" s="4"/>
       <c r="E27" s="3">
         <v>92</v>
       </c>
@@ -2481,9 +2498,12 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="13">
         <f t="shared" si="5"/>
         <v>-1.63</v>
+      </c>
+      <c r="P27" s="8">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2647,7 +2667,7 @@
         <v>0.14</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -2684,8 +2704,11 @@
         <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="8">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -2704,12 +2727,10 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
+      <c r="G33" s="4"/>
       <c r="K33" s="4">
-        <f>D33+F33+I33+G33+H33+J33</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="L33" s="5">
         <v>45891</v>
@@ -2718,129 +2739,154 @@
         <v>0</v>
       </c>
       <c r="N33" s="10">
-        <f>K33*2</f>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="O33" s="11">
-        <f>N33-M33</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P33" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>150</v>
+      </c>
+      <c r="F34" s="4">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="4">
+        <f>D34+F34+I34+G34+H34+J34</f>
+        <v>7</v>
+      </c>
+      <c r="L34" s="5">
+        <v>45892</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
+        <f>K34*2</f>
+        <v>14</v>
+      </c>
+      <c r="O34" s="11">
+        <f>N34-M34</f>
+        <v>14</v>
+      </c>
+      <c r="P34" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="3">
-        <v>5.8</v>
+        <v>73</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <f>D35+F35+I35+G35+H35+J35</f>
+        <v>4</v>
+      </c>
+      <c r="L35" s="5">
+        <v>45892</v>
+      </c>
+      <c r="N35" s="10">
+        <f>K35*2</f>
+        <v>8</v>
+      </c>
+      <c r="O35" s="11">
+        <f>N35-M35</f>
+        <v>8</v>
+      </c>
+      <c r="P35" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
         <v>17</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F37" s="4">
         <v>0</v>
       </c>
-      <c r="K35" s="4">
-        <f t="shared" ref="K35:K45" si="6">D35+F35+I35+G35+H35+J35</f>
+      <c r="K37" s="4">
+        <f t="shared" ref="K37:K47" si="6">D37+F37+I37+G37+H37+J37</f>
         <v>0</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L37" s="5">
         <v>45848</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1">
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
         <v>603173</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3">
         <v>10</v>
       </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
         <v>18</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F38" s="4">
         <v>0</v>
       </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1</v>
-      </c>
-      <c r="K36" s="4">
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L38" s="5">
         <v>45863</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="3">
-        <v>14</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3">
-        <v>30</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="L37" s="5">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>68</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L38" s="5">
-        <v>45878</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2851,23 +2897,26 @@
         <v>78</v>
       </c>
       <c r="C39" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="3">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
       </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
       <c r="K39" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39" s="5">
-        <v>45878</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2878,17 +2927,23 @@
         <v>80</v>
       </c>
       <c r="C40" s="3">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="5">
-        <v>45881</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2901,63 +2956,63 @@
       <c r="C41" s="3">
         <v>7</v>
       </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
       <c r="E41" s="3">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
+        <v>67</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L42" s="5">
         <v>45881</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="3">
-        <v>6</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-      <c r="F47" s="4">
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3">
+        <v>90</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K47" s="4">
-        <v>2</v>
-      </c>
-      <c r="L47" s="5">
-        <v>45878</v>
-      </c>
-      <c r="N47" s="7">
-        <f t="shared" ref="N46:N53" si="7">K47*2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K48" s="4">
-        <v>8</v>
-      </c>
-      <c r="L48" s="5">
-        <v>45878</v>
-      </c>
-      <c r="N48" s="7">
-        <f t="shared" si="7"/>
-        <v>16</v>
+      <c r="L43" s="5">
+        <v>45881</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2967,15 +3022,27 @@
       <c r="B49" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
       <c r="K49" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L49" s="5">
         <v>45878</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" ref="N48:N55" si="7">K49*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2986,14 +3053,14 @@
         <v>90</v>
       </c>
       <c r="K50" s="4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L50" s="5">
         <v>45878</v>
       </c>
       <c r="N50" s="7">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3004,14 +3071,14 @@
         <v>92</v>
       </c>
       <c r="K51" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L51" s="5">
         <v>45878</v>
       </c>
       <c r="N51" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3022,14 +3089,14 @@
         <v>94</v>
       </c>
       <c r="K52" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L52" s="5">
         <v>45878</v>
       </c>
       <c r="N52" s="7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3040,60 +3107,50 @@
         <v>96</v>
       </c>
       <c r="K53" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L53" s="5">
         <v>45878</v>
       </c>
       <c r="N53" s="7">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K54" s="4">
+        <v>6</v>
+      </c>
+      <c r="L54" s="5">
+        <v>45878</v>
+      </c>
+      <c r="N54" s="7">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="3">
-        <v>9</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3">
-        <v>110</v>
-      </c>
-      <c r="F55" s="4">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K55" s="4">
+        <v>4</v>
       </c>
       <c r="L55" s="5">
         <v>45878</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="3">
-        <v>9</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2</v>
-      </c>
-      <c r="E56" s="3">
-        <v>140</v>
-      </c>
-      <c r="F56" s="4">
-        <v>4</v>
-      </c>
-      <c r="L56" s="5">
-        <v>45878</v>
+      <c r="N55" s="7">
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3110,10 +3167,10 @@
         <v>2</v>
       </c>
       <c r="E57" s="3">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F57" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57" s="5">
         <v>45878</v>
@@ -3127,13 +3184,13 @@
         <v>104</v>
       </c>
       <c r="C58" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
       </c>
       <c r="E58" s="3">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F58" s="4">
         <v>4</v>
@@ -3150,18 +3207,64 @@
         <v>106</v>
       </c>
       <c r="C59" s="3">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>90</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="L59" s="5">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="3">
+        <v>11</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>150</v>
+      </c>
+      <c r="F60" s="4">
+        <v>4</v>
+      </c>
+      <c r="L60" s="5">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="3">
         <v>10</v>
       </c>
-      <c r="D59" s="4">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D61" s="4">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
         <v>60</v>
       </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="L59" s="5">
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="L61" s="5">
         <v>45878</v>
       </c>
     </row>
@@ -3170,7 +3273,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A35 A37 A20:A22 A9:A11 A2 A13:A17 A24:A32" numberStoredAsText="1"/>
+    <ignoredError sqref="A24:A32 A13:A17 A2 A9:A11 A20:A22 A39 A37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3184,7 +3287,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25640" windowHeight="13920"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,12 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +868,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,16 +892,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -916,85 +910,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,10 +1029,10 @@
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1357,27 +1351,27 @@
   <sheetPr/>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.8545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.41818181818182" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.79090909090909" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.55454545454545" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.16363636363636" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.97272727272727" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.06363636363636" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.87272727272727" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.69090909090909" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.70909090909091" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3416666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.41666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.79166666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.55833333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.16666666666667" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.975" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.06666666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.69166666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.70833333333333" style="4" customWidth="1"/>
     <col min="12" max="12" width="17" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.32727272727273" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.32727272727273" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.12727272727273" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.325" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.325" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="6" customWidth="1"/>
     <col min="16" max="16" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -1472,7 +1466,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>300896</v>
       </c>
@@ -1505,18 +1499,15 @@
         <v>45888</v>
       </c>
       <c r="M3" s="8">
-        <v>16</v>
+        <v>19.85</v>
       </c>
       <c r="N3" s="7">
         <f t="shared" ref="N3:N18" si="2">K3*2</f>
         <v>20</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="12">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="P3" s="8">
-        <v>3.8</v>
+        <v>0.149999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1788,16 +1779,16 @@
         <v>27</v>
       </c>
       <c r="C10" s="3">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -1807,24 +1798,24 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L10" s="5">
-        <v>45867</v>
+        <v>45893</v>
       </c>
       <c r="M10" s="6">
         <v>11.87</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="O10" s="8">
+        <v>30</v>
+      </c>
+      <c r="O10" s="11">
         <f t="shared" si="1"/>
-        <v>0.130000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1857,18 +1848,15 @@
         <v>45854</v>
       </c>
       <c r="M11" s="6">
-        <v>7.31</v>
+        <v>10.09</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="12">
         <f t="shared" si="1"/>
-        <v>2.69</v>
-      </c>
-      <c r="P11" s="8">
-        <v>2.8</v>
+        <v>-0.0899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2166,7 +2154,7 @@
         <f t="shared" si="1"/>
         <v>-0.12</v>
       </c>
-      <c r="P18" s="12"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="14:15">
       <c r="N19" s="10"/>
@@ -2468,7 +2456,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2492,18 +2480,15 @@
         <v>45891</v>
       </c>
       <c r="M27" s="6">
-        <v>9.63</v>
+        <v>8</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="12">
         <f t="shared" si="5"/>
-        <v>-1.63</v>
-      </c>
-      <c r="P27" s="8">
-        <v>-1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2708,7 +2693,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -2727,7 +2712,6 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4"/>
       <c r="K33" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2736,18 +2720,15 @@
         <v>45891</v>
       </c>
       <c r="M33" s="6">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="N33" s="10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="12">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="P33" s="8">
-        <v>6</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2773,7 +2754,7 @@
         <v>-1</v>
       </c>
       <c r="K34" s="4">
-        <f>D34+F34+I34+G34+H34+J34</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="L34" s="5">
@@ -2783,11 +2764,11 @@
         <v>0</v>
       </c>
       <c r="N34" s="10">
-        <f>K34*2</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="O34" s="11">
-        <f>N34-M34</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="P34" s="8">
@@ -2811,18 +2792,18 @@
         <v>1</v>
       </c>
       <c r="K35" s="4">
-        <f>D35+F35+I35+G35+H35+J35</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L35" s="5">
         <v>45892</v>
       </c>
       <c r="N35" s="10">
-        <f>K35*2</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O35" s="11">
-        <f>N35-M35</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P35" s="8">
@@ -3273,7 +3254,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A24:A32 A13:A17 A2 A9:A11 A20:A22 A39 A37" numberStoredAsText="1"/>
+    <ignoredError sqref="A37 A39 A20:A22 A9:A11 A2 A13:A17 A24:A32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3287,7 +3268,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1351,8 +1351,8 @@
   <sheetPr/>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1444,12 +1444,9 @@
       <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="J2" s="4">
-        <v>-1</v>
-      </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:K18" si="0">D2+F2+I2+G2+H2+J2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="5">
         <v>45838</v>
@@ -1459,11 +1456,11 @@
       </c>
       <c r="N2" s="10">
         <f>K2*2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O2" s="11">
         <f t="shared" ref="O2:O18" si="1">N2-M2</f>
-        <v>3.02</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1505,7 +1502,7 @@
         <f t="shared" ref="N3:N18" si="2">K3*2</f>
         <v>20</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="8">
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
@@ -1638,7 +1635,7 @@
         <f t="shared" si="1"/>
         <v>2.03</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1646,7 +1643,7 @@
       <c r="A7" s="1">
         <v>603605</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3">
@@ -1678,7 +1675,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="12">
         <f t="shared" si="1"/>
         <v>4.97</v>
       </c>
@@ -1727,11 +1724,11 @@
         <v>0.0299999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3">
@@ -1770,8 +1767,11 @@
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="8">
+        <v>-3.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1814,12 +1814,15 @@
         <f t="shared" si="1"/>
         <v>18.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="8">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="11" ht="14" customHeight="1" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="3">
@@ -1854,16 +1857,19 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="8">
         <f t="shared" si="1"/>
         <v>-0.0899999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="8">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>300628</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="3">
@@ -1881,12 +1887,9 @@
       <c r="G12" s="4">
         <v>-1</v>
       </c>
-      <c r="J12" s="4">
-        <v>-1</v>
-      </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" s="5">
         <v>45868</v>
@@ -1896,11 +1899,14 @@
       </c>
       <c r="N12" s="10">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="O12" s="11">
+        <v>10</v>
+      </c>
+      <c r="O12" s="12">
         <f t="shared" si="1"/>
-        <v>3.88</v>
+        <v>5.88</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.88</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1994,11 +2000,11 @@
       </c>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="3">
@@ -2034,12 +2040,15 @@
         <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="8">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="3">
@@ -2075,12 +2084,15 @@
         <f t="shared" si="1"/>
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="8">
+        <v>-3.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="3">
@@ -2116,12 +2128,15 @@
         <f t="shared" si="1"/>
         <v>-0.43</v>
       </c>
+      <c r="P17" s="8">
+        <v>-2.43</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="3">
@@ -2154,17 +2169,19 @@
         <f t="shared" si="1"/>
         <v>-0.12</v>
       </c>
-      <c r="P18" s="13"/>
+      <c r="P18" s="13">
+        <v>-3.12</v>
+      </c>
     </row>
     <row r="19" spans="14:15">
       <c r="N19" s="10"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="3">
@@ -2179,12 +2196,9 @@
       <c r="F20" s="4">
         <v>3</v>
       </c>
-      <c r="J20" s="4">
-        <v>-1</v>
-      </c>
       <c r="K20" s="4">
         <f>D20+F20+I20+G20+H20+J20</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" s="5">
         <v>45889</v>
@@ -2194,14 +2208,17 @@
       </c>
       <c r="N20" s="10">
         <f>K20*2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O20" s="8">
         <f>N20-M20</f>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>2.16</v>
+      </c>
+      <c r="P20" s="8">
+        <v>-2.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -2220,12 +2237,9 @@
       <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="J21" s="4">
-        <v>-1</v>
-      </c>
       <c r="K21" s="4">
         <f>D21+F21+I21+G21+H21+J21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="5">
         <v>45867</v>
@@ -2235,14 +2249,17 @@
       </c>
       <c r="N21" s="7">
         <f>K21*2</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O21" s="8">
         <f>N21-M21</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>3.7</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -2261,12 +2278,9 @@
       <c r="F22" s="4">
         <v>2</v>
       </c>
-      <c r="J22" s="4">
-        <v>-1</v>
-      </c>
       <c r="K22" s="4">
         <f>D22+F22+I22+G22+H22+J22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" s="5">
         <v>45838</v>
@@ -2276,11 +2290,14 @@
       </c>
       <c r="N22" s="7">
         <f>K22*2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O22" s="8">
         <f>N22-M22</f>
-        <v>3.91</v>
+        <v>5.91</v>
+      </c>
+      <c r="P22" s="8">
+        <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2305,12 +2322,9 @@
       <c r="G23" s="4">
         <v>-1</v>
       </c>
-      <c r="J23" s="4">
-        <v>-1</v>
-      </c>
       <c r="K23" s="4">
         <f>D23+F23+I23+G23+H23+J23</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L23" s="5">
         <v>45884</v>
@@ -2320,18 +2334,18 @@
       </c>
       <c r="N23" s="7">
         <f>K23*2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O23" s="11">
         <f>N23-M23</f>
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="3">
@@ -2366,9 +2380,12 @@
         <f>K24*2</f>
         <v>8</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="12">
         <f>N24-M24</f>
         <v>1.89</v>
+      </c>
+      <c r="P24" s="8">
+        <v>-2.11</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2416,7 +2433,7 @@
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="3">
@@ -2434,12 +2451,9 @@
       <c r="G26" s="4">
         <v>1</v>
       </c>
-      <c r="J26" s="4">
-        <v>-1</v>
-      </c>
       <c r="K26" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" s="5">
         <v>45861</v>
@@ -2449,11 +2463,11 @@
       </c>
       <c r="N26" s="10">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O26" s="11">
+        <v>8</v>
+      </c>
+      <c r="O26" s="12">
         <f t="shared" si="5"/>
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2466,6 +2480,9 @@
       <c r="C27" s="3">
         <v>4</v>
       </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
       <c r="E27" s="3">
         <v>92</v>
       </c>
@@ -2486,7 +2503,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2495,7 +2512,7 @@
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="3">
@@ -2513,12 +2530,9 @@
       <c r="G28" s="4">
         <v>-1</v>
       </c>
-      <c r="J28" s="4">
-        <v>-1</v>
-      </c>
       <c r="K28" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" s="5">
         <v>45877</v>
@@ -2528,11 +2542,11 @@
       </c>
       <c r="N28" s="10">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="5"/>
-        <v>0.94</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2611,11 +2625,11 @@
         <v>0.0499999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="3">
@@ -2651,6 +2665,9 @@
         <f t="shared" si="5"/>
         <v>0.14</v>
       </c>
+      <c r="P31" s="8">
+        <v>-3.86</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
@@ -2693,11 +2710,11 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="3">
@@ -2726,12 +2743,15 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="8">
         <f t="shared" si="5"/>
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" s="8">
+        <v>-3.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -2761,18 +2781,15 @@
         <v>45892</v>
       </c>
       <c r="M34" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N34" s="10">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="12">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="P34" s="8">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3254,7 +3271,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A37 A39 A20:A22 A9:A11 A2 A13:A17 A24:A32" numberStoredAsText="1"/>
+    <ignoredError sqref="A24:A35 A13:A18 A2 A9:A11 A20:A22 A39 A37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -992,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,10 +1029,7 @@
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1351,8 +1348,8 @@
   <sheetPr/>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1426,7 +1423,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1635,8 +1632,8 @@
         <f t="shared" si="1"/>
         <v>2.03</v>
       </c>
-      <c r="P6" s="12">
-        <v>2</v>
+      <c r="P6" s="8">
+        <v>2.03</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1675,7 +1672,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="8">
         <f t="shared" si="1"/>
         <v>4.97</v>
       </c>
@@ -1724,7 +1721,7 @@
         <v>0.0299999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,9 +1764,6 @@
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-      <c r="P9" s="8">
-        <v>-3.67</v>
-      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
@@ -1818,7 +1812,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="11" ht="14" customHeight="1" spans="1:16">
+    <row r="11" ht="14" customHeight="1" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1861,11 +1855,8 @@
         <f t="shared" si="1"/>
         <v>-0.0899999999999999</v>
       </c>
-      <c r="P11" s="8">
-        <v>-2.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>300628</v>
       </c>
@@ -1901,12 +1892,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="8">
         <f t="shared" si="1"/>
         <v>5.88</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0.88</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2000,7 +1988,7 @@
       </c>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2040,9 +2028,6 @@
         <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
-      <c r="P15" s="8">
-        <v>-2.9</v>
-      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
@@ -2084,7 +2069,7 @@
         <f t="shared" si="1"/>
         <v>-0.26</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="11">
         <v>-3.26</v>
       </c>
     </row>
@@ -2128,12 +2113,12 @@
         <f t="shared" si="1"/>
         <v>-0.43</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="11">
         <v>-2.43</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -2169,7 +2154,7 @@
         <f t="shared" si="1"/>
         <v>-0.12</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="12">
         <v>-3.12</v>
       </c>
     </row>
@@ -2214,11 +2199,11 @@
         <f>N20-M20</f>
         <v>2.16</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="11">
         <v>-2.84</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -2255,12 +2240,9 @@
         <f>N21-M21</f>
         <v>3.7</v>
       </c>
-      <c r="P21" s="8">
-        <v>0.7</v>
-      </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2297,7 +2279,7 @@
         <v>5.91</v>
       </c>
       <c r="P22" s="8">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2341,8 +2323,8 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:15">
+      <c r="A24" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -2380,12 +2362,9 @@
         <f>K24*2</f>
         <v>8</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="8">
         <f>N24-M24</f>
         <v>1.89</v>
-      </c>
-      <c r="P24" s="8">
-        <v>-2.11</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2465,7 +2444,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="8">
         <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
@@ -2625,7 +2604,7 @@
         <v>0.0499999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -2665,9 +2644,6 @@
         <f t="shared" si="5"/>
         <v>0.14</v>
       </c>
-      <c r="P31" s="8">
-        <v>-3.86</v>
-      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
@@ -2747,7 +2723,7 @@
         <f t="shared" si="5"/>
         <v>-0.25</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="11">
         <v>-3.25</v>
       </c>
     </row>
@@ -2787,7 +2763,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3271,7 +3247,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A24:A35 A13:A18 A2 A9:A11 A20:A22 A39 A37" numberStoredAsText="1"/>
+    <ignoredError sqref="A37 A39 A20:A22 A9:A11 A2 A13:A18 A24:A35" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -992,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,7 +1029,10 @@
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1348,8 +1351,8 @@
   <sheetPr/>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1423,7 +1426,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1589,7 +1592,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>300529</v>
       </c>
@@ -1622,18 +1625,15 @@
         <v>45891</v>
       </c>
       <c r="M6" s="6">
-        <v>11.97</v>
+        <v>14.14</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="8">
         <f t="shared" si="1"/>
-        <v>2.03</v>
-      </c>
-      <c r="P6" s="8">
-        <v>2.03</v>
+        <v>-0.140000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1798,7 +1798,7 @@
         <v>45893</v>
       </c>
       <c r="M10" s="6">
-        <v>11.87</v>
+        <v>17.7</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="2"/>
@@ -1806,10 +1806,10 @@
       </c>
       <c r="O10" s="11">
         <f t="shared" si="1"/>
-        <v>18.13</v>
+        <v>12.3</v>
       </c>
       <c r="P10" s="8">
-        <v>18.13</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:15">
@@ -1886,7 +1886,7 @@
         <v>45868</v>
       </c>
       <c r="M12" s="6">
-        <v>4.12</v>
+        <v>6.36</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="2"/>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="O12" s="8">
         <f t="shared" si="1"/>
-        <v>5.88</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2059,7 +2059,7 @@
         <v>45888</v>
       </c>
       <c r="M16" s="6">
-        <v>6.26</v>
+        <v>3.75</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="2"/>
@@ -2067,11 +2067,9 @@
       </c>
       <c r="O16" s="8">
         <f t="shared" si="1"/>
-        <v>-0.26</v>
-      </c>
-      <c r="P16" s="11">
-        <v>-3.26</v>
-      </c>
+        <v>2.25</v>
+      </c>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
@@ -2103,7 +2101,7 @@
         <v>45756</v>
       </c>
       <c r="M17" s="6">
-        <v>4.43</v>
+        <v>2.46</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="2"/>
@@ -2111,14 +2109,12 @@
       </c>
       <c r="O17" s="8">
         <f t="shared" si="1"/>
-        <v>-0.43</v>
-      </c>
-      <c r="P17" s="11">
-        <v>-2.43</v>
-      </c>
+        <v>1.54</v>
+      </c>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -2144,7 +2140,7 @@
         <v>45890</v>
       </c>
       <c r="M18" s="6">
-        <v>6.12</v>
+        <v>3.12</v>
       </c>
       <c r="N18" s="7">
         <f t="shared" si="2"/>
@@ -2152,17 +2148,15 @@
       </c>
       <c r="O18" s="8">
         <f t="shared" si="1"/>
-        <v>-0.12</v>
-      </c>
-      <c r="P18" s="12">
-        <v>-3.12</v>
-      </c>
+        <v>2.88</v>
+      </c>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="14:15">
       <c r="N19" s="10"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2189,7 +2183,7 @@
         <v>45889</v>
       </c>
       <c r="M20" s="6">
-        <v>7.84</v>
+        <v>5.36</v>
       </c>
       <c r="N20" s="10">
         <f>K20*2</f>
@@ -2197,10 +2191,7 @@
       </c>
       <c r="O20" s="8">
         <f>N20-M20</f>
-        <v>2.16</v>
-      </c>
-      <c r="P20" s="11">
-        <v>-2.84</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2241,8 +2232,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2268,7 +2259,7 @@
         <v>45838</v>
       </c>
       <c r="M22" s="6">
-        <v>2.09</v>
+        <v>4.22</v>
       </c>
       <c r="N22" s="7">
         <f>K22*2</f>
@@ -2276,10 +2267,7 @@
       </c>
       <c r="O22" s="8">
         <f>N22-M22</f>
-        <v>5.91</v>
-      </c>
-      <c r="P22" s="8">
-        <v>1.91</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2318,13 +2306,13 @@
         <f>K23*2</f>
         <v>12</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="8">
         <f>N23-M23</f>
         <v>5.66</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -2653,7 +2641,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="3">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -2686,7 +2674,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -2713,7 +2701,7 @@
         <v>45891</v>
       </c>
       <c r="M33" s="6">
-        <v>6.25</v>
+        <v>3.33</v>
       </c>
       <c r="N33" s="10">
         <f t="shared" si="4"/>
@@ -2721,10 +2709,7 @@
       </c>
       <c r="O33" s="8">
         <f t="shared" si="5"/>
-        <v>-0.25</v>
-      </c>
-      <c r="P33" s="11">
-        <v>-3.25</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3247,7 +3232,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A37 A39 A20:A22 A9:A11 A2 A13:A18 A24:A35" numberStoredAsText="1"/>
+    <ignoredError sqref="A24:A35 A13:A18 A2 A9:A11 A20:A22 A39 A37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>代码</t>
   </si>
@@ -159,6 +159,12 @@
     <t>美亚光电</t>
   </si>
   <si>
+    <t>300724</t>
+  </si>
+  <si>
+    <t>捷佳伟创</t>
+  </si>
+  <si>
     <t>000513</t>
   </si>
   <si>
@@ -246,10 +252,10 @@
     <t>欧普康视</t>
   </si>
   <si>
-    <t>300724</t>
-  </si>
-  <si>
-    <t>捷佳伟创</t>
+    <t>603279</t>
+  </si>
+  <si>
+    <t>景津装备</t>
   </si>
   <si>
     <t>002648</t>
@@ -1023,13 +1029,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1349,10 +1355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1454,11 +1460,11 @@
       <c r="M2" s="8">
         <v>4.98</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="11">
         <f>K2*2</f>
         <v>10</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="12">
         <f t="shared" ref="O2:O18" si="1">N2-M2</f>
         <v>5.02</v>
       </c>
@@ -1587,7 +1593,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="12">
         <f t="shared" si="1"/>
         <v>2.82</v>
       </c>
@@ -1712,7 +1718,7 @@
       <c r="M8" s="6">
         <v>13.97</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="11">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -1756,7 +1762,7 @@
       <c r="M9" s="8">
         <v>9.67</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1800,11 +1806,11 @@
       <c r="M10" s="6">
         <v>17.7</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="11">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="12">
         <f t="shared" si="1"/>
         <v>12.3</v>
       </c>
@@ -1847,7 +1853,7 @@
       <c r="M11" s="6">
         <v>10.09</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1888,7 +1894,7 @@
       <c r="M12" s="6">
         <v>6.36</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1932,7 +1938,7 @@
       <c r="M13" s="6">
         <v>18.15</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="11">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -1978,7 +1984,7 @@
       <c r="M14" s="6">
         <v>17.85</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="11">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -2020,7 +2026,7 @@
       <c r="M15" s="6">
         <v>5.47</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2061,7 +2067,7 @@
       <c r="M16" s="6">
         <v>3.75</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -2069,9 +2075,8 @@
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:16">
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -2103,7 +2108,7 @@
       <c r="M17" s="6">
         <v>2.46</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -2111,7 +2116,6 @@
         <f t="shared" si="1"/>
         <v>1.54</v>
       </c>
-      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="14" t="s">
@@ -2121,7 +2125,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="3">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2152,47 +2156,48 @@
       </c>
       <c r="P18" s="13"/>
     </row>
-    <row r="19" spans="14:15">
-      <c r="N19" s="10"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>64</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>3</v>
       </c>
-      <c r="K20" s="4">
-        <f>D20+F20+I20+G20+H20+J20</f>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f>D19+F19+I19+G19+H19+J19</f>
         <v>5</v>
       </c>
-      <c r="L20" s="5">
-        <v>45889</v>
-      </c>
-      <c r="M20" s="6">
-        <v>5.36</v>
-      </c>
-      <c r="N20" s="10">
-        <f>K20*2</f>
+      <c r="L19" s="5">
+        <v>45892</v>
+      </c>
+      <c r="M19" s="6">
+        <v>7.96</v>
+      </c>
+      <c r="N19" s="11">
+        <f>K19*2</f>
         <v>10</v>
       </c>
-      <c r="O20" s="8">
-        <f>N20-M20</f>
-        <v>4.64</v>
-      </c>
+      <c r="O19" s="8">
+        <f>N19-M19</f>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
@@ -2202,356 +2207,356 @@
         <v>46</v>
       </c>
       <c r="C21" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="4">
         <f>D21+F21+I21+G21+H21+J21</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21" s="5">
-        <v>45867</v>
+        <v>45889</v>
       </c>
       <c r="M21" s="6">
-        <v>2.3</v>
-      </c>
-      <c r="N21" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="N21" s="11">
         <f>K21*2</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O21" s="8">
         <f>N21-M21</f>
-        <v>3.7</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
       </c>
       <c r="K22" s="4">
         <f>D22+F22+I22+G22+H22+J22</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22" s="5">
-        <v>45838</v>
+        <v>45867</v>
       </c>
       <c r="M22" s="6">
-        <v>4.22</v>
+        <v>2.3</v>
       </c>
       <c r="N22" s="7">
         <f>K22*2</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O22" s="8">
         <f>N22-M22</f>
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>603833</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="B23" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="C23" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F23" s="4">
-        <v>6</v>
-      </c>
-      <c r="G23" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="4">
         <f>D23+F23+I23+G23+H23+J23</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L23" s="5">
-        <v>45884</v>
+        <v>45838</v>
       </c>
       <c r="M23" s="6">
-        <v>6.34</v>
+        <v>4.22</v>
       </c>
       <c r="N23" s="7">
         <f>K23*2</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O23" s="8">
         <f>N23-M23</f>
-        <v>5.66</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="1">
+        <v>603833</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="F24" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4">
         <v>-1</v>
       </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
       <c r="K24" s="4">
         <f>D24+F24+I24+G24+H24+J24</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L24" s="5">
-        <v>45838</v>
+        <v>45884</v>
       </c>
       <c r="M24" s="6">
-        <v>6.11</v>
-      </c>
-      <c r="N24" s="10">
+        <v>6.34</v>
+      </c>
+      <c r="N24" s="7">
         <f>K24*2</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O24" s="8">
         <f>N24-M24</f>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>49</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <f>D25+F25+I25+G25+H25+J25</f>
+        <v>4</v>
+      </c>
+      <c r="L25" s="5">
+        <v>45838</v>
+      </c>
+      <c r="M25" s="6">
+        <v>6.11</v>
+      </c>
+      <c r="N25" s="11">
+        <f>K25*2</f>
+        <v>8</v>
+      </c>
+      <c r="O25" s="8">
+        <f>N25-M25</f>
         <v>1.89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="3">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>83</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" ref="K25:K35" si="3">D25+F25+I25+G25+H25+J25</f>
-        <v>6</v>
-      </c>
-      <c r="L25" s="5">
-        <v>45891</v>
-      </c>
-      <c r="M25" s="6">
-        <v>12</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" ref="N25:N35" si="4">K25*2</f>
-        <v>12</v>
-      </c>
-      <c r="O25" s="8">
-        <f t="shared" ref="O25:O35" si="5">N25-M25</f>
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" ref="K26:K36" si="3">D26+F26+I26+G26+H26+J26</f>
+        <v>6</v>
       </c>
       <c r="L26" s="5">
-        <v>45861</v>
+        <v>45891</v>
       </c>
       <c r="M26" s="6">
-        <v>4.25</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" ref="N26:N36" si="4">K26*2</f>
+        <v>12</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="5"/>
-        <v>3.75</v>
+        <f t="shared" ref="O26:O36" si="5">N26-M26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="F27" s="4">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L27" s="5">
-        <v>45891</v>
+        <v>45861</v>
       </c>
       <c r="M27" s="6">
-        <v>8</v>
-      </c>
-      <c r="N27" s="10">
+        <v>4.25</v>
+      </c>
+      <c r="N27" s="11">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F28" s="4">
-        <v>3</v>
-      </c>
-      <c r="G28" s="4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" s="5">
-        <v>45877</v>
+        <v>45891</v>
       </c>
       <c r="M28" s="6">
-        <v>3.06</v>
-      </c>
-      <c r="N28" s="10">
+        <v>8</v>
+      </c>
+      <c r="N28" s="11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="5"/>
-        <v>2.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="3">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F29" s="4">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G29" s="4">
+        <v>-1</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29" s="5">
-        <v>45848</v>
+        <v>45877</v>
       </c>
       <c r="M29" s="6">
-        <v>8.03</v>
-      </c>
-      <c r="N29" s="10">
+        <v>3.06</v>
+      </c>
+      <c r="N29" s="11">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="5"/>
-        <v>-0.0299999999999994</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2562,13 +2567,13 @@
         <v>63</v>
       </c>
       <c r="C30" s="3">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F30" s="4">
         <v>4</v>
@@ -2578,304 +2583,315 @@
         <v>4</v>
       </c>
       <c r="L30" s="5">
-        <v>45873</v>
+        <v>45848</v>
       </c>
       <c r="M30" s="6">
-        <v>7.95</v>
-      </c>
-      <c r="N30" s="10">
+        <v>8.03</v>
+      </c>
+      <c r="N30" s="11">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="5"/>
-        <v>0.0499999999999998</v>
+        <v>-0.0299999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="3">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="D31" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L31" s="5">
-        <v>45888</v>
+        <v>45873</v>
       </c>
       <c r="M31" s="6">
-        <v>7.86</v>
-      </c>
-      <c r="N31" s="10">
+        <v>7.95</v>
+      </c>
+      <c r="N31" s="11">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="5"/>
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>0.0499999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="3">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="3">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="F32" s="4">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L32" s="5">
+        <v>45888</v>
+      </c>
+      <c r="M32" s="6">
+        <v>7.86</v>
+      </c>
+      <c r="N32" s="11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="5"/>
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>140</v>
+      </c>
+      <c r="F33" s="4">
+        <v>6</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L33" s="5">
         <v>45889</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M33" s="6">
         <v>12.1</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N33" s="11">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O33" s="12">
         <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P33" s="8">
         <v>1.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="3">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>34</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L33" s="5">
-        <v>45891</v>
-      </c>
-      <c r="M33" s="6">
-        <v>3.33</v>
-      </c>
-      <c r="N33" s="10">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O33" s="8">
-        <f t="shared" si="5"/>
-        <v>2.67</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="3">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="F34" s="4">
-        <v>7</v>
-      </c>
-      <c r="G34" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L34" s="5">
-        <v>45892</v>
+        <v>45891</v>
       </c>
       <c r="M34" s="6">
-        <v>14</v>
-      </c>
-      <c r="N34" s="10">
+        <v>3.33</v>
+      </c>
+      <c r="N34" s="11">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C35" s="3">
+        <v>7</v>
+      </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>150</v>
       </c>
       <c r="F35" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G35" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L35" s="5">
         <v>45892</v>
       </c>
-      <c r="N35" s="10">
-        <f t="shared" si="4"/>
+      <c r="M35" s="6">
+        <v>14</v>
+      </c>
+      <c r="N35" s="11">
+        <f>K35*2</f>
+        <v>14</v>
+      </c>
+      <c r="O35" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>200</v>
+      </c>
+      <c r="F36" s="4">
         <v>8</v>
       </c>
-      <c r="O35" s="11">
-        <f t="shared" si="5"/>
+      <c r="K36" s="4">
+        <f>D36+F36+I36+G36+H36+J36</f>
         <v>8</v>
       </c>
-      <c r="P35" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="L36" s="5">
+        <v>45894</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <f>K36*2</f>
+        <v>16</v>
+      </c>
+      <c r="O36" s="8">
+        <f>N36-M36</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="3">
         <v>5.8</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E38" s="3">
         <v>17</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" ref="K37:K47" si="6">D37+F37+I37+G37+H37+J37</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="5">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1">
-        <v>603173</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="3">
-        <v>10</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3">
-        <v>18</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
       </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1</v>
-      </c>
       <c r="K38" s="4">
+        <f t="shared" ref="K38:K48" si="6">D38+F38+I38+G38+H38+J38</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>603173</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="3">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>18</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L39" s="5">
         <v>45863</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="3">
-        <v>14</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>30</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="L39" s="5">
-        <v>45869</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2886,23 +2902,26 @@
         <v>80</v>
       </c>
       <c r="C40" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>30</v>
+      </c>
+      <c r="F40" s="4">
         <v>0</v>
       </c>
-      <c r="E40" s="3">
-        <v>68</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>1</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40" s="5">
-        <v>45878</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2913,16 +2932,16 @@
         <v>82</v>
       </c>
       <c r="C41" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="6"/>
@@ -2940,17 +2959,23 @@
         <v>84</v>
       </c>
       <c r="C42" s="3">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="5">
-        <v>45881</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2961,10 +2986,10 @@
         <v>86</v>
       </c>
       <c r="C43" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E43" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="6"/>
@@ -2974,34 +2999,25 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="1" t="s">
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="3">
-        <v>6</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="C44" s="3">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3">
+        <v>90</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K49" s="4">
-        <v>2</v>
-      </c>
-      <c r="L49" s="5">
-        <v>45878</v>
-      </c>
-      <c r="N49" s="7">
-        <f t="shared" ref="N48:N55" si="7">K49*2</f>
-        <v>4</v>
+      <c r="L44" s="5">
+        <v>45881</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3011,15 +3027,27 @@
       <c r="B50" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="C50" s="3">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
       <c r="K50" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L50" s="5">
         <v>45878</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" ref="N49:N56" si="7">K50*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3030,14 +3058,14 @@
         <v>92</v>
       </c>
       <c r="K51" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L51" s="5">
         <v>45878</v>
       </c>
       <c r="N51" s="7">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3048,14 +3076,14 @@
         <v>94</v>
       </c>
       <c r="K52" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L52" s="5">
         <v>45878</v>
       </c>
       <c r="N52" s="7">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3066,14 +3094,14 @@
         <v>96</v>
       </c>
       <c r="K53" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L53" s="5">
         <v>45878</v>
       </c>
       <c r="N53" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3084,14 +3112,14 @@
         <v>98</v>
       </c>
       <c r="K54" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L54" s="5">
         <v>45878</v>
       </c>
       <c r="N54" s="7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3102,37 +3130,32 @@
         <v>100</v>
       </c>
       <c r="K55" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L55" s="5">
         <v>45878</v>
       </c>
       <c r="N55" s="7">
         <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56" s="4">
+        <v>4</v>
+      </c>
+      <c r="L56" s="5">
+        <v>45878</v>
+      </c>
+      <c r="N56" s="7">
+        <f t="shared" si="7"/>
         <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="3">
-        <v>9</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2</v>
-      </c>
-      <c r="E57" s="3">
-        <v>110</v>
-      </c>
-      <c r="F57" s="4">
-        <v>3</v>
-      </c>
-      <c r="L57" s="5">
-        <v>45878</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3149,10 +3172,10 @@
         <v>2</v>
       </c>
       <c r="E58" s="3">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F58" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L58" s="5">
         <v>45878</v>
@@ -3172,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="E59" s="3">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F59" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L59" s="5">
         <v>45878</v>
@@ -3189,16 +3212,16 @@
         <v>108</v>
       </c>
       <c r="C60" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
       </c>
       <c r="E60" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F60" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L60" s="5">
         <v>45878</v>
@@ -3212,18 +3235,41 @@
         <v>110</v>
       </c>
       <c r="C61" s="3">
+        <v>11</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>150</v>
+      </c>
+      <c r="F61" s="4">
+        <v>4</v>
+      </c>
+      <c r="L61" s="5">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="3">
         <v>10</v>
       </c>
-      <c r="D61" s="4">
-        <v>2</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
         <v>60</v>
       </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="L61" s="5">
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="L62" s="5">
         <v>45878</v>
       </c>
     </row>
@@ -3232,7 +3278,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A24:A35 A13:A18 A2 A9:A11 A20:A22 A39 A37" numberStoredAsText="1"/>
+    <ignoredError sqref="A25:A36 A13:A19 A2 A9:A11 A21:A23 A40 A38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>代码</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>欧普康视</t>
+  </si>
+  <si>
+    <t>002821</t>
+  </si>
+  <si>
+    <t>凯莱英</t>
   </si>
   <si>
     <t>603279</t>
@@ -998,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,9 +1033,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1355,10 +1358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1432,7 +1435,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1451,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K18" si="0">D2+F2+I2+G2+H2+J2</f>
+        <f t="shared" ref="K2:K19" si="0">D2+F2+I2+G2+H2+J2</f>
         <v>5</v>
       </c>
       <c r="L2" s="5">
@@ -1460,12 +1463,12 @@
       <c r="M2" s="8">
         <v>4.98</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <f>K2*2</f>
         <v>10</v>
       </c>
-      <c r="O2" s="12">
-        <f t="shared" ref="O2:O18" si="1">N2-M2</f>
+      <c r="O2" s="11">
+        <f t="shared" ref="O2:O19" si="1">N2-M2</f>
         <v>5.02</v>
       </c>
     </row>
@@ -1505,7 +1508,7 @@
         <v>19.85</v>
       </c>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N18" si="2">K3*2</f>
+        <f t="shared" ref="N3:N19" si="2">K3*2</f>
         <v>20</v>
       </c>
       <c r="O3" s="8">
@@ -1593,7 +1596,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <f t="shared" si="1"/>
         <v>2.82</v>
       </c>
@@ -1650,23 +1653,23 @@
         <v>22</v>
       </c>
       <c r="C7" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L7" s="5">
         <v>45838</v>
@@ -1676,11 +1679,11 @@
       </c>
       <c r="N7" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="1"/>
-        <v>4.97</v>
+        <v>8.97</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1718,7 +1721,7 @@
       <c r="M8" s="6">
         <v>13.97</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -1762,7 +1765,7 @@
       <c r="M9" s="8">
         <v>9.67</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1806,11 +1809,11 @@
       <c r="M10" s="6">
         <v>17.7</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <f t="shared" si="1"/>
         <v>12.3</v>
       </c>
@@ -1853,7 +1856,7 @@
       <c r="M11" s="6">
         <v>10.09</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1894,7 +1897,7 @@
       <c r="M12" s="6">
         <v>6.36</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1938,7 +1941,7 @@
       <c r="M13" s="6">
         <v>18.15</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -1984,7 +1987,7 @@
       <c r="M14" s="6">
         <v>17.85</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -2026,7 +2029,7 @@
       <c r="M15" s="6">
         <v>5.47</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -2067,7 +2070,7 @@
       <c r="M16" s="6">
         <v>3.75</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -2108,7 +2111,7 @@
       <c r="M17" s="6">
         <v>2.46</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="10">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -2118,7 +2121,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -2154,7 +2157,7 @@
         <f t="shared" si="1"/>
         <v>2.88</v>
       </c>
-      <c r="P18" s="13"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
@@ -2176,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="4">
-        <f>D19+F19+I19+G19+H19+J19</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L19" s="5">
@@ -2185,18 +2188,17 @@
       <c r="M19" s="6">
         <v>7.96</v>
       </c>
-      <c r="N19" s="11">
-        <f>K19*2</f>
+      <c r="N19" s="10">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O19" s="8">
-        <f>N19-M19</f>
+        <f t="shared" si="1"/>
         <v>2.04</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="10"/>
-      <c r="N20" s="11"/>
+    <row r="20" spans="14:15">
+      <c r="N20" s="10"/>
       <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15">
@@ -2228,7 +2230,7 @@
       <c r="M21" s="6">
         <v>5.36</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="10">
         <f>K21*2</f>
         <v>10</v>
       </c>
@@ -2276,7 +2278,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2355,7 +2357,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -2389,7 +2391,7 @@
       <c r="M25" s="6">
         <v>6.11</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="10">
         <f>K25*2</f>
         <v>8</v>
       </c>
@@ -2430,7 +2432,7 @@
       <c r="M26" s="6">
         <v>12</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="10">
         <f t="shared" ref="N26:N36" si="4">K26*2</f>
         <v>12</v>
       </c>
@@ -2471,7 +2473,7 @@
       <c r="M27" s="6">
         <v>4.25</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -2509,7 +2511,7 @@
       <c r="M28" s="6">
         <v>8</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -2550,7 +2552,7 @@
       <c r="M29" s="6">
         <v>3.06</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -2588,7 +2590,7 @@
       <c r="M30" s="6">
         <v>8.03</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -2626,7 +2628,7 @@
       <c r="M31" s="6">
         <v>7.95</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -2667,7 +2669,7 @@
       <c r="M32" s="6">
         <v>7.86</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -2705,11 +2707,11 @@
       <c r="M33" s="6">
         <v>12.1</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="10">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="11">
         <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
@@ -2746,7 +2748,7 @@
       <c r="M34" s="6">
         <v>3.33</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -2787,8 +2789,8 @@
       <c r="M35" s="6">
         <v>14</v>
       </c>
-      <c r="N35" s="11">
-        <f>K35*2</f>
+      <c r="N35" s="10">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="O35" s="8">
@@ -2800,41 +2802,45 @@
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="F36" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K36" s="4">
-        <f>D36+F36+I36+G36+H36+J36</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="L36" s="5">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="11">
-        <f>K36*2</f>
-        <v>16</v>
+        <v>9.54</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="O36" s="8">
-        <f>N36-M36</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <f t="shared" si="5"/>
+        <v>0.460000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15">
+      <c r="N37" s="10"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2842,86 +2848,94 @@
         <v>77</v>
       </c>
       <c r="C38" s="3">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
       </c>
       <c r="E38" s="3">
+        <v>200</v>
+      </c>
+      <c r="F38" s="4">
+        <v>8</v>
+      </c>
+      <c r="K38" s="4">
+        <f>D38+F38+I38+G38+H38+J38</f>
+        <v>8</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45894</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <f>K38*2</f>
+        <v>16</v>
+      </c>
+      <c r="O38" s="8">
+        <f>N38-M38</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
         <v>17</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" ref="K38:K48" si="6">D38+F38+I38+G38+H38+J38</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1">
-        <v>603173</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="3">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>18</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
       </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1</v>
-      </c>
       <c r="K39" s="4">
+        <f t="shared" ref="K39:K49" si="6">D39+F39+I39+G39+H39+J39</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>603173</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>18</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L40" s="5">
         <v>45863</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="3">
-        <v>14</v>
-      </c>
-      <c r="D40" s="4">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3">
-        <v>30</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="L40" s="5">
-        <v>45869</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2932,23 +2946,26 @@
         <v>82</v>
       </c>
       <c r="C41" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D41" s="4">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30</v>
+      </c>
+      <c r="F41" s="4">
         <v>0</v>
       </c>
-      <c r="E41" s="3">
-        <v>68</v>
-      </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>1</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L41" s="5">
-        <v>45878</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2959,16 +2976,16 @@
         <v>84</v>
       </c>
       <c r="C42" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="6"/>
@@ -2986,17 +3003,23 @@
         <v>86</v>
       </c>
       <c r="C43" s="3">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
       </c>
       <c r="E43" s="3">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="5">
-        <v>45881</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3007,10 +3030,10 @@
         <v>88</v>
       </c>
       <c r="C44" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E44" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="6"/>
@@ -3020,34 +3043,25 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="1" t="s">
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="3">
-        <v>6</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2</v>
-      </c>
-      <c r="F50" s="4">
+      <c r="C45" s="3">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3">
+        <v>90</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K50" s="4">
-        <v>2</v>
-      </c>
-      <c r="L50" s="5">
-        <v>45878</v>
-      </c>
-      <c r="N50" s="7">
-        <f t="shared" ref="N49:N56" si="7">K50*2</f>
-        <v>4</v>
+      <c r="L45" s="5">
+        <v>45881</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3057,15 +3071,27 @@
       <c r="B51" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
       <c r="K51" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L51" s="5">
         <v>45878</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" ref="N50:N57" si="7">K51*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3076,14 +3102,14 @@
         <v>94</v>
       </c>
       <c r="K52" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L52" s="5">
         <v>45878</v>
       </c>
       <c r="N52" s="7">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3094,14 +3120,14 @@
         <v>96</v>
       </c>
       <c r="K53" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L53" s="5">
         <v>45878</v>
       </c>
       <c r="N53" s="7">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3112,14 +3138,14 @@
         <v>98</v>
       </c>
       <c r="K54" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L54" s="5">
         <v>45878</v>
       </c>
       <c r="N54" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3130,14 +3156,14 @@
         <v>100</v>
       </c>
       <c r="K55" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L55" s="5">
         <v>45878</v>
       </c>
       <c r="N55" s="7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3148,37 +3174,32 @@
         <v>102</v>
       </c>
       <c r="K56" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L56" s="5">
         <v>45878</v>
       </c>
       <c r="N56" s="7">
         <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57" s="4">
+        <v>4</v>
+      </c>
+      <c r="L57" s="5">
+        <v>45878</v>
+      </c>
+      <c r="N57" s="7">
+        <f t="shared" si="7"/>
         <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="3">
-        <v>9</v>
-      </c>
-      <c r="D58" s="4">
-        <v>2</v>
-      </c>
-      <c r="E58" s="3">
-        <v>110</v>
-      </c>
-      <c r="F58" s="4">
-        <v>3</v>
-      </c>
-      <c r="L58" s="5">
-        <v>45878</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3195,10 +3216,10 @@
         <v>2</v>
       </c>
       <c r="E59" s="3">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F59" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L59" s="5">
         <v>45878</v>
@@ -3218,10 +3239,10 @@
         <v>2</v>
       </c>
       <c r="E60" s="3">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F60" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L60" s="5">
         <v>45878</v>
@@ -3235,16 +3256,16 @@
         <v>110</v>
       </c>
       <c r="C61" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
       </c>
       <c r="E61" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F61" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L61" s="5">
         <v>45878</v>
@@ -3258,18 +3279,41 @@
         <v>112</v>
       </c>
       <c r="C62" s="3">
+        <v>11</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>150</v>
+      </c>
+      <c r="F62" s="4">
+        <v>4</v>
+      </c>
+      <c r="L62" s="5">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="3">
         <v>10</v>
       </c>
-      <c r="D62" s="4">
-        <v>2</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
         <v>60</v>
       </c>
-      <c r="F62" s="4">
-        <v>1</v>
-      </c>
-      <c r="L62" s="5">
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="L63" s="5">
         <v>45878</v>
       </c>
     </row>
@@ -3278,7 +3322,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A25:A36 A13:A19 A2 A9:A11 A21:A23 A40 A38" numberStoredAsText="1"/>
+    <ignoredError sqref="A37:P63 D36:L36 N36:P36 A36 A1:P35" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>代码</t>
   </si>
@@ -258,6 +258,30 @@
     <t>凯莱英</t>
   </si>
   <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>创业板</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>恒生科技</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
+    <t>卫星化学</t>
+  </si>
+  <si>
     <t>603279</t>
   </si>
   <si>
@@ -265,9 +289,6 @@
   </si>
   <si>
     <t>002648</t>
-  </si>
-  <si>
-    <t>卫星化学</t>
   </si>
   <si>
     <t>福斯达</t>
@@ -548,7 +569,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +579,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +907,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,16 +931,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -922,89 +949,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,22 +1053,25 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1358,10 +1388,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1378,10 +1408,9 @@
     <col min="10" max="10" width="7.69166666666667" style="4" customWidth="1"/>
     <col min="11" max="11" width="9.70833333333333" style="4" customWidth="1"/>
     <col min="12" max="12" width="17" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.325" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.325" style="7" customWidth="1"/>
+    <col min="13" max="14" width="9.325" style="6" customWidth="1"/>
     <col min="15" max="15" width="9.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9" style="8"/>
+    <col min="16" max="16" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1424,52 +1453,52 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3">
-        <v>9.9</v>
+        <v>12.9</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="F2" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:K19" si="0">D2+F2+I2+G2+H2+J2</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L2" s="5">
-        <v>45838</v>
-      </c>
-      <c r="M2" s="8">
-        <v>4.98</v>
-      </c>
-      <c r="N2" s="10">
+        <v>45896</v>
+      </c>
+      <c r="M2" s="7">
+        <v>16.26</v>
+      </c>
+      <c r="N2" s="7">
         <f>K2*2</f>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="O2" s="11">
         <f t="shared" ref="O2:O19" si="1">N2-M2</f>
-        <v>5.02</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1504,14 +1533,14 @@
       <c r="L3" s="5">
         <v>45888</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>19.85</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <f t="shared" ref="N3:N19" si="2">K3*2</f>
         <v>20</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
@@ -1548,11 +1577,11 @@
       <c r="M4" s="6">
         <v>13.86</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f t="shared" si="1"/>
         <v>0.140000000000001</v>
       </c>
@@ -1589,16 +1618,16 @@
       <c r="L5" s="5">
         <v>45879</v>
       </c>
-      <c r="M5" s="8">
-        <v>9.18</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="M5" s="7">
+        <v>11.65</v>
+      </c>
+      <c r="N5" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="7">
         <f t="shared" si="1"/>
-        <v>2.82</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1636,11 +1665,11 @@
       <c r="M6" s="6">
         <v>14.14</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f t="shared" si="1"/>
         <v>-0.140000000000001</v>
       </c>
@@ -1649,7 +1678,7 @@
       <c r="A7" s="1">
         <v>603605</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3">
@@ -1675,15 +1704,15 @@
         <v>45838</v>
       </c>
       <c r="M7" s="6">
-        <v>5.03</v>
-      </c>
-      <c r="N7" s="7">
+        <v>9.19</v>
+      </c>
+      <c r="N7" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="11">
         <f t="shared" si="1"/>
-        <v>8.97</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1721,11 +1750,11 @@
       <c r="M8" s="6">
         <v>13.97</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <f t="shared" si="1"/>
         <v>0.0299999999999994</v>
       </c>
@@ -1734,7 +1763,7 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3">
@@ -1762,19 +1791,19 @@
       <c r="L9" s="5">
         <v>45867</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>9.67</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1807,25 +1836,22 @@
         <v>45893</v>
       </c>
       <c r="M10" s="6">
-        <v>17.7</v>
-      </c>
-      <c r="N10" s="10">
+        <v>20.52</v>
+      </c>
+      <c r="N10" s="7">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="1"/>
-        <v>12.3</v>
-      </c>
-      <c r="P10" s="8">
-        <v>12.3</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="3">
@@ -1856,11 +1882,11 @@
       <c r="M11" s="6">
         <v>10.09</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <f t="shared" si="1"/>
         <v>-0.0899999999999999</v>
       </c>
@@ -1869,7 +1895,7 @@
       <c r="A12" s="1">
         <v>300628</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="3">
@@ -1895,15 +1921,15 @@
         <v>45868</v>
       </c>
       <c r="M12" s="6">
-        <v>6.36</v>
-      </c>
-      <c r="N12" s="10">
+        <v>10.08</v>
+      </c>
+      <c r="N12" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <f t="shared" si="1"/>
-        <v>3.64</v>
+        <v>-0.0800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1925,15 +1951,12 @@
       <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
       <c r="J13" s="4">
         <v>1</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" s="5">
         <v>45883</v>
@@ -1941,13 +1964,13 @@
       <c r="M13" s="6">
         <v>18.15</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="O13" s="8">
+        <v>16</v>
+      </c>
+      <c r="O13" s="7">
         <f t="shared" si="1"/>
-        <v>-0.149999999999999</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:16">
@@ -1987,21 +2010,21 @@
       <c r="M14" s="6">
         <v>17.85</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-      <c r="P14" s="8"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="3">
@@ -2029,11 +2052,11 @@
       <c r="M15" s="6">
         <v>5.47</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
@@ -2042,7 +2065,7 @@
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="3">
@@ -2070,11 +2093,11 @@
       <c r="M16" s="6">
         <v>3.75</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
@@ -2083,48 +2106,48 @@
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="3">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4">
         <v>-1</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="5">
-        <v>45756</v>
+        <v>45896</v>
       </c>
       <c r="M17" s="6">
         <v>2.46</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="7">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="O17" s="8">
+        <v>2</v>
+      </c>
+      <c r="O17" s="7">
         <f t="shared" si="1"/>
-        <v>1.54</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="3">
@@ -2149,11 +2172,11 @@
       <c r="M18" s="6">
         <v>3.12</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <f t="shared" si="1"/>
         <v>2.88</v>
       </c>
@@ -2188,24 +2211,24 @@
       <c r="M19" s="6">
         <v>7.96</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="11">
         <f t="shared" si="1"/>
         <v>2.04</v>
       </c>
     </row>
     <row r="20" spans="14:15">
-      <c r="N20" s="10"/>
-      <c r="O20" s="8"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="3">
@@ -2230,20 +2253,20 @@
       <c r="M21" s="6">
         <v>5.36</v>
       </c>
-      <c r="N21" s="10">
-        <f>K21*2</f>
-        <v>10</v>
-      </c>
-      <c r="O21" s="8">
+      <c r="N21" s="7">
+        <f>K21*1</f>
+        <v>5</v>
+      </c>
+      <c r="O21" s="7">
         <f>N21-M21</f>
-        <v>4.64</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="3">
@@ -2269,19 +2292,19 @@
         <v>2.3</v>
       </c>
       <c r="N22" s="7">
-        <f>K22*2</f>
-        <v>6</v>
-      </c>
-      <c r="O22" s="8">
+        <f t="shared" ref="N22:N36" si="3">K22*1</f>
+        <v>3</v>
+      </c>
+      <c r="O22" s="7">
         <f>N22-M22</f>
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="3">
@@ -2307,12 +2330,12 @@
         <v>4.22</v>
       </c>
       <c r="N23" s="7">
-        <f>K23*2</f>
-        <v>8</v>
-      </c>
-      <c r="O23" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O23" s="7">
         <f>N23-M23</f>
-        <v>3.78</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2348,19 +2371,19 @@
         <v>6.34</v>
       </c>
       <c r="N24" s="7">
-        <f>K24*2</f>
-        <v>12</v>
-      </c>
-      <c r="O24" s="8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="O24" s="7">
         <f>N24-M24</f>
-        <v>5.66</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="3">
@@ -2391,13 +2414,13 @@
       <c r="M25" s="6">
         <v>6.11</v>
       </c>
-      <c r="N25" s="10">
-        <f>K25*2</f>
-        <v>8</v>
-      </c>
-      <c r="O25" s="8">
+      <c r="N25" s="7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O25" s="13">
         <f>N25-M25</f>
-        <v>1.89</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2423,29 +2446,29 @@
         <v>1</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" ref="K26:K36" si="3">D26+F26+I26+G26+H26+J26</f>
+        <f t="shared" ref="K26:K36" si="4">D26+F26+I26+G26+H26+J26</f>
         <v>6</v>
       </c>
       <c r="L26" s="5">
         <v>45891</v>
       </c>
       <c r="M26" s="6">
-        <v>12</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" ref="N26:N36" si="4">K26*2</f>
-        <v>12</v>
-      </c>
-      <c r="O26" s="8">
+        <v>16.13</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="O26" s="13">
         <f t="shared" ref="O26:O36" si="5">N26-M26</f>
-        <v>0</v>
+        <v>-10.13</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="3">
@@ -2460,26 +2483,23 @@
       <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
       <c r="K27" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="L27" s="5">
         <v>45861</v>
       </c>
       <c r="M27" s="6">
-        <v>4.25</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O27" s="8">
+        <v>6.34</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O27" s="13">
         <f t="shared" si="5"/>
-        <v>3.75</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2502,29 +2522,29 @@
         <v>4</v>
       </c>
       <c r="K28" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45891</v>
+      </c>
+      <c r="M28" s="6">
+        <v>4.65</v>
+      </c>
+      <c r="N28" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L28" s="5">
-        <v>45891</v>
-      </c>
-      <c r="M28" s="6">
-        <v>8</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O28" s="8">
+      <c r="O28" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="3">
@@ -2543,22 +2563,22 @@
         <v>-1</v>
       </c>
       <c r="K29" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="5">
+        <v>45877</v>
+      </c>
+      <c r="M29" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="N29" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L29" s="5">
-        <v>45877</v>
-      </c>
-      <c r="M29" s="6">
-        <v>3.06</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O29" s="8">
+      <c r="O29" s="7">
         <f t="shared" si="5"/>
-        <v>2.94</v>
+        <v>-0.0600000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2581,22 +2601,22 @@
         <v>4</v>
       </c>
       <c r="K30" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L30" s="5">
+        <v>45848</v>
+      </c>
+      <c r="M30" s="6">
+        <v>8.03</v>
+      </c>
+      <c r="N30" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L30" s="5">
-        <v>45848</v>
-      </c>
-      <c r="M30" s="6">
-        <v>8.03</v>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O30" s="8">
+      <c r="O30" s="13">
         <f t="shared" si="5"/>
-        <v>-0.0299999999999994</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2619,29 +2639,29 @@
         <v>4</v>
       </c>
       <c r="K31" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45873</v>
+      </c>
+      <c r="M31" s="6">
+        <v>7.95</v>
+      </c>
+      <c r="N31" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L31" s="5">
-        <v>45873</v>
-      </c>
-      <c r="M31" s="6">
-        <v>7.95</v>
-      </c>
-      <c r="N31" s="10">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O31" s="8">
+      <c r="O31" s="13">
         <f t="shared" si="5"/>
-        <v>0.0499999999999998</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="3">
@@ -2660,25 +2680,25 @@
         <v>1</v>
       </c>
       <c r="K32" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L32" s="5">
+        <v>45888</v>
+      </c>
+      <c r="M32" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="N32" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L32" s="5">
-        <v>45888</v>
-      </c>
-      <c r="M32" s="6">
-        <v>7.86</v>
-      </c>
-      <c r="N32" s="10">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O32" s="8">
+      <c r="O32" s="7">
         <f t="shared" si="5"/>
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -2698,32 +2718,29 @@
         <v>6</v>
       </c>
       <c r="K33" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L33" s="5">
+        <v>45889</v>
+      </c>
+      <c r="M33" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="N33" s="7">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L33" s="5">
-        <v>45889</v>
-      </c>
-      <c r="M33" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="N33" s="10">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O33" s="11">
+      <c r="O33" s="13">
         <f t="shared" si="5"/>
-        <v>1.9</v>
-      </c>
-      <c r="P33" s="8">
-        <v>1.9</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="3">
@@ -2738,9 +2755,12 @@
       <c r="F34" s="4">
         <v>1</v>
       </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
       <c r="K34" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L34" s="5">
         <v>45891</v>
@@ -2748,13 +2768,13 @@
       <c r="M34" s="6">
         <v>3.33</v>
       </c>
-      <c r="N34" s="10">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O34" s="8">
+      <c r="N34" s="7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O34" s="7">
         <f t="shared" si="5"/>
-        <v>2.67</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2780,22 +2800,22 @@
         <v>-1</v>
       </c>
       <c r="K35" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L35" s="5">
+        <v>45892</v>
+      </c>
+      <c r="M35" s="6">
+        <v>14</v>
+      </c>
+      <c r="N35" s="7">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L35" s="5">
-        <v>45892</v>
-      </c>
-      <c r="M35" s="6">
-        <v>14</v>
-      </c>
-      <c r="N35" s="10">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O35" s="8">
+      <c r="O35" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2817,9 +2837,12 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
       <c r="K36" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="L36" s="5">
         <v>45895</v>
@@ -2827,493 +2850,557 @@
       <c r="M36" s="6">
         <v>9.54</v>
       </c>
-      <c r="N36" s="10">
-        <f t="shared" si="4"/>
+      <c r="N36" s="7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="O36" s="13">
+        <f t="shared" si="5"/>
+        <v>-3.54</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15">
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="14:15">
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="14:15">
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="14:15">
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="14:15">
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="14:15">
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="14:15">
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="14:15">
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="14:15">
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="14:15">
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="4">
+        <v>8</v>
+      </c>
+      <c r="K48" s="4">
+        <f>D48+F48+I48+G48+H48+J48</f>
+        <v>8</v>
+      </c>
+      <c r="L48" s="5">
+        <v>45894</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <f>K48*2</f>
+        <v>16</v>
+      </c>
+      <c r="O48" s="7">
+        <f>N48-M48</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>17</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" ref="K49:K59" si="6">D49+F49+I49+G49+H49+J49</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>603173</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="3">
         <v>10</v>
       </c>
-      <c r="O36" s="8">
-        <f t="shared" si="5"/>
-        <v>0.460000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="14:15">
-      <c r="N37" s="10"/>
-      <c r="O37" s="8"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>18</v>
+      </c>
+      <c r="F50" s="4">
         <v>0</v>
       </c>
-      <c r="E38" s="3">
-        <v>200</v>
-      </c>
-      <c r="F38" s="4">
-        <v>8</v>
-      </c>
-      <c r="K38" s="4">
-        <f>D38+F38+I38+G38+H38+J38</f>
-        <v>8</v>
-      </c>
-      <c r="L38" s="5">
-        <v>45894</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0</v>
-      </c>
-      <c r="N38" s="10">
-        <f>K38*2</f>
-        <v>16</v>
-      </c>
-      <c r="O38" s="8">
-        <f>N38-M38</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>17</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" ref="K39:K49" si="6">D39+F39+I39+G39+H39+J39</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1">
-        <v>603173</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="3">
-        <v>10</v>
-      </c>
-      <c r="D40" s="4">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3">
-        <v>18</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1</v>
-      </c>
-      <c r="K40" s="4">
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L50" s="5">
         <v>45863</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="3">
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="3">
         <v>14</v>
       </c>
-      <c r="D41" s="4">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
         <v>30</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F51" s="4">
         <v>0</v>
       </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-      <c r="K41" s="4">
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L51" s="5">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="3">
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="3">
         <v>5</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D52" s="4">
         <v>0</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E52" s="3">
         <v>68</v>
       </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="4">
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L52" s="5">
         <v>45878</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="3">
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="3">
         <v>7</v>
       </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
         <v>47</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F53" s="4">
         <v>0</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K53" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L53" s="5">
         <v>45878</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="3">
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="3">
         <v>10</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E54" s="3">
         <v>67</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K54" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L54" s="5">
         <v>45881</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="3">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3">
         <v>90</v>
       </c>
-      <c r="C45" s="3">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3">
-        <v>90</v>
-      </c>
-      <c r="K45" s="4">
+      <c r="K55" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L55" s="5">
         <v>45881</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="3">
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="3">
         <v>6</v>
       </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="4">
         <v>0</v>
       </c>
-      <c r="K51" s="4">
-        <v>2</v>
-      </c>
-      <c r="L51" s="5">
+      <c r="K61" s="4">
+        <v>2</v>
+      </c>
+      <c r="L61" s="5">
         <v>45878</v>
       </c>
-      <c r="N51" s="7">
-        <f t="shared" ref="N50:N57" si="7">K51*2</f>
+      <c r="N61" s="6">
+        <f t="shared" ref="N60:N67" si="7">K61*2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K52" s="4">
+    <row r="62" spans="1:14">
+      <c r="A62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K62" s="4">
         <v>8</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L62" s="5">
         <v>45878</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N62" s="6">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K53" s="4">
+    <row r="63" spans="1:14">
+      <c r="A63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K63" s="4">
         <v>10</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L63" s="5">
         <v>45878</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N63" s="6">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K54" s="4">
+    <row r="64" spans="1:14">
+      <c r="A64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K64" s="4">
         <v>20</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L64" s="5">
         <v>45878</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N64" s="6">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K55" s="4">
-        <v>2</v>
-      </c>
-      <c r="L55" s="5">
+    <row r="65" spans="1:14">
+      <c r="A65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K65" s="4">
+        <v>2</v>
+      </c>
+      <c r="L65" s="5">
         <v>45878</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N65" s="6">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K56" s="4">
+    <row r="66" spans="1:14">
+      <c r="A66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K66" s="4">
         <v>6</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L66" s="5">
         <v>45878</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N66" s="6">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K57" s="4">
+    <row r="67" spans="1:14">
+      <c r="A67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K67" s="4">
         <v>4</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L67" s="5">
         <v>45878</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N67" s="6">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="3">
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="3">
         <v>9</v>
       </c>
-      <c r="D59" s="4">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
         <v>110</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F69" s="4">
         <v>3</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L69" s="5">
         <v>45878</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="3">
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="3">
         <v>9</v>
       </c>
-      <c r="D60" s="4">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
         <v>140</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F70" s="4">
         <v>4</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L70" s="5">
         <v>45878</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="3">
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="3">
         <v>9</v>
       </c>
-      <c r="D61" s="4">
-        <v>2</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
         <v>90</v>
       </c>
-      <c r="F61" s="4">
-        <v>2</v>
-      </c>
-      <c r="L61" s="5">
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="L71" s="5">
         <v>45878</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="3">
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="3">
         <v>11</v>
       </c>
-      <c r="D62" s="4">
-        <v>2</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
         <v>150</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F72" s="4">
         <v>4</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L72" s="5">
         <v>45878</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="3">
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="3">
         <v>10</v>
       </c>
-      <c r="D63" s="4">
-        <v>2</v>
-      </c>
-      <c r="E63" s="3">
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
         <v>60</v>
       </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-      <c r="L63" s="5">
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="L73" s="5">
         <v>45878</v>
       </c>
     </row>
@@ -3322,7 +3409,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A37:P63 D36:L36 N36:P36 A36 A1:P35" numberStoredAsText="1"/>
+    <ignoredError sqref="A48:P73 A1:P1 A2:B2 D2 G2:K2 N2:P2 A3:P4 A5:L5 N5:P5 A6:P6 A7:L7 N7:P7 A8:P9 A10:L10 N10:O10 A11:P11 A12:L12 N12:P12 A14:P16 H13:P13 A13:F13 A17:B17 D17 G17:K17 M17:P17 A18:D18 F18:P18 A19:P20 A26:L26 A21:M25 A27:F27 H27:L27 A28:L28 A29:M31 A32:L32 A35:M35 H34:M34 A34:F34 A33:M33 O21:P32 O33 O34:P36 A36 H36:L36 D36:F36 A37:P37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1390,8 +1390,8 @@
   <sheetPr/>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2186,24 +2186,28 @@
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>44</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.2</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
+      <c r="E19" s="3">
+        <v>37</v>
+      </c>
       <c r="F19" s="4">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="J19" s="4">
         <v>1</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L19" s="5">
         <v>45892</v>
@@ -2213,11 +2217,11 @@
       </c>
       <c r="N19" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="O19" s="11">
+        <v>4</v>
+      </c>
+      <c r="O19" s="13">
         <f t="shared" si="1"/>
-        <v>2.04</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="20" spans="14:15">
@@ -3409,7 +3413,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A48:P73 A1:P1 A2:B2 D2 G2:K2 N2:P2 A3:P4 A5:L5 N5:P5 A6:P6 A7:L7 N7:P7 A8:P9 A10:L10 N10:O10 A11:P11 A12:L12 N12:P12 A14:P16 H13:P13 A13:F13 A17:B17 D17 G17:K17 M17:P17 A18:D18 F18:P18 A19:P20 A26:L26 A21:M25 A27:F27 H27:L27 A28:L28 A29:M31 A32:L32 A35:M35 H34:M34 A34:F34 A33:M33 O21:P32 O33 O34:P36 A36 H36:L36 D36:F36 A37:P37" numberStoredAsText="1"/>
+    <ignoredError sqref="A37:P37 D36:F36 H36:L36 A36 O34:P36 O33 O21:P32 A33:M33 A34:F34 H34:M34 A35:M35 A32:L32 A29:M31 A28:L28 H27:L27 A27:F27 A21:M25 A26:L26 A19:B19 D19 H19:P19 A20:P20 F18:P18 A18:D18 M17:P17 G17:K17 D17 A17:B17 A13:F13 H13:P13 A14:P16 N12:P12 A12:L12 A11:P11 N10:O10 A10:L10 A8:P9 N7:P7 A7:L7 A6:P6 N5:P5 A5:L5 A3:P4 N2:P2 G2:K2 D2 A2:B2 A1:P1 A48:P73" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>代码</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>凯莱英</t>
+  </si>
+  <si>
+    <t>002920</t>
+  </si>
+  <si>
+    <t>德赛西威</t>
+  </si>
+  <si>
+    <t>688050</t>
+  </si>
+  <si>
+    <t>爱博医疗</t>
   </si>
   <si>
     <t>沪深300</t>
@@ -1031,7 +1043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,6 +1081,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1388,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1464,7 +1479,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1553,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="3">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="F4" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
@@ -1572,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="5">
-        <v>45874</v>
+        <v>45898</v>
       </c>
       <c r="M4" s="6">
         <v>13.86</v>
@@ -2144,7 +2159,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2201,7 +2216,6 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="4"/>
       <c r="J19" s="4">
         <v>1</v>
       </c>
@@ -2213,7 +2227,7 @@
         <v>45892</v>
       </c>
       <c r="M19" s="6">
-        <v>7.96</v>
+        <v>4.42</v>
       </c>
       <c r="N19" s="7">
         <f t="shared" si="2"/>
@@ -2221,7 +2235,7 @@
       </c>
       <c r="O19" s="13">
         <f t="shared" si="1"/>
-        <v>-3.96</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="20" spans="14:15">
@@ -2296,7 +2310,7 @@
         <v>2.3</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" ref="N22:N36" si="3">K22*1</f>
+        <f t="shared" ref="N22:N38" si="3">K22*1</f>
         <v>3</v>
       </c>
       <c r="O22" s="7">
@@ -2305,7 +2319,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2384,7 +2398,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -2422,7 +2436,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="14">
         <f>N25-M25</f>
         <v>-2.11</v>
       </c>
@@ -2450,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" ref="K26:K36" si="4">D26+F26+I26+G26+H26+J26</f>
+        <f t="shared" ref="K26:K38" si="4">D26+F26+I26+G26+H26+J26</f>
         <v>6</v>
       </c>
       <c r="L26" s="5">
@@ -2463,8 +2477,8 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="O26" s="13">
-        <f t="shared" ref="O26:O36" si="5">N26-M26</f>
+      <c r="O26" s="14">
+        <f t="shared" ref="O26:O38" si="5">N26-M26</f>
         <v>-10.13</v>
       </c>
     </row>
@@ -2501,7 +2515,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="14">
         <f t="shared" si="5"/>
         <v>-3.34</v>
       </c>
@@ -2612,15 +2626,15 @@
         <v>45848</v>
       </c>
       <c r="M30" s="6">
-        <v>8.03</v>
+        <v>4.37</v>
       </c>
       <c r="N30" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="7">
         <f t="shared" si="5"/>
-        <v>-4.03</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2650,15 +2664,15 @@
         <v>45873</v>
       </c>
       <c r="M31" s="6">
-        <v>7.95</v>
+        <v>4.17</v>
       </c>
       <c r="N31" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="7">
         <f t="shared" si="5"/>
-        <v>-3.95</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2729,15 +2743,15 @@
         <v>45889</v>
       </c>
       <c r="M33" s="6">
-        <v>12.1</v>
+        <v>7.41</v>
       </c>
       <c r="N33" s="7">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="7">
         <f t="shared" si="5"/>
-        <v>-5.1</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2817,7 +2831,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="14">
         <f t="shared" si="5"/>
         <v>-7</v>
       </c>
@@ -2852,54 +2866,128 @@
         <v>45895</v>
       </c>
       <c r="M36" s="6">
-        <v>9.54</v>
+        <v>6.36</v>
       </c>
       <c r="N36" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="7">
         <f t="shared" si="5"/>
-        <v>-3.54</v>
-      </c>
-    </row>
-    <row r="37" spans="14:15">
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="3">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>110</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="L37" s="5">
+        <v>45897</v>
+      </c>
+      <c r="M37" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.4</v>
+      </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>111</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45897</v>
+      </c>
+      <c r="M38" s="6">
+        <v>4.02</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="5"/>
+        <v>0.98</v>
+      </c>
     </row>
     <row r="39" spans="14:15">
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="14:15">
+    <row r="40" spans="1:15">
+      <c r="A40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
     </row>
@@ -2931,159 +3019,110 @@
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="3">
-        <v>2</v>
-      </c>
-      <c r="D48" s="4">
+    <row r="48" spans="14:15">
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="14:15">
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E50" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F50" s="4">
         <v>8</v>
       </c>
-      <c r="K48" s="4">
-        <f>D48+F48+I48+G48+H48+J48</f>
+      <c r="K50" s="4">
+        <f>D50+F50+I50+G50+H50+J50</f>
         <v>8</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L50" s="5">
         <v>45894</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M50" s="6">
         <v>0</v>
       </c>
-      <c r="N48" s="7">
-        <f>K48*2</f>
+      <c r="N50" s="7">
+        <f>K50*2</f>
         <v>16</v>
       </c>
-      <c r="O48" s="7">
-        <f>N48-M48</f>
+      <c r="O50" s="7">
+        <f>N50-M50</f>
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="3">
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="3">
         <v>5.8</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D51" s="4">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E51" s="3">
         <v>17</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F51" s="4">
         <v>0</v>
       </c>
-      <c r="K49" s="4">
-        <f t="shared" ref="K49:K59" si="6">D49+F49+I49+G49+H49+J49</f>
+      <c r="K51" s="4">
+        <f t="shared" ref="K51:K61" si="6">D51+F51+I51+G51+H51+J51</f>
         <v>0</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L51" s="5">
         <v>45848</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1">
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
         <v>603173</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="3">
+      <c r="B52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="3">
         <v>10</v>
       </c>
-      <c r="D50" s="4">
-        <v>2</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3">
         <v>18</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F52" s="4">
         <v>0</v>
       </c>
-      <c r="G50" s="4">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4">
-        <v>1</v>
-      </c>
-      <c r="K50" s="4">
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L52" s="5">
         <v>45863</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="3">
-        <v>14</v>
-      </c>
-      <c r="D51" s="4">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3">
-        <v>30</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4">
-        <v>1</v>
-      </c>
-      <c r="K51" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="L51" s="5">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>68</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="K52" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L52" s="5">
-        <v>45878</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3094,23 +3133,26 @@
         <v>93</v>
       </c>
       <c r="C53" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="3">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
       </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
       <c r="K53" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" s="5">
-        <v>45878</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3121,17 +3163,23 @@
         <v>95</v>
       </c>
       <c r="C54" s="3">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
       </c>
       <c r="K54" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="5">
-        <v>45881</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3144,63 +3192,63 @@
       <c r="C55" s="3">
         <v>7</v>
       </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
       <c r="E55" s="3">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
       </c>
       <c r="K55" s="4">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L55" s="5">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="3">
+        <v>10</v>
+      </c>
+      <c r="E56" s="3">
+        <v>67</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L56" s="5">
         <v>45881</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="3">
-        <v>6</v>
-      </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2</v>
-      </c>
-      <c r="F61" s="4">
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="3">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3">
+        <v>90</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K61" s="4">
-        <v>2</v>
-      </c>
-      <c r="L61" s="5">
-        <v>45878</v>
-      </c>
-      <c r="N61" s="6">
-        <f t="shared" ref="N60:N67" si="7">K61*2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K62" s="4">
-        <v>8</v>
-      </c>
-      <c r="L62" s="5">
-        <v>45878</v>
-      </c>
-      <c r="N62" s="6">
-        <f t="shared" si="7"/>
-        <v>16</v>
+      <c r="L57" s="5">
+        <v>45881</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3210,15 +3258,27 @@
       <c r="B63" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="C63" s="3">
+        <v>6</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
       <c r="K63" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L63" s="5">
         <v>45878</v>
       </c>
       <c r="N63" s="6">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" ref="N62:N69" si="7">K63*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3229,14 +3289,14 @@
         <v>105</v>
       </c>
       <c r="K64" s="4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L64" s="5">
         <v>45878</v>
       </c>
       <c r="N64" s="6">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3247,14 +3307,14 @@
         <v>107</v>
       </c>
       <c r="K65" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L65" s="5">
         <v>45878</v>
       </c>
       <c r="N65" s="6">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3265,14 +3325,14 @@
         <v>109</v>
       </c>
       <c r="K66" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L66" s="5">
         <v>45878</v>
       </c>
       <c r="N66" s="6">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3283,60 +3343,50 @@
         <v>111</v>
       </c>
       <c r="K67" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L67" s="5">
         <v>45878</v>
       </c>
       <c r="N67" s="6">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K68" s="4">
+        <v>6</v>
+      </c>
+      <c r="L68" s="5">
+        <v>45878</v>
+      </c>
+      <c r="N68" s="6">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="3">
-        <v>9</v>
-      </c>
-      <c r="D69" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" s="3">
-        <v>110</v>
-      </c>
-      <c r="F69" s="4">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="K69" s="4">
+        <v>4</v>
       </c>
       <c r="L69" s="5">
         <v>45878</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="3">
-        <v>9</v>
-      </c>
-      <c r="D70" s="4">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3">
-        <v>140</v>
-      </c>
-      <c r="F70" s="4">
-        <v>4</v>
-      </c>
-      <c r="L70" s="5">
-        <v>45878</v>
+      <c r="N69" s="6">
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3353,10 +3403,10 @@
         <v>2</v>
       </c>
       <c r="E71" s="3">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F71" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71" s="5">
         <v>45878</v>
@@ -3370,13 +3420,13 @@
         <v>119</v>
       </c>
       <c r="C72" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" s="4">
         <v>2</v>
       </c>
       <c r="E72" s="3">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F72" s="4">
         <v>4</v>
@@ -3393,18 +3443,64 @@
         <v>121</v>
       </c>
       <c r="C73" s="3">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
+        <v>90</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="L73" s="5">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="3">
+        <v>11</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>150</v>
+      </c>
+      <c r="F74" s="4">
+        <v>4</v>
+      </c>
+      <c r="L74" s="5">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="3">
         <v>10</v>
       </c>
-      <c r="D73" s="4">
-        <v>2</v>
-      </c>
-      <c r="E73" s="3">
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3">
         <v>60</v>
       </c>
-      <c r="F73" s="4">
-        <v>1</v>
-      </c>
-      <c r="L73" s="5">
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="L75" s="5">
         <v>45878</v>
       </c>
     </row>
@@ -3413,7 +3509,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A37:P37 D36:F36 H36:L36 A36 O34:P36 O33 O21:P32 A33:M33 A34:F34 H34:M34 A35:M35 A32:L32 A29:M31 A28:L28 H27:L27 A27:F27 A21:M25 A26:L26 A19:B19 D19 H19:P19 A20:P20 F18:P18 A18:D18 M17:P17 G17:K17 D17 A17:B17 A13:F13 H13:P13 A14:P16 N12:P12 A12:L12 A11:P11 N10:O10 A10:L10 A8:P9 N7:P7 A7:L7 A6:P6 N5:P5 A5:L5 A3:P4 N2:P2 G2:K2 D2 A2:B2 A1:P1 A48:P73" numberStoredAsText="1"/>
+    <ignoredError sqref="A50:P75 A1:P1 A2:B2 D2 G2:K2 N2:P2 A3:P3 A4:B4 G4:K4 M4:P4 A5:L5 N5:P5 A6:P6 A7:L7 N7:P7 A8:P9 A10:L10 N10:O10 A11:P11 A12:L12 N12:P12 A14:P16 H13:P13 A13:F13 A17:B17 D17 G17:K17 M17:P17 A18:D18 F18:P18 A20:P20 H19:L19 N19:P19 D19 A19:B19 A26:L26 A21:M25 A27:F27 H27:L27 A28:L28 A29:M29 A35:M35 H34:M34 A34:F34 A30:L33 O21:P32 O33 O34:P35 P36 A36 H36:J36 L36 D36:F36 A39:P39" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>代码</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>爱博医疗</t>
+  </si>
+  <si>
+    <t>002352</t>
+  </si>
+  <si>
+    <t>顺丰控股</t>
   </si>
   <si>
     <t>沪深300</t>
@@ -1080,13 +1086,13 @@
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1403,10 +1409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1609,16 +1615,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="D5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4">
         <v>-1</v>
@@ -1628,21 +1634,21 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L5" s="5">
-        <v>45879</v>
+        <v>45900</v>
       </c>
       <c r="M5" s="7">
         <v>11.65</v>
       </c>
       <c r="N5" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="O5" s="7">
+        <v>8</v>
+      </c>
+      <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1832,10 +1838,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="F10" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -1845,7 +1851,7 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L10" s="5">
         <v>45893</v>
@@ -1855,11 +1861,11 @@
       </c>
       <c r="N10" s="7">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="O10" s="11">
+        <v>20</v>
+      </c>
+      <c r="O10" s="7">
         <f t="shared" si="1"/>
-        <v>9.48</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:15">
@@ -2195,7 +2201,7 @@
         <f t="shared" si="1"/>
         <v>2.88</v>
       </c>
-      <c r="P18" s="12"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
@@ -2233,7 +2239,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="7">
         <f t="shared" si="1"/>
         <v>-0.42</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>2.3</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" ref="N22:N38" si="3">K22*1</f>
+        <f t="shared" ref="N22:N39" si="3">K22*1</f>
         <v>3</v>
       </c>
       <c r="O22" s="7">
@@ -2370,31 +2376,31 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F24" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4">
         <v>-1</v>
       </c>
       <c r="K24" s="4">
         <f>D24+F24+I24+G24+H24+J24</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L24" s="5">
-        <v>45884</v>
+        <v>45900</v>
       </c>
       <c r="M24" s="6">
         <v>6.34</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O24" s="7">
         <f>N24-M24</f>
-        <v>-0.34</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2436,7 +2442,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="12">
         <f>N25-M25</f>
         <v>-2.11</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" ref="K26:K38" si="4">D26+F26+I26+G26+H26+J26</f>
+        <f t="shared" ref="K26:K39" si="4">D26+F26+I26+G26+H26+J26</f>
         <v>6</v>
       </c>
       <c r="L26" s="5">
@@ -2477,8 +2483,8 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="O26" s="14">
-        <f t="shared" ref="O26:O38" si="5">N26-M26</f>
+      <c r="O26" s="12">
+        <f t="shared" ref="O26:O39" si="5">N26-M26</f>
         <v>-10.13</v>
       </c>
     </row>
@@ -2509,7 +2515,7 @@
         <v>45861</v>
       </c>
       <c r="M27" s="6">
-        <v>6.34</v>
+        <v>3.41</v>
       </c>
       <c r="N27" s="7">
         <f t="shared" si="3"/>
@@ -2517,7 +2523,7 @@
       </c>
       <c r="O27" s="14">
         <f t="shared" si="5"/>
-        <v>-3.34</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2831,7 +2837,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="12">
         <f t="shared" si="5"/>
         <v>-7</v>
       </c>
@@ -2959,39 +2965,73 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="39" spans="14:15">
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="8" t="s">
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="C39" s="3">
+        <v>8.8</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>144</v>
+      </c>
+      <c r="F39" s="4">
+        <v>6</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L39" s="5">
+        <v>45898</v>
+      </c>
+      <c r="M39" s="6">
+        <v>7.04</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O39" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="14:15">
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
     </row>
-    <row r="41" spans="14:15">
+    <row r="41" spans="1:15">
+      <c r="A41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
@@ -3027,132 +3067,106 @@
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="3">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>200</v>
-      </c>
-      <c r="F50" s="4">
-        <v>8</v>
-      </c>
-      <c r="K50" s="4">
-        <f>D50+F50+I50+G50+H50+J50</f>
-        <v>8</v>
-      </c>
-      <c r="L50" s="5">
-        <v>45894</v>
-      </c>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <f>K50*2</f>
-        <v>16</v>
-      </c>
-      <c r="O50" s="7">
-        <f>N50-M50</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+    <row r="50" spans="14:15">
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C51" s="3">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
       </c>
       <c r="E51" s="3">
+        <v>200</v>
+      </c>
+      <c r="F51" s="4">
+        <v>8</v>
+      </c>
+      <c r="K51" s="4">
+        <f>D51+F51+I51+G51+H51+J51</f>
+        <v>8</v>
+      </c>
+      <c r="L51" s="5">
+        <v>45894</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <f>K51*2</f>
+        <v>16</v>
+      </c>
+      <c r="O51" s="7">
+        <f>N51-M51</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>17</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <f t="shared" ref="K51:K61" si="6">D51+F51+I51+G51+H51+J51</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="5">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1">
-        <v>603173</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="3">
-        <v>10</v>
-      </c>
-      <c r="D52" s="4">
-        <v>2</v>
-      </c>
-      <c r="E52" s="3">
-        <v>18</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
       </c>
-      <c r="G52" s="4">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1</v>
-      </c>
       <c r="K52" s="4">
+        <f t="shared" ref="K52:K62" si="6">D52+F52+I52+G52+H52+J52</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>603173</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="3">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L53" s="5">
         <v>45863</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="3">
-        <v>14</v>
-      </c>
-      <c r="D53" s="4">
-        <v>2</v>
-      </c>
-      <c r="E53" s="3">
-        <v>30</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="K53" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="L53" s="5">
-        <v>45869</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3163,23 +3177,26 @@
         <v>95</v>
       </c>
       <c r="C54" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>30</v>
+      </c>
+      <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="E54" s="3">
-        <v>68</v>
-      </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>1</v>
       </c>
       <c r="K54" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54" s="5">
-        <v>45878</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3190,16 +3207,16 @@
         <v>97</v>
       </c>
       <c r="C55" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="4">
         <f t="shared" si="6"/>
@@ -3217,17 +3234,23 @@
         <v>99</v>
       </c>
       <c r="C56" s="3">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
       </c>
       <c r="E56" s="3">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
       </c>
       <c r="K56" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="5">
-        <v>45881</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3238,10 +3261,10 @@
         <v>101</v>
       </c>
       <c r="C57" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E57" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="K57" s="4">
         <f t="shared" si="6"/>
@@ -3251,34 +3274,25 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="1" t="s">
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="3">
-        <v>6</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2</v>
-      </c>
-      <c r="F63" s="4">
+      <c r="C58" s="3">
+        <v>7</v>
+      </c>
+      <c r="E58" s="3">
+        <v>90</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K63" s="4">
-        <v>2</v>
-      </c>
-      <c r="L63" s="5">
-        <v>45878</v>
-      </c>
-      <c r="N63" s="6">
-        <f t="shared" ref="N62:N69" si="7">K63*2</f>
-        <v>4</v>
+      <c r="L58" s="5">
+        <v>45881</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3288,15 +3302,27 @@
       <c r="B64" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="C64" s="3">
+        <v>6</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
       <c r="K64" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L64" s="5">
         <v>45878</v>
       </c>
       <c r="N64" s="6">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" ref="N63:N70" si="7">K64*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3307,14 +3333,14 @@
         <v>107</v>
       </c>
       <c r="K65" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L65" s="5">
         <v>45878</v>
       </c>
       <c r="N65" s="6">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3325,14 +3351,14 @@
         <v>109</v>
       </c>
       <c r="K66" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L66" s="5">
         <v>45878</v>
       </c>
       <c r="N66" s="6">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3343,14 +3369,14 @@
         <v>111</v>
       </c>
       <c r="K67" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L67" s="5">
         <v>45878</v>
       </c>
       <c r="N67" s="6">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3361,14 +3387,14 @@
         <v>113</v>
       </c>
       <c r="K68" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L68" s="5">
         <v>45878</v>
       </c>
       <c r="N68" s="6">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3379,37 +3405,32 @@
         <v>115</v>
       </c>
       <c r="K69" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L69" s="5">
         <v>45878</v>
       </c>
       <c r="N69" s="6">
         <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K70" s="4">
+        <v>4</v>
+      </c>
+      <c r="L70" s="5">
+        <v>45878</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" si="7"/>
         <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C71" s="3">
-        <v>9</v>
-      </c>
-      <c r="D71" s="4">
-        <v>2</v>
-      </c>
-      <c r="E71" s="3">
-        <v>110</v>
-      </c>
-      <c r="F71" s="4">
-        <v>3</v>
-      </c>
-      <c r="L71" s="5">
-        <v>45878</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3426,10 +3447,10 @@
         <v>2</v>
       </c>
       <c r="E72" s="3">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F72" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L72" s="5">
         <v>45878</v>
@@ -3449,10 +3470,10 @@
         <v>2</v>
       </c>
       <c r="E73" s="3">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F73" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L73" s="5">
         <v>45878</v>
@@ -3466,16 +3487,16 @@
         <v>123</v>
       </c>
       <c r="C74" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
       </c>
       <c r="E74" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F74" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L74" s="5">
         <v>45878</v>
@@ -3489,18 +3510,41 @@
         <v>125</v>
       </c>
       <c r="C75" s="3">
+        <v>11</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3">
+        <v>150</v>
+      </c>
+      <c r="F75" s="4">
+        <v>4</v>
+      </c>
+      <c r="L75" s="5">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="3">
         <v>10</v>
       </c>
-      <c r="D75" s="4">
-        <v>2</v>
-      </c>
-      <c r="E75" s="3">
+      <c r="D76" s="4">
+        <v>2</v>
+      </c>
+      <c r="E76" s="3">
         <v>60</v>
       </c>
-      <c r="F75" s="4">
-        <v>1</v>
-      </c>
-      <c r="L75" s="5">
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="L76" s="5">
         <v>45878</v>
       </c>
     </row>
@@ -3509,7 +3553,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A50:P75 A1:P1 A2:B2 D2 G2:K2 N2:P2 A3:P3 A4:B4 G4:K4 M4:P4 A5:L5 N5:P5 A6:P6 A7:L7 N7:P7 A8:P9 A10:L10 N10:O10 A11:P11 A12:L12 N12:P12 A14:P16 H13:P13 A13:F13 A17:B17 D17 G17:K17 M17:P17 A18:D18 F18:P18 A20:P20 H19:L19 N19:P19 D19 A19:B19 A26:L26 A21:M25 A27:F27 H27:L27 A28:L28 A29:M29 A35:M35 H34:M34 A34:F34 A30:L33 O21:P32 O33 O34:P35 P36 A36 H36:J36 L36 D36:F36 A39:P39" numberStoredAsText="1"/>
+    <ignoredError sqref="A51:P76 A1:P1 A2:B2 D2 G2:K2 N2:P2 A3:P3 A4:B5 G4:K5 M4:P4 N5:P5 A6:P6 A7:L7 N7:P7 A8:P9 A10:D10 G10:L10 N10:O10 A11:P11 A12:L12 N12:P12 A14:P16 H13:P13 A13:F13 A17:B17 D17 G17:K17 M17:P17 A18:D18 F18:P18 A20:P20 H19:L19 N19:P19 D19 A19:B19 A26:L26 A21:M23 A24:D24 G24:K24 M24 A25:M25 A27:F27 H27:L27 A28:L28 A29:M29 A35:M35 H34:M34 A34:F34 A30:L33 O21:P32 O33 O34:P35 P36 A36 H36:J36 L36 D36:F36 A40:P40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1049,7 +1049,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1090,9 +1090,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1412,7 +1409,7 @@
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1485,7 +1482,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1838,10 +1835,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F10" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -1851,21 +1848,21 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="5">
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="M10" s="6">
         <v>20.52</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O10" s="7">
         <f t="shared" si="1"/>
-        <v>-0.52</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:15">
@@ -2165,7 +2162,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2325,7 +2322,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2404,7 +2401,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -2521,7 +2518,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="7">
         <f t="shared" si="5"/>
         <v>-0.41</v>
       </c>
@@ -3553,7 +3550,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A51:P76 A1:P1 A2:B2 D2 G2:K2 N2:P2 A3:P3 A4:B5 G4:K5 M4:P4 N5:P5 A6:P6 A7:L7 N7:P7 A8:P9 A10:D10 G10:L10 N10:O10 A11:P11 A12:L12 N12:P12 A14:P16 H13:P13 A13:F13 A17:B17 D17 G17:K17 M17:P17 A18:D18 F18:P18 A20:P20 H19:L19 N19:P19 D19 A19:B19 A26:L26 A21:M23 A24:D24 G24:K24 M24 A25:M25 A27:F27 H27:L27 A28:L28 A29:M29 A35:M35 H34:M34 A34:F34 A30:L33 O21:P32 O33 O34:P35 P36 A36 H36:J36 L36 D36:F36 A40:P40" numberStoredAsText="1"/>
+    <ignoredError sqref="A40:P40 D36:F36 L36 H36:J36 A36 P36 O34:P35 O33 O21:P32 A30:L33 A34:F34 H34:M34 A35:M35 A29:M29 A28:L28 H27:L27 A27:F27 A25:M25 M24 G24:K24 A24:D24 A21:M23 A26:L26 A19:B19 D19 N19:P19 H19:L19 A20:P20 F18:P18 A18:D18 M17:P17 G17:K17 D17 A17:B17 A13:F13 H13:P13 A14:P16 N12:P12 A12:L12 A11:P11 N10:O10 G10:K10 A10:D10 A8:P9 N7:P7 A7:L7 A6:P6 N5:P5 M4:P4 G4:K5 A4:B5 A3:P3 N2:P2 G2:K2 D2 A2:B2 A1:P1 A51:P76" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1409,7 +1409,7 @@
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1618,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
         <v>-1</v>
@@ -1631,21 +1631,21 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="5">
-        <v>45900</v>
+        <v>45904</v>
       </c>
       <c r="M5" s="7">
         <v>11.65</v>
       </c>
       <c r="N5" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>-3.65</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3550,7 +3550,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A40:P40 D36:F36 L36 H36:J36 A36 P36 O34:P35 O33 O21:P32 A30:L33 A34:F34 H34:M34 A35:M35 A29:M29 A28:L28 H27:L27 A27:F27 A25:M25 M24 G24:K24 A24:D24 A21:M23 A26:L26 A19:B19 D19 N19:P19 H19:L19 A20:P20 F18:P18 A18:D18 M17:P17 G17:K17 D17 A17:B17 A13:F13 H13:P13 A14:P16 N12:P12 A12:L12 A11:P11 N10:O10 G10:K10 A10:D10 A8:P9 N7:P7 A7:L7 A6:P6 N5:P5 M4:P4 G4:K5 A4:B5 A3:P3 N2:P2 G2:K2 D2 A2:B2 A1:P1 A51:P76" numberStoredAsText="1"/>
+    <ignoredError sqref="A51:P76 A1:P1 A2:B2 D2 G2:K2 N2:P2 A3:P3 A4:B5 G4:K5 M4:P4 N5:P5 A6:P6 A7:L7 N7:P7 A8:P9 A10:D10 G10:K10 N10:O10 A11:P11 A12:L12 N12:P12 A14:P16 H13:P13 A13:F13 A17:B17 D17 G17:K17 M17:P17 A18:D18 F18:P18 A20:P20 H19:L19 N19:P19 D19 A19:B19 A26:L26 A21:M23 A24:D24 G24:K24 M24 A25:M25 A27:F27 H27:L27 A28:L28 A29:M29 A35:M35 H34:M34 A34:F34 A30:L33 O21:P32 O33 O34:P35 P36 A36 H36:J36 L36 D36:F36 A40:P40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1409,7 +1409,7 @@
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1879,10 +1879,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="3">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -1892,21 +1892,21 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" s="5">
-        <v>45854</v>
+        <v>45899</v>
       </c>
       <c r="M11" s="6">
         <v>10.09</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O11" s="7">
         <f t="shared" si="1"/>
-        <v>-0.0899999999999999</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -3550,7 +3550,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A51:P76 A1:P1 A2:B2 D2 G2:K2 N2:P2 A3:P3 A4:B5 G4:K5 M4:P4 N5:P5 A6:P6 A7:L7 N7:P7 A8:P9 A10:D10 G10:K10 N10:O10 A11:P11 A12:L12 N12:P12 A14:P16 H13:P13 A13:F13 A17:B17 D17 G17:K17 M17:P17 A18:D18 F18:P18 A20:P20 H19:L19 N19:P19 D19 A19:B19 A26:L26 A21:M23 A24:D24 G24:K24 M24 A25:M25 A27:F27 H27:L27 A28:L28 A29:M29 A35:M35 H34:M34 A34:F34 A30:L33 O21:P32 O33 O34:P35 P36 A36 H36:J36 L36 D36:F36 A40:P40" numberStoredAsText="1"/>
+    <ignoredError sqref="A40:P40 D36:F36 L36 H36:J36 A36 P36 O34:P35 O33 O21:P32 A30:L33 A34:F34 H34:M34 A35:M35 A29:M29 A28:L28 H27:L27 A27:F27 A25:M25 M24 G24:K24 A24:D24 A21:M23 A26:L26 A19:B19 D19 N19:P19 H19:L19 A20:P20 F18:P18 A18:D18 M17:P17 G17:K17 D17 A17:B17 A13:F13 H13:P13 A14:P16 N12:P12 A12:L12 A10:D11 G10:K11 M11:P11 N10:O10 A8:P9 N7:P7 A7:L7 A6:P6 N5:P5 M4:P4 G4:K5 A4:B5 A3:P3 N2:P2 G2:K2 D2 A2:B2 A1:P1 A51:P76" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1507,8 +1507,8 @@
   <sheetPr/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1843,15 +1843,15 @@
         <v>45838</v>
       </c>
       <c r="N7" s="6">
-        <v>9.19</v>
+        <v>14.18</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="16">
         <f t="shared" si="1"/>
-        <v>4.81</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2958,7 +2958,7 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="7">
         <f t="shared" si="8"/>
         <v>-2.11</v>
       </c>
@@ -3774,7 +3774,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A43:Q80 P29:Q37 A29:N37 A1:Q28 P39:Q42 A39:N42" numberStoredAsText="1"/>
+    <ignoredError sqref="A39:N42 P39:Q42 A1:Q6 A7:M7 O7:Q7 A8:Q28 A29:N37 P29:Q37 A43:Q80" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="155">
   <si>
     <t>代码</t>
   </si>
@@ -378,16 +378,16 @@
     <t>恒生科技</t>
   </si>
   <si>
+    <t>603279</t>
+  </si>
+  <si>
+    <t>景津装备</t>
+  </si>
+  <si>
+    <t>002648</t>
+  </si>
+  <si>
     <t>卫星化学</t>
-  </si>
-  <si>
-    <t>603279</t>
-  </si>
-  <si>
-    <t>景津装备</t>
-  </si>
-  <si>
-    <t>002648</t>
   </si>
   <si>
     <t>福斯达</t>
@@ -668,12 +668,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1012,7 +1018,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,16 +1042,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1054,90 +1060,93 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1161,37 +1170,58 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1508,2264 +1538,2284 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3416666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.41666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.79166666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.55833333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.16666666666667" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.975" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.06666666666667" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.69166666666667" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.70833333333333" style="4" customWidth="1"/>
-    <col min="13" max="13" width="17" style="5" customWidth="1"/>
-    <col min="14" max="15" width="9.325" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9" style="7"/>
+    <col min="1" max="1" width="10.8583333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.3416666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.41666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.79166666666667" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.55833333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.16666666666667" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.975" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.06666666666667" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.69166666666667" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.70833333333333" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17" style="6" customWidth="1"/>
+    <col min="14" max="15" width="9.325" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>12.9</v>
       </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
         <v>277</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>11</v>
       </c>
-      <c r="L2" s="4">
+      <c r="H2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="5">
         <f t="shared" ref="L2:L19" si="0">E2+G2+J2+H2+I2+K2</f>
-        <v>13</v>
-      </c>
-      <c r="M2" s="5">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6">
         <v>45896</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="8">
         <v>16.26</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="8">
         <f>L2*2</f>
-        <v>26</v>
-      </c>
-      <c r="P2" s="14">
+        <v>22</v>
+      </c>
+      <c r="P2" s="18">
         <f t="shared" ref="P2:P19" si="1">O2-N2</f>
-        <v>9.74</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>300896</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>12.5</v>
       </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
         <v>200</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>8</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>-1</v>
       </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>45888</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="8">
         <v>19.85</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="7">
         <f t="shared" ref="O3:O19" si="2">L3*2</f>
         <v>20</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="8">
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>603195</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>7.8</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
         <v>124</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>45898</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="7">
         <v>13.86</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="8">
         <f t="shared" si="1"/>
         <v>0.140000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>300760</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>6.3</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>79</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>-1</v>
       </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>45904</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="8">
         <v>11.65</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="19">
         <f t="shared" si="1"/>
         <v>-1.65</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>300529</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>10.8</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
         <v>119</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>-1</v>
       </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>45891</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="7">
         <v>14.14</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="8">
         <f t="shared" si="1"/>
         <v>-0.140000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>603605</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
         <v>80</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>4</v>
       </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>45838</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <v>14.18</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="8">
         <f t="shared" si="1"/>
         <v>-0.18</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>300573</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>9.7</v>
       </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
         <v>71</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>3</v>
       </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>45838</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="7">
         <v>13.97</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="8">
         <f t="shared" si="1"/>
         <v>0.0299999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
         <v>25</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>45867</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="8">
         <v>9.67</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="8">
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>9.4</v>
       </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
         <v>104</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>45901</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="7">
         <v>20.52</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="19">
         <f t="shared" si="1"/>
         <v>-2.52</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:16">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>12.9</v>
       </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
         <v>9</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>45899</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="7">
         <v>10.09</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="19">
         <f t="shared" si="1"/>
         <v>-2.09</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>300628</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>12.1</v>
       </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
         <v>87</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>4</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>-1</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>45868</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="7">
         <v>10.08</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="8">
         <f t="shared" si="1"/>
         <v>-0.0800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>10.8</v>
       </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
         <v>117</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>5</v>
       </c>
-      <c r="K13" s="4">
-        <v>1</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>45883</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="7">
         <v>18.15</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="8">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="19">
         <f t="shared" si="1"/>
         <v>-2.15</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:17">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>9.7</v>
       </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
         <v>103</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>5</v>
       </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>45886</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="7">
         <v>17.85</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="8">
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>8</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
         <v>37</v>
       </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>45873</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="7">
         <v>5.47</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="8">
         <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>8.8</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
         <v>144</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>6</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>45898</v>
       </c>
-      <c r="N16" s="6">
-        <v>7.04</v>
-      </c>
-      <c r="O16" s="7">
+      <c r="N16" s="7">
+        <v>13.77</v>
+      </c>
+      <c r="O16" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="20">
         <f t="shared" si="1"/>
-        <v>6.96</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="17" spans="15:16">
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>9</v>
       </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
         <v>110</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>5</v>
       </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
         <f t="shared" ref="L18:L26" si="3">E18+G18+J18+H18+I18+K18</f>
         <v>9</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>45897</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="7">
         <v>10.4</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="8">
         <f t="shared" ref="O18:O25" si="4">L18*1</f>
         <v>9</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="19">
         <f t="shared" ref="P18:P26" si="5">O18-N18</f>
         <v>-1.4</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>6.2</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
         <v>140</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>6</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>45889</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="7">
         <v>7.41</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="8">
         <f t="shared" si="5"/>
         <v>-0.41</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>7</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
         <v>83</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>4</v>
       </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>45891</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="7">
         <v>16.13</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="19">
         <f t="shared" si="5"/>
         <v>-10.13</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>603833</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>8</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
         <v>122</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>5</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>-1</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>45900</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="7">
         <v>6.34</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="8">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="19">
         <f t="shared" si="5"/>
         <v>-1.34</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>4.6</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>84</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>4</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>45848</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="7">
         <v>4.37</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="8">
         <f t="shared" si="5"/>
         <v>-0.37</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>3.5</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>81</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>4</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>45873</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="7">
         <v>4.17</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="8">
         <f t="shared" si="5"/>
         <v>-0.17</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>10</v>
       </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
         <v>33</v>
       </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>45888</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="7">
         <v>4.5</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="8">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>9</v>
       </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
         <v>34</v>
       </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-      <c r="L25" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M25" s="5">
-        <v>45891</v>
-      </c>
-      <c r="N25" s="6">
-        <v>3.33</v>
-      </c>
-      <c r="O25" s="7">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P25" s="7">
-        <f t="shared" si="5"/>
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="3">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>39</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M25" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3.33</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="4">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>39</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M26" s="6">
         <v>45888</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="7">
         <v>3.75</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="8">
         <f>L26*2</f>
-        <v>6</v>
-      </c>
-      <c r="P26" s="14">
+        <v>4</v>
+      </c>
+      <c r="P26" s="8">
         <f t="shared" si="5"/>
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="15:16">
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="1" t="s">
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:17">
+      <c r="A29" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="12">
         <v>3.5</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="13">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="12">
         <v>40</v>
       </c>
-      <c r="G29" s="4">
-        <v>2</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="13">
+        <v>2</v>
+      </c>
+      <c r="H29" s="13">
         <v>-1</v>
       </c>
-      <c r="L29" s="4">
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13">
         <f t="shared" ref="L29:L41" si="6">E29+G29+J29+H29+I29+K29</f>
         <v>1</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="21">
         <v>45896</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="22">
         <v>2.46</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="22">
         <f t="shared" ref="O29:O40" si="7">L29*1</f>
         <v>1</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="22">
         <f t="shared" ref="P29:P41" si="8">O29-N29</f>
         <v>-1.46</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="18" t="s">
+      <c r="Q29" s="22"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:17">
+      <c r="A30" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="12">
         <v>8.5</v>
       </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
         <v>49</v>
       </c>
-      <c r="G30" s="4">
-        <v>2</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="G30" s="13">
+        <v>2</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="21">
         <v>45890</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="22">
         <v>3.12</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="22">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="22">
         <f t="shared" si="8"/>
         <v>-0.12</v>
       </c>
-      <c r="Q30" s="17"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>1.2</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>0</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>37</v>
       </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="6">
         <v>45892</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="7">
         <v>4.42</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="8">
         <f t="shared" si="8"/>
         <v>-2.42</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="1" t="s">
+    <row r="32" s="1" customFormat="1" spans="1:17">
+      <c r="A32" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="12">
         <v>8</v>
       </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12">
         <v>40</v>
       </c>
-      <c r="G32" s="4">
-        <v>2</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="G32" s="13">
+        <v>2</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="21">
         <v>45867</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="22">
         <v>2.3</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="22">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="22">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="1" t="s">
+      <c r="Q32" s="22"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:17">
+      <c r="A33" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="3">
-        <v>9</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>64</v>
-      </c>
-      <c r="G33" s="4">
-        <v>3</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="D33" s="12">
+        <v>8.2</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12">
+        <v>35</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="M33" s="5">
-        <v>45889</v>
-      </c>
-      <c r="N33" s="6">
+        <v>2</v>
+      </c>
+      <c r="M33" s="21">
+        <v>45908</v>
+      </c>
+      <c r="N33" s="22">
         <v>5.36</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="22">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="P33" s="7">
+        <v>2</v>
+      </c>
+      <c r="P33" s="22">
         <f t="shared" si="8"/>
-        <v>-0.36</v>
-      </c>
+        <v>-3.36</v>
+      </c>
+      <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>12</v>
       </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
         <v>48</v>
       </c>
-      <c r="G34" s="4">
-        <v>2</v>
-      </c>
-      <c r="L34" s="4">
+      <c r="G34" s="5">
+        <v>2</v>
+      </c>
+      <c r="L34" s="5">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>45838</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="7">
         <v>4.22</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="8">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="8">
         <f t="shared" si="8"/>
         <v>-0.22</v>
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>9</v>
       </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
         <v>49</v>
       </c>
-      <c r="G35" s="4">
-        <v>2</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5">
         <v>-1</v>
       </c>
-      <c r="K35" s="4">
-        <v>1</v>
-      </c>
-      <c r="L35" s="4">
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>45838</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="7">
         <v>6.11</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="8">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="8">
         <f t="shared" si="8"/>
         <v>-2.11</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <v>10</v>
       </c>
-      <c r="E36" s="4">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="5">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4">
         <v>26</v>
       </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>45861</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="7">
         <v>3.41</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="8">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="8">
         <f t="shared" si="8"/>
         <v>-0.41</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="1" t="s">
+    <row r="37" s="1" customFormat="1" spans="1:17">
+      <c r="A37" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="12">
         <v>8</v>
       </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="13">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12">
         <v>60</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="13">
         <v>3</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="13">
         <v>-1</v>
       </c>
-      <c r="L37" s="4">
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="21">
         <v>45877</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="22">
         <v>3.06</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="22">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="22">
         <f t="shared" si="8"/>
         <v>-0.0600000000000001</v>
       </c>
+      <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="3:16">
-      <c r="C38" s="11"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
+      <c r="C38" s="15"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>0</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>92</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>4</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="5">
         <f>E39+G39+J39+H39+I39+K39</f>
         <v>4</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>45891</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="7">
         <v>4.65</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="8">
         <f>L39*1</f>
         <v>4</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="8">
         <f>O39-N39</f>
         <v>-0.65</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>7</v>
       </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
         <v>150</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="5">
         <v>7</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="5">
         <v>-1</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="5">
         <f>E40+G40+J40+H40+I40+K40</f>
         <v>7</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="6">
         <v>45892</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="7">
         <v>14</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="8">
         <f>L40*1</f>
         <v>7</v>
       </c>
-      <c r="P40" s="15">
+      <c r="P40" s="19">
         <f>O40-N40</f>
         <v>-7</v>
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>5</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <v>0</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>114</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <v>5</v>
       </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-      <c r="L41" s="4">
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
         <f>E41+G41+J41+H41+I41+K41</f>
         <v>6</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="6">
         <v>45895</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="7">
         <v>6.36</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="8">
         <f>L41*1</f>
         <v>6</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="8">
         <f>O41-N41</f>
         <v>-0.36</v>
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <v>5</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>111</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <v>5</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="5">
         <f>E42+G42+J42+H42+I42+K42</f>
         <v>5</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>45897</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="7">
         <v>4.02</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="8">
         <f>L42*1</f>
         <v>5</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="8">
         <f>O42-N42</f>
         <v>0.98</v>
       </c>
     </row>
     <row r="44" spans="15:16">
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="23"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="15:16">
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="15:16">
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="15:16">
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="15:16">
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="15:16">
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="15:16">
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="15:16">
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="15:16">
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+    </row>
+    <row r="54" spans="15:16">
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-    </row>
-    <row r="46" spans="15:16">
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-    </row>
-    <row r="47" spans="15:16">
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-    </row>
-    <row r="48" spans="15:16">
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-    </row>
-    <row r="49" spans="15:16">
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-    </row>
-    <row r="50" spans="15:16">
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-    </row>
-    <row r="51" spans="15:16">
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-    </row>
-    <row r="52" spans="15:16">
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-    </row>
-    <row r="53" spans="15:16">
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-    </row>
-    <row r="54" spans="15:16">
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5">
         <v>0</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>200</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="5">
         <v>8</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="5">
         <f>E55+G55+J55+H55+I55+K55</f>
         <v>8</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="6">
         <v>45894</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="7">
         <v>0</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="8">
         <f>L55*2</f>
         <v>16</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="8">
         <f>O55-N55</f>
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="D56" s="4">
         <v>5.8</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="5">
         <v>0</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <v>17</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="5">
         <v>0</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="5">
         <f t="shared" ref="L56:L66" si="9">E56+G56+J56+H56+I56+K56</f>
         <v>0</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="6">
         <v>45848</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>603173</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="4">
         <v>10</v>
       </c>
-      <c r="E57" s="4">
-        <v>2</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57" s="5">
+        <v>2</v>
+      </c>
+      <c r="F57" s="4">
         <v>18</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="5">
         <v>0</v>
       </c>
-      <c r="H57" s="4">
-        <v>1</v>
-      </c>
-      <c r="J57" s="4">
-        <v>1</v>
-      </c>
-      <c r="L57" s="4">
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+      <c r="L57" s="5">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="6">
         <v>45863</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="4">
         <v>14</v>
       </c>
-      <c r="E58" s="4">
-        <v>2</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" s="5">
+        <v>2</v>
+      </c>
+      <c r="F58" s="4">
         <v>30</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="5">
         <v>0</v>
       </c>
-      <c r="H58" s="4">
-        <v>1</v>
-      </c>
-      <c r="L58" s="4">
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="6">
         <v>45869</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="4">
         <v>5</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="5">
         <v>0</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="4">
         <v>68</v>
       </c>
-      <c r="G59" s="4">
-        <v>1</v>
-      </c>
-      <c r="L59" s="4">
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="6">
         <v>45878</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="4">
         <v>7</v>
       </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
         <v>47</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="5">
         <v>0</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>45878</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="4">
         <v>10</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="4">
         <v>67</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>45881</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="4">
         <v>7</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="4">
         <v>90</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>45881</v>
       </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="4">
         <v>6</v>
       </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>2</v>
-      </c>
-      <c r="G68" s="4">
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" s="5">
         <v>0</v>
       </c>
-      <c r="L68" s="4">
-        <v>2</v>
-      </c>
-      <c r="M68" s="5">
+      <c r="L68" s="5">
+        <v>2</v>
+      </c>
+      <c r="M68" s="6">
         <v>45878</v>
       </c>
-      <c r="O68" s="6">
+      <c r="O68" s="7">
         <f t="shared" ref="O67:O74" si="10">L68*2</f>
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="5">
         <v>8</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>45878</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="7">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="5">
         <v>10</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>45878</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O70" s="7">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71" s="5">
         <v>20</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>45878</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71" s="7">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L72" s="4">
-        <v>2</v>
-      </c>
-      <c r="M72" s="5">
+      <c r="L72" s="5">
+        <v>2</v>
+      </c>
+      <c r="M72" s="6">
         <v>45878</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O72" s="7">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L73" s="5">
         <v>6</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>45878</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O73" s="7">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L74" s="4">
+      <c r="L74" s="5">
         <v>4</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>45878</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O74" s="7">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="4">
         <v>9</v>
       </c>
-      <c r="E76" s="4">
-        <v>2</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="E76" s="5">
+        <v>2</v>
+      </c>
+      <c r="F76" s="4">
         <v>110</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="5">
         <v>3</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>45878</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="4">
         <v>9</v>
       </c>
-      <c r="E77" s="4">
-        <v>2</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="E77" s="5">
+        <v>2</v>
+      </c>
+      <c r="F77" s="4">
         <v>140</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="5">
         <v>4</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>45878</v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="4">
         <v>9</v>
       </c>
-      <c r="E78" s="4">
-        <v>2</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" s="5">
+        <v>2</v>
+      </c>
+      <c r="F78" s="4">
         <v>90</v>
       </c>
-      <c r="G78" s="4">
-        <v>2</v>
-      </c>
-      <c r="M78" s="5">
+      <c r="G78" s="5">
+        <v>2</v>
+      </c>
+      <c r="M78" s="6">
         <v>45878</v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="4">
         <v>11</v>
       </c>
-      <c r="E79" s="4">
-        <v>2</v>
-      </c>
-      <c r="F79" s="3">
+      <c r="E79" s="5">
+        <v>2</v>
+      </c>
+      <c r="F79" s="4">
         <v>150</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="5">
         <v>4</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>45878</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="4">
         <v>10</v>
       </c>
-      <c r="E80" s="4">
-        <v>2</v>
-      </c>
-      <c r="F80" s="3">
+      <c r="E80" s="5">
+        <v>2</v>
+      </c>
+      <c r="F80" s="4">
         <v>60</v>
       </c>
-      <c r="G80" s="4">
-        <v>1</v>
-      </c>
-      <c r="M80" s="5">
+      <c r="G80" s="5">
+        <v>1</v>
+      </c>
+      <c r="M80" s="6">
         <v>45878</v>
       </c>
     </row>
@@ -3774,7 +3824,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A39:N42 P39:Q42 A1:Q6 A7:M7 O7:Q7 A8:Q28 A29:N37 P29:Q37 A43:Q80" numberStoredAsText="1"/>
+    <ignoredError sqref="A39:N42 P39:Q42 A3:Q6 L2:Q2 I2:J2 A2:G2 A1:Q1 A7:M7 O7:Q7 A27:Q28 I25:Q26 A25:G26 A8:Q15 A16:M16 O16:Q16 A17:Q24 A34:N37 H33:L33 N33 A33:C33 A29:N32 P29:Q37 A46:Q80 J45:Q45 A45:H45 A43:Q44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1142,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,9 +1201,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1537,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1615,7 +1612,7 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2296,7 +2293,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="8">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
@@ -2725,24 +2722,24 @@
         <f t="shared" ref="L29:L41" si="6">E29+G29+J29+H29+I29+K29</f>
         <v>1</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="20">
         <v>45896</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="21">
         <v>2.46</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="21">
         <f t="shared" ref="O29:O40" si="7">L29*1</f>
         <v>1</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P29" s="21">
         <f t="shared" ref="P29:P41" si="8">O29-N29</f>
         <v>-1.46</v>
       </c>
-      <c r="Q29" s="22"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:17">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -2771,21 +2768,21 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="20">
         <v>45890</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="21">
         <v>3.12</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="21">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P30" s="22">
+      <c r="P30" s="21">
         <f t="shared" si="8"/>
         <v>-0.12</v>
       </c>
-      <c r="Q30" s="24"/>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="2" t="s">
@@ -2817,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="M31" s="6">
-        <v>45892</v>
+        <v>45897</v>
       </c>
       <c r="N31" s="7">
         <v>4.42</v>
@@ -2861,21 +2858,21 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="20">
         <v>45867</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="21">
         <v>2.3</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32" s="21">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32" s="21">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
-      <c r="Q32" s="22"/>
+      <c r="Q32" s="21"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:17">
       <c r="A33" s="11" t="s">
@@ -2907,24 +2904,24 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="20">
         <v>45908</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="21">
         <v>5.36</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O33" s="21">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P33" s="21">
         <f t="shared" si="8"/>
         <v>-3.36</v>
       </c>
-      <c r="Q33" s="22"/>
+      <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -2965,7 +2962,7 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>95</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -3084,21 +3081,21 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M37" s="21">
+      <c r="M37" s="20">
         <v>45877</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N37" s="21">
         <v>3.06</v>
       </c>
-      <c r="O37" s="22">
+      <c r="O37" s="21">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P37" s="22">
+      <c r="P37" s="21">
         <f t="shared" si="8"/>
         <v>-0.0600000000000001</v>
       </c>
-      <c r="Q37" s="22"/>
+      <c r="Q37" s="21"/>
     </row>
     <row r="38" spans="3:16">
       <c r="C38" s="15"/>
@@ -3302,7 +3299,7 @@
       <c r="H45" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="23"/>
+      <c r="I45" s="22"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
     </row>
@@ -3824,7 +3821,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A39:N42 P39:Q42 A3:Q6 L2:Q2 I2:J2 A2:G2 A1:Q1 A7:M7 O7:Q7 A27:Q28 I25:Q26 A25:G26 A8:Q15 A16:M16 O16:Q16 A17:Q24 A34:N37 H33:L33 N33 A33:C33 A29:N32 P29:Q37 A46:Q80 J45:Q45 A45:H45 A43:Q44" numberStoredAsText="1"/>
+    <ignoredError sqref="A43:Q44 A45:H45 J45:Q45 A46:Q80 P29:Q37 A29:N30 A31:L31 N31 A32:N32 A33:C33 N33 H33:L33 A34:N37 A17:Q24 O16:Q16 A16:M16 A8:Q15 A25:G26 I25:Q26 A27:Q28 O7:Q7 A7:M7 A1:Q1 A2:G2 I2:J2 L2:Q2 A3:Q6 P39:Q42 A39:N42" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="154">
   <si>
     <t>代码</t>
   </si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t>创业板</t>
-  </si>
-  <si>
-    <t>上证50</t>
   </si>
   <si>
     <t>黄金</t>
@@ -668,12 +665,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1018,7 +1021,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,16 +1045,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1060,93 +1063,96 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1170,55 +1176,70 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1534,2285 +1555,2287 @@
   <sheetPr/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3416666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.41666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.79166666666667" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.55833333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.16666666666667" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.975" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.06666666666667" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.69166666666667" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.70833333333333" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17" style="6" customWidth="1"/>
-    <col min="14" max="15" width="9.325" style="7" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="9" style="8"/>
+    <col min="1" max="1" width="10.8583333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.3416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.41666666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.79166666666667" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.16666666666667" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.975" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.06666666666667" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.69166666666667" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.70833333333333" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17" style="7" customWidth="1"/>
+    <col min="14" max="15" width="9.325" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>12.9</v>
       </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
         <v>277</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>11</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>-1</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>-1</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <f t="shared" ref="L2:L19" si="0">E2+G2+J2+H2+I2+K2</f>
         <v>11</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="7">
         <v>45896</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="9">
         <v>16.26</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="9">
         <f>L2*2</f>
         <v>22</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="22">
         <f t="shared" ref="P2:P19" si="1">O2-N2</f>
         <v>5.74</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>300896</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>12.5</v>
       </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
         <v>200</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>8</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>-1</v>
       </c>
-      <c r="K3" s="5">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <v>45888</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="9">
         <v>19.85</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="8">
         <f t="shared" ref="O3:O19" si="2">L3*2</f>
         <v>20</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="9">
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>603195</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>7.8</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <v>124</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>45898</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="8">
         <v>13.86</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="9">
         <f t="shared" si="1"/>
         <v>0.140000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>300760</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>6.3</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>79</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>-1</v>
       </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>45904</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="9">
         <v>11.65</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="23">
         <f t="shared" si="1"/>
         <v>-1.65</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>300529</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>10.8</v>
       </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
         <v>119</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>-1</v>
       </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>45891</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="8">
         <v>14.14</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="9">
         <f t="shared" si="1"/>
         <v>-0.140000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>603605</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>9</v>
       </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
         <v>80</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>4</v>
       </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <v>45838</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="8">
         <v>14.18</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="9">
         <f t="shared" si="1"/>
         <v>-0.18</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>300573</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>9.7</v>
       </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
         <v>71</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>3</v>
       </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="7">
         <v>45838</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="8">
         <v>13.97</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="9">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="9">
         <f t="shared" si="1"/>
         <v>0.0299999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>11</v>
       </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
         <v>25</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>45867</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="9">
         <v>9.67</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="9">
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>9.4</v>
       </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
         <v>104</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>5</v>
       </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="7">
         <v>45901</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="8">
         <v>20.52</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="9">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="23">
         <f t="shared" si="1"/>
         <v>-2.52</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:16">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>12.9</v>
       </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
         <v>9</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>0</v>
       </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="7">
         <v>45899</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="8">
         <v>10.09</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="23">
         <f t="shared" si="1"/>
         <v>-2.09</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>300628</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>12.1</v>
       </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
         <v>87</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>4</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>-1</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="7">
         <v>45868</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="8">
         <v>10.08</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="9">
         <f t="shared" si="1"/>
         <v>-0.0800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>10.8</v>
       </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
         <v>117</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>5</v>
       </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="7">
         <v>45883</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="8">
         <v>18.15</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="9">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="23">
         <f t="shared" si="1"/>
         <v>-2.15</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:17">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>9.7</v>
       </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5">
         <v>103</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>5</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="7">
         <v>45886</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="8">
         <v>17.85</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="9">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="9">
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>8</v>
       </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
         <v>37</v>
       </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="7">
         <v>45873</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="8">
         <v>5.47</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="9">
         <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>8.8</v>
       </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
         <v>144</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>6</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="7">
         <v>45898</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="8">
         <v>13.77</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="9">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="9">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
     </row>
     <row r="17" spans="15:16">
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>9</v>
       </c>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
         <v>110</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>5</v>
       </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
         <f t="shared" ref="L18:L26" si="3">E18+G18+J18+H18+I18+K18</f>
         <v>9</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="7">
         <v>45897</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="8">
         <v>10.4</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="9">
         <f t="shared" ref="O18:O25" si="4">L18*1</f>
         <v>9</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="23">
         <f t="shared" ref="P18:P26" si="5">O18-N18</f>
         <v>-1.4</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>6.2</v>
       </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
         <v>140</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="6">
         <v>6</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <v>45889</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="8">
         <v>7.41</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="9">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="9">
         <f t="shared" si="5"/>
         <v>-0.41</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>7</v>
       </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>83</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="6">
         <v>4</v>
       </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5">
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="7">
         <v>45891</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="8">
         <v>16.13</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="9">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="23">
         <f t="shared" si="5"/>
         <v>-10.13</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>603833</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>8</v>
       </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
         <v>122</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="6">
         <v>5</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>-1</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="7">
         <v>45900</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="8">
         <v>6.34</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="9">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="23">
         <f t="shared" si="5"/>
         <v>-1.34</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>4.6</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>0</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>84</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="6">
         <v>4</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="7">
         <v>45848</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="8">
         <v>4.37</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="9">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="9">
         <f t="shared" si="5"/>
         <v>-0.37</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>3.5</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>0</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>81</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="6">
         <v>4</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="7">
         <v>45873</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="8">
         <v>4.17</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="9">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="9">
         <f t="shared" si="5"/>
         <v>-0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="2" t="s">
+    <row r="24" s="1" customFormat="1" spans="1:17">
+      <c r="A24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="13">
         <v>10</v>
       </c>
-      <c r="E24" s="5">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="E24" s="14">
+        <v>2</v>
+      </c>
+      <c r="F24" s="13">
         <v>33</v>
       </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5">
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="24">
         <v>45888</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="25">
         <v>4.5</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="25">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="25">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>9</v>
       </c>
-      <c r="E25" s="5">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
         <v>34</v>
       </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5">
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="7">
         <v>45891</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="8">
         <v>3.33</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="9">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="9">
         <f t="shared" si="5"/>
         <v>-0.33</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>8</v>
       </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
         <v>39</v>
       </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5">
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="7">
         <v>45888</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="8">
         <v>3.75</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="9">
         <f>L26*2</f>
         <v>4</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="9">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="15:16">
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:17">
-      <c r="A29" s="11" t="s">
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:17">
+      <c r="A29" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="16">
         <v>3.5</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="17">
         <v>0</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="16">
         <v>40</v>
       </c>
-      <c r="G29" s="13">
-        <v>2</v>
-      </c>
-      <c r="H29" s="13">
+      <c r="G29" s="17">
+        <v>2</v>
+      </c>
+      <c r="H29" s="17">
         <v>-1</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13">
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17">
         <f t="shared" ref="L29:L41" si="6">E29+G29+J29+H29+I29+K29</f>
         <v>1</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="26">
         <v>45896</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="27">
         <v>2.46</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="27">
         <f t="shared" ref="O29:O40" si="7">L29*1</f>
         <v>1</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="27">
         <f t="shared" ref="P29:P41" si="8">O29-N29</f>
         <v>-1.46</v>
       </c>
-      <c r="Q29" s="21"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:17">
-      <c r="A30" s="25" t="s">
+      <c r="Q29" s="27"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:17">
+      <c r="A30" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="16">
         <v>8.5</v>
       </c>
-      <c r="E30" s="13">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12">
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="16">
         <v>49</v>
       </c>
-      <c r="G30" s="13">
-        <v>2</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13">
+      <c r="G30" s="17">
+        <v>2</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="26">
         <v>45890</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="27">
         <v>3.12</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="27">
         <f t="shared" si="8"/>
         <v>-0.12</v>
       </c>
-      <c r="Q30" s="23"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>1.2</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="6">
         <v>0</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>37</v>
       </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5">
-        <v>1</v>
-      </c>
-      <c r="L31" s="5">
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="7">
         <v>45897</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="8">
         <v>4.42</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="9">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="9">
         <f t="shared" si="8"/>
         <v>-2.42</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:17">
-      <c r="A32" s="11" t="s">
+    <row r="32" s="2" customFormat="1" spans="1:17">
+      <c r="A32" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="16">
         <v>8</v>
       </c>
-      <c r="E32" s="13">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12">
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="16">
         <v>40</v>
       </c>
-      <c r="G32" s="13">
-        <v>2</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13">
+      <c r="G32" s="17">
+        <v>2</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="26">
         <v>45867</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="27">
         <v>2.3</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="27">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
-      <c r="Q32" s="21"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:17">
-      <c r="A33" s="11" t="s">
+      <c r="Q32" s="27"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:17">
+      <c r="A33" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="16">
         <v>8.2</v>
       </c>
-      <c r="E33" s="13">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
         <v>35</v>
       </c>
-      <c r="G33" s="13">
-        <v>1</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13">
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M33" s="26">
         <v>45908</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33" s="27">
         <v>5.36</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="27">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P33" s="27">
         <f t="shared" si="8"/>
         <v>-3.36</v>
       </c>
-      <c r="Q33" s="21"/>
+      <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>12</v>
       </c>
-      <c r="E34" s="5">
-        <v>2</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5">
         <v>48</v>
       </c>
-      <c r="G34" s="5">
-        <v>2</v>
-      </c>
-      <c r="L34" s="5">
+      <c r="G34" s="6">
+        <v>2</v>
+      </c>
+      <c r="L34" s="6">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="7">
         <v>45838</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="8">
         <v>4.22</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="9">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="9">
         <f t="shared" si="8"/>
         <v>-0.22</v>
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <v>9</v>
       </c>
-      <c r="E35" s="5">
-        <v>2</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5">
         <v>49</v>
       </c>
-      <c r="G35" s="5">
-        <v>2</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="6">
+        <v>2</v>
+      </c>
+      <c r="H35" s="6">
         <v>-1</v>
       </c>
-      <c r="K35" s="5">
-        <v>1</v>
-      </c>
-      <c r="L35" s="5">
+      <c r="K35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35" s="6">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="7">
         <v>45838</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="8">
         <v>6.11</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="9">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="9">
         <f t="shared" si="8"/>
         <v>-2.11</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>10</v>
       </c>
-      <c r="E36" s="5">
-        <v>2</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="E36" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" s="5">
         <v>26</v>
       </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="L36" s="5">
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="7">
         <v>45861</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="8">
         <v>3.41</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="9">
         <f t="shared" si="8"/>
         <v>-0.41</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:17">
-      <c r="A37" s="11" t="s">
+    <row r="37" s="2" customFormat="1" spans="1:17">
+      <c r="A37" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="16">
         <v>8</v>
       </c>
-      <c r="E37" s="13">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12">
+      <c r="E37" s="17">
+        <v>1</v>
+      </c>
+      <c r="F37" s="16">
         <v>60</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="17">
         <v>3</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="17">
         <v>-1</v>
       </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13">
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="26">
         <v>45877</v>
       </c>
-      <c r="N37" s="21">
+      <c r="N37" s="27">
         <v>3.06</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P37" s="21">
+      <c r="P37" s="27">
         <f t="shared" si="8"/>
         <v>-0.0600000000000001</v>
       </c>
-      <c r="Q37" s="21"/>
+      <c r="Q37" s="27"/>
     </row>
     <row r="38" spans="3:16">
-      <c r="C38" s="15"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+      <c r="C38" s="19"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>4</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="6">
         <v>0</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>92</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="6">
         <f>E39+G39+J39+H39+I39+K39</f>
         <v>4</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="7">
         <v>45891</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="8">
         <v>4.65</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="9">
         <f>L39*1</f>
         <v>4</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="9">
         <f>O39-N39</f>
         <v>-0.65</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <v>7</v>
       </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
         <v>150</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="6">
         <v>7</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="6">
         <v>-1</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="6">
         <f>E40+G40+J40+H40+I40+K40</f>
         <v>7</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="7">
         <v>45892</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="8">
         <v>14</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="9">
         <f>L40*1</f>
         <v>7</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P40" s="23">
         <f>O40-N40</f>
         <v>-7</v>
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>5</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="6">
         <v>0</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>114</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="6">
         <v>5</v>
       </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="L41" s="5">
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="L41" s="6">
         <f>E41+G41+J41+H41+I41+K41</f>
         <v>6</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="7">
         <v>45895</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="8">
         <v>6.36</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="9">
         <f>L41*1</f>
         <v>6</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="9">
         <f>O41-N41</f>
         <v>-0.36</v>
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>5</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="6">
         <v>0</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <v>111</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="6">
         <v>5</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="6">
         <f>E42+G42+J42+H42+I42+K42</f>
         <v>5</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="7">
         <v>45897</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="8">
         <v>4.02</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="9">
         <f>L42*1</f>
         <v>5</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="9">
         <f>O42-N42</f>
         <v>0.98</v>
       </c>
     </row>
     <row r="44" spans="15:16">
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="21"/>
+      <c r="F45" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="G45" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="H45" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="28"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="15:16">
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="15:16">
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="15:16">
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="15:16">
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="15:16">
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" spans="15:16">
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="15:16">
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="15:16">
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="15:16">
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="22"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-    </row>
-    <row r="46" spans="15:16">
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-    </row>
-    <row r="47" spans="15:16">
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-    </row>
-    <row r="48" spans="15:16">
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-    </row>
-    <row r="49" spans="15:16">
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="15:16">
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="15:16">
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-    </row>
-    <row r="52" spans="15:16">
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-    </row>
-    <row r="53" spans="15:16">
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-    </row>
-    <row r="54" spans="15:16">
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2</v>
-      </c>
-      <c r="E55" s="5">
+      <c r="D55" s="5">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6">
         <v>0</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="5">
         <v>200</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="6">
         <v>8</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="6">
         <f>E55+G55+J55+H55+I55+K55</f>
         <v>8</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55" s="7">
         <v>45894</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="8">
         <v>0</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="9">
         <f>L55*2</f>
         <v>16</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P55" s="9">
         <f>O55-N55</f>
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="4">
+      <c r="D56" s="5">
         <v>5.8</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="6">
         <v>0</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="5">
         <v>17</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="6">
         <v>0</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <f t="shared" ref="L56:L66" si="9">E56+G56+J56+H56+I56+K56</f>
         <v>0</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M56" s="7">
         <v>45848</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>603173</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="B57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="5">
         <v>10</v>
       </c>
-      <c r="E57" s="5">
-        <v>2</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="E57" s="6">
+        <v>2</v>
+      </c>
+      <c r="F57" s="5">
         <v>18</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="6">
         <v>0</v>
       </c>
-      <c r="H57" s="5">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5">
-        <v>1</v>
-      </c>
-      <c r="L57" s="5">
+      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6">
+        <v>1</v>
+      </c>
+      <c r="L57" s="6">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="7">
         <v>45863</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="4">
+      <c r="D58" s="5">
         <v>14</v>
       </c>
-      <c r="E58" s="5">
-        <v>2</v>
-      </c>
-      <c r="F58" s="4">
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="5">
         <v>30</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="6">
         <v>0</v>
       </c>
-      <c r="H58" s="5">
-        <v>1</v>
-      </c>
-      <c r="L58" s="5">
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="L58" s="6">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="7">
         <v>45869</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="D59" s="5">
+        <v>5</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>68</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M59" s="7">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="4">
-        <v>5</v>
-      </c>
-      <c r="E59" s="5">
+      <c r="B60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="5">
+        <v>7</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>47</v>
+      </c>
+      <c r="G60" s="6">
         <v>0</v>
       </c>
-      <c r="F59" s="4">
-        <v>68</v>
-      </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
-      <c r="L59" s="5">
+      <c r="L60" s="6">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M60" s="7">
         <v>45878</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="3" t="s">
+    <row r="61" spans="1:13">
+      <c r="A61" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="4">
-        <v>7</v>
-      </c>
-      <c r="E60" s="5">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>47</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0</v>
-      </c>
-      <c r="L60" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M60" s="6">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="4">
+      <c r="D61" s="5">
         <v>10</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="5">
         <v>67</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="7">
         <v>45881</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="4">
+      <c r="D62" s="5">
         <v>7</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="5">
         <v>90</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="7">
         <v>45881</v>
       </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="4">
+      <c r="D68" s="5">
         <v>6</v>
       </c>
-      <c r="E68" s="5">
-        <v>1</v>
-      </c>
-      <c r="F68" s="4">
-        <v>2</v>
-      </c>
-      <c r="G68" s="5">
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>2</v>
+      </c>
+      <c r="G68" s="6">
         <v>0</v>
       </c>
-      <c r="L68" s="5">
-        <v>2</v>
-      </c>
-      <c r="M68" s="6">
+      <c r="L68" s="6">
+        <v>2</v>
+      </c>
+      <c r="M68" s="7">
         <v>45878</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O68" s="8">
         <f t="shared" ref="O67:O74" si="10">L68*2</f>
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L69" s="5">
+      <c r="L69" s="6">
         <v>8</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69" s="7">
         <v>45878</v>
       </c>
-      <c r="O69" s="7">
+      <c r="O69" s="8">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L70" s="5">
+      <c r="L70" s="6">
         <v>10</v>
       </c>
-      <c r="M70" s="6">
+      <c r="M70" s="7">
         <v>45878</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O70" s="8">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L71" s="5">
+      <c r="L71" s="6">
         <v>20</v>
       </c>
-      <c r="M71" s="6">
+      <c r="M71" s="7">
         <v>45878</v>
       </c>
-      <c r="O71" s="7">
+      <c r="O71" s="8">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L72" s="5">
-        <v>2</v>
-      </c>
-      <c r="M72" s="6">
+      <c r="L72" s="6">
+        <v>2</v>
+      </c>
+      <c r="M72" s="7">
         <v>45878</v>
       </c>
-      <c r="O72" s="7">
+      <c r="O72" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L73" s="5">
+      <c r="L73" s="6">
         <v>6</v>
       </c>
-      <c r="M73" s="6">
+      <c r="M73" s="7">
         <v>45878</v>
       </c>
-      <c r="O73" s="7">
+      <c r="O73" s="8">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L74" s="5">
+      <c r="L74" s="6">
         <v>4</v>
       </c>
-      <c r="M74" s="6">
+      <c r="M74" s="7">
         <v>45878</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O74" s="8">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="D76" s="5">
+        <v>9</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" s="5">
+        <v>110</v>
+      </c>
+      <c r="G76" s="6">
+        <v>3</v>
+      </c>
+      <c r="M76" s="7">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="4">
+      <c r="B77" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="5">
         <v>9</v>
       </c>
-      <c r="E76" s="5">
-        <v>2</v>
-      </c>
-      <c r="F76" s="4">
-        <v>110</v>
-      </c>
-      <c r="G76" s="5">
-        <v>3</v>
-      </c>
-      <c r="M76" s="6">
+      <c r="E77" s="6">
+        <v>2</v>
+      </c>
+      <c r="F77" s="5">
+        <v>140</v>
+      </c>
+      <c r="G77" s="6">
+        <v>4</v>
+      </c>
+      <c r="M77" s="7">
         <v>45878</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="78" spans="1:13">
+      <c r="A78" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="4">
+      <c r="B78" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="5">
         <v>9</v>
       </c>
-      <c r="E77" s="5">
-        <v>2</v>
-      </c>
-      <c r="F77" s="4">
-        <v>140</v>
-      </c>
-      <c r="G77" s="5">
+      <c r="E78" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" s="5">
+        <v>90</v>
+      </c>
+      <c r="G78" s="6">
+        <v>2</v>
+      </c>
+      <c r="M78" s="7">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="5">
+        <v>11</v>
+      </c>
+      <c r="E79" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" s="5">
+        <v>150</v>
+      </c>
+      <c r="G79" s="6">
         <v>4</v>
       </c>
-      <c r="M77" s="6">
+      <c r="M79" s="7">
         <v>45878</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" s="4">
-        <v>9</v>
-      </c>
-      <c r="E78" s="5">
-        <v>2</v>
-      </c>
-      <c r="F78" s="4">
-        <v>90</v>
-      </c>
-      <c r="G78" s="5">
-        <v>2</v>
-      </c>
-      <c r="M78" s="6">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B79" s="3" t="s">
+    <row r="80" spans="1:13">
+      <c r="A80" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="4">
-        <v>11</v>
-      </c>
-      <c r="E79" s="5">
-        <v>2</v>
-      </c>
-      <c r="F79" s="4">
-        <v>150</v>
-      </c>
-      <c r="G79" s="5">
-        <v>4</v>
-      </c>
-      <c r="M79" s="6">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D80" s="4">
+      <c r="D80" s="5">
         <v>10</v>
       </c>
-      <c r="E80" s="5">
-        <v>2</v>
-      </c>
-      <c r="F80" s="4">
+      <c r="E80" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" s="5">
         <v>60</v>
       </c>
-      <c r="G80" s="5">
-        <v>1</v>
-      </c>
-      <c r="M80" s="6">
+      <c r="G80" s="6">
+        <v>1</v>
+      </c>
+      <c r="M80" s="7">
         <v>45878</v>
       </c>
     </row>
@@ -3821,7 +3844,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A43:Q44 A45:H45 J45:Q45 A46:Q80 P29:Q37 A29:N30 A31:L31 N31 A32:N32 A33:C33 N33 H33:L33 A34:N37 A17:Q24 O16:Q16 A16:M16 A8:Q15 A25:G26 I25:Q26 A27:Q28 O7:Q7 A7:M7 A1:Q1 A2:G2 I2:J2 L2:Q2 A3:Q6 P39:Q42 A39:N42" numberStoredAsText="1"/>
+    <ignoredError sqref="A39:N42 P39:Q42 A3:Q6 L2:Q2 I2:J2 A2:G2 A1:Q1 A7:M7 O7:Q7 A27:Q28 I25:Q26 A25:G26 A8:Q15 A16:M16 O16:Q16 A17:Q24 A34:N37 H33:L33 N33 A33:C33 A32:N32 N31 A31:L31 A29:N30 P29:Q37 A46:Q80 J45:Q45 A45:D45 F45:H45 A43:Q44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
   <si>
     <t>代码</t>
   </si>
@@ -360,9 +360,6 @@
     <t>爱博医疗</t>
   </si>
   <si>
-    <t>沪深300</t>
-  </si>
-  <si>
     <t>中国平安</t>
   </si>
   <si>
@@ -372,7 +369,13 @@
     <t>黄金</t>
   </si>
   <si>
-    <t>恒生科技</t>
+    <t>恒生医疗</t>
+  </si>
+  <si>
+    <t>港股创新药</t>
+  </si>
+  <si>
+    <t>证券</t>
   </si>
   <si>
     <t>603279</t>
@@ -1145,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,9 +1232,6 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1633,7 +1633,7 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2764,7 +2764,7 @@
       <c r="Q29" s="27"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:17">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -2807,7 +2807,7 @@
         <f t="shared" si="8"/>
         <v>-0.12</v>
       </c>
-      <c r="Q30" s="29"/>
+      <c r="Q30" s="28"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="3" t="s">
@@ -2946,7 +2946,7 @@
       <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>92</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -2987,7 +2987,7 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>95</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -3303,26 +3303,34 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="C45" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
-        <v>112</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>114</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G45" s="21"/>
       <c r="H45" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="28"/>
+      <c r="I45" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
@@ -3364,10 +3372,10 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
@@ -3402,10 +3410,10 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D56" s="5">
         <v>5.8</v>
@@ -3432,7 +3440,7 @@
         <v>603173</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D57" s="5">
         <v>10</v>
@@ -3462,10 +3470,10 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D58" s="5">
         <v>14</v>
@@ -3492,10 +3500,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D59" s="5">
         <v>5</v>
@@ -3519,10 +3527,10 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D60" s="5">
         <v>7</v>
@@ -3546,10 +3554,10 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D61" s="5">
         <v>10</v>
@@ -3567,10 +3575,10 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D62" s="5">
         <v>7</v>
@@ -3588,10 +3596,10 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D68" s="5">
         <v>6</v>
@@ -3618,10 +3626,10 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L69" s="6">
         <v>8</v>
@@ -3636,10 +3644,10 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L70" s="6">
         <v>10</v>
@@ -3654,10 +3662,10 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L71" s="6">
         <v>20</v>
@@ -3672,10 +3680,10 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L72" s="6">
         <v>2</v>
@@ -3690,10 +3698,10 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L73" s="6">
         <v>6</v>
@@ -3708,10 +3716,10 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L74" s="6">
         <v>4</v>
@@ -3726,10 +3734,10 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D76" s="5">
         <v>9</v>
@@ -3749,10 +3757,10 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D77" s="5">
         <v>9</v>
@@ -3772,10 +3780,10 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D78" s="5">
         <v>9</v>
@@ -3795,10 +3803,10 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D79" s="5">
         <v>11</v>
@@ -3818,10 +3826,10 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D80" s="5">
         <v>10</v>
@@ -3844,7 +3852,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A39:N42 P39:Q42 A3:Q6 L2:Q2 I2:J2 A2:G2 A1:Q1 A7:M7 O7:Q7 A27:Q28 I25:Q26 A25:G26 A8:Q15 A16:M16 O16:Q16 A17:Q24 A34:N37 H33:L33 N33 A33:C33 A32:N32 N31 A31:L31 A29:N30 P29:Q37 A46:Q80 J45:Q45 A45:D45 F45:H45 A43:Q44" numberStoredAsText="1"/>
+    <ignoredError sqref="A43:Q44 F45 H45 B45 D45 L45:Q45 A46:Q80 P29:Q37 A29:N30 A31:L31 N31 A32:N32 A33:C33 N33 H33:L33 A34:N37 A17:Q24 O16:Q16 A16:M16 A8:Q15 A25:G26 I25:Q26 A27:Q28 O7:Q7 A7:M7 A1:Q1 A2:G2 I2:J2 L2:Q2 A3:Q6 P39:Q42 A39:N42" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1555,8 +1555,8 @@
   <sheetPr/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2295,14 +2295,14 @@
         <v>1</v>
       </c>
       <c r="F16" s="5">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="G16" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M16" s="7">
         <v>45898</v>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="O16" s="9">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="P16" s="9">
+        <v>18</v>
+      </c>
+      <c r="P16" s="22">
         <f t="shared" si="1"/>
-        <v>0.23</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="17" spans="15:16">
@@ -3852,7 +3852,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A43:Q44 F45 H45 B45 D45 L45:Q45 A46:Q80 P29:Q37 A29:N30 A31:L31 N31 A32:N32 A33:C33 N33 H33:L33 A34:N37 A17:Q24 O16:Q16 A16:M16 A8:Q15 A25:G26 I25:Q26 A27:Q28 O7:Q7 A7:M7 A1:Q1 A2:G2 I2:J2 L2:Q2 A3:Q6 P39:Q42 A39:N42" numberStoredAsText="1"/>
+    <ignoredError sqref="A39:N42 P39:Q42 A3:Q6 L2:Q2 I2:J2 A2:G2 A1:Q1 A7:M7 O7:Q7 A27:Q28 I25:Q26 A25:G26 A8:Q15 A16:E16 H16:M16 O16:Q16 A17:Q24 A34:N37 H33:L33 N33 A33:C33 A32:N32 N31 A31:L31 A29:N30 P29:Q37 A46:Q80 L45:Q45 D45 B45 H45 F45 A43:Q44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="158">
   <si>
     <t>代码</t>
   </si>
@@ -201,6 +201,24 @@
     <t>智能座驾</t>
   </si>
   <si>
+    <t>603596</t>
+  </si>
+  <si>
+    <t>伯特利</t>
+  </si>
+  <si>
+    <t>无人驾驶</t>
+  </si>
+  <si>
+    <t>603501</t>
+  </si>
+  <si>
+    <t>豪威集团</t>
+  </si>
+  <si>
+    <t>半导体</t>
+  </si>
+  <si>
     <t>603288</t>
   </si>
   <si>
@@ -256,15 +274,6 @@
   </si>
   <si>
     <t>消费电子</t>
-  </si>
-  <si>
-    <t>603501</t>
-  </si>
-  <si>
-    <t>豪威集团</t>
-  </si>
-  <si>
-    <t>半导体</t>
   </si>
   <si>
     <t>601888</t>
@@ -1148,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,6 +1228,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1553,10 +1565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1633,7 +1645,7 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2308,569 +2320,495 @@
         <v>45898</v>
       </c>
       <c r="N16" s="8">
-        <v>13.77</v>
+        <v>17.96</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="9">
         <f t="shared" si="1"/>
-        <v>4.23</v>
-      </c>
-    </row>
-    <row r="17" spans="15:16">
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+        <v>0.0399999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="5">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>110</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <f>E17+G17+J17+H17+I17+K17</f>
+        <v>9</v>
+      </c>
+      <c r="M17" s="7">
+        <v>45897</v>
+      </c>
+      <c r="N17" s="8">
+        <v>15.16</v>
+      </c>
+      <c r="O17" s="9">
+        <f>L17*2</f>
+        <v>18</v>
+      </c>
+      <c r="P17" s="24">
+        <f>O17-N17</f>
+        <v>2.84</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="5">
-        <v>9</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>110</v>
-      </c>
-      <c r="G18" s="6">
-        <v>5</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" ref="L18:L26" si="3">E18+G18+J18+H18+I18+K18</f>
-        <v>9</v>
-      </c>
-      <c r="M18" s="7">
-        <v>45897</v>
-      </c>
-      <c r="N18" s="8">
-        <v>10.4</v>
+        <v>59</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" ref="O18:O25" si="4">L18*1</f>
-        <v>9</v>
-      </c>
-      <c r="P18" s="23">
-        <f t="shared" ref="P18:P26" si="5">O18-N18</f>
-        <v>-1.4</v>
-      </c>
+        <f>L18*2</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" s="5">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>39</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <f>E19+G19+J19+H19+I19+K19</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>45888</v>
+      </c>
+      <c r="N19" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="O19" s="9">
+        <f>L19*2</f>
+        <v>4</v>
+      </c>
+      <c r="P19" s="9">
+        <f>O19-N19</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="15:16">
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5">
         <v>6.2</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
         <v>140</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G21" s="6">
         <v>6</v>
       </c>
-      <c r="L19" s="6">
-        <f t="shared" si="3"/>
+      <c r="L21" s="6">
+        <f t="shared" ref="L21:L28" si="3">E21+G21+J21+H21+I21+K21</f>
         <v>7</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M21" s="7">
         <v>45889</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N21" s="8">
         <v>7.41</v>
       </c>
-      <c r="O19" s="9">
-        <f t="shared" si="4"/>
+      <c r="O21" s="9">
+        <f t="shared" ref="O21:O27" si="4">L21*1</f>
         <v>7</v>
       </c>
-      <c r="P19" s="9">
-        <f t="shared" si="5"/>
+      <c r="P21" s="9">
+        <f t="shared" ref="P21:P28" si="5">O21-N21</f>
         <v>-0.41</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="5">
+    <row r="22" spans="1:16">
+      <c r="A22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5">
         <v>7</v>
       </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
         <v>83</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G22" s="6">
         <v>4</v>
       </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M22" s="7">
         <v>45891</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N22" s="8">
         <v>16.13</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O22" s="9">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P22" s="23">
         <f t="shared" si="5"/>
         <v>-10.13</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="3">
+    <row r="23" spans="1:16">
+      <c r="A23" s="3">
         <v>603833</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="B23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="5">
         <v>8</v>
       </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
         <v>122</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G23" s="6">
         <v>5</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H23" s="6">
         <v>-1</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L23" s="6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M23" s="7">
         <v>45900</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N23" s="8">
         <v>6.34</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O23" s="9">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P23" s="23">
         <f t="shared" si="5"/>
         <v>-1.34</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="5">
+    <row r="24" spans="1:16">
+      <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="5">
         <v>4.6</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E24" s="6">
         <v>0</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F24" s="5">
         <v>84</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G24" s="6">
         <v>4</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L24" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M24" s="7">
         <v>45848</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N24" s="8">
         <v>4.37</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O24" s="9">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P24" s="9">
         <f t="shared" si="5"/>
         <v>-0.37</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="5">
+    <row r="25" spans="1:16">
+      <c r="A25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="5">
         <v>3.5</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E25" s="6">
         <v>0</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F25" s="5">
         <v>81</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G25" s="6">
         <v>4</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L25" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M25" s="7">
         <v>45873</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N25" s="8">
         <v>4.17</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O25" s="9">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P25" s="9">
         <f t="shared" si="5"/>
         <v>-0.17</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:17">
-      <c r="A24" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="13">
+    <row r="26" s="1" customFormat="1" spans="1:17">
+      <c r="A26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="13">
         <v>10</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E26" s="14">
         <v>2</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F26" s="13">
         <v>33</v>
       </c>
-      <c r="G24" s="14">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14">
-        <v>1</v>
-      </c>
-      <c r="L24" s="14">
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14">
+        <v>1</v>
+      </c>
+      <c r="L26" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M26" s="25">
         <v>45888</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N26" s="26">
         <v>4.5</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O26" s="26">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P26" s="26">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
-      <c r="Q24" s="25"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="Q26" s="26"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="5">
         <v>9</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E27" s="6">
         <v>2</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F27" s="5">
         <v>34</v>
       </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M27" s="7">
         <v>45891</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N27" s="8">
         <v>3.33</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O27" s="9">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P27" s="9">
         <f t="shared" si="5"/>
         <v>-0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="5">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
-        <v>39</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="3"/>
+    <row r="29" spans="15:16">
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:17">
+      <c r="A31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>40</v>
+      </c>
+      <c r="G31" s="17">
         <v>2</v>
       </c>
-      <c r="M26" s="7">
-        <v>45888</v>
-      </c>
-      <c r="N26" s="8">
-        <v>3.75</v>
-      </c>
-      <c r="O26" s="9">
-        <f>L26*2</f>
-        <v>4</v>
-      </c>
-      <c r="P26" s="9">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="15:16">
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:17">
-      <c r="A29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="16">
-        <v>40</v>
-      </c>
-      <c r="G29" s="17">
-        <v>2</v>
-      </c>
-      <c r="H29" s="17">
+      <c r="H31" s="17">
         <v>-1</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17">
-        <f t="shared" ref="L29:L41" si="6">E29+G29+J29+H29+I29+K29</f>
-        <v>1</v>
-      </c>
-      <c r="M29" s="26">
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17">
+        <f t="shared" ref="L31:L43" si="6">E31+G31+J31+H31+I31+K31</f>
+        <v>1</v>
+      </c>
+      <c r="M31" s="27">
         <v>45896</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N31" s="28">
         <v>2.46</v>
       </c>
-      <c r="O29" s="27">
-        <f t="shared" ref="O29:O40" si="7">L29*1</f>
-        <v>1</v>
-      </c>
-      <c r="P29" s="27">
-        <f t="shared" ref="P29:P41" si="8">O29-N29</f>
+      <c r="O31" s="28">
+        <f t="shared" ref="O31:O42" si="7">L31*1</f>
+        <v>1</v>
+      </c>
+      <c r="P31" s="28">
+        <f t="shared" ref="P31:P43" si="8">O31-N31</f>
         <v>-1.46</v>
       </c>
-      <c r="Q29" s="27"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:17">
-      <c r="A30" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="Q31" s="28"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:17">
+      <c r="A32" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="16">
         <v>8.5</v>
       </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="16">
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="16">
         <v>49</v>
-      </c>
-      <c r="G30" s="17">
-        <v>2</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M30" s="26">
-        <v>45890</v>
-      </c>
-      <c r="N30" s="27">
-        <v>3.12</v>
-      </c>
-      <c r="O30" s="27">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="P30" s="27">
-        <f t="shared" si="8"/>
-        <v>-0.12</v>
-      </c>
-      <c r="Q30" s="28"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>37</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="K31" s="6">
-        <v>1</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M31" s="7">
-        <v>45897</v>
-      </c>
-      <c r="N31" s="8">
-        <v>4.42</v>
-      </c>
-      <c r="O31" s="9">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="P31" s="9">
-        <f t="shared" si="8"/>
-        <v>-2.42</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:17">
-      <c r="A32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="16">
-        <v>8</v>
-      </c>
-      <c r="E32" s="17">
-        <v>1</v>
-      </c>
-      <c r="F32" s="16">
-        <v>40</v>
       </c>
       <c r="G32" s="17">
         <v>2</v>
@@ -2883,462 +2821,544 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M32" s="26">
-        <v>45867</v>
-      </c>
-      <c r="N32" s="27">
-        <v>2.3</v>
-      </c>
-      <c r="O32" s="27">
+      <c r="M32" s="27">
+        <v>45890</v>
+      </c>
+      <c r="N32" s="28">
+        <v>3.12</v>
+      </c>
+      <c r="O32" s="28">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P32" s="27">
+      <c r="P32" s="28">
+        <f t="shared" si="8"/>
+        <v>-0.12</v>
+      </c>
+      <c r="Q32" s="29"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>37</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M33" s="7">
+        <v>45897</v>
+      </c>
+      <c r="N33" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="8"/>
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:17">
+      <c r="A34" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="16">
+        <v>8</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16">
+        <v>40</v>
+      </c>
+      <c r="G34" s="17">
+        <v>2</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M34" s="27">
+        <v>45867</v>
+      </c>
+      <c r="N34" s="28">
+        <v>2.3</v>
+      </c>
+      <c r="O34" s="28">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P34" s="28">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
-      <c r="Q32" s="27"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:17">
-      <c r="A33" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="Q34" s="28"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:17">
+      <c r="A35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D35" s="16">
         <v>8.2</v>
       </c>
-      <c r="E33" s="17">
-        <v>1</v>
-      </c>
-      <c r="F33" s="16">
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="16">
         <v>35</v>
       </c>
-      <c r="G33" s="17">
-        <v>1</v>
-      </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17">
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M35" s="27">
         <v>45908</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N35" s="28">
         <v>5.36</v>
       </c>
-      <c r="O33" s="27">
+      <c r="O35" s="28">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P33" s="27">
+      <c r="P35" s="28">
         <f t="shared" si="8"/>
         <v>-3.36</v>
       </c>
-      <c r="Q33" s="27"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="Q35" s="28"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="5">
         <v>12</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E36" s="6">
         <v>2</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F36" s="5">
         <v>48</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G36" s="6">
         <v>2</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L36" s="6">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M36" s="7">
         <v>45838</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N36" s="8">
         <v>4.22</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O36" s="9">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P36" s="9">
         <f t="shared" si="8"/>
         <v>-0.22</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="5">
+    <row r="37" spans="1:16">
+      <c r="A37" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="5">
         <v>9</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E37" s="6">
         <v>2</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F37" s="5">
         <v>49</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H37" s="6">
         <v>-1</v>
       </c>
-      <c r="K35" s="6">
-        <v>1</v>
-      </c>
-      <c r="L35" s="6">
+      <c r="K37" s="6">
+        <v>1</v>
+      </c>
+      <c r="L37" s="6">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M37" s="7">
         <v>45838</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N37" s="8">
         <v>6.11</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O37" s="9">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="P35" s="9">
+      <c r="P37" s="9">
         <f t="shared" si="8"/>
         <v>-2.11</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="11" t="s">
+    <row r="38" spans="1:16">
+      <c r="A38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D38" s="5">
         <v>10</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E38" s="6">
         <v>2</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F38" s="5">
         <v>26</v>
       </c>
-      <c r="G36" s="6">
-        <v>1</v>
-      </c>
-      <c r="L36" s="6">
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="L38" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M38" s="7">
         <v>45861</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N38" s="8">
         <v>3.41</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O38" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P38" s="9">
         <f t="shared" si="8"/>
         <v>-0.41</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:17">
-      <c r="A37" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="16" t="s">
+    <row r="39" s="2" customFormat="1" spans="1:17">
+      <c r="A39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D39" s="16">
         <v>8</v>
       </c>
-      <c r="E37" s="17">
-        <v>1</v>
-      </c>
-      <c r="F37" s="16">
+      <c r="E39" s="17">
+        <v>1</v>
+      </c>
+      <c r="F39" s="16">
         <v>60</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G39" s="17">
         <v>3</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H39" s="17">
         <v>-1</v>
       </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17">
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M39" s="27">
         <v>45877</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N39" s="28">
         <v>3.06</v>
       </c>
-      <c r="O37" s="27">
+      <c r="O39" s="28">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P37" s="27">
+      <c r="P39" s="28">
         <f t="shared" si="8"/>
         <v>-0.0600000000000001</v>
       </c>
-      <c r="Q37" s="27"/>
-    </row>
-    <row r="38" spans="3:16">
-      <c r="C38" s="19"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="5">
-        <v>4</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>92</v>
-      </c>
-      <c r="G39" s="6">
-        <v>4</v>
-      </c>
-      <c r="L39" s="6">
-        <f>E39+G39+J39+H39+I39+K39</f>
-        <v>4</v>
-      </c>
-      <c r="M39" s="7">
-        <v>45891</v>
-      </c>
-      <c r="N39" s="8">
-        <v>4.65</v>
-      </c>
-      <c r="O39" s="9">
-        <f>L39*1</f>
-        <v>4</v>
-      </c>
-      <c r="P39" s="9">
-        <f>O39-N39</f>
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="5">
-        <v>7</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
-        <v>150</v>
-      </c>
-      <c r="G40" s="6">
-        <v>7</v>
-      </c>
-      <c r="H40" s="6">
-        <v>-1</v>
-      </c>
-      <c r="L40" s="6">
-        <f>E40+G40+J40+H40+I40+K40</f>
-        <v>7</v>
-      </c>
-      <c r="M40" s="7">
-        <v>45892</v>
-      </c>
-      <c r="N40" s="8">
-        <v>14</v>
-      </c>
-      <c r="O40" s="9">
-        <f>L40*1</f>
-        <v>7</v>
-      </c>
-      <c r="P40" s="23">
-        <f>O40-N40</f>
-        <v>-7</v>
-      </c>
+      <c r="Q39" s="28"/>
+    </row>
+    <row r="40" spans="3:16">
+      <c r="C40" s="19"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="C41" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D41" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="5">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G41" s="6">
-        <v>5</v>
-      </c>
-      <c r="H41" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L41" s="6">
         <f>E41+G41+J41+H41+I41+K41</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M41" s="7">
-        <v>45895</v>
+        <v>45891</v>
       </c>
       <c r="N41" s="8">
-        <v>6.36</v>
+        <v>4.65</v>
       </c>
       <c r="O41" s="9">
         <f>L41*1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P41" s="9">
         <f>O41-N41</f>
-        <v>-0.36</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="5">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="G42" s="6">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="H42" s="6">
+        <v>-1</v>
       </c>
       <c r="L42" s="6">
         <f>E42+G42+J42+H42+I42+K42</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M42" s="7">
-        <v>45897</v>
+        <v>45892</v>
       </c>
       <c r="N42" s="8">
-        <v>4.02</v>
+        <v>14</v>
       </c>
       <c r="O42" s="9">
         <f>L42*1</f>
+        <v>7</v>
+      </c>
+      <c r="P42" s="23">
+        <f>O42-N42</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="5">
         <v>5</v>
       </c>
-      <c r="P42" s="9">
-        <f>O42-N42</f>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>114</v>
+      </c>
+      <c r="G43" s="6">
+        <v>5</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="L43" s="6">
+        <f>E43+G43+J43+H43+I43+K43</f>
+        <v>6</v>
+      </c>
+      <c r="M43" s="7">
+        <v>45895</v>
+      </c>
+      <c r="N43" s="8">
+        <v>6.36</v>
+      </c>
+      <c r="O43" s="9">
+        <f>L43*1</f>
+        <v>6</v>
+      </c>
+      <c r="P43" s="9">
+        <f>O43-N43</f>
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="5">
+        <v>5</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>111</v>
+      </c>
+      <c r="G44" s="6">
+        <v>5</v>
+      </c>
+      <c r="L44" s="6">
+        <f>E44+G44+J44+H44+I44+K44</f>
+        <v>5</v>
+      </c>
+      <c r="M44" s="7">
+        <v>45897</v>
+      </c>
+      <c r="N44" s="8">
+        <v>4.02</v>
+      </c>
+      <c r="O44" s="9">
+        <f>L44*1</f>
+        <v>5</v>
+      </c>
+      <c r="P44" s="9">
+        <f>O44-N44</f>
         <v>0.98</v>
       </c>
-    </row>
-    <row r="44" spans="15:16">
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
     </row>
     <row r="46" spans="15:16">
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="15:16">
+    <row r="47" spans="1:16">
+      <c r="A47" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
@@ -3370,102 +3390,50 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="5">
-        <v>2</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5">
-        <v>200</v>
-      </c>
-      <c r="G55" s="6">
-        <v>8</v>
-      </c>
-      <c r="L55" s="6">
-        <f>E55+G55+J55+H55+I55+K55</f>
-        <v>8</v>
-      </c>
-      <c r="M55" s="7">
-        <v>45894</v>
-      </c>
-      <c r="N55" s="8">
-        <v>0</v>
-      </c>
-      <c r="O55" s="9">
-        <f>L55*2</f>
-        <v>16</v>
-      </c>
-      <c r="P55" s="9">
-        <f>O55-N55</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="55" spans="15:16">
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+    </row>
+    <row r="56" spans="15:16">
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D56" s="5">
-        <v>5.8</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="5">
-        <v>17</v>
-      </c>
-      <c r="G56" s="6">
-        <v>0</v>
-      </c>
-      <c r="L56" s="6">
-        <f t="shared" ref="L56:L66" si="9">E56+G56+J56+H56+I56+K56</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="7">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="3">
-        <v>603173</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D57" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E57" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="5">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="G57" s="6">
+        <v>8</v>
+      </c>
+      <c r="L57" s="6">
+        <f>E57+G57+J57+H57+I57+K57</f>
+        <v>8</v>
+      </c>
+      <c r="M57" s="7">
+        <v>45894</v>
+      </c>
+      <c r="N57" s="8">
         <v>0</v>
       </c>
-      <c r="H57" s="6">
-        <v>1</v>
-      </c>
-      <c r="J57" s="6">
-        <v>1</v>
-      </c>
-      <c r="L57" s="6">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="M57" s="7">
-        <v>45863</v>
+      <c r="O57" s="9">
+        <f>L57*2</f>
+        <v>16</v>
+      </c>
+      <c r="P57" s="9">
+        <f>O57-N57</f>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3476,314 +3444,328 @@
         <v>122</v>
       </c>
       <c r="D58" s="5">
-        <v>14</v>
+        <v>5.8</v>
       </c>
       <c r="E58" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" s="5">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G58" s="6">
         <v>0</v>
       </c>
-      <c r="H58" s="6">
-        <v>1</v>
-      </c>
       <c r="L58" s="6">
+        <f t="shared" ref="L58:L68" si="9">E58+G58+J58+H58+I58+K58</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="3">
+        <v>603173</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="5">
+        <v>10</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2</v>
+      </c>
+      <c r="F59" s="5">
+        <v>18</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="M59" s="7">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="5">
+        <v>14</v>
+      </c>
+      <c r="E60" s="6">
+        <v>2</v>
+      </c>
+      <c r="F60" s="5">
+        <v>30</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1</v>
+      </c>
+      <c r="L60" s="6">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M60" s="7">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="5">
-        <v>5</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="5">
-        <v>68</v>
-      </c>
-      <c r="G59" s="6">
-        <v>1</v>
-      </c>
-      <c r="L59" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M59" s="7">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="5">
-        <v>7</v>
-      </c>
-      <c r="E60" s="6">
-        <v>1</v>
-      </c>
-      <c r="F60" s="5">
-        <v>47</v>
-      </c>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="L60" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M60" s="7">
-        <v>45878</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D61" s="5">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
       </c>
       <c r="F61" s="5">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
       </c>
       <c r="L61" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="7">
-        <v>45881</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D62" s="5">
         <v>7</v>
       </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
       <c r="F62" s="5">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
       </c>
       <c r="L62" s="6">
         <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M62" s="7">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="5">
+        <v>10</v>
+      </c>
+      <c r="F63" s="5">
+        <v>67</v>
+      </c>
+      <c r="L63" s="6">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M63" s="7">
         <v>45881</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="64" spans="1:13">
+      <c r="A64" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D68" s="5">
+      <c r="B64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="5">
+        <v>7</v>
+      </c>
+      <c r="F64" s="5">
+        <v>90</v>
+      </c>
+      <c r="L64" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="7">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="5">
         <v>6</v>
       </c>
-      <c r="E68" s="6">
-        <v>1</v>
-      </c>
-      <c r="F68" s="5">
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
         <v>2</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G70" s="6">
         <v>0</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L70" s="6">
         <v>2</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M70" s="7">
         <v>45878</v>
       </c>
-      <c r="O68" s="8">
-        <f t="shared" ref="O67:O74" si="10">L68*2</f>
+      <c r="O70" s="8">
+        <f t="shared" ref="O69:O76" si="10">L70*2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L69" s="6">
+    <row r="71" spans="1:15">
+      <c r="A71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L71" s="6">
         <v>8</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M71" s="7">
         <v>45878</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O71" s="8">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L70" s="6">
+    <row r="72" spans="1:15">
+      <c r="A72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L72" s="6">
         <v>10</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M72" s="7">
         <v>45878</v>
       </c>
-      <c r="O70" s="8">
+      <c r="O72" s="8">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L71" s="6">
+    <row r="73" spans="1:15">
+      <c r="A73" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L73" s="6">
         <v>20</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M73" s="7">
         <v>45878</v>
       </c>
-      <c r="O71" s="8">
+      <c r="O73" s="8">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L72" s="6">
+    <row r="74" spans="1:15">
+      <c r="A74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L74" s="6">
         <v>2</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M74" s="7">
         <v>45878</v>
       </c>
-      <c r="O72" s="8">
+      <c r="O74" s="8">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L73" s="6">
+    <row r="75" spans="1:15">
+      <c r="A75" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L75" s="6">
         <v>6</v>
       </c>
-      <c r="M73" s="7">
+      <c r="M75" s="7">
         <v>45878</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O75" s="8">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L74" s="6">
+    <row r="76" spans="1:15">
+      <c r="A76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L76" s="6">
         <v>4</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M76" s="7">
         <v>45878</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O76" s="8">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="5">
-        <v>9</v>
-      </c>
-      <c r="E76" s="6">
-        <v>2</v>
-      </c>
-      <c r="F76" s="5">
-        <v>110</v>
-      </c>
-      <c r="G76" s="6">
-        <v>3</v>
-      </c>
-      <c r="M76" s="7">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="5">
-        <v>9</v>
-      </c>
-      <c r="E77" s="6">
-        <v>2</v>
-      </c>
-      <c r="F77" s="5">
-        <v>140</v>
-      </c>
-      <c r="G77" s="6">
-        <v>4</v>
-      </c>
-      <c r="M77" s="7">
-        <v>45878</v>
-      </c>
-    </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D78" s="5">
         <v>9</v>
@@ -3792,10 +3774,10 @@
         <v>2</v>
       </c>
       <c r="F78" s="5">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G78" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M78" s="7">
         <v>45878</v>
@@ -3803,19 +3785,19 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D79" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E79" s="6">
         <v>2</v>
       </c>
       <c r="F79" s="5">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G79" s="6">
         <v>4</v>
@@ -3826,24 +3808,70 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D80" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="6">
         <v>2</v>
       </c>
       <c r="F80" s="5">
+        <v>90</v>
+      </c>
+      <c r="G80" s="6">
+        <v>2</v>
+      </c>
+      <c r="M80" s="7">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="5">
+        <v>11</v>
+      </c>
+      <c r="E81" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" s="5">
+        <v>150</v>
+      </c>
+      <c r="G81" s="6">
+        <v>4</v>
+      </c>
+      <c r="M81" s="7">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="5">
+        <v>10</v>
+      </c>
+      <c r="E82" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" s="5">
         <v>60</v>
       </c>
-      <c r="G80" s="6">
-        <v>1</v>
-      </c>
-      <c r="M80" s="7">
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
+      <c r="M82" s="7">
         <v>45878</v>
       </c>
     </row>
@@ -3852,7 +3880,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A39:N42 P39:Q42 A3:Q6 L2:Q2 I2:J2 A2:G2 A1:Q1 A7:M7 O7:Q7 A27:Q28 I25:Q26 A25:G26 A8:Q15 A16:E16 H16:M16 O16:Q16 A17:Q24 A34:N37 H33:L33 N33 A33:C33 A32:N32 N31 A31:L31 A29:N30 P29:Q37 A46:Q80 L45:Q45 D45 B45 H45 F45 A43:Q44" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Q16 A17:N17 A18:N19 P17:Q19 A20:Q82" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="对照表" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
   <si>
     <t>代码</t>
   </si>
@@ -201,190 +201,190 @@
     <t>智能座驾</t>
   </si>
   <si>
+    <t>603501</t>
+  </si>
+  <si>
+    <t>豪威集团</t>
+  </si>
+  <si>
+    <t>半导体</t>
+  </si>
+  <si>
+    <t>603288</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>食品</t>
+  </si>
+  <si>
+    <t>605305</t>
+  </si>
+  <si>
+    <t>中际联合</t>
+  </si>
+  <si>
+    <t>风电</t>
+  </si>
+  <si>
+    <t>欧派家居</t>
+  </si>
+  <si>
+    <t>家居</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>300015</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>002558</t>
+  </si>
+  <si>
+    <t>巨人网络</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>002947</t>
+  </si>
+  <si>
+    <t>恒铭达</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>601888</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
+    <t>免税</t>
+  </si>
+  <si>
+    <t>002690</t>
+  </si>
+  <si>
+    <t>美亚光电</t>
+  </si>
+  <si>
+    <t>机器视觉</t>
+  </si>
+  <si>
+    <t>300724</t>
+  </si>
+  <si>
+    <t>捷佳伟创</t>
+  </si>
+  <si>
+    <t>002714</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>猪肉</t>
+  </si>
+  <si>
+    <t>000513</t>
+  </si>
+  <si>
+    <t>丽珠集团</t>
+  </si>
+  <si>
+    <t>002032</t>
+  </si>
+  <si>
+    <t>苏泊尔</t>
+  </si>
+  <si>
+    <t>电器</t>
+  </si>
+  <si>
+    <t>000983</t>
+  </si>
+  <si>
+    <t>山西焦煤</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
+    <t>002773</t>
+  </si>
+  <si>
+    <t>康弘药业</t>
+  </si>
+  <si>
+    <t>603676</t>
+  </si>
+  <si>
+    <t>卫信康</t>
+  </si>
+  <si>
+    <t>300558</t>
+  </si>
+  <si>
+    <t>贝达药业</t>
+  </si>
+  <si>
+    <t>300595</t>
+  </si>
+  <si>
+    <t>欧普康视</t>
+  </si>
+  <si>
+    <t>002821</t>
+  </si>
+  <si>
+    <t>凯莱英</t>
+  </si>
+  <si>
+    <t>688050</t>
+  </si>
+  <si>
+    <t>爱博医疗</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>创业板</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>恒生医疗</t>
+  </si>
+  <si>
+    <t>港股创新药</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
     <t>603596</t>
   </si>
   <si>
     <t>伯特利</t>
   </si>
   <si>
-    <t>无人驾驶</t>
-  </si>
-  <si>
-    <t>603501</t>
-  </si>
-  <si>
-    <t>豪威集团</t>
-  </si>
-  <si>
-    <t>半导体</t>
-  </si>
-  <si>
-    <t>603288</t>
-  </si>
-  <si>
-    <t>海天味业</t>
-  </si>
-  <si>
-    <t>食品</t>
-  </si>
-  <si>
-    <t>605305</t>
-  </si>
-  <si>
-    <t>中际联合</t>
-  </si>
-  <si>
-    <t>风电</t>
-  </si>
-  <si>
-    <t>欧派家居</t>
-  </si>
-  <si>
-    <t>家居</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>通策医疗</t>
-  </si>
-  <si>
-    <t>医疗</t>
-  </si>
-  <si>
-    <t>300015</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>002558</t>
-  </si>
-  <si>
-    <t>巨人网络</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>002947</t>
-  </si>
-  <si>
-    <t>恒铭达</t>
-  </si>
-  <si>
-    <t>消费电子</t>
-  </si>
-  <si>
-    <t>601888</t>
-  </si>
-  <si>
-    <t>中国中免</t>
-  </si>
-  <si>
-    <t>免税</t>
-  </si>
-  <si>
-    <t>002690</t>
-  </si>
-  <si>
-    <t>美亚光电</t>
-  </si>
-  <si>
-    <t>机器视觉</t>
-  </si>
-  <si>
-    <t>300724</t>
-  </si>
-  <si>
-    <t>捷佳伟创</t>
-  </si>
-  <si>
-    <t>002714</t>
-  </si>
-  <si>
-    <t>牧原股份</t>
-  </si>
-  <si>
-    <t>猪肉</t>
-  </si>
-  <si>
-    <t>000513</t>
-  </si>
-  <si>
-    <t>丽珠集团</t>
-  </si>
-  <si>
-    <t>002032</t>
-  </si>
-  <si>
-    <t>苏泊尔</t>
-  </si>
-  <si>
-    <t>电器</t>
-  </si>
-  <si>
-    <t>000983</t>
-  </si>
-  <si>
-    <t>山西焦煤</t>
-  </si>
-  <si>
-    <t>煤炭</t>
-  </si>
-  <si>
-    <t>002773</t>
-  </si>
-  <si>
-    <t>康弘药业</t>
-  </si>
-  <si>
-    <t>603676</t>
-  </si>
-  <si>
-    <t>卫信康</t>
-  </si>
-  <si>
-    <t>300558</t>
-  </si>
-  <si>
-    <t>贝达药业</t>
-  </si>
-  <si>
-    <t>300595</t>
-  </si>
-  <si>
-    <t>欧普康视</t>
-  </si>
-  <si>
-    <t>002821</t>
-  </si>
-  <si>
-    <t>凯莱英</t>
-  </si>
-  <si>
-    <t>688050</t>
-  </si>
-  <si>
-    <t>爱博医疗</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>创业板</t>
-  </si>
-  <si>
-    <t>黄金</t>
-  </si>
-  <si>
-    <t>恒生医疗</t>
-  </si>
-  <si>
-    <t>港股创新药</t>
-  </si>
-  <si>
-    <t>证券</t>
+    <t>汽车底盘</t>
   </si>
   <si>
     <t>603279</t>
@@ -502,6 +502,48 @@
   </si>
   <si>
     <t>吉利汽车</t>
+  </si>
+  <si>
+    <t>21-40</t>
+  </si>
+  <si>
+    <t>41-50</t>
+  </si>
+  <si>
+    <t>51-75</t>
+  </si>
+  <si>
+    <t>76-100</t>
+  </si>
+  <si>
+    <t>101-125</t>
+  </si>
+  <si>
+    <t>126-150</t>
+  </si>
+  <si>
+    <t>151-175</t>
+  </si>
+  <si>
+    <t>176-200</t>
+  </si>
+  <si>
+    <t>201-225</t>
+  </si>
+  <si>
+    <t>226-250</t>
+  </si>
+  <si>
+    <t>251-275</t>
+  </si>
+  <si>
+    <t>276-300</t>
+  </si>
+  <si>
+    <t>301-325</t>
+  </si>
+  <si>
+    <t>326-350</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1269,10 @@
     <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1565,24 +1607,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.8583333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.3416666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.0166666666667" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.41666666666667" style="5" customWidth="1"/>
     <col min="5" max="5" width="7.79166666666667" style="6" customWidth="1"/>
     <col min="6" max="6" width="8.55833333333333" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.16666666666667" style="6" customWidth="1"/>
     <col min="8" max="8" width="7.975" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.06666666666667" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.04166666666667" style="6" customWidth="1"/>
+    <col min="10" max="10" width="4.31666666666667" style="6" customWidth="1"/>
     <col min="11" max="11" width="7.69166666666667" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.70833333333333" style="6" customWidth="1"/>
     <col min="13" max="13" width="17" style="7" customWidth="1"/>
@@ -1644,7 +1686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -1664,7 +1706,7 @@
         <v>277</v>
       </c>
       <c r="G2" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="6">
         <v>-1</v>
@@ -1674,7 +1716,7 @@
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L19" si="0">E2+G2+J2+H2+I2+K2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="7">
         <v>45896</v>
@@ -1684,14 +1726,18 @@
       </c>
       <c r="O2" s="9">
         <f>L2*2</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2" s="22">
         <f t="shared" ref="P2:P19" si="1">O2-N2</f>
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>7.74</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>O2*0.75-N2</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="3">
         <v>300896</v>
       </c>
@@ -1737,8 +1783,12 @@
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="24">
+        <f t="shared" ref="Q3:Q19" si="3">O3*0.75-N3</f>
+        <v>-4.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="3">
         <v>603195</v>
       </c>
@@ -1781,8 +1831,12 @@
         <f t="shared" si="1"/>
         <v>0.140000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="24">
+        <f t="shared" si="3"/>
+        <v>-3.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="3">
         <v>300760</v>
       </c>
@@ -1824,12 +1878,16 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="9">
         <f t="shared" si="1"/>
         <v>-1.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="24">
+        <f t="shared" si="3"/>
+        <v>-4.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="3">
         <v>300529</v>
       </c>
@@ -1875,8 +1933,12 @@
         <f t="shared" si="1"/>
         <v>-0.140000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="24">
+        <f t="shared" si="3"/>
+        <v>-3.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="3">
         <v>603605</v>
       </c>
@@ -1919,8 +1981,12 @@
         <f t="shared" si="1"/>
         <v>-0.18</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="24">
+        <f t="shared" si="3"/>
+        <v>-3.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="3">
         <v>300573</v>
       </c>
@@ -1966,8 +2032,12 @@
         <f t="shared" si="1"/>
         <v>0.0299999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="24">
+        <f t="shared" si="3"/>
+        <v>-3.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -2013,8 +2083,12 @@
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="24">
+        <f t="shared" si="3"/>
+        <v>-2.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2056,12 +2130,16 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="9">
         <f t="shared" si="1"/>
         <v>-2.52</v>
       </c>
-    </row>
-    <row r="11" ht="14" customHeight="1" spans="1:16">
+      <c r="Q10" s="24">
+        <f t="shared" si="3"/>
+        <v>-7.02</v>
+      </c>
+    </row>
+    <row r="11" ht="14" customHeight="1" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -2103,12 +2181,16 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="9">
         <f t="shared" si="1"/>
         <v>-2.09</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="24">
+        <f t="shared" si="3"/>
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="3">
         <v>300628</v>
       </c>
@@ -2151,8 +2233,12 @@
         <f t="shared" si="1"/>
         <v>-0.0800000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="24">
+        <f t="shared" si="3"/>
+        <v>-2.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -2191,9 +2277,13 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="9">
         <f t="shared" si="1"/>
         <v>-2.15</v>
+      </c>
+      <c r="Q13" s="24">
+        <f t="shared" si="3"/>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:17">
@@ -2244,9 +2334,12 @@
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="24">
+        <f t="shared" si="3"/>
+        <v>-4.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2289,8 +2382,12 @@
         <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
@@ -2330,8 +2427,12 @@
         <f t="shared" si="1"/>
         <v>0.0399999999999991</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="24">
+        <f t="shared" si="3"/>
+        <v>-4.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -2341,44 +2442,27 @@
       <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="5">
-        <v>9</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5">
-        <v>110</v>
-      </c>
-      <c r="G17" s="6">
-        <v>5</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
       <c r="L17" s="6">
         <f>E17+G17+J17+H17+I17+K17</f>
-        <v>9</v>
-      </c>
-      <c r="M17" s="7">
-        <v>45897</v>
+        <v>0</v>
       </c>
       <c r="N17" s="8">
         <v>15.16</v>
       </c>
       <c r="O17" s="9">
-        <f>L17*2</f>
-        <v>18</v>
-      </c>
-      <c r="P17" s="24">
-        <f>O17-N17</f>
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="1"/>
+        <v>-15.16</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="3"/>
+        <v>-15.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -2388,56 +2472,85 @@
       <c r="C18" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="D18" s="5">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>39</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <f>E18+G18+J18+H18+I18+K18</f>
+        <v>2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>45888</v>
+      </c>
+      <c r="N18" s="8">
+        <v>3.75</v>
+      </c>
       <c r="O18" s="9">
         <f>L18*2</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="23">
+        <f>O18-N18</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>O18*0.75-N18</f>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="15:16">
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="5">
-        <v>8</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>39</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6">
-        <f>E19+G19+J19+H19+I19+K19</f>
-        <v>2</v>
-      </c>
-      <c r="M19" s="7">
-        <v>45888</v>
-      </c>
-      <c r="N19" s="8">
-        <v>3.75</v>
-      </c>
-      <c r="O19" s="9">
-        <f>L19*2</f>
-        <v>4</v>
-      </c>
-      <c r="P19" s="9">
-        <f>O19-N19</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="15:16">
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="D20" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>140</v>
+      </c>
+      <c r="G20" s="6">
+        <v>6</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" ref="L20:L27" si="4">E20+G20+J20+H20+I20+K20</f>
+        <v>7</v>
+      </c>
+      <c r="M20" s="7">
+        <v>45889</v>
+      </c>
+      <c r="N20" s="8">
+        <v>7.41</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" ref="O20:O26" si="5">L20*1</f>
+        <v>7</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" ref="P20:P27" si="6">O20-N20</f>
+        <v>-0.41</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
@@ -2450,122 +2563,122 @@
         <v>65</v>
       </c>
       <c r="D21" s="5">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="G21" s="6">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" ref="L21:L28" si="3">E21+G21+J21+H21+I21+K21</f>
-        <v>7</v>
-      </c>
-      <c r="M21" s="7">
-        <v>45889</v>
-      </c>
-      <c r="N21" s="8">
-        <v>7.41</v>
-      </c>
-      <c r="O21" s="9">
-        <f t="shared" ref="O21:O27" si="4">L21*1</f>
-        <v>7</v>
-      </c>
-      <c r="P21" s="9">
-        <f t="shared" ref="P21:P28" si="5">O21-N21</f>
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="5">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>83</v>
-      </c>
-      <c r="G22" s="6">
-        <v>4</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="L22" s="6">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M22" s="7">
-        <v>45891</v>
-      </c>
-      <c r="N22" s="8">
-        <v>16.13</v>
-      </c>
-      <c r="O22" s="9">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="P22" s="23">
+      <c r="M21" s="7">
+        <v>45891</v>
+      </c>
+      <c r="N21" s="8">
+        <v>16.13</v>
+      </c>
+      <c r="O21" s="9">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P21" s="24">
+        <f t="shared" si="6"/>
         <v>-10.13</v>
       </c>
     </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="3">
+        <v>603833</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>122</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M22" s="7">
+        <v>45900</v>
+      </c>
+      <c r="N22" s="8">
+        <v>6.34</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="6"/>
+        <v>-1.34</v>
+      </c>
+    </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="3">
-        <v>603833</v>
+      <c r="A23" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="5">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="E23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="G23" s="6">
-        <v>5</v>
-      </c>
-      <c r="H23" s="6">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M23" s="7">
-        <v>45900</v>
+        <v>45848</v>
       </c>
       <c r="N23" s="8">
-        <v>6.34</v>
+        <v>4.37</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="P23" s="23">
         <f t="shared" si="5"/>
-        <v>-1.34</v>
+        <v>4</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="6"/>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2576,175 +2689,182 @@
         <v>72</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="5">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G24" s="6">
         <v>4</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M24" s="7">
-        <v>45848</v>
-      </c>
-      <c r="N24" s="8">
-        <v>4.37</v>
-      </c>
-      <c r="O24" s="9">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="M24" s="7">
+        <v>45873</v>
+      </c>
+      <c r="N24" s="8">
+        <v>4.17</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="P24" s="9">
-        <f t="shared" si="5"/>
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="3" t="s">
+        <f t="shared" si="6"/>
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:17">
+      <c r="A25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>81</v>
-      </c>
-      <c r="G25" s="6">
-        <v>4</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M25" s="7">
-        <v>45873</v>
-      </c>
-      <c r="N25" s="8">
-        <v>4.17</v>
-      </c>
-      <c r="O25" s="9">
+      <c r="D25" s="13">
+        <v>10</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2</v>
+      </c>
+      <c r="F25" s="13">
+        <v>33</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
+        <v>1</v>
+      </c>
+      <c r="L25" s="14">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P25" s="9">
+      <c r="M25" s="25">
+        <v>45888</v>
+      </c>
+      <c r="N25" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="O25" s="26">
         <f t="shared" si="5"/>
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:17">
-      <c r="A26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="26">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q25" s="26"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="13">
-        <v>10</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="D26" s="5">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6">
         <v>2</v>
       </c>
-      <c r="F26" s="13">
-        <v>33</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14">
-        <v>1</v>
-      </c>
-      <c r="L26" s="14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M26" s="25">
-        <v>45888</v>
-      </c>
-      <c r="N26" s="26">
-        <v>4.5</v>
-      </c>
-      <c r="O26" s="26">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P26" s="26">
-        <f t="shared" si="5"/>
-        <v>-0.5</v>
-      </c>
-      <c r="Q26" s="26"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="5">
-        <v>9</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="F26" s="5">
         <v>34</v>
       </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M27" s="7">
-        <v>45891</v>
-      </c>
-      <c r="N27" s="8">
-        <v>3.33</v>
-      </c>
-      <c r="O27" s="9">
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P27" s="9">
+      <c r="M26" s="7">
+        <v>45891</v>
+      </c>
+      <c r="N26" s="8">
+        <v>3.33</v>
+      </c>
+      <c r="O26" s="9">
         <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="6"/>
         <v>-0.33</v>
       </c>
     </row>
-    <row r="29" spans="15:16">
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
+    <row r="28" spans="15:16">
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:17">
+      <c r="A30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>40</v>
+      </c>
+      <c r="G30" s="17">
+        <v>2</v>
+      </c>
+      <c r="H30" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17">
+        <f t="shared" ref="L30:L42" si="7">E30+G30+J30+H30+I30+K30</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="27">
+        <v>45896</v>
+      </c>
+      <c r="N30" s="28">
+        <v>2.46</v>
+      </c>
+      <c r="O30" s="28">
+        <f t="shared" ref="O30:O41" si="8">L30*1</f>
+        <v>1</v>
+      </c>
+      <c r="P30" s="28">
+        <f t="shared" ref="P30:P42" si="9">O30-N30</f>
+        <v>-1.46</v>
+      </c>
+      <c r="Q30" s="28"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:17">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -2754,132 +2874,130 @@
         <v>84</v>
       </c>
       <c r="D31" s="16">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="E31" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G31" s="17">
         <v>2</v>
       </c>
-      <c r="H31" s="17">
-        <v>-1</v>
-      </c>
+      <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17">
-        <f t="shared" ref="L31:L43" si="6">E31+G31+J31+H31+I31+K31</f>
-        <v>1</v>
-      </c>
-      <c r="M31" s="27">
-        <v>45896</v>
-      </c>
-      <c r="N31" s="28">
-        <v>2.46</v>
-      </c>
-      <c r="O31" s="28">
-        <f t="shared" ref="O31:O42" si="7">L31*1</f>
-        <v>1</v>
-      </c>
-      <c r="P31" s="28">
-        <f t="shared" ref="P31:P43" si="8">O31-N31</f>
-        <v>-1.46</v>
-      </c>
-      <c r="Q31" s="28"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:17">
-      <c r="A32" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E32" s="17">
-        <v>1</v>
-      </c>
-      <c r="F32" s="16">
-        <v>49</v>
-      </c>
-      <c r="G32" s="17">
-        <v>2</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M32" s="27">
-        <v>45890</v>
-      </c>
-      <c r="N32" s="28">
-        <v>3.12</v>
-      </c>
-      <c r="O32" s="28">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P32" s="28">
+      <c r="M31" s="27">
+        <v>45890</v>
+      </c>
+      <c r="N31" s="28">
+        <v>3.12</v>
+      </c>
+      <c r="O31" s="28">
         <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P31" s="28">
+        <f t="shared" si="9"/>
         <v>-0.12</v>
       </c>
-      <c r="Q32" s="29"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="Q31" s="29"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D32" s="5">
         <v>1.2</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E32" s="6">
         <v>0</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F32" s="5">
         <v>37</v>
       </c>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="K33" s="6">
-        <v>1</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M33" s="7">
-        <v>45897</v>
-      </c>
-      <c r="N33" s="8">
-        <v>4.42</v>
-      </c>
-      <c r="O33" s="9">
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="6">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P33" s="9">
+      <c r="M32" s="7">
+        <v>45897</v>
+      </c>
+      <c r="N32" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="O32" s="9">
         <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="9"/>
         <v>-2.42</v>
       </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="16">
+        <v>8</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
+        <v>40</v>
+      </c>
+      <c r="G33" s="17">
+        <v>2</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M33" s="27">
+        <v>45867</v>
+      </c>
+      <c r="N33" s="28">
+        <v>2.3</v>
+      </c>
+      <c r="O33" s="28">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P33" s="28">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q33" s="28"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:17">
       <c r="A34" s="15" t="s">
@@ -2889,89 +3007,84 @@
         <v>91</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="D34" s="16">
-        <v>8</v>
+        <v>8.2</v>
       </c>
       <c r="E34" s="17">
         <v>1</v>
       </c>
       <c r="F34" s="16">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G34" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M34" s="27">
-        <v>45867</v>
-      </c>
-      <c r="N34" s="28">
-        <v>2.3</v>
-      </c>
-      <c r="O34" s="28">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="P34" s="28">
-        <f t="shared" si="8"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q34" s="28"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:17">
-      <c r="A35" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="16">
-        <v>8.2</v>
-      </c>
-      <c r="E35" s="17">
-        <v>1</v>
-      </c>
-      <c r="F35" s="16">
-        <v>35</v>
-      </c>
-      <c r="G35" s="17">
-        <v>1</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M35" s="27">
-        <v>45908</v>
-      </c>
-      <c r="N35" s="28">
-        <v>5.36</v>
-      </c>
-      <c r="O35" s="28">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P35" s="28">
+      <c r="M34" s="27">
+        <v>45908</v>
+      </c>
+      <c r="N34" s="28">
+        <v>5.36</v>
+      </c>
+      <c r="O34" s="28">
         <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="P34" s="28">
+        <f t="shared" si="9"/>
         <v>-3.36</v>
       </c>
-      <c r="Q35" s="28"/>
+      <c r="Q34" s="28"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="5">
+        <v>12</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>48</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M35" s="7">
+        <v>45838</v>
+      </c>
+      <c r="N35" s="8">
+        <v>4.22</v>
+      </c>
+      <c r="O35" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="P35" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="30" t="s">
@@ -2984,271 +3097,274 @@
         <v>97</v>
       </c>
       <c r="D36" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E36" s="6">
         <v>2</v>
       </c>
       <c r="F36" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G36" s="6">
         <v>2</v>
       </c>
+      <c r="H36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1</v>
+      </c>
       <c r="L36" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="M36" s="7">
         <v>45838</v>
       </c>
       <c r="N36" s="8">
-        <v>4.22</v>
+        <v>6.11</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.22</v>
+        <f t="shared" si="9"/>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>100</v>
+      <c r="C37" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D37" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
       </c>
       <c r="F37" s="5">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G37" s="6">
-        <v>2</v>
-      </c>
-      <c r="H37" s="6">
-        <v>-1</v>
-      </c>
-      <c r="K37" s="6">
         <v>1</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="M37" s="7">
-        <v>45838</v>
-      </c>
-      <c r="N37" s="8">
-        <v>6.11</v>
-      </c>
-      <c r="O37" s="9">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="P37" s="9">
-        <f t="shared" si="8"/>
-        <v>-2.11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="5">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6">
-        <v>2</v>
-      </c>
-      <c r="F38" s="5">
-        <v>26</v>
-      </c>
-      <c r="G38" s="6">
-        <v>1</v>
-      </c>
-      <c r="L38" s="6">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M38" s="7">
-        <v>45861</v>
-      </c>
-      <c r="N38" s="8">
-        <v>3.41</v>
-      </c>
-      <c r="O38" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P38" s="9">
+      <c r="M37" s="7">
+        <v>45861</v>
+      </c>
+      <c r="N37" s="8">
+        <v>3.41</v>
+      </c>
+      <c r="O37" s="9">
         <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P37" s="9">
+        <f t="shared" si="9"/>
         <v>-0.41</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:17">
-      <c r="A39" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="16" t="s">
+    <row r="38" s="2" customFormat="1" spans="1:17">
+      <c r="A38" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D38" s="16">
         <v>8</v>
       </c>
-      <c r="E39" s="17">
-        <v>1</v>
-      </c>
-      <c r="F39" s="16">
+      <c r="E38" s="17">
+        <v>1</v>
+      </c>
+      <c r="F38" s="16">
         <v>60</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G38" s="17">
         <v>3</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H38" s="17">
         <v>-1</v>
       </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M39" s="27">
-        <v>45877</v>
-      </c>
-      <c r="N39" s="28">
-        <v>3.06</v>
-      </c>
-      <c r="O39" s="28">
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P39" s="28">
+      <c r="M38" s="27">
+        <v>45877</v>
+      </c>
+      <c r="N38" s="28">
+        <v>3.06</v>
+      </c>
+      <c r="O38" s="28">
         <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P38" s="28">
+        <f t="shared" si="9"/>
         <v>-0.0600000000000001</v>
       </c>
-      <c r="Q39" s="28"/>
-    </row>
-    <row r="40" spans="3:16">
-      <c r="C40" s="19"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
+      <c r="Q38" s="28"/>
+    </row>
+    <row r="39" spans="3:16">
+      <c r="C39" s="19"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>92</v>
+      </c>
+      <c r="G40" s="6">
+        <v>4</v>
+      </c>
+      <c r="L40" s="6">
+        <f>E40+G40+J40+H40+I40+K40</f>
+        <v>4</v>
+      </c>
+      <c r="M40" s="7">
+        <v>45891</v>
+      </c>
+      <c r="N40" s="8">
+        <v>4.65</v>
+      </c>
+      <c r="O40" s="9">
+        <f>L40*1</f>
+        <v>4</v>
+      </c>
+      <c r="P40" s="9">
+        <f>O40-N40</f>
+        <v>-0.65</v>
+      </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>33</v>
+      <c r="C41" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D41" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="5">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="G41" s="6">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="H41" s="6">
+        <v>-1</v>
       </c>
       <c r="L41" s="6">
         <f>E41+G41+J41+H41+I41+K41</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M41" s="7">
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="N41" s="8">
-        <v>4.65</v>
+        <v>14</v>
       </c>
       <c r="O41" s="9">
         <f>L41*1</f>
-        <v>4</v>
-      </c>
-      <c r="P41" s="9">
+        <v>6</v>
+      </c>
+      <c r="P41" s="24">
         <f>O41-N41</f>
-        <v>-0.65</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>25</v>
+      <c r="C42" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D42" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="5">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="G42" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H42" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L42" s="6">
         <f>E42+G42+J42+H42+I42+K42</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M42" s="7">
-        <v>45892</v>
+        <v>45895</v>
       </c>
       <c r="N42" s="8">
-        <v>14</v>
+        <v>6.36</v>
       </c>
       <c r="O42" s="9">
         <f>L42*1</f>
-        <v>7</v>
-      </c>
-      <c r="P42" s="23">
+        <v>6</v>
+      </c>
+      <c r="P42" s="9">
         <f>O42-N42</f>
-        <v>-7</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>36</v>
+      <c r="C43" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D43" s="5">
         <v>5</v>
@@ -3257,108 +3373,68 @@
         <v>0</v>
       </c>
       <c r="F43" s="5">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G43" s="6">
         <v>5</v>
       </c>
-      <c r="H43" s="6">
-        <v>1</v>
-      </c>
       <c r="L43" s="6">
         <f>E43+G43+J43+H43+I43+K43</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M43" s="7">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="N43" s="8">
-        <v>6.36</v>
+        <v>4.02</v>
       </c>
       <c r="O43" s="9">
         <f>L43*1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P43" s="9">
         <f>O43-N43</f>
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="3" t="s">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="45" spans="15:16">
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="E46" s="21"/>
+      <c r="F46" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="5">
-        <v>5</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5">
-        <v>111</v>
-      </c>
-      <c r="G44" s="6">
-        <v>5</v>
-      </c>
-      <c r="L44" s="6">
-        <f>E44+G44+J44+H44+I44+K44</f>
-        <v>5</v>
-      </c>
-      <c r="M44" s="7">
-        <v>45897</v>
-      </c>
-      <c r="N44" s="8">
-        <v>4.02</v>
-      </c>
-      <c r="O44" s="9">
-        <f>L44*1</f>
-        <v>5</v>
-      </c>
-      <c r="P44" s="9">
-        <f>O44-N44</f>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="46" spans="15:16">
+      <c r="G46" s="21"/>
+      <c r="H46" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>118</v>
-      </c>
+    <row r="47" spans="15:16">
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
@@ -3390,94 +3466,161 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="15:16">
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-    </row>
-    <row r="56" spans="15:16">
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-    </row>
-    <row r="57" spans="1:16">
+    <row r="55" spans="1:17">
+      <c r="A55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
+        <v>33</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6">
+        <f>E55+G55+J55+H55+I55+K55</f>
+        <v>1</v>
+      </c>
+      <c r="M55" s="7">
+        <v>45916</v>
+      </c>
+      <c r="O55" s="9">
+        <f>L55*2</f>
+        <v>2</v>
+      </c>
+      <c r="P55" s="23">
+        <f>O55-N55</f>
+        <v>2</v>
+      </c>
+      <c r="Q55" s="9">
+        <f>O55*0.75-N55</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>200</v>
+      </c>
+      <c r="G56" s="6">
+        <v>8</v>
+      </c>
+      <c r="L56" s="6">
+        <f>E56+G56+J56+H56+I56+K56</f>
+        <v>8</v>
+      </c>
+      <c r="M56" s="7">
+        <v>45894</v>
+      </c>
+      <c r="N56" s="8">
+        <v>0</v>
+      </c>
+      <c r="O56" s="9">
+        <f>L56*2</f>
+        <v>16</v>
+      </c>
+      <c r="P56" s="9">
+        <f>O56-N56</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D57" s="5">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="5">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="G57" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L57" s="6">
-        <f>E57+G57+J57+H57+I57+K57</f>
-        <v>8</v>
+        <f t="shared" ref="L57:L67" si="10">E57+G57+J57+H57+I57+K57</f>
+        <v>0</v>
       </c>
       <c r="M57" s="7">
-        <v>45894</v>
-      </c>
-      <c r="N57" s="8">
-        <v>0</v>
-      </c>
-      <c r="O57" s="9">
-        <f>L57*2</f>
-        <v>16</v>
-      </c>
-      <c r="P57" s="9">
-        <f>O57-N57</f>
-        <v>16</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="3" t="s">
-        <v>121</v>
+      <c r="A58" s="3">
+        <v>603173</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D58" s="5">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="E58" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G58" s="6">
         <v>0</v>
       </c>
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6">
+        <v>1</v>
+      </c>
       <c r="L58" s="6">
-        <f t="shared" ref="L58:L68" si="9">E58+G58+J58+H58+I58+K58</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="M58" s="7">
-        <v>45848</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="3">
-        <v>603173</v>
+      <c r="A59" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D59" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
       </c>
       <c r="F59" s="5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
@@ -3485,68 +3628,62 @@
       <c r="H59" s="6">
         <v>1</v>
       </c>
-      <c r="J59" s="6">
-        <v>1</v>
-      </c>
       <c r="L59" s="6">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="M59" s="7">
-        <v>45863</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E60" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" s="5">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="H60" s="6">
         <v>1</v>
       </c>
       <c r="L60" s="6">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="M60" s="7">
-        <v>45869</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D61" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>47</v>
+      </c>
+      <c r="G61" s="6">
         <v>0</v>
       </c>
-      <c r="F61" s="5">
-        <v>68</v>
-      </c>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
       <c r="L61" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M61" s="7">
@@ -3555,217 +3692,213 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D62" s="5">
-        <v>7</v>
-      </c>
-      <c r="E62" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" s="5">
-        <v>47</v>
-      </c>
-      <c r="G62" s="6">
+        <v>67</v>
+      </c>
+      <c r="L62" s="6">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L62" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
       <c r="M62" s="7">
-        <v>45878</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D63" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F63" s="5">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="L63" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M63" s="7">
         <v>45881</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="5">
-        <v>7</v>
-      </c>
-      <c r="F64" s="5">
-        <v>90</v>
-      </c>
-      <c r="L64" s="6">
-        <f t="shared" si="9"/>
+    <row r="69" spans="1:15">
+      <c r="A69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="5">
+        <v>6</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>2</v>
+      </c>
+      <c r="G69" s="6">
         <v>0</v>
       </c>
-      <c r="M64" s="7">
-        <v>45881</v>
+      <c r="L69" s="6">
+        <v>2</v>
+      </c>
+      <c r="M69" s="7">
+        <v>45878</v>
+      </c>
+      <c r="O69" s="8">
+        <f t="shared" ref="O68:O75" si="11">L69*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="5">
-        <v>6</v>
-      </c>
-      <c r="E70" s="6">
-        <v>1</v>
-      </c>
-      <c r="F70" s="5">
-        <v>2</v>
-      </c>
-      <c r="G70" s="6">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="L70" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M70" s="7">
         <v>45878</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" ref="O69:O76" si="10">L70*2</f>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L71" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M71" s="7">
         <v>45878</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L72" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M72" s="7">
         <v>45878</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="10"/>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L73" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M73" s="7">
         <v>45878</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="10"/>
-        <v>40</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L74" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M74" s="7">
         <v>45878</v>
       </c>
       <c r="O74" s="8">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L75" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M75" s="7">
         <v>45878</v>
       </c>
       <c r="O75" s="8">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L76" s="6">
-        <v>4</v>
-      </c>
-      <c r="M76" s="7">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" s="5">
+        <v>9</v>
+      </c>
+      <c r="E77" s="6">
+        <v>2</v>
+      </c>
+      <c r="F77" s="5">
+        <v>110</v>
+      </c>
+      <c r="G77" s="6">
+        <v>3</v>
+      </c>
+      <c r="M77" s="7">
         <v>45878</v>
-      </c>
-      <c r="O76" s="8">
-        <f t="shared" si="10"/>
-        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D78" s="5">
         <v>9</v>
@@ -3774,10 +3907,10 @@
         <v>2</v>
       </c>
       <c r="F78" s="5">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="G78" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M78" s="7">
         <v>45878</v>
@@ -3785,10 +3918,10 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D79" s="5">
         <v>9</v>
@@ -3797,10 +3930,10 @@
         <v>2</v>
       </c>
       <c r="F79" s="5">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G79" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M79" s="7">
         <v>45878</v>
@@ -3808,22 +3941,22 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D80" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E80" s="6">
         <v>2</v>
       </c>
       <c r="F80" s="5">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G80" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M80" s="7">
         <v>45878</v>
@@ -3831,47 +3964,24 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D81" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81" s="6">
         <v>2</v>
       </c>
       <c r="F81" s="5">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G81" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M81" s="7">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82" s="5">
-        <v>10</v>
-      </c>
-      <c r="E82" s="6">
-        <v>2</v>
-      </c>
-      <c r="F82" s="5">
-        <v>60</v>
-      </c>
-      <c r="G82" s="6">
-        <v>1</v>
-      </c>
-      <c r="M82" s="7">
         <v>45878</v>
       </c>
     </row>
@@ -3880,7 +3990,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Q16 A17:N17 A18:N19 P17:Q19 A20:Q82" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Q81" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3888,14 +3998,127 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="176">
   <si>
     <t>代码</t>
   </si>
@@ -75,10 +75,10 @@
     <t>目标</t>
   </si>
   <si>
-    <t>差值</t>
-  </si>
-  <si>
-    <t>计划</t>
+    <t>满仓差值</t>
+  </si>
+  <si>
+    <t>持仓差值</t>
   </si>
   <si>
     <t>000858</t>
@@ -210,6 +210,63 @@
     <t>半导体</t>
   </si>
   <si>
+    <t>002594</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>汽车、电池</t>
+  </si>
+  <si>
+    <t>002428</t>
+  </si>
+  <si>
+    <t>云南锗业</t>
+  </si>
+  <si>
+    <t>小金属</t>
+  </si>
+  <si>
+    <t>601020</t>
+  </si>
+  <si>
+    <t>华钰矿业</t>
+  </si>
+  <si>
+    <t>688114</t>
+  </si>
+  <si>
+    <t>华大智造</t>
+  </si>
+  <si>
+    <t>AI、医疗</t>
+  </si>
+  <si>
+    <t>002167</t>
+  </si>
+  <si>
+    <t>东方锆业</t>
+  </si>
+  <si>
+    <t>600343</t>
+  </si>
+  <si>
+    <t>航天动力</t>
+  </si>
+  <si>
+    <t>航天</t>
+  </si>
+  <si>
+    <t>513180</t>
+  </si>
+  <si>
+    <t>恒生科技</t>
+  </si>
+  <si>
+    <t>AI、科技</t>
+  </si>
+  <si>
     <t>603288</t>
   </si>
   <si>
@@ -249,6 +306,39 @@
     <t>爱尔眼科</t>
   </si>
   <si>
+    <t>002947</t>
+  </si>
+  <si>
+    <t>恒铭达</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>300558</t>
+  </si>
+  <si>
+    <t>贝达药业</t>
+  </si>
+  <si>
+    <t>300595</t>
+  </si>
+  <si>
+    <t>欧普康视</t>
+  </si>
+  <si>
+    <t>002821</t>
+  </si>
+  <si>
+    <t>凯莱英</t>
+  </si>
+  <si>
+    <t>688050</t>
+  </si>
+  <si>
+    <t>爱博医疗</t>
+  </si>
+  <si>
     <t>002558</t>
   </si>
   <si>
@@ -258,15 +348,6 @@
     <t>游戏</t>
   </si>
   <si>
-    <t>002947</t>
-  </si>
-  <si>
-    <t>恒铭达</t>
-  </si>
-  <si>
-    <t>消费电子</t>
-  </si>
-  <si>
     <t>601888</t>
   </si>
   <si>
@@ -336,39 +417,12 @@
     <t>卫信康</t>
   </si>
   <si>
-    <t>300558</t>
-  </si>
-  <si>
-    <t>贝达药业</t>
-  </si>
-  <si>
-    <t>300595</t>
-  </si>
-  <si>
-    <t>欧普康视</t>
-  </si>
-  <si>
-    <t>002821</t>
-  </si>
-  <si>
-    <t>凯莱英</t>
-  </si>
-  <si>
-    <t>688050</t>
-  </si>
-  <si>
-    <t>爱博医疗</t>
-  </si>
-  <si>
     <t>中国平安</t>
   </si>
   <si>
     <t>创业板</t>
   </si>
   <si>
-    <t>黄金</t>
-  </si>
-  <si>
     <t>恒生医疗</t>
   </si>
   <si>
@@ -430,48 +484,6 @@
   </si>
   <si>
     <t>大唐发电</t>
-  </si>
-  <si>
-    <t>002594</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>002428</t>
-  </si>
-  <si>
-    <t>云南锗业</t>
-  </si>
-  <si>
-    <t>601020</t>
-  </si>
-  <si>
-    <t>华钰矿业</t>
-  </si>
-  <si>
-    <t>688114</t>
-  </si>
-  <si>
-    <t>华大智造</t>
-  </si>
-  <si>
-    <t>002167</t>
-  </si>
-  <si>
-    <t>东方锆业</t>
-  </si>
-  <si>
-    <t>600343</t>
-  </si>
-  <si>
-    <t>航天动力</t>
-  </si>
-  <si>
-    <t>300034</t>
-  </si>
-  <si>
-    <t>钢研高纳</t>
   </si>
   <si>
     <t>06862</t>
@@ -1199,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1260,35 +1272,41 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1607,10 +1625,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1687,7 +1705,7 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1722,19 +1740,19 @@
         <v>45896</v>
       </c>
       <c r="N2" s="9">
-        <v>16.26</v>
+        <v>20.02</v>
       </c>
       <c r="O2" s="9">
         <f>L2*2</f>
         <v>24</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="20">
         <f t="shared" ref="P2:P19" si="1">O2-N2</f>
-        <v>7.74</v>
+        <v>3.98</v>
       </c>
       <c r="Q2" s="9">
         <f>O2*0.75-N2</f>
-        <v>1.74</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1783,7 +1801,7 @@
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="28">
         <f t="shared" ref="Q3:Q19" si="3">O3*0.75-N3</f>
         <v>-4.85</v>
       </c>
@@ -1831,7 +1849,7 @@
         <f t="shared" si="1"/>
         <v>0.140000000000001</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="28">
         <f t="shared" si="3"/>
         <v>-3.36</v>
       </c>
@@ -1882,7 +1900,7 @@
         <f t="shared" si="1"/>
         <v>-1.65</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="28">
         <f t="shared" si="3"/>
         <v>-4.15</v>
       </c>
@@ -1933,7 +1951,7 @@
         <f t="shared" si="1"/>
         <v>-0.140000000000001</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="28">
         <f t="shared" si="3"/>
         <v>-3.64</v>
       </c>
@@ -1981,7 +1999,7 @@
         <f t="shared" si="1"/>
         <v>-0.18</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="28">
         <f t="shared" si="3"/>
         <v>-3.68</v>
       </c>
@@ -2032,7 +2050,7 @@
         <f t="shared" si="1"/>
         <v>0.0299999999999994</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="28">
         <f t="shared" si="3"/>
         <v>-3.47</v>
       </c>
@@ -2083,7 +2101,7 @@
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="28">
         <f t="shared" si="3"/>
         <v>-2.17</v>
       </c>
@@ -2134,7 +2152,7 @@
         <f t="shared" si="1"/>
         <v>-2.52</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="28">
         <f t="shared" si="3"/>
         <v>-7.02</v>
       </c>
@@ -2185,7 +2203,7 @@
         <f t="shared" si="1"/>
         <v>-2.09</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="28">
         <f t="shared" si="3"/>
         <v>-4.09</v>
       </c>
@@ -2233,7 +2251,7 @@
         <f t="shared" si="1"/>
         <v>-0.0800000000000001</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="28">
         <f t="shared" si="3"/>
         <v>-2.58</v>
       </c>
@@ -2281,7 +2299,7 @@
         <f t="shared" si="1"/>
         <v>-2.15</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="28">
         <f t="shared" si="3"/>
         <v>-6.15</v>
       </c>
@@ -2334,7 +2352,7 @@
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="28">
         <f t="shared" si="3"/>
         <v>-4.35</v>
       </c>
@@ -2427,7 +2445,7 @@
         <f t="shared" si="1"/>
         <v>0.0399999999999991</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="28">
         <f t="shared" si="3"/>
         <v>-4.46</v>
       </c>
@@ -2443,7 +2461,7 @@
         <v>56</v>
       </c>
       <c r="L17" s="6">
-        <f>E17+G17+J17+H17+I17+K17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="8">
@@ -2453,7 +2471,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="21">
         <f t="shared" si="1"/>
         <v>-15.16</v>
       </c>
@@ -2485,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="6">
-        <f>E18+G18+J18+H18+I18+K18</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M18" s="7">
@@ -2495,1445 +2513,1397 @@
         <v>3.75</v>
       </c>
       <c r="O18" s="9">
-        <f>L18*2</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P18" s="23">
-        <f>O18-N18</f>
+      <c r="P18" s="21">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="Q18" s="9">
-        <f>O18*0.75-N18</f>
+        <f t="shared" si="3"/>
         <v>-0.75</v>
       </c>
     </row>
     <row r="19" spans="15:16">
       <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="3" t="s">
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" spans="15:16">
+      <c r="O20" s="9"/>
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>140</v>
-      </c>
-      <c r="G20" s="6">
-        <v>6</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" ref="L20:L27" si="4">E20+G20+J20+H20+I20+K20</f>
-        <v>7</v>
-      </c>
-      <c r="M20" s="7">
-        <v>45889</v>
-      </c>
-      <c r="N20" s="8">
-        <v>7.41</v>
-      </c>
-      <c r="O20" s="9">
-        <f t="shared" ref="O20:O26" si="5">L20*1</f>
-        <v>7</v>
-      </c>
-      <c r="P20" s="9">
-        <f t="shared" ref="P20:P27" si="6">O20-N20</f>
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="3" t="s">
+      <c r="N21" s="8">
+        <v>4.29</v>
+      </c>
+      <c r="O21" s="8">
+        <v>10</v>
+      </c>
+      <c r="P21" s="21">
+        <f t="shared" ref="P19:P27" si="4">O21-N21</f>
+        <v>5.71</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" ref="Q19:Q42" si="5">O21*0.75-N21</f>
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="5">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>83</v>
-      </c>
-      <c r="G21" s="6">
-        <v>4</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="N22" s="8">
+        <v>4.86</v>
+      </c>
+      <c r="O22" s="8">
+        <v>15</v>
+      </c>
+      <c r="P22" s="21">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="M21" s="7">
-        <v>45891</v>
-      </c>
-      <c r="N21" s="8">
-        <v>16.13</v>
-      </c>
-      <c r="O21" s="9">
+        <v>10.14</v>
+      </c>
+      <c r="Q22" s="20">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="P21" s="24">
-        <f t="shared" si="6"/>
-        <v>-10.13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="3">
-        <v>603833</v>
-      </c>
-      <c r="B22" s="4" t="s">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="5">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>122</v>
-      </c>
-      <c r="G22" s="6">
-        <v>5</v>
-      </c>
-      <c r="H22" s="6">
-        <v>-1</v>
-      </c>
-      <c r="L22" s="6">
+      <c r="C23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="8">
+        <v>4.65</v>
+      </c>
+      <c r="O23" s="8">
+        <v>15</v>
+      </c>
+      <c r="P23" s="21">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M22" s="7">
-        <v>45900</v>
-      </c>
-      <c r="N22" s="8">
-        <v>6.34</v>
-      </c>
-      <c r="O22" s="9">
+        <v>10.35</v>
+      </c>
+      <c r="Q23" s="20">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="P22" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="3" t="s">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="5">
-        <v>4.6</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>84</v>
-      </c>
-      <c r="G23" s="6">
-        <v>4</v>
-      </c>
-      <c r="L23" s="6">
+      <c r="N24" s="8">
+        <v>40.85</v>
+      </c>
+      <c r="O24" s="8">
+        <v>40</v>
+      </c>
+      <c r="P24" s="21">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="M23" s="7">
-        <v>45848</v>
-      </c>
-      <c r="N23" s="8">
-        <v>4.37</v>
-      </c>
-      <c r="O23" s="9">
+        <v>-0.850000000000001</v>
+      </c>
+      <c r="Q24" s="28">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="P23" s="9">
-        <f t="shared" si="6"/>
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="3" t="s">
+        <v>-10.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>81</v>
-      </c>
-      <c r="G24" s="6">
-        <v>4</v>
-      </c>
-      <c r="L24" s="6">
+      <c r="C25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="8">
+        <v>13.78</v>
+      </c>
+      <c r="O25" s="8">
+        <v>15</v>
+      </c>
+      <c r="P25" s="21">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="M24" s="7">
-        <v>45873</v>
-      </c>
-      <c r="N24" s="8">
-        <v>4.17</v>
-      </c>
-      <c r="O24" s="9">
+        <v>1.22</v>
+      </c>
+      <c r="Q25" s="28">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="P24" s="9">
-        <f t="shared" si="6"/>
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:17">
-      <c r="A25" s="12" t="s">
+        <v>-2.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="13">
+      <c r="N26" s="8">
+        <v>7.05</v>
+      </c>
+      <c r="O26" s="8">
         <v>10</v>
       </c>
-      <c r="E25" s="14">
-        <v>2</v>
-      </c>
-      <c r="F25" s="13">
-        <v>33</v>
-      </c>
-      <c r="G25" s="14">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14">
-        <v>1</v>
-      </c>
-      <c r="L25" s="14">
+      <c r="P26" s="21">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="M25" s="25">
-        <v>45888</v>
-      </c>
-      <c r="N25" s="26">
-        <v>3.1</v>
-      </c>
-      <c r="O25" s="26">
+        <v>2.95</v>
+      </c>
+      <c r="Q26" s="9">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="P25" s="26">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-      <c r="Q25" s="26"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="3" t="s">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="5">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="5">
-        <v>34</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26" s="6">
+      <c r="N27" s="8">
+        <v>36.36</v>
+      </c>
+      <c r="O27" s="9">
+        <v>50</v>
+      </c>
+      <c r="P27" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M26" s="7">
-        <v>45891</v>
-      </c>
-      <c r="N26" s="8">
-        <v>3.33</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="P26" s="9">
-        <f t="shared" si="6"/>
-        <v>-0.33</v>
+        <v>13.64</v>
+      </c>
+      <c r="Q27" s="9">
+        <f>O27*0.75-N27</f>
+        <v>1.14</v>
       </c>
     </row>
     <row r="28" spans="15:16">
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:17">
-      <c r="A30" s="15" t="s">
+    <row r="29" spans="15:16">
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>140</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6</v>
+      </c>
+      <c r="L30" s="6">
+        <f>E30+G30+J30+H30+I30+K30</f>
+        <v>7</v>
+      </c>
+      <c r="M30" s="7">
+        <v>45889</v>
+      </c>
+      <c r="N30" s="8">
+        <v>7.41</v>
+      </c>
+      <c r="O30" s="9">
+        <f>L30*1</f>
+        <v>7</v>
+      </c>
+      <c r="P30" s="9">
+        <f>O30-N30</f>
+        <v>-0.41</v>
+      </c>
+      <c r="Q30" s="28">
+        <f t="shared" si="5"/>
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="5">
+        <v>7</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>83</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31" s="6">
+        <f>E31+G31+J31+H31+I31+K31</f>
+        <v>6</v>
+      </c>
+      <c r="M31" s="7">
+        <v>45891</v>
+      </c>
+      <c r="N31" s="8">
+        <v>16.13</v>
+      </c>
+      <c r="O31" s="9">
+        <f>L31*1</f>
+        <v>6</v>
+      </c>
+      <c r="P31" s="23">
+        <f>O31-N31</f>
+        <v>-10.13</v>
+      </c>
+      <c r="Q31" s="28">
+        <f t="shared" si="5"/>
+        <v>-11.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="3">
+        <v>603833</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="5">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>122</v>
+      </c>
+      <c r="G32" s="6">
+        <v>5</v>
+      </c>
+      <c r="H32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="6">
+        <f>E32+G32+J32+H32+I32+K32</f>
+        <v>5</v>
+      </c>
+      <c r="M32" s="7">
+        <v>45900</v>
+      </c>
+      <c r="N32" s="8">
+        <v>6.34</v>
+      </c>
+      <c r="O32" s="9">
+        <f>L32*1</f>
+        <v>5</v>
+      </c>
+      <c r="P32" s="9">
+        <f>O32-N32</f>
+        <v>-1.34</v>
+      </c>
+      <c r="Q32" s="28">
+        <f t="shared" si="5"/>
+        <v>-2.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4.6</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>84</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4</v>
+      </c>
+      <c r="L33" s="6">
+        <f>E33+G33+J33+H33+I33+K33</f>
+        <v>4</v>
+      </c>
+      <c r="M33" s="7">
+        <v>45848</v>
+      </c>
+      <c r="N33" s="8">
+        <v>4.37</v>
+      </c>
+      <c r="O33" s="9">
+        <f>L33*1</f>
+        <v>4</v>
+      </c>
+      <c r="P33" s="9">
+        <f>O33-N33</f>
+        <v>-0.37</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="5">
         <v>3.5</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E34" s="6">
         <v>0</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F34" s="5">
+        <v>81</v>
+      </c>
+      <c r="G34" s="6">
+        <v>4</v>
+      </c>
+      <c r="L34" s="6">
+        <f>E34+G34+J34+H34+I34+K34</f>
+        <v>4</v>
+      </c>
+      <c r="M34" s="7">
+        <v>45873</v>
+      </c>
+      <c r="N34" s="8">
+        <v>4.17</v>
+      </c>
+      <c r="O34" s="9">
+        <f>L34*1</f>
+        <v>4</v>
+      </c>
+      <c r="P34" s="9">
+        <f>O34-N34</f>
+        <v>-0.17</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="5">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>34</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35" s="6">
+        <f>E35+G35+J35+H35+I35+K35</f>
+        <v>3</v>
+      </c>
+      <c r="M35" s="7">
+        <v>45891</v>
+      </c>
+      <c r="N35" s="8">
+        <v>3.33</v>
+      </c>
+      <c r="O35" s="9">
+        <f>L35*1</f>
+        <v>3</v>
+      </c>
+      <c r="P35" s="9">
+        <f>O35-N35</f>
+        <v>-0.33</v>
+      </c>
+      <c r="Q35" s="9">
+        <f>O35*0.75-N35</f>
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="37" spans="15:16">
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>92</v>
+      </c>
+      <c r="G38" s="6">
+        <v>4</v>
+      </c>
+      <c r="L38" s="6">
+        <f>E38+G38+J38+H38+I38+K38</f>
+        <v>4</v>
+      </c>
+      <c r="M38" s="7">
+        <v>45891</v>
+      </c>
+      <c r="N38" s="8">
+        <v>4.65</v>
+      </c>
+      <c r="O38" s="9">
+        <f>L38*1</f>
+        <v>4</v>
+      </c>
+      <c r="P38" s="9">
+        <f>O38-N38</f>
+        <v>-0.65</v>
+      </c>
+      <c r="Q38" s="9">
+        <f>O38*0.75-N38</f>
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="5">
+        <v>7</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>150</v>
+      </c>
+      <c r="G39" s="6">
+        <v>6</v>
+      </c>
+      <c r="H39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="6">
+        <f>E39+G39+J39+H39+I39+K39</f>
+        <v>6</v>
+      </c>
+      <c r="M39" s="7">
+        <v>45892</v>
+      </c>
+      <c r="N39" s="8">
+        <v>14</v>
+      </c>
+      <c r="O39" s="9">
+        <f>L39*1</f>
+        <v>6</v>
+      </c>
+      <c r="P39" s="23">
+        <f>O39-N39</f>
+        <v>-8</v>
+      </c>
+      <c r="Q39" s="28">
+        <f>O39*0.75-N39</f>
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="5">
+        <v>5</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>114</v>
+      </c>
+      <c r="G40" s="6">
+        <v>5</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="L40" s="6">
+        <f>E40+G40+J40+H40+I40+K40</f>
+        <v>6</v>
+      </c>
+      <c r="M40" s="7">
+        <v>45895</v>
+      </c>
+      <c r="N40" s="8">
+        <v>6.36</v>
+      </c>
+      <c r="O40" s="9">
+        <f>L40*1</f>
+        <v>6</v>
+      </c>
+      <c r="P40" s="9">
+        <f>O40-N40</f>
+        <v>-0.36</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>O40*0.75-N40</f>
+        <v>-1.86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="5">
+        <v>5</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>111</v>
+      </c>
+      <c r="G41" s="6">
+        <v>5</v>
+      </c>
+      <c r="L41" s="6">
+        <f>E41+G41+J41+H41+I41+K41</f>
+        <v>5</v>
+      </c>
+      <c r="M41" s="7">
+        <v>45897</v>
+      </c>
+      <c r="N41" s="8">
+        <v>4.02</v>
+      </c>
+      <c r="O41" s="9">
+        <f>L41*1</f>
+        <v>5</v>
+      </c>
+      <c r="P41" s="9">
+        <f>O41-N41</f>
+        <v>0.98</v>
+      </c>
+      <c r="Q41" s="9">
+        <f>O41*0.75-N41</f>
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:17">
+      <c r="A44" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="13">
+        <v>10</v>
+      </c>
+      <c r="E44" s="14">
+        <v>2</v>
+      </c>
+      <c r="F44" s="13">
+        <v>33</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14">
+        <v>1</v>
+      </c>
+      <c r="L44" s="14">
+        <f>E44+G44+J44+H44+I44+K44</f>
+        <v>4</v>
+      </c>
+      <c r="M44" s="24">
+        <v>45888</v>
+      </c>
+      <c r="N44" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="O44" s="25">
+        <f>L44*1</f>
+        <v>4</v>
+      </c>
+      <c r="P44" s="25">
+        <f>O44-N44</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q44" s="25">
+        <f>O44*0.75-N44</f>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:17">
+      <c r="A49" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="E49" s="17">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
         <v>40</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G49" s="17">
         <v>2</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H49" s="17">
         <v>-1</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17">
-        <f t="shared" ref="L30:L42" si="7">E30+G30+J30+H30+I30+K30</f>
-        <v>1</v>
-      </c>
-      <c r="M30" s="27">
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17">
+        <f t="shared" ref="L49:L61" si="6">E49+G49+J49+H49+I49+K49</f>
+        <v>1</v>
+      </c>
+      <c r="M49" s="26">
         <v>45896</v>
       </c>
-      <c r="N30" s="28">
+      <c r="N49" s="27">
         <v>2.46</v>
       </c>
-      <c r="O30" s="28">
-        <f t="shared" ref="O30:O41" si="8">L30*1</f>
-        <v>1</v>
-      </c>
-      <c r="P30" s="28">
-        <f t="shared" ref="P30:P42" si="9">O30-N30</f>
+      <c r="O49" s="27">
+        <f t="shared" ref="O49:O60" si="7">L49*1</f>
+        <v>1</v>
+      </c>
+      <c r="P49" s="27">
+        <f t="shared" ref="P49:P61" si="8">O49-N49</f>
         <v>-1.46</v>
       </c>
-      <c r="Q30" s="28"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:17">
-      <c r="A31" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="Q49" s="27"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:17">
+      <c r="A50" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="16">
         <v>8.5</v>
       </c>
-      <c r="E31" s="17">
-        <v>1</v>
-      </c>
-      <c r="F31" s="16">
+      <c r="E50" s="17">
+        <v>1</v>
+      </c>
+      <c r="F50" s="16">
         <v>49</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G50" s="17">
         <v>2</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M50" s="26">
+        <v>45890</v>
+      </c>
+      <c r="N50" s="27">
+        <v>3.12</v>
+      </c>
+      <c r="O50" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="M31" s="27">
-        <v>45890</v>
-      </c>
-      <c r="N31" s="28">
-        <v>3.12</v>
-      </c>
-      <c r="O31" s="28">
+      <c r="P50" s="27">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="P31" s="28">
-        <f t="shared" si="9"/>
         <v>-0.12</v>
       </c>
-      <c r="Q31" s="29"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="Q50" s="29"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D51" s="5">
         <v>1.2</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E51" s="6">
         <v>0</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F51" s="5">
         <v>37</v>
       </c>
-      <c r="G32" s="6">
-        <v>1</v>
-      </c>
-      <c r="K32" s="6">
-        <v>1</v>
-      </c>
-      <c r="L32" s="6">
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M51" s="7">
+        <v>45897</v>
+      </c>
+      <c r="N51" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="O51" s="9">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="M32" s="7">
-        <v>45897</v>
-      </c>
-      <c r="N32" s="8">
-        <v>4.42</v>
-      </c>
-      <c r="O32" s="9">
+      <c r="P51" s="9">
         <f t="shared" si="8"/>
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:17">
+      <c r="A52" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="16">
+        <v>8</v>
+      </c>
+      <c r="E52" s="17">
+        <v>1</v>
+      </c>
+      <c r="F52" s="16">
+        <v>40</v>
+      </c>
+      <c r="G52" s="17">
         <v>2</v>
       </c>
-      <c r="P32" s="9">
-        <f t="shared" si="9"/>
-        <v>-2.42</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:17">
-      <c r="A33" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="16">
-        <v>8</v>
-      </c>
-      <c r="E33" s="17">
-        <v>1</v>
-      </c>
-      <c r="F33" s="16">
-        <v>40</v>
-      </c>
-      <c r="G33" s="17">
-        <v>2</v>
-      </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17">
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M52" s="26">
+        <v>45867</v>
+      </c>
+      <c r="N52" s="27">
+        <v>2.3</v>
+      </c>
+      <c r="O52" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="M33" s="27">
-        <v>45867</v>
-      </c>
-      <c r="N33" s="28">
-        <v>2.3</v>
-      </c>
-      <c r="O33" s="28">
+      <c r="P52" s="27">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="P33" s="28">
-        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="Q33" s="28"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:17">
-      <c r="A34" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="Q52" s="27"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:17">
+      <c r="A53" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D53" s="16">
         <v>8.2</v>
       </c>
-      <c r="E34" s="17">
-        <v>1</v>
-      </c>
-      <c r="F34" s="16">
+      <c r="E53" s="17">
+        <v>1</v>
+      </c>
+      <c r="F53" s="16">
         <v>35</v>
       </c>
-      <c r="G34" s="17">
-        <v>1</v>
-      </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17">
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M53" s="26">
+        <v>45908</v>
+      </c>
+      <c r="N53" s="27">
+        <v>5.36</v>
+      </c>
+      <c r="O53" s="27">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="M34" s="27">
-        <v>45908</v>
-      </c>
-      <c r="N34" s="28">
-        <v>5.36</v>
-      </c>
-      <c r="O34" s="28">
+      <c r="P53" s="27">
         <f t="shared" si="8"/>
+        <v>-3.36</v>
+      </c>
+      <c r="Q53" s="27"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="5">
+        <v>12</v>
+      </c>
+      <c r="E54" s="6">
         <v>2</v>
       </c>
-      <c r="P34" s="28">
-        <f t="shared" si="9"/>
-        <v>-3.36</v>
-      </c>
-      <c r="Q34" s="28"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="5">
-        <v>12</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="F54" s="5">
+        <v>48</v>
+      </c>
+      <c r="G54" s="6">
         <v>2</v>
       </c>
-      <c r="F35" s="5">
-        <v>48</v>
-      </c>
-      <c r="G35" s="6">
-        <v>2</v>
-      </c>
-      <c r="L35" s="6">
+      <c r="L54" s="6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M54" s="7">
+        <v>45838</v>
+      </c>
+      <c r="N54" s="8">
+        <v>4.22</v>
+      </c>
+      <c r="O54" s="9">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="M35" s="7">
+      <c r="P54" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="5">
+        <v>9</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" s="5">
+        <v>49</v>
+      </c>
+      <c r="G55" s="6">
+        <v>2</v>
+      </c>
+      <c r="H55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M55" s="7">
         <v>45838</v>
       </c>
-      <c r="N35" s="8">
-        <v>4.22</v>
-      </c>
-      <c r="O35" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="P35" s="9">
-        <f t="shared" si="9"/>
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="5">
-        <v>9</v>
-      </c>
-      <c r="E36" s="6">
-        <v>2</v>
-      </c>
-      <c r="F36" s="5">
-        <v>49</v>
-      </c>
-      <c r="G36" s="6">
-        <v>2</v>
-      </c>
-      <c r="H36" s="6">
-        <v>-1</v>
-      </c>
-      <c r="K36" s="6">
-        <v>1</v>
-      </c>
-      <c r="L36" s="6">
+      <c r="N55" s="8">
+        <v>6.11</v>
+      </c>
+      <c r="O55" s="9">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="M36" s="7">
-        <v>45838</v>
-      </c>
-      <c r="N36" s="8">
-        <v>6.11</v>
-      </c>
-      <c r="O36" s="9">
+      <c r="P55" s="9">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="P36" s="9">
-        <f t="shared" si="9"/>
         <v>-2.11</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="11" t="s">
+    <row r="56" spans="1:16">
+      <c r="A56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D56" s="5">
         <v>10</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E56" s="6">
         <v>2</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F56" s="5">
         <v>26</v>
       </c>
-      <c r="G37" s="6">
-        <v>1</v>
-      </c>
-      <c r="L37" s="6">
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="L56" s="6">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M56" s="7">
+        <v>45861</v>
+      </c>
+      <c r="N56" s="8">
+        <v>3.41</v>
+      </c>
+      <c r="O56" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="M37" s="7">
-        <v>45861</v>
-      </c>
-      <c r="N37" s="8">
-        <v>3.41</v>
-      </c>
-      <c r="O37" s="9">
+      <c r="P56" s="9">
         <f t="shared" si="8"/>
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:17">
+      <c r="A57" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="16">
+        <v>8</v>
+      </c>
+      <c r="E57" s="17">
+        <v>1</v>
+      </c>
+      <c r="F57" s="16">
+        <v>60</v>
+      </c>
+      <c r="G57" s="17">
         <v>3</v>
       </c>
-      <c r="P37" s="9">
-        <f t="shared" si="9"/>
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:17">
-      <c r="A38" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="16">
-        <v>8</v>
-      </c>
-      <c r="E38" s="17">
-        <v>1</v>
-      </c>
-      <c r="F38" s="16">
-        <v>60</v>
-      </c>
-      <c r="G38" s="17">
+      <c r="H57" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17">
+      <c r="M57" s="26">
+        <v>45877</v>
+      </c>
+      <c r="N57" s="27">
+        <v>3.06</v>
+      </c>
+      <c r="O57" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="M38" s="27">
-        <v>45877</v>
-      </c>
-      <c r="N38" s="28">
-        <v>3.06</v>
-      </c>
-      <c r="O38" s="28">
+      <c r="P57" s="27">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="P38" s="28">
-        <f t="shared" si="9"/>
         <v>-0.0600000000000001</v>
       </c>
-      <c r="Q38" s="28"/>
-    </row>
-    <row r="39" spans="3:16">
-      <c r="C39" s="19"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="Q57" s="27"/>
+    </row>
+    <row r="58" spans="3:16">
+      <c r="C58" s="19"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+    </row>
+    <row r="64" spans="15:16">
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+    </row>
+    <row r="66" spans="15:16">
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+    </row>
+    <row r="67" spans="15:16">
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+    </row>
+    <row r="68" spans="15:16">
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+    </row>
+    <row r="69" spans="15:16">
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+    </row>
+    <row r="70" spans="15:16">
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+    </row>
+    <row r="71" spans="15:16">
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+    </row>
+    <row r="72" spans="15:16">
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+    </row>
+    <row r="73" spans="15:16">
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
         <v>33</v>
       </c>
-      <c r="D40" s="5">
-        <v>4</v>
-      </c>
-      <c r="E40" s="6">
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="L74" s="6">
+        <f>E74+G74+J74+H74+I74+K74</f>
+        <v>1</v>
+      </c>
+      <c r="M74" s="7">
+        <v>45916</v>
+      </c>
+      <c r="O74" s="9">
+        <f>L74*2</f>
+        <v>2</v>
+      </c>
+      <c r="P74" s="21">
+        <f>O74-N74</f>
+        <v>2</v>
+      </c>
+      <c r="Q74" s="9">
+        <f>O74*0.75-N74</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2</v>
+      </c>
+      <c r="E75" s="6">
         <v>0</v>
       </c>
-      <c r="F40" s="5">
-        <v>92</v>
-      </c>
-      <c r="G40" s="6">
-        <v>4</v>
-      </c>
-      <c r="L40" s="6">
-        <f>E40+G40+J40+H40+I40+K40</f>
-        <v>4</v>
-      </c>
-      <c r="M40" s="7">
-        <v>45891</v>
-      </c>
-      <c r="N40" s="8">
-        <v>4.65</v>
-      </c>
-      <c r="O40" s="9">
-        <f>L40*1</f>
-        <v>4</v>
-      </c>
-      <c r="P40" s="9">
-        <f>O40-N40</f>
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="5">
-        <v>7</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>150</v>
-      </c>
-      <c r="G41" s="6">
-        <v>6</v>
-      </c>
-      <c r="H41" s="6">
-        <v>-1</v>
-      </c>
-      <c r="L41" s="6">
-        <f>E41+G41+J41+H41+I41+K41</f>
-        <v>6</v>
-      </c>
-      <c r="M41" s="7">
-        <v>45892</v>
-      </c>
-      <c r="N41" s="8">
-        <v>14</v>
-      </c>
-      <c r="O41" s="9">
-        <f>L41*1</f>
-        <v>6</v>
-      </c>
-      <c r="P41" s="24">
-        <f>O41-N41</f>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="5">
-        <v>5</v>
-      </c>
-      <c r="E42" s="6">
+      <c r="F75" s="5">
+        <v>200</v>
+      </c>
+      <c r="G75" s="6">
+        <v>8</v>
+      </c>
+      <c r="L75" s="6">
+        <f>E75+G75+J75+H75+I75+K75</f>
+        <v>8</v>
+      </c>
+      <c r="M75" s="7">
+        <v>45894</v>
+      </c>
+      <c r="N75" s="8">
         <v>0</v>
       </c>
-      <c r="F42" s="5">
-        <v>114</v>
-      </c>
-      <c r="G42" s="6">
-        <v>5</v>
-      </c>
-      <c r="H42" s="6">
-        <v>1</v>
-      </c>
-      <c r="L42" s="6">
-        <f>E42+G42+J42+H42+I42+K42</f>
-        <v>6</v>
-      </c>
-      <c r="M42" s="7">
-        <v>45895</v>
-      </c>
-      <c r="N42" s="8">
-        <v>6.36</v>
-      </c>
-      <c r="O42" s="9">
-        <f>L42*1</f>
-        <v>6</v>
-      </c>
-      <c r="P42" s="9">
-        <f>O42-N42</f>
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="5">
-        <v>5</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="O75" s="9">
+        <f>L75*2</f>
+        <v>16</v>
+      </c>
+      <c r="P75" s="9">
+        <f>O75-N75</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="E76" s="6">
         <v>0</v>
       </c>
-      <c r="F43" s="5">
-        <v>111</v>
-      </c>
-      <c r="G43" s="6">
-        <v>5</v>
-      </c>
-      <c r="L43" s="6">
-        <f>E43+G43+J43+H43+I43+K43</f>
-        <v>5</v>
-      </c>
-      <c r="M43" s="7">
-        <v>45897</v>
-      </c>
-      <c r="N43" s="8">
-        <v>4.02</v>
-      </c>
-      <c r="O43" s="9">
-        <f>L43*1</f>
-        <v>5</v>
-      </c>
-      <c r="P43" s="9">
-        <f>O43-N43</f>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="45" spans="15:16">
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-    </row>
-    <row r="47" spans="15:16">
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="15:16">
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-    </row>
-    <row r="49" spans="15:16">
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-    </row>
-    <row r="50" spans="15:16">
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-    </row>
-    <row r="51" spans="15:16">
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-    </row>
-    <row r="52" spans="15:16">
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-    </row>
-    <row r="53" spans="15:16">
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-    </row>
-    <row r="54" spans="15:16">
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="E55" s="6">
+      <c r="F76" s="5">
+        <v>17</v>
+      </c>
+      <c r="G76" s="6">
         <v>0</v>
       </c>
-      <c r="F55" s="5">
-        <v>33</v>
-      </c>
-      <c r="G55" s="6">
-        <v>1</v>
-      </c>
-      <c r="L55" s="6">
-        <f>E55+G55+J55+H55+I55+K55</f>
-        <v>1</v>
-      </c>
-      <c r="M55" s="7">
-        <v>45916</v>
-      </c>
-      <c r="O55" s="9">
-        <f>L55*2</f>
-        <v>2</v>
-      </c>
-      <c r="P55" s="23">
-        <f>O55-N55</f>
-        <v>2</v>
-      </c>
-      <c r="Q55" s="9">
-        <f>O55*0.75-N55</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="5">
-        <v>2</v>
-      </c>
-      <c r="E56" s="6">
+      <c r="L76" s="6">
+        <f t="shared" ref="L76:L86" si="9">E76+G76+J76+H76+I76+K76</f>
         <v>0</v>
       </c>
-      <c r="F56" s="5">
-        <v>200</v>
-      </c>
-      <c r="G56" s="6">
-        <v>8</v>
-      </c>
-      <c r="L56" s="6">
-        <f>E56+G56+J56+H56+I56+K56</f>
-        <v>8</v>
-      </c>
-      <c r="M56" s="7">
-        <v>45894</v>
-      </c>
-      <c r="N56" s="8">
-        <v>0</v>
-      </c>
-      <c r="O56" s="9">
-        <f>L56*2</f>
-        <v>16</v>
-      </c>
-      <c r="P56" s="9">
-        <f>O56-N56</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="5">
-        <v>5.8</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5">
-        <v>17</v>
-      </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="L57" s="6">
-        <f t="shared" ref="L57:L67" si="10">E57+G57+J57+H57+I57+K57</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="7">
+      <c r="M76" s="7">
         <v>45848</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="3">
+    <row r="77" spans="1:13">
+      <c r="A77" s="3">
         <v>603173</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="B77" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="5">
         <v>10</v>
-      </c>
-      <c r="E58" s="6">
-        <v>2</v>
-      </c>
-      <c r="F58" s="5">
-        <v>18</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0</v>
-      </c>
-      <c r="H58" s="6">
-        <v>1</v>
-      </c>
-      <c r="J58" s="6">
-        <v>1</v>
-      </c>
-      <c r="L58" s="6">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="M58" s="7">
-        <v>45863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="5">
-        <v>14</v>
-      </c>
-      <c r="E59" s="6">
-        <v>2</v>
-      </c>
-      <c r="F59" s="5">
-        <v>30</v>
-      </c>
-      <c r="G59" s="6">
-        <v>0</v>
-      </c>
-      <c r="H59" s="6">
-        <v>1</v>
-      </c>
-      <c r="L59" s="6">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="M59" s="7">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="5">
-        <v>5</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="5">
-        <v>68</v>
-      </c>
-      <c r="G60" s="6">
-        <v>1</v>
-      </c>
-      <c r="L60" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="M60" s="7">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="5">
-        <v>7</v>
-      </c>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5">
-        <v>47</v>
-      </c>
-      <c r="G61" s="6">
-        <v>0</v>
-      </c>
-      <c r="L61" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="M61" s="7">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="5">
-        <v>10</v>
-      </c>
-      <c r="F62" s="5">
-        <v>67</v>
-      </c>
-      <c r="L62" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="7">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="5">
-        <v>7</v>
-      </c>
-      <c r="F63" s="5">
-        <v>90</v>
-      </c>
-      <c r="L63" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="7">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="5">
-        <v>6</v>
-      </c>
-      <c r="E69" s="6">
-        <v>1</v>
-      </c>
-      <c r="F69" s="5">
-        <v>2</v>
-      </c>
-      <c r="G69" s="6">
-        <v>0</v>
-      </c>
-      <c r="L69" s="6">
-        <v>2</v>
-      </c>
-      <c r="M69" s="7">
-        <v>45878</v>
-      </c>
-      <c r="O69" s="8">
-        <f t="shared" ref="O68:O75" si="11">L69*2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L70" s="6">
-        <v>8</v>
-      </c>
-      <c r="M70" s="7">
-        <v>45878</v>
-      </c>
-      <c r="O70" s="8">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L71" s="6">
-        <v>10</v>
-      </c>
-      <c r="M71" s="7">
-        <v>45878</v>
-      </c>
-      <c r="O71" s="8">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L72" s="6">
-        <v>20</v>
-      </c>
-      <c r="M72" s="7">
-        <v>45878</v>
-      </c>
-      <c r="O72" s="8">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L73" s="6">
-        <v>2</v>
-      </c>
-      <c r="M73" s="7">
-        <v>45878</v>
-      </c>
-      <c r="O73" s="8">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="L74" s="6">
-        <v>6</v>
-      </c>
-      <c r="M74" s="7">
-        <v>45878</v>
-      </c>
-      <c r="O74" s="8">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L75" s="6">
-        <v>4</v>
-      </c>
-      <c r="M75" s="7">
-        <v>45878</v>
-      </c>
-      <c r="O75" s="8">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" s="5">
-        <v>9</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
       </c>
       <c r="F77" s="5">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="G77" s="6">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H77" s="6">
+        <v>1</v>
+      </c>
+      <c r="J77" s="6">
+        <v>1</v>
+      </c>
+      <c r="L77" s="6">
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="M77" s="7">
-        <v>45878</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D78" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E78" s="6">
         <v>2</v>
       </c>
       <c r="F78" s="5">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="G78" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H78" s="6">
+        <v>1</v>
+      </c>
+      <c r="L78" s="6">
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="M78" s="7">
-        <v>45878</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D79" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E79" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F79" s="5">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G79" s="6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L79" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="M79" s="7">
         <v>45878</v>
@@ -3941,22 +3911,26 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D80" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E80" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" s="5">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="G80" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L80" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="M80" s="7">
         <v>45878</v>
@@ -3964,24 +3938,158 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D81" s="5">
         <v>10</v>
       </c>
-      <c r="E81" s="6">
+      <c r="F81" s="5">
+        <v>67</v>
+      </c>
+      <c r="L81" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="7">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="5">
+        <v>7</v>
+      </c>
+      <c r="F82" s="5">
+        <v>90</v>
+      </c>
+      <c r="L82" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="7">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="5">
+        <v>9</v>
+      </c>
+      <c r="E95" s="6">
         <v>2</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F95" s="5">
+        <v>110</v>
+      </c>
+      <c r="G95" s="6">
+        <v>3</v>
+      </c>
+      <c r="M95" s="7">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96" s="5">
+        <v>9</v>
+      </c>
+      <c r="E96" s="6">
+        <v>2</v>
+      </c>
+      <c r="F96" s="5">
+        <v>140</v>
+      </c>
+      <c r="G96" s="6">
+        <v>4</v>
+      </c>
+      <c r="M96" s="7">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="5">
+        <v>9</v>
+      </c>
+      <c r="E97" s="6">
+        <v>2</v>
+      </c>
+      <c r="F97" s="5">
+        <v>90</v>
+      </c>
+      <c r="G97" s="6">
+        <v>2</v>
+      </c>
+      <c r="M97" s="7">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="5">
+        <v>11</v>
+      </c>
+      <c r="E98" s="6">
+        <v>2</v>
+      </c>
+      <c r="F98" s="5">
+        <v>150</v>
+      </c>
+      <c r="G98" s="6">
+        <v>4</v>
+      </c>
+      <c r="M98" s="7">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="5">
+        <v>10</v>
+      </c>
+      <c r="E99" s="6">
+        <v>2</v>
+      </c>
+      <c r="F99" s="5">
         <v>60</v>
       </c>
-      <c r="G81" s="6">
-        <v>1</v>
-      </c>
-      <c r="M81" s="7">
+      <c r="G99" s="6">
+        <v>1</v>
+      </c>
+      <c r="M99" s="7">
         <v>45878</v>
       </c>
     </row>
@@ -3990,7 +4098,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Q81" numberStoredAsText="1"/>
+    <ignoredError sqref="A45:Q58 A63:Q64 A30:P34 A35:P37 A1:O1 A2:M2 O2:Q2 A3:Q17 A18:O19 A65:E65 G65:H65 L65:Q65 A66:Q99" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4008,7 +4116,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4016,7 +4124,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4024,7 +4132,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -4032,7 +4140,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4040,7 +4148,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -4048,7 +4156,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -4056,7 +4164,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -4064,7 +4172,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -4072,7 +4180,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -4080,7 +4188,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -4088,7 +4196,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -4096,7 +4204,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -4104,7 +4212,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -4112,7 +4220,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B14">
         <v>14</v>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1211,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,12 +1278,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,6 +1291,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1628,7 +1625,7 @@
   <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1705,7 +1702,7 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1801,7 +1798,7 @@
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="26">
         <f t="shared" ref="Q3:Q19" si="3">O3*0.75-N3</f>
         <v>-4.85</v>
       </c>
@@ -1849,7 +1846,7 @@
         <f t="shared" si="1"/>
         <v>0.140000000000001</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="26">
         <f t="shared" si="3"/>
         <v>-3.36</v>
       </c>
@@ -1900,7 +1897,7 @@
         <f t="shared" si="1"/>
         <v>-1.65</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="26">
         <f t="shared" si="3"/>
         <v>-4.15</v>
       </c>
@@ -1951,7 +1948,7 @@
         <f t="shared" si="1"/>
         <v>-0.140000000000001</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="26">
         <f t="shared" si="3"/>
         <v>-3.64</v>
       </c>
@@ -1999,7 +1996,7 @@
         <f t="shared" si="1"/>
         <v>-0.18</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="26">
         <f t="shared" si="3"/>
         <v>-3.68</v>
       </c>
@@ -2050,7 +2047,7 @@
         <f t="shared" si="1"/>
         <v>0.0299999999999994</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="26">
         <f t="shared" si="3"/>
         <v>-3.47</v>
       </c>
@@ -2101,7 +2098,7 @@
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="26">
         <f t="shared" si="3"/>
         <v>-2.17</v>
       </c>
@@ -2152,7 +2149,7 @@
         <f t="shared" si="1"/>
         <v>-2.52</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="26">
         <f t="shared" si="3"/>
         <v>-7.02</v>
       </c>
@@ -2193,7 +2190,7 @@
         <v>45899</v>
       </c>
       <c r="N11" s="8">
-        <v>10.09</v>
+        <v>7.29</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="2"/>
@@ -2201,11 +2198,11 @@
       </c>
       <c r="P11" s="9">
         <f t="shared" si="1"/>
-        <v>-2.09</v>
-      </c>
-      <c r="Q11" s="28">
+        <v>0.71</v>
+      </c>
+      <c r="Q11" s="27">
         <f t="shared" si="3"/>
-        <v>-4.09</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2241,7 +2238,7 @@
         <v>45868</v>
       </c>
       <c r="N12" s="8">
-        <v>10.08</v>
+        <v>7.85</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="2"/>
@@ -2249,11 +2246,11 @@
       </c>
       <c r="P12" s="9">
         <f t="shared" si="1"/>
-        <v>-0.0800000000000001</v>
-      </c>
-      <c r="Q12" s="28">
+        <v>2.15</v>
+      </c>
+      <c r="Q12" s="27">
         <f t="shared" si="3"/>
-        <v>-2.58</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2299,7 +2296,7 @@
         <f t="shared" si="1"/>
         <v>-2.15</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="26">
         <f t="shared" si="3"/>
         <v>-6.15</v>
       </c>
@@ -2352,7 +2349,7 @@
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="26">
         <f t="shared" si="3"/>
         <v>-4.35</v>
       </c>
@@ -2445,7 +2442,7 @@
         <f t="shared" si="1"/>
         <v>0.0399999999999991</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="26">
         <f t="shared" si="3"/>
         <v>-4.46</v>
       </c>
@@ -2628,7 +2625,7 @@
         <f t="shared" si="4"/>
         <v>-0.850000000000001</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="26">
         <f t="shared" si="5"/>
         <v>-10.85</v>
       </c>
@@ -2653,7 +2650,7 @@
         <f t="shared" si="4"/>
         <v>1.22</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="26">
         <f t="shared" si="5"/>
         <v>-2.53</v>
       </c>
@@ -2699,12 +2696,12 @@
       <c r="O27" s="9">
         <v>50</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="21">
         <f t="shared" si="4"/>
         <v>13.64</v>
       </c>
       <c r="Q27" s="9">
-        <f>O27*0.75-N27</f>
+        <f t="shared" si="5"/>
         <v>1.14</v>
       </c>
     </row>
@@ -2739,7 +2736,7 @@
         <v>6</v>
       </c>
       <c r="L30" s="6">
-        <f>E30+G30+J30+H30+I30+K30</f>
+        <f t="shared" ref="L30:L35" si="6">E30+G30+J30+H30+I30+K30</f>
         <v>7</v>
       </c>
       <c r="M30" s="7">
@@ -2749,14 +2746,14 @@
         <v>7.41</v>
       </c>
       <c r="O30" s="9">
-        <f>L30*1</f>
+        <f t="shared" ref="O30:O35" si="7">L30*1</f>
         <v>7</v>
       </c>
       <c r="P30" s="9">
-        <f>O30-N30</f>
+        <f t="shared" ref="P30:P35" si="8">O30-N30</f>
         <v>-0.41</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="Q30" s="26">
         <f t="shared" si="5"/>
         <v>-2.16</v>
       </c>
@@ -2787,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="6">
-        <f>E31+G31+J31+H31+I31+K31</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M31" s="7">
@@ -2797,14 +2794,14 @@
         <v>16.13</v>
       </c>
       <c r="O31" s="9">
-        <f>L31*1</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="P31" s="23">
-        <f>O31-N31</f>
+      <c r="P31" s="9">
+        <f t="shared" si="8"/>
         <v>-10.13</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="26">
         <f t="shared" si="5"/>
         <v>-11.63</v>
       </c>
@@ -2835,7 +2832,7 @@
         <v>-1</v>
       </c>
       <c r="L32" s="6">
-        <f>E32+G32+J32+H32+I32+K32</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="M32" s="7">
@@ -2845,14 +2842,14 @@
         <v>6.34</v>
       </c>
       <c r="O32" s="9">
-        <f>L32*1</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P32" s="9">
-        <f>O32-N32</f>
+        <f t="shared" si="8"/>
         <v>-1.34</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="Q32" s="26">
         <f t="shared" si="5"/>
         <v>-2.59</v>
       </c>
@@ -2880,7 +2877,7 @@
         <v>4</v>
       </c>
       <c r="L33" s="6">
-        <f>E33+G33+J33+H33+I33+K33</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="M33" s="7">
@@ -2890,11 +2887,11 @@
         <v>4.37</v>
       </c>
       <c r="O33" s="9">
-        <f>L33*1</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P33" s="9">
-        <f>O33-N33</f>
+        <f t="shared" si="8"/>
         <v>-0.37</v>
       </c>
       <c r="Q33" s="9">
@@ -2925,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="L34" s="6">
-        <f>E34+G34+J34+H34+I34+K34</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="M34" s="7">
@@ -2935,11 +2932,11 @@
         <v>4.17</v>
       </c>
       <c r="O34" s="9">
-        <f>L34*1</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P34" s="9">
-        <f>O34-N34</f>
+        <f t="shared" si="8"/>
         <v>-0.17</v>
       </c>
       <c r="Q34" s="9">
@@ -2970,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="6">
-        <f>E35+G35+J35+H35+I35+K35</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M35" s="7">
@@ -2980,15 +2977,15 @@
         <v>3.33</v>
       </c>
       <c r="O35" s="9">
-        <f>L35*1</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="P35" s="9">
-        <f>O35-N35</f>
+        <f t="shared" si="8"/>
         <v>-0.33</v>
       </c>
       <c r="Q35" s="9">
-        <f>O35*0.75-N35</f>
+        <f t="shared" si="5"/>
         <v>-1.08</v>
       </c>
     </row>
@@ -3080,11 +3077,11 @@
         <f>L39*1</f>
         <v>6</v>
       </c>
-      <c r="P39" s="23">
+      <c r="P39" s="9">
         <f>O39-N39</f>
         <v>-8</v>
       </c>
-      <c r="Q39" s="28">
+      <c r="Q39" s="26">
         <f>O39*0.75-N39</f>
         <v>-9.5</v>
       </c>
@@ -3214,21 +3211,21 @@
         <f>E44+G44+J44+H44+I44+K44</f>
         <v>4</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="22">
         <v>45888</v>
       </c>
-      <c r="N44" s="25">
+      <c r="N44" s="23">
         <v>3.1</v>
       </c>
-      <c r="O44" s="25">
+      <c r="O44" s="23">
         <f>L44*1</f>
         <v>4</v>
       </c>
-      <c r="P44" s="25">
+      <c r="P44" s="23">
         <f>O44-N44</f>
         <v>0.9</v>
       </c>
-      <c r="Q44" s="25">
+      <c r="Q44" s="23">
         <f>O44*0.75-N44</f>
         <v>-0.1</v>
       </c>
@@ -3262,27 +3259,27 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17">
-        <f t="shared" ref="L49:L61" si="6">E49+G49+J49+H49+I49+K49</f>
-        <v>1</v>
-      </c>
-      <c r="M49" s="26">
+        <f t="shared" ref="L49:L61" si="9">E49+G49+J49+H49+I49+K49</f>
+        <v>1</v>
+      </c>
+      <c r="M49" s="24">
         <v>45896</v>
       </c>
-      <c r="N49" s="27">
+      <c r="N49" s="25">
         <v>2.46</v>
       </c>
-      <c r="O49" s="27">
-        <f t="shared" ref="O49:O60" si="7">L49*1</f>
-        <v>1</v>
-      </c>
-      <c r="P49" s="27">
-        <f t="shared" ref="P49:P61" si="8">O49-N49</f>
+      <c r="O49" s="25">
+        <f t="shared" ref="O49:O60" si="10">L49*1</f>
+        <v>1</v>
+      </c>
+      <c r="P49" s="25">
+        <f t="shared" ref="P49:P61" si="11">O49-N49</f>
         <v>-1.46</v>
       </c>
-      <c r="Q49" s="27"/>
+      <c r="Q49" s="25"/>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:17">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="32" t="s">
         <v>109</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -3308,24 +3305,24 @@
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="M50" s="26">
+      <c r="M50" s="24">
         <v>45890</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N50" s="25">
         <v>3.12</v>
       </c>
-      <c r="O50" s="27">
-        <f t="shared" si="7"/>
+      <c r="O50" s="25">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="P50" s="27">
-        <f t="shared" si="8"/>
+      <c r="P50" s="25">
+        <f t="shared" si="11"/>
         <v>-0.12</v>
       </c>
-      <c r="Q50" s="29"/>
+      <c r="Q50" s="28"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="3" t="s">
@@ -3353,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="M51" s="7">
@@ -3363,11 +3360,11 @@
         <v>4.42</v>
       </c>
       <c r="O51" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="P51" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-2.42</v>
       </c>
     </row>
@@ -3398,24 +3395,24 @@
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="M52" s="26">
+      <c r="M52" s="24">
         <v>45867</v>
       </c>
-      <c r="N52" s="27">
+      <c r="N52" s="25">
         <v>2.3</v>
       </c>
-      <c r="O52" s="27">
-        <f t="shared" si="7"/>
+      <c r="O52" s="25">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="P52" s="27">
-        <f t="shared" si="8"/>
+      <c r="P52" s="25">
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
-      <c r="Q52" s="27"/>
+      <c r="Q52" s="25"/>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:17">
       <c r="A53" s="15" t="s">
@@ -3444,27 +3441,27 @@
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="M53" s="26">
+      <c r="M53" s="24">
         <v>45908</v>
       </c>
-      <c r="N53" s="27">
+      <c r="N53" s="25">
         <v>5.36</v>
       </c>
-      <c r="O53" s="27">
-        <f t="shared" si="7"/>
+      <c r="O53" s="25">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="P53" s="27">
-        <f t="shared" si="8"/>
+      <c r="P53" s="25">
+        <f t="shared" si="11"/>
         <v>-3.36</v>
       </c>
-      <c r="Q53" s="27"/>
+      <c r="Q53" s="25"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="31" t="s">
         <v>119</v>
       </c>
       <c r="B54" s="18" t="s">
@@ -3486,7 +3483,7 @@
         <v>2</v>
       </c>
       <c r="L54" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="M54" s="7">
@@ -3496,16 +3493,16 @@
         <v>4.22</v>
       </c>
       <c r="O54" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="P54" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-0.22</v>
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="31" t="s">
         <v>122</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -3533,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="M55" s="7">
@@ -3543,11 +3540,11 @@
         <v>6.11</v>
       </c>
       <c r="O55" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="P55" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-2.11</v>
       </c>
     </row>
@@ -3574,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="M56" s="7">
@@ -3584,11 +3581,11 @@
         <v>3.41</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="P56" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-0.41</v>
       </c>
     </row>
@@ -3621,24 +3618,24 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="M57" s="26">
+      <c r="M57" s="24">
         <v>45877</v>
       </c>
-      <c r="N57" s="27">
+      <c r="N57" s="25">
         <v>3.06</v>
       </c>
-      <c r="O57" s="27">
-        <f t="shared" si="7"/>
+      <c r="O57" s="25">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="P57" s="27">
-        <f t="shared" si="8"/>
+      <c r="P57" s="25">
+        <f t="shared" si="11"/>
         <v>-0.0600000000000001</v>
       </c>
-      <c r="Q57" s="27"/>
+      <c r="Q57" s="25"/>
     </row>
     <row r="58" spans="3:16">
       <c r="C58" s="19"/>
@@ -3656,25 +3653,25 @@
       <c r="B65" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31" t="s">
+      <c r="E65" s="30"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="I65" s="31" t="s">
+      <c r="I65" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="J65" s="31" t="s">
+      <c r="J65" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="K65" s="31" t="s">
+      <c r="K65" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O65" s="9"/>
@@ -3812,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="6">
-        <f t="shared" ref="L76:L86" si="9">E76+G76+J76+H76+I76+K76</f>
+        <f t="shared" ref="L76:L86" si="12">E76+G76+J76+H76+I76+K76</f>
         <v>0</v>
       </c>
       <c r="M76" s="7">
@@ -3845,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="M77" s="7">
@@ -3875,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="M78" s="7">
@@ -3902,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M79" s="7">
@@ -3929,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M80" s="7">
@@ -3950,7 +3947,7 @@
         <v>67</v>
       </c>
       <c r="L81" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M81" s="7">
@@ -3971,7 +3968,7 @@
         <v>90</v>
       </c>
       <c r="L82" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M82" s="7">
@@ -4098,7 +4095,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A45:Q58 A63:Q64 A30:P34 A35:P37 A1:O1 A2:M2 O2:Q2 A3:Q17 A18:O19 A65:E65 G65:H65 L65:Q65 A66:Q99" numberStoredAsText="1"/>
+    <ignoredError sqref="A66:Q99 L65:Q65 G65:H65 A65:E65 A18:O19 A3:Q10 A11:M12 O11:Q12 A13:Q17 O2:Q2 A2:M2 A1:O1 A30:P37 A63:Q64 A45:Q58" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -198,7 +198,7 @@
     <t>德赛西威</t>
   </si>
   <si>
-    <t>智能座驾</t>
+    <t>智能座驾、自驾</t>
   </si>
   <si>
     <t>603501</t>
@@ -1625,7 +1625,7 @@
   <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2200,7 +2200,7 @@
         <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="9">
         <f t="shared" si="3"/>
         <v>-1.29</v>
       </c>
@@ -2248,7 +2248,7 @@
         <f t="shared" si="1"/>
         <v>2.15</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="9">
         <f t="shared" si="3"/>
         <v>-0.35</v>
       </c>
@@ -2457,24 +2457,45 @@
       <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="D17" s="5">
+        <v>9.7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>69</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
       <c r="L17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="M17" s="7">
+        <v>45917</v>
       </c>
       <c r="N17" s="8">
-        <v>15.16</v>
+        <v>11.26</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P17" s="21">
         <f t="shared" si="1"/>
-        <v>-15.16</v>
-      </c>
-      <c r="Q17" s="9">
+        <v>2.74</v>
+      </c>
+      <c r="Q17" s="27">
         <f t="shared" si="3"/>
-        <v>-15.16</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2791,7 +2812,7 @@
         <v>45891</v>
       </c>
       <c r="N31" s="8">
-        <v>16.13</v>
+        <v>10.81</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="7"/>
@@ -2799,11 +2820,11 @@
       </c>
       <c r="P31" s="9">
         <f t="shared" si="8"/>
-        <v>-10.13</v>
+        <v>-4.81</v>
       </c>
       <c r="Q31" s="26">
-        <f t="shared" si="5"/>
-        <v>-11.63</v>
+        <f>O31*0.75-N31</f>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4095,7 +4116,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A66:Q99 L65:Q65 G65:H65 A65:E65 A18:O19 A3:Q10 A11:M12 O11:Q12 A13:Q17 O2:Q2 A2:M2 A1:O1 A30:P37 A63:Q64 A45:Q58" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Q16 A17:M17 O17:Q17 A18:Q30 A31:M31 O31:P31 A32:Q99" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1211,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,9 +1291,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1625,7 +1622,7 @@
   <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1702,7 +1699,7 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2037,7 +2034,7 @@
         <v>45838</v>
       </c>
       <c r="N8" s="8">
-        <v>13.97</v>
+        <v>15.98</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="2"/>
@@ -2045,11 +2042,11 @@
       </c>
       <c r="P8" s="9">
         <f t="shared" si="1"/>
-        <v>0.0299999999999994</v>
+        <v>-1.98</v>
       </c>
       <c r="Q8" s="26">
         <f t="shared" si="3"/>
-        <v>-3.47</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2493,7 +2490,7 @@
         <f t="shared" si="1"/>
         <v>2.74</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="9">
         <f t="shared" si="3"/>
         <v>-0.76</v>
       </c>
@@ -2823,7 +2820,7 @@
         <v>-4.81</v>
       </c>
       <c r="Q31" s="26">
-        <f>O31*0.75-N31</f>
+        <f t="shared" si="5"/>
         <v>-6.31</v>
       </c>
     </row>
@@ -3300,7 +3297,7 @@
       <c r="Q49" s="25"/>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:17">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -3343,7 +3340,7 @@
         <f t="shared" si="11"/>
         <v>-0.12</v>
       </c>
-      <c r="Q50" s="28"/>
+      <c r="Q50" s="27"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="3" t="s">
@@ -3482,7 +3479,7 @@
       <c r="Q53" s="25"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="30" t="s">
         <v>119</v>
       </c>
       <c r="B54" s="18" t="s">
@@ -3523,7 +3520,7 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>122</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -3674,25 +3671,25 @@
       <c r="B65" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30" t="s">
+      <c r="E65" s="29"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="I65" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="J65" s="30" t="s">
+      <c r="J65" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K65" s="30" t="s">
+      <c r="K65" s="29" t="s">
         <v>133</v>
       </c>
       <c r="O65" s="9"/>
@@ -4116,7 +4113,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Q16 A17:M17 O17:Q17 A18:Q30 A31:M31 O31:P31 A32:Q99" numberStoredAsText="1"/>
+    <ignoredError sqref="A32:Q99 O31:P31 A31:M31 A18:Q30 O17:Q17 A17:M17 A1:Q7 A8:M8 O8:Q8 A9:Q16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1785,7 +1785,7 @@
         <v>45888</v>
       </c>
       <c r="N3" s="9">
-        <v>19.85</v>
+        <v>21.65</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" ref="O3:O19" si="2">L3*2</f>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="P3" s="9">
         <f t="shared" si="1"/>
-        <v>0.149999999999999</v>
+        <v>-1.65</v>
       </c>
       <c r="Q3" s="26">
         <f t="shared" ref="Q3:Q19" si="3">O3*0.75-N3</f>
-        <v>-4.85</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1833,7 +1833,7 @@
         <v>45898</v>
       </c>
       <c r="N4" s="8">
-        <v>13.86</v>
+        <v>16.08</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="2"/>
@@ -1841,11 +1841,11 @@
       </c>
       <c r="P4" s="9">
         <f t="shared" si="1"/>
-        <v>0.140000000000001</v>
+        <v>-2.08</v>
       </c>
       <c r="Q4" s="26">
         <f t="shared" si="3"/>
-        <v>-3.36</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1935,7 +1935,7 @@
         <v>45891</v>
       </c>
       <c r="N6" s="8">
-        <v>14.14</v>
+        <v>16.36</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="2"/>
@@ -1943,11 +1943,11 @@
       </c>
       <c r="P6" s="9">
         <f t="shared" si="1"/>
-        <v>-0.140000000000001</v>
+        <v>-2.36</v>
       </c>
       <c r="Q6" s="26">
         <f t="shared" si="3"/>
-        <v>-3.64</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2235,7 +2235,7 @@
         <v>45868</v>
       </c>
       <c r="N12" s="8">
-        <v>7.85</v>
+        <v>10.03</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="2"/>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="P12" s="9">
         <f t="shared" si="1"/>
-        <v>2.15</v>
-      </c>
-      <c r="Q12" s="9">
+        <v>-0.0299999999999994</v>
+      </c>
+      <c r="Q12" s="26">
         <f t="shared" si="3"/>
-        <v>-0.35</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2609,18 +2609,18 @@
         <v>65</v>
       </c>
       <c r="N23" s="8">
-        <v>4.65</v>
+        <v>6.84</v>
       </c>
       <c r="O23" s="8">
         <v>15</v>
       </c>
       <c r="P23" s="21">
         <f t="shared" si="4"/>
-        <v>10.35</v>
+        <v>8.16</v>
       </c>
       <c r="Q23" s="20">
         <f t="shared" si="5"/>
-        <v>6.6</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2634,18 +2634,18 @@
         <v>70</v>
       </c>
       <c r="N24" s="8">
-        <v>40.85</v>
+        <v>44.74</v>
       </c>
       <c r="O24" s="8">
         <v>40</v>
       </c>
       <c r="P24" s="21">
         <f t="shared" si="4"/>
-        <v>-0.850000000000001</v>
+        <v>-4.74</v>
       </c>
       <c r="Q24" s="26">
         <f t="shared" si="5"/>
-        <v>-10.85</v>
+        <v>-14.74</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2659,18 +2659,18 @@
         <v>65</v>
       </c>
       <c r="N25" s="8">
-        <v>13.78</v>
+        <v>15.93</v>
       </c>
       <c r="O25" s="8">
         <v>15</v>
       </c>
       <c r="P25" s="21">
         <f t="shared" si="4"/>
-        <v>1.22</v>
+        <v>-0.93</v>
       </c>
       <c r="Q25" s="26">
-        <f t="shared" si="5"/>
-        <v>-2.53</v>
+        <f>O25*0.75-N25</f>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2947,7 +2947,7 @@
         <v>45873</v>
       </c>
       <c r="N34" s="8">
-        <v>4.17</v>
+        <v>6.24</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="7"/>
@@ -2955,11 +2955,11 @@
       </c>
       <c r="P34" s="9">
         <f t="shared" si="8"/>
-        <v>-0.17</v>
-      </c>
-      <c r="Q34" s="9">
+        <v>-2.24</v>
+      </c>
+      <c r="Q34" s="26">
         <f t="shared" si="5"/>
-        <v>-1.17</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3182,7 +3182,7 @@
         <v>45897</v>
       </c>
       <c r="N41" s="8">
-        <v>4.02</v>
+        <v>6.18</v>
       </c>
       <c r="O41" s="9">
         <f>L41*1</f>
@@ -3190,11 +3190,11 @@
       </c>
       <c r="P41" s="9">
         <f>O41-N41</f>
-        <v>0.98</v>
+        <v>-1.18</v>
       </c>
       <c r="Q41" s="9">
         <f>O41*0.75-N41</f>
-        <v>-0.27</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:17">
@@ -4113,7 +4113,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A32:Q99 O31:P31 A31:M31 A18:Q30 O17:Q17 A17:M17 A1:Q7 A8:M8 O8:Q8 A9:Q16" numberStoredAsText="1"/>
+    <ignoredError sqref="A32:Q33 A34:M34 O34:Q34 A35:Q40 A41:M41 O41:Q41 A42:Q99 O31:P31 A31:M31 A18:Q22 A23:M25 O23:Q24 O25:P25 A26:Q30 O17:Q17 A17:M17 A7:Q7 O6:Q6 A6:M6 A1:Q2 A3:M4 O3:Q4 A5:Q5 A8:M8 O8:Q8 A9:Q11 A12:M12 O12:Q12 A13:Q16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -1621,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1734,7 +1734,7 @@
         <v>45896</v>
       </c>
       <c r="N2" s="9">
-        <v>20.02</v>
+        <v>22.42</v>
       </c>
       <c r="O2" s="9">
         <f>L2*2</f>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="P2" s="20">
         <f t="shared" ref="P2:P19" si="1">O2-N2</f>
-        <v>3.98</v>
+        <v>1.58</v>
       </c>
       <c r="Q2" s="9">
         <f>O2*0.75-N2</f>
-        <v>-2.02</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2272,12 +2272,15 @@
       <c r="G13" s="6">
         <v>5</v>
       </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
       <c r="K13" s="6">
         <v>1</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M13" s="7">
         <v>45883</v>
@@ -2287,15 +2290,15 @@
       </c>
       <c r="O13" s="9">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="1"/>
-        <v>-2.15</v>
+        <v>-0.149999999999999</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="3"/>
-        <v>-6.15</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:17">
@@ -2373,30 +2376,33 @@
       <c r="G15" s="6">
         <v>1</v>
       </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
       <c r="K15" s="6">
         <v>1</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" s="7">
         <v>45873</v>
       </c>
       <c r="N15" s="8">
-        <v>5.47</v>
+        <v>5.55</v>
       </c>
       <c r="O15" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="1"/>
-        <v>0.53</v>
+        <v>2.45</v>
       </c>
       <c r="Q15" s="9">
         <f t="shared" si="3"/>
-        <v>-0.97</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2517,9 +2523,15 @@
       <c r="G18" s="6">
         <v>1</v>
       </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
       <c r="L18" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" s="7">
         <v>45888</v>
@@ -2529,15 +2541,15 @@
       </c>
       <c r="O18" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P18" s="21">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>4.25</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="3"/>
-        <v>-0.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="19" spans="15:16">
@@ -2669,7 +2681,7 @@
         <v>-0.93</v>
       </c>
       <c r="Q25" s="26">
-        <f>O25*0.75-N25</f>
+        <f t="shared" si="5"/>
         <v>-4.68</v>
       </c>
     </row>
@@ -2857,7 +2869,7 @@
         <v>45900</v>
       </c>
       <c r="N32" s="8">
-        <v>6.34</v>
+        <v>6.64</v>
       </c>
       <c r="O32" s="9">
         <f t="shared" si="7"/>
@@ -2865,11 +2877,11 @@
       </c>
       <c r="P32" s="9">
         <f t="shared" si="8"/>
-        <v>-1.34</v>
+        <v>-1.64</v>
       </c>
       <c r="Q32" s="26">
         <f t="shared" si="5"/>
-        <v>-2.59</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2992,7 +3004,7 @@
         <v>45891</v>
       </c>
       <c r="N35" s="8">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="O35" s="9">
         <f t="shared" si="7"/>
@@ -3000,11 +3012,11 @@
       </c>
       <c r="P35" s="9">
         <f t="shared" si="8"/>
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="5"/>
-        <v>-1.08</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="37" spans="15:16">
@@ -4113,7 +4125,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A32:Q33 A34:M34 O34:Q34 A35:Q40 A41:M41 O41:Q41 A42:Q99 O31:P31 A31:M31 A18:Q22 A23:M25 O23:Q24 O25:P25 A26:Q30 O17:Q17 A17:M17 A7:Q7 O6:Q6 A6:M6 A1:Q2 A3:M4 O3:Q4 A5:Q5 A8:M8 O8:Q8 A9:Q11 A12:M12 O12:Q12 A13:Q16" numberStoredAsText="1"/>
+    <ignoredError sqref="A31:M32 O32:Q32 A33:Q33 A34:M35 O34:Q35 A36:Q40 A41:M41 O41:Q41 A42:Q99 O31:P31 A18:G18 I18:J18 L18:Q18 A19:Q22 A23:M25 O23:Q24 O25:P25 A26:Q30 O17:Q17 A17:M17 A7:Q7 O6:Q6 A6:M6 A1:Q1 A2:M2 O2:Q2 A3:M4 O3:Q4 A5:Q5 A8:M8 O8:Q8 A9:Q11 A12:M12 O12:Q12 A16:Q16 I15:M15 O15:Q15 A15:G15 A14:Q14 I13:Q13 A13:G13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -1621,27 +1621,27 @@
   <sheetPr/>
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.3416666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.0166666666667" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.41666666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.79166666666667" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.16666666666667" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.975" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.04166666666667" style="6" customWidth="1"/>
-    <col min="10" max="10" width="4.31666666666667" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.69166666666667" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.70833333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.8545454545455" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.3454545454545" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.0181818181818" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.41818181818182" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.79090909090909" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.55454545454545" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.16363636363636" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.97272727272727" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.04545454545455" style="6" customWidth="1"/>
+    <col min="10" max="10" width="4.31818181818182" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.69090909090909" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.70909090909091" style="6" customWidth="1"/>
     <col min="13" max="13" width="17" style="7" customWidth="1"/>
-    <col min="14" max="15" width="9.325" style="8" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9.32727272727273" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.12727272727273" style="8" customWidth="1"/>
     <col min="17" max="17" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -1760,16 +1760,16 @@
         <v>21</v>
       </c>
       <c r="D3" s="5">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
       </c>
       <c r="F3" s="5">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="G3" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3" s="6">
         <v>-1</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M3" s="7">
         <v>45888</v>
@@ -1789,15 +1789,15 @@
       </c>
       <c r="O3" s="8">
         <f t="shared" ref="O3:O19" si="2">L3*2</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P3" s="9">
         <f t="shared" si="1"/>
-        <v>-1.65</v>
+        <v>8.35</v>
       </c>
       <c r="Q3" s="26">
         <f t="shared" ref="Q3:Q19" si="3">O3*0.75-N3</f>
-        <v>-6.65</v>
+        <v>0.850000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2151,7 +2151,7 @@
         <v>-7.02</v>
       </c>
     </row>
-    <row r="11" ht="14" customHeight="1" spans="1:17">
+    <row r="11" customHeight="1" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -4125,7 +4125,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A31:M32 O32:Q32 A33:Q33 A34:M35 O34:Q35 A36:Q40 A41:M41 O41:Q41 A42:Q99 O31:P31 A18:G18 I18:J18 L18:Q18 A19:Q22 A23:M25 O23:Q24 O25:P25 A26:Q30 O17:Q17 A17:M17 A7:Q7 O6:Q6 A6:M6 A1:Q1 A2:M2 O2:Q2 A3:M4 O3:Q4 A5:Q5 A8:M8 O8:Q8 A9:Q11 A12:M12 O12:Q12 A16:Q16 I15:M15 O15:Q15 A15:G15 A14:Q14 I13:Q13 A13:G13" numberStoredAsText="1"/>
+    <ignoredError sqref="A13:G13 I13:Q13 A14:Q14 A15:G15 O15:Q15 I15:M15 A16:Q16 O12:Q12 A12:M12 A9:Q11 O8:Q8 A8:M8 A5:Q5 O2:Q4 A3:C3 E3 H3:M3 A4:M4 A2:M2 A1:Q1 A6:M6 O6:Q6 A7:Q7 A17:M17 O17:Q17 A26:Q30 O25:P25 O23:Q24 A23:M25 A19:Q22 L18:Q18 I18:J18 A18:G18 O31:P31 A42:Q99 O41:Q41 A41:M41 A36:Q40 O34:Q35 A34:M35 A33:Q33 O32:Q32 A31:M32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4139,7 +4139,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="长线持仓" sheetId="1" r:id="rId1"/>
@@ -210,6 +210,15 @@
     <t>半导体</t>
   </si>
   <si>
+    <t>605305</t>
+  </si>
+  <si>
+    <t>中际联合</t>
+  </si>
+  <si>
+    <t>风电</t>
+  </si>
+  <si>
     <t>002594</t>
   </si>
   <si>
@@ -274,15 +283,6 @@
   </si>
   <si>
     <t>食品</t>
-  </si>
-  <si>
-    <t>605305</t>
-  </si>
-  <si>
-    <t>中际联合</t>
-  </si>
-  <si>
-    <t>风电</t>
   </si>
   <si>
     <t>欧派家居</t>
@@ -1211,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,6 +1272,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1293,14 +1299,11 @@
     <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1619,29 +1622,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.8545454545455" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.3454545454545" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.0181818181818" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.41818181818182" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.79090909090909" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.55454545454545" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.16363636363636" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.97272727272727" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.04545454545455" style="6" customWidth="1"/>
-    <col min="10" max="10" width="4.31818181818182" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.69090909090909" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.70909090909091" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.8583333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.3416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.0166666666667" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.41666666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.79166666666667" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.16666666666667" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.975" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.04166666666667" style="6" customWidth="1"/>
+    <col min="10" max="10" width="4.31666666666667" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.69166666666667" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.70833333333333" style="6" customWidth="1"/>
     <col min="13" max="13" width="17" style="7" customWidth="1"/>
-    <col min="14" max="15" width="9.32727272727273" style="8" customWidth="1"/>
-    <col min="16" max="16" width="9.12727272727273" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9.325" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="8" customWidth="1"/>
     <col min="17" max="17" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -1699,7 +1702,7 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1740,7 +1743,7 @@
         <f>L2*2</f>
         <v>24</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="22">
         <f t="shared" ref="P2:P19" si="1">O2-N2</f>
         <v>1.58</v>
       </c>
@@ -1795,7 +1798,7 @@
         <f t="shared" si="1"/>
         <v>8.35</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="28">
         <f t="shared" ref="Q3:Q19" si="3">O3*0.75-N3</f>
         <v>0.850000000000001</v>
       </c>
@@ -1843,7 +1846,7 @@
         <f t="shared" si="1"/>
         <v>-2.08</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="28">
         <f t="shared" si="3"/>
         <v>-5.58</v>
       </c>
@@ -1894,7 +1897,7 @@
         <f t="shared" si="1"/>
         <v>-1.65</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="28">
         <f t="shared" si="3"/>
         <v>-4.15</v>
       </c>
@@ -1945,7 +1948,7 @@
         <f t="shared" si="1"/>
         <v>-2.36</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="28">
         <f t="shared" si="3"/>
         <v>-5.86</v>
       </c>
@@ -1993,7 +1996,7 @@
         <f t="shared" si="1"/>
         <v>-0.18</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="28">
         <f t="shared" si="3"/>
         <v>-3.68</v>
       </c>
@@ -2044,7 +2047,7 @@
         <f t="shared" si="1"/>
         <v>-1.98</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="28">
         <f t="shared" si="3"/>
         <v>-5.48</v>
       </c>
@@ -2095,7 +2098,7 @@
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="28">
         <f t="shared" si="3"/>
         <v>-2.17</v>
       </c>
@@ -2146,12 +2149,12 @@
         <f t="shared" si="1"/>
         <v>-2.52</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="28">
         <f t="shared" si="3"/>
         <v>-7.02</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:17">
+    <row r="11" ht="14" customHeight="1" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -2245,7 +2248,7 @@
         <f t="shared" si="1"/>
         <v>-0.0299999999999994</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="28">
         <f t="shared" si="3"/>
         <v>-2.53</v>
       </c>
@@ -2296,7 +2299,7 @@
         <f t="shared" si="1"/>
         <v>-0.149999999999999</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="28">
         <f t="shared" si="3"/>
         <v>-4.65</v>
       </c>
@@ -2349,7 +2352,7 @@
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="28">
         <f t="shared" si="3"/>
         <v>-4.35</v>
       </c>
@@ -2445,7 +2448,7 @@
         <f t="shared" si="1"/>
         <v>0.0399999999999991</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="28">
         <f t="shared" si="3"/>
         <v>-4.46</v>
       </c>
@@ -2492,7 +2495,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="23">
         <f t="shared" si="1"/>
         <v>2.74</v>
       </c>
@@ -2543,7 +2546,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="23">
         <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
@@ -2552,23 +2555,70 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="19" spans="15:16">
-      <c r="O19" s="9"/>
-      <c r="P19" s="21"/>
+    <row r="19" spans="1:17">
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="5">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>95</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <f>E19+G19+J19+H19+I19+K19</f>
+        <v>8</v>
+      </c>
+      <c r="M19" s="7">
+        <v>45954</v>
+      </c>
+      <c r="N19" s="8">
+        <v>10.81</v>
+      </c>
+      <c r="O19" s="9">
+        <f>L19*2</f>
+        <v>16</v>
+      </c>
+      <c r="P19" s="9">
+        <f>O19-N19</f>
+        <v>5.19</v>
+      </c>
+      <c r="Q19" s="29">
+        <f>O19*0.75-N19</f>
+        <v>1.19</v>
+      </c>
     </row>
     <row r="20" spans="15:16">
       <c r="O20" s="9"/>
-      <c r="P20" s="21"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N21" s="8">
         <v>4.29</v>
@@ -2576,24 +2626,24 @@
       <c r="O21" s="8">
         <v>10</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="23">
         <f t="shared" ref="P19:P27" si="4">O21-N21</f>
         <v>5.71</v>
       </c>
-      <c r="Q21" s="20">
-        <f t="shared" ref="Q19:Q42" si="5">O21*0.75-N21</f>
+      <c r="Q21" s="22">
+        <f>O21*0.75-N21</f>
         <v>3.21</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N22" s="8">
         <v>4.86</v>
@@ -2601,24 +2651,24 @@
       <c r="O22" s="8">
         <v>15</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="23">
         <f t="shared" si="4"/>
         <v>10.14</v>
       </c>
-      <c r="Q22" s="20">
-        <f t="shared" si="5"/>
+      <c r="Q22" s="22">
+        <f>O22*0.75-N22</f>
         <v>6.39</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N23" s="8">
         <v>6.84</v>
@@ -2626,24 +2676,24 @@
       <c r="O23" s="8">
         <v>15</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="23">
         <f t="shared" si="4"/>
         <v>8.16</v>
       </c>
-      <c r="Q23" s="20">
-        <f t="shared" si="5"/>
+      <c r="Q23" s="22">
+        <f>O23*0.75-N23</f>
         <v>4.41</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N24" s="8">
         <v>44.74</v>
@@ -2651,24 +2701,24 @@
       <c r="O24" s="8">
         <v>40</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="23">
         <f t="shared" si="4"/>
         <v>-4.74</v>
       </c>
-      <c r="Q24" s="26">
-        <f t="shared" si="5"/>
+      <c r="Q24" s="28">
+        <f>O24*0.75-N24</f>
         <v>-14.74</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N25" s="8">
         <v>15.93</v>
@@ -2676,24 +2726,24 @@
       <c r="O25" s="8">
         <v>15</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="23">
         <f t="shared" si="4"/>
         <v>-0.93</v>
       </c>
-      <c r="Q25" s="26">
-        <f t="shared" si="5"/>
+      <c r="Q25" s="28">
+        <f>O25*0.75-N25</f>
         <v>-4.68</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N26" s="8">
         <v>7.05</v>
@@ -2701,24 +2751,24 @@
       <c r="O26" s="8">
         <v>10</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="23">
         <f t="shared" si="4"/>
         <v>2.95</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="5"/>
+        <f>O26*0.75-N26</f>
         <v>0.45</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N27" s="8">
         <v>36.36</v>
@@ -2726,12 +2776,12 @@
       <c r="O27" s="9">
         <v>50</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="23">
         <f t="shared" si="4"/>
         <v>13.64</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" si="5"/>
+        <f>O27*0.75-N27</f>
         <v>1.14</v>
       </c>
     </row>
@@ -2739,369 +2789,365 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="15:16">
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="5">
+    <row r="29" spans="1:17">
+      <c r="A29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="5">
         <v>6.2</v>
       </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
         <v>140</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G29" s="6">
         <v>6</v>
       </c>
-      <c r="L30" s="6">
-        <f t="shared" ref="L30:L35" si="6">E30+G30+J30+H30+I30+K30</f>
+      <c r="L29" s="6">
+        <f>E29+G29+J29+H29+I29+K29</f>
         <v>7</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M29" s="7">
         <v>45889</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N29" s="8">
         <v>7.41</v>
       </c>
-      <c r="O30" s="9">
-        <f t="shared" ref="O30:O35" si="7">L30*1</f>
+      <c r="O29" s="9">
+        <f>L29*1</f>
         <v>7</v>
       </c>
-      <c r="P30" s="9">
-        <f t="shared" ref="P30:P35" si="8">O30-N30</f>
+      <c r="P29" s="9">
+        <f>O29-N29</f>
         <v>-0.41</v>
       </c>
-      <c r="Q30" s="26">
-        <f t="shared" si="5"/>
+      <c r="Q29" s="28">
+        <f t="shared" ref="Q28:Q41" si="5">O29*0.75-N29</f>
         <v>-2.16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="3" t="s">
-        <v>82</v>
+      <c r="A31" s="3">
+        <v>603833</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D31" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="5">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="G31" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>E31+G31+J31+H31+I31+K31</f>
+        <v>5</v>
       </c>
       <c r="M31" s="7">
-        <v>45891</v>
+        <v>45900</v>
       </c>
       <c r="N31" s="8">
-        <v>10.81</v>
+        <v>6.64</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f>L31*1</f>
+        <v>5</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="8"/>
-        <v>-4.81</v>
-      </c>
-      <c r="Q31" s="26">
-        <f t="shared" si="5"/>
-        <v>-6.31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="3">
-        <v>603833</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="5">
-        <v>8</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
-        <v>122</v>
-      </c>
-      <c r="G32" s="6">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="M32" s="7">
-        <v>45900</v>
-      </c>
-      <c r="N32" s="8">
-        <v>6.64</v>
-      </c>
-      <c r="O32" s="9">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="P32" s="9">
-        <f t="shared" si="8"/>
+        <f>O31-N31</f>
         <v>-1.64</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q31" s="28">
         <f t="shared" si="5"/>
         <v>-2.89</v>
       </c>
     </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4.6</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>84</v>
+      </c>
+      <c r="G32" s="6">
+        <v>4</v>
+      </c>
+      <c r="L32" s="6">
+        <f>E32+G32+J32+H32+I32+K32</f>
+        <v>4</v>
+      </c>
+      <c r="M32" s="7">
+        <v>45848</v>
+      </c>
+      <c r="N32" s="8">
+        <v>4.37</v>
+      </c>
+      <c r="O32" s="9">
+        <f>L32*1</f>
+        <v>4</v>
+      </c>
+      <c r="P32" s="9">
+        <f>O32-N32</f>
+        <v>-0.37</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.37</v>
+      </c>
+    </row>
     <row r="33" spans="1:17">
       <c r="A33" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="5">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="5">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G33" s="6">
         <v>4</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="6"/>
+        <f>E33+G33+J33+H33+I33+K33</f>
         <v>4</v>
       </c>
       <c r="M33" s="7">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="N33" s="8">
-        <v>4.37</v>
+        <v>6.24</v>
       </c>
       <c r="O33" s="9">
-        <f t="shared" si="7"/>
+        <f>L33*1</f>
         <v>4</v>
       </c>
       <c r="P33" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.37</v>
-      </c>
-      <c r="Q33" s="9">
+        <f>O33-N33</f>
+        <v>-2.24</v>
+      </c>
+      <c r="Q33" s="28">
         <f t="shared" si="5"/>
-        <v>-1.37</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D34" s="5">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="E34" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="5">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G34" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>E34+G34+J34+H34+I34+K34</f>
+        <v>3</v>
       </c>
       <c r="M34" s="7">
-        <v>45873</v>
+        <v>45891</v>
       </c>
       <c r="N34" s="8">
-        <v>6.24</v>
+        <v>3.34</v>
       </c>
       <c r="O34" s="9">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f>L34*1</f>
+        <v>3</v>
       </c>
       <c r="P34" s="9">
-        <f t="shared" si="8"/>
-        <v>-2.24</v>
-      </c>
-      <c r="Q34" s="26">
-        <f t="shared" si="5"/>
-        <v>-3.24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="5">
-        <v>9</v>
-      </c>
-      <c r="E35" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" s="5">
-        <v>34</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M35" s="7">
-        <v>45891</v>
-      </c>
-      <c r="N35" s="8">
-        <v>3.34</v>
-      </c>
-      <c r="O35" s="9">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="P35" s="9">
-        <f t="shared" si="8"/>
+        <f>O34-N34</f>
         <v>-0.34</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q34" s="9">
         <f t="shared" si="5"/>
         <v>-1.09</v>
       </c>
     </row>
-    <row r="37" spans="15:16">
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
+    <row r="36" spans="15:16">
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>92</v>
+      </c>
+      <c r="G37" s="6">
+        <v>4</v>
+      </c>
+      <c r="L37" s="6">
+        <f>E37+G37+J37+H37+I37+K37</f>
+        <v>4</v>
+      </c>
+      <c r="M37" s="7">
+        <v>45891</v>
+      </c>
+      <c r="N37" s="8">
+        <v>4.65</v>
+      </c>
+      <c r="O37" s="9">
+        <f>L37*1</f>
+        <v>4</v>
+      </c>
+      <c r="P37" s="9">
+        <f>O37-N37</f>
+        <v>-0.65</v>
+      </c>
+      <c r="Q37" s="9">
+        <f>O37*0.75-N37</f>
+        <v>-1.65</v>
+      </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>33</v>
+        <v>98</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D38" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="5">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="G38" s="6">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="H38" s="6">
+        <v>-1</v>
       </c>
       <c r="L38" s="6">
         <f>E38+G38+J38+H38+I38+K38</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M38" s="7">
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="N38" s="8">
-        <v>4.65</v>
+        <v>14</v>
       </c>
       <c r="O38" s="9">
         <f>L38*1</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P38" s="9">
         <f>O38-N38</f>
-        <v>-0.65</v>
-      </c>
-      <c r="Q38" s="9">
+        <v>-8</v>
+      </c>
+      <c r="Q38" s="28">
         <f>O38*0.75-N38</f>
-        <v>-1.65</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>25</v>
+        <v>100</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D39" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="5">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="G39" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L39" s="6">
         <f>E39+G39+J39+H39+I39+K39</f>
         <v>6</v>
       </c>
       <c r="M39" s="7">
-        <v>45892</v>
+        <v>45895</v>
       </c>
       <c r="N39" s="8">
-        <v>14</v>
+        <v>6.36</v>
       </c>
       <c r="O39" s="9">
         <f>L39*1</f>
@@ -3109,22 +3155,22 @@
       </c>
       <c r="P39" s="9">
         <f>O39-N39</f>
-        <v>-8</v>
-      </c>
-      <c r="Q39" s="26">
+        <v>-0.36</v>
+      </c>
+      <c r="Q39" s="9">
         <f>O39*0.75-N39</f>
-        <v>-9.5</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>36</v>
+        <v>102</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
@@ -3133,577 +3179,533 @@
         <v>0</v>
       </c>
       <c r="F40" s="5">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="6">
-        <v>1</v>
-      </c>
       <c r="L40" s="6">
         <f>E40+G40+J40+H40+I40+K40</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M40" s="7">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="N40" s="8">
-        <v>6.36</v>
+        <v>6.18</v>
       </c>
       <c r="O40" s="9">
         <f>L40*1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P40" s="9">
         <f>O40-N40</f>
-        <v>-0.36</v>
+        <v>-1.18</v>
       </c>
       <c r="Q40" s="9">
         <f>O40*0.75-N40</f>
-        <v>-1.86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="5">
-        <v>5</v>
-      </c>
-      <c r="E41" s="6">
+        <v>-2.43</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:17">
+      <c r="A43" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="13">
+        <v>10</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2</v>
+      </c>
+      <c r="F43" s="13">
+        <v>33</v>
+      </c>
+      <c r="G43" s="14">
+        <v>1</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14">
+        <v>1</v>
+      </c>
+      <c r="L43" s="14">
+        <f>E43+G43+J43+H43+I43+K43</f>
+        <v>4</v>
+      </c>
+      <c r="M43" s="24">
+        <v>45888</v>
+      </c>
+      <c r="N43" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="O43" s="25">
+        <f>L43*1</f>
+        <v>4</v>
+      </c>
+      <c r="P43" s="25">
+        <f>O43-N43</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q43" s="25">
+        <f>O43*0.75-N43</f>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="E48" s="17">
         <v>0</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F48" s="16">
+        <v>40</v>
+      </c>
+      <c r="G48" s="17">
+        <v>2</v>
+      </c>
+      <c r="H48" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17">
+        <f t="shared" ref="L48:L60" si="6">E48+G48+J48+H48+I48+K48</f>
+        <v>1</v>
+      </c>
+      <c r="M48" s="26">
+        <v>45896</v>
+      </c>
+      <c r="N48" s="27">
+        <v>2.46</v>
+      </c>
+      <c r="O48" s="27">
+        <f t="shared" ref="O48:O59" si="7">L48*1</f>
+        <v>1</v>
+      </c>
+      <c r="P48" s="27">
+        <f t="shared" ref="P48:P60" si="8">O48-N48</f>
+        <v>-1.46</v>
+      </c>
+      <c r="Q48" s="27"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:17">
+      <c r="A49" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="6">
-        <v>5</v>
-      </c>
-      <c r="L41" s="6">
-        <f>E41+G41+J41+H41+I41+K41</f>
-        <v>5</v>
-      </c>
-      <c r="M41" s="7">
-        <v>45897</v>
-      </c>
-      <c r="N41" s="8">
-        <v>6.18</v>
-      </c>
-      <c r="O41" s="9">
-        <f>L41*1</f>
-        <v>5</v>
-      </c>
-      <c r="P41" s="9">
-        <f>O41-N41</f>
-        <v>-1.18</v>
-      </c>
-      <c r="Q41" s="9">
-        <f>O41*0.75-N41</f>
-        <v>-2.43</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:17">
-      <c r="A44" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="13">
-        <v>10</v>
-      </c>
-      <c r="E44" s="14">
-        <v>2</v>
-      </c>
-      <c r="F44" s="13">
-        <v>33</v>
-      </c>
-      <c r="G44" s="14">
-        <v>1</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14">
-        <v>1</v>
-      </c>
-      <c r="L44" s="14">
-        <f>E44+G44+J44+H44+I44+K44</f>
-        <v>4</v>
-      </c>
-      <c r="M44" s="22">
-        <v>45888</v>
-      </c>
-      <c r="N44" s="23">
-        <v>3.1</v>
-      </c>
-      <c r="O44" s="23">
-        <f>L44*1</f>
-        <v>4</v>
-      </c>
-      <c r="P44" s="23">
-        <f>O44-N44</f>
-        <v>0.9</v>
-      </c>
-      <c r="Q44" s="23">
-        <f>O44*0.75-N44</f>
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:17">
-      <c r="A49" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>108</v>
-      </c>
       <c r="D49" s="16">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="E49" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G49" s="17">
         <v>2</v>
       </c>
-      <c r="H49" s="17">
-        <v>-1</v>
-      </c>
+      <c r="H49" s="17"/>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17">
-        <f t="shared" ref="L49:L61" si="9">E49+G49+J49+H49+I49+K49</f>
-        <v>1</v>
-      </c>
-      <c r="M49" s="24">
-        <v>45896</v>
-      </c>
-      <c r="N49" s="25">
-        <v>2.46</v>
-      </c>
-      <c r="O49" s="25">
-        <f t="shared" ref="O49:O60" si="10">L49*1</f>
-        <v>1</v>
-      </c>
-      <c r="P49" s="25">
-        <f t="shared" ref="P49:P61" si="11">O49-N49</f>
-        <v>-1.46</v>
-      </c>
-      <c r="Q49" s="25"/>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="1:17">
-      <c r="A50" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E50" s="17">
-        <v>1</v>
-      </c>
-      <c r="F50" s="16">
-        <v>49</v>
-      </c>
-      <c r="G50" s="17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M49" s="26">
+        <v>45890</v>
+      </c>
+      <c r="N49" s="27">
+        <v>3.12</v>
+      </c>
+      <c r="O49" s="27">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P49" s="27">
+        <f t="shared" si="8"/>
+        <v>-0.12</v>
+      </c>
+      <c r="Q49" s="30"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>37</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1</v>
+      </c>
+      <c r="L50" s="6">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17">
-        <f t="shared" si="9"/>
+      <c r="M50" s="7">
+        <v>45897</v>
+      </c>
+      <c r="N50" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P50" s="9">
+        <f t="shared" si="8"/>
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:17">
+      <c r="A51" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="16">
+        <v>8</v>
+      </c>
+      <c r="E51" s="17">
+        <v>1</v>
+      </c>
+      <c r="F51" s="16">
+        <v>40</v>
+      </c>
+      <c r="G51" s="17">
+        <v>2</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M50" s="24">
-        <v>45890</v>
-      </c>
-      <c r="N50" s="25">
-        <v>3.12</v>
-      </c>
-      <c r="O50" s="25">
-        <f t="shared" si="10"/>
+      <c r="M51" s="26">
+        <v>45867</v>
+      </c>
+      <c r="N51" s="27">
+        <v>2.3</v>
+      </c>
+      <c r="O51" s="27">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P50" s="25">
-        <f t="shared" si="11"/>
-        <v>-0.12</v>
-      </c>
-      <c r="Q50" s="27"/>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5">
-        <v>37</v>
-      </c>
-      <c r="G51" s="6">
-        <v>1</v>
-      </c>
-      <c r="K51" s="6">
-        <v>1</v>
-      </c>
-      <c r="L51" s="6">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="M51" s="7">
-        <v>45897</v>
-      </c>
-      <c r="N51" s="8">
-        <v>4.42</v>
-      </c>
-      <c r="O51" s="9">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="P51" s="9">
-        <f t="shared" si="11"/>
-        <v>-2.42</v>
-      </c>
+      <c r="P51" s="27">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q51" s="27"/>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:17">
       <c r="A52" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="D52" s="16">
-        <v>8</v>
+        <v>8.2</v>
       </c>
       <c r="E52" s="17">
         <v>1</v>
       </c>
       <c r="F52" s="16">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G52" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="M52" s="24">
-        <v>45867</v>
-      </c>
-      <c r="N52" s="25">
-        <v>2.3</v>
-      </c>
-      <c r="O52" s="25">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="P52" s="25">
-        <f t="shared" si="11"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q52" s="25"/>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="1:17">
-      <c r="A53" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="16">
-        <v>8.2</v>
-      </c>
-      <c r="E53" s="17">
-        <v>1</v>
-      </c>
-      <c r="F53" s="16">
-        <v>35</v>
-      </c>
-      <c r="G53" s="17">
-        <v>1</v>
-      </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M53" s="24">
+      <c r="M52" s="26">
         <v>45908</v>
       </c>
-      <c r="N53" s="25">
+      <c r="N52" s="27">
         <v>5.36</v>
       </c>
-      <c r="O53" s="25">
-        <f t="shared" si="10"/>
+      <c r="O52" s="27">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P53" s="25">
-        <f t="shared" si="11"/>
+      <c r="P52" s="27">
+        <f t="shared" si="8"/>
         <v>-3.36</v>
       </c>
-      <c r="Q53" s="25"/>
+      <c r="Q52" s="27"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="5">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" s="5">
+        <v>48</v>
+      </c>
+      <c r="G53" s="6">
+        <v>2</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M53" s="7">
+        <v>45838</v>
+      </c>
+      <c r="N53" s="8">
+        <v>4.22</v>
+      </c>
+      <c r="O53" s="9">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="P53" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="30" t="s">
-        <v>119</v>
+      <c r="A54" s="31" t="s">
+        <v>122</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D54" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E54" s="6">
         <v>2</v>
       </c>
       <c r="F54" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G54" s="6">
         <v>2</v>
       </c>
+      <c r="H54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1</v>
+      </c>
       <c r="L54" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="M54" s="7">
         <v>45838</v>
       </c>
       <c r="N54" s="8">
-        <v>4.22</v>
+        <v>6.11</v>
       </c>
       <c r="O54" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P54" s="9">
-        <f t="shared" si="11"/>
-        <v>-0.22</v>
+        <f t="shared" si="8"/>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="30" t="s">
-        <v>122</v>
+      <c r="A55" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D55" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" s="6">
         <v>2</v>
       </c>
       <c r="F55" s="5">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G55" s="6">
-        <v>2</v>
-      </c>
-      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M55" s="7">
+        <v>45861</v>
+      </c>
+      <c r="N55" s="8">
+        <v>3.41</v>
+      </c>
+      <c r="O55" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P55" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:17">
+      <c r="A56" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="16">
+        <v>8</v>
+      </c>
+      <c r="E56" s="17">
+        <v>1</v>
+      </c>
+      <c r="F56" s="16">
+        <v>60</v>
+      </c>
+      <c r="G56" s="17">
+        <v>3</v>
+      </c>
+      <c r="H56" s="17">
         <v>-1</v>
       </c>
-      <c r="K55" s="6">
-        <v>1</v>
-      </c>
-      <c r="L55" s="6">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="M55" s="7">
-        <v>45838</v>
-      </c>
-      <c r="N55" s="8">
-        <v>6.11</v>
-      </c>
-      <c r="O55" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="P55" s="9">
-        <f t="shared" si="11"/>
-        <v>-2.11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="5">
-        <v>10</v>
-      </c>
-      <c r="E56" s="6">
-        <v>2</v>
-      </c>
-      <c r="F56" s="5">
-        <v>26</v>
-      </c>
-      <c r="G56" s="6">
-        <v>1</v>
-      </c>
-      <c r="L56" s="6">
-        <f t="shared" si="9"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M56" s="7">
-        <v>45861</v>
-      </c>
-      <c r="N56" s="8">
-        <v>3.41</v>
-      </c>
-      <c r="O56" s="9">
-        <f t="shared" si="10"/>
+      <c r="M56" s="26">
+        <v>45877</v>
+      </c>
+      <c r="N56" s="27">
+        <v>3.06</v>
+      </c>
+      <c r="O56" s="27">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P56" s="9">
-        <f t="shared" si="11"/>
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="1:17">
-      <c r="A57" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="16" t="s">
+      <c r="P56" s="27">
+        <f t="shared" si="8"/>
+        <v>-0.0600000000000001</v>
+      </c>
+      <c r="Q56" s="27"/>
+    </row>
+    <row r="57" spans="3:16">
+      <c r="C57" s="19"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+    </row>
+    <row r="63" spans="15:16">
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="16">
-        <v>8</v>
-      </c>
-      <c r="E57" s="17">
-        <v>1</v>
-      </c>
-      <c r="F57" s="16">
-        <v>60</v>
-      </c>
-      <c r="G57" s="17">
-        <v>3</v>
-      </c>
-      <c r="H57" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="M57" s="24">
-        <v>45877</v>
-      </c>
-      <c r="N57" s="25">
-        <v>3.06</v>
-      </c>
-      <c r="O57" s="25">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="P57" s="25">
-        <f t="shared" si="11"/>
-        <v>-0.0600000000000001</v>
-      </c>
-      <c r="Q57" s="25"/>
-    </row>
-    <row r="58" spans="3:16">
-      <c r="C58" s="19"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-    </row>
-    <row r="64" spans="15:16">
+      <c r="D64" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
     </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="J65" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>133</v>
-      </c>
+    <row r="65" spans="15:16">
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
     </row>
@@ -3735,132 +3737,161 @@
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
     </row>
-    <row r="73" spans="15:16">
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-    </row>
-    <row r="74" spans="1:17">
+    <row r="73" spans="1:17">
+      <c r="A73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>33</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="L73" s="6">
+        <f>E73+G73+J73+H73+I73+K73</f>
+        <v>1</v>
+      </c>
+      <c r="M73" s="7">
+        <v>45916</v>
+      </c>
+      <c r="O73" s="9">
+        <f>L73*2</f>
+        <v>2</v>
+      </c>
+      <c r="P73" s="23">
+        <f>O73-N73</f>
+        <v>2</v>
+      </c>
+      <c r="Q73" s="9">
+        <f>O73*0.75-N73</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D74" s="5">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
       </c>
       <c r="F74" s="5">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="G74" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L74" s="6">
         <f>E74+G74+J74+H74+I74+K74</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M74" s="7">
-        <v>45916</v>
+        <v>45894</v>
+      </c>
+      <c r="N74" s="8">
+        <v>0</v>
       </c>
       <c r="O74" s="9">
         <f>L74*2</f>
-        <v>2</v>
-      </c>
-      <c r="P74" s="21">
+        <v>16</v>
+      </c>
+      <c r="P74" s="9">
         <f>O74-N74</f>
-        <v>2</v>
-      </c>
-      <c r="Q74" s="9">
-        <f>O74*0.75-N74</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D75" s="5">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="5">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="G75" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L75" s="6">
-        <f>E75+G75+J75+H75+I75+K75</f>
-        <v>8</v>
+        <f t="shared" ref="L75:L85" si="9">E75+G75+J75+H75+I75+K75</f>
+        <v>0</v>
       </c>
       <c r="M75" s="7">
-        <v>45894</v>
-      </c>
-      <c r="N75" s="8">
-        <v>0</v>
-      </c>
-      <c r="O75" s="9">
-        <f>L75*2</f>
-        <v>16</v>
-      </c>
-      <c r="P75" s="9">
-        <f>O75-N75</f>
-        <v>16</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="3" t="s">
-        <v>139</v>
+      <c r="A76" s="3">
+        <v>603173</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D76" s="5">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="E76" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G76" s="6">
         <v>0</v>
       </c>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+      <c r="J76" s="6">
+        <v>1</v>
+      </c>
       <c r="L76" s="6">
-        <f t="shared" ref="L76:L86" si="12">E76+G76+J76+H76+I76+K76</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="M76" s="7">
-        <v>45848</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="3">
-        <v>603173</v>
+      <c r="A77" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D77" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
       </c>
       <c r="F77" s="5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G77" s="6">
         <v>0</v>
@@ -3868,68 +3899,62 @@
       <c r="H77" s="6">
         <v>1</v>
       </c>
-      <c r="J77" s="6">
-        <v>1</v>
-      </c>
       <c r="L77" s="6">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="M77" s="7">
-        <v>45863</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D78" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E78" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F78" s="5">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G78" s="6">
-        <v>0</v>
-      </c>
-      <c r="H78" s="6">
         <v>1</v>
       </c>
       <c r="L78" s="6">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="M78" s="7">
-        <v>45869</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D79" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>47</v>
+      </c>
+      <c r="G79" s="6">
         <v>0</v>
       </c>
-      <c r="F79" s="5">
-        <v>68</v>
-      </c>
-      <c r="G79" s="6">
-        <v>1</v>
-      </c>
       <c r="L79" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M79" s="7">
@@ -3938,79 +3963,75 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D80" s="5">
-        <v>7</v>
-      </c>
-      <c r="E80" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" s="5">
-        <v>47</v>
-      </c>
-      <c r="G80" s="6">
+        <v>67</v>
+      </c>
+      <c r="L80" s="6">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L80" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
       <c r="M80" s="7">
-        <v>45878</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D81" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F81" s="5">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="L81" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M81" s="7">
         <v>45881</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D82" s="5">
-        <v>7</v>
-      </c>
-      <c r="F82" s="5">
-        <v>90</v>
-      </c>
-      <c r="L82" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="7">
-        <v>45881</v>
+    <row r="94" spans="1:13">
+      <c r="A94" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" s="5">
+        <v>9</v>
+      </c>
+      <c r="E94" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" s="5">
+        <v>110</v>
+      </c>
+      <c r="G94" s="6">
+        <v>3</v>
+      </c>
+      <c r="M94" s="7">
+        <v>45878</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D95" s="5">
         <v>9</v>
@@ -4019,10 +4040,10 @@
         <v>2</v>
       </c>
       <c r="F95" s="5">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="G95" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M95" s="7">
         <v>45878</v>
@@ -4030,10 +4051,10 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D96" s="5">
         <v>9</v>
@@ -4042,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="F96" s="5">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G96" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M96" s="7">
         <v>45878</v>
@@ -4053,22 +4074,22 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D97" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E97" s="6">
         <v>2</v>
       </c>
       <c r="F97" s="5">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G97" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M97" s="7">
         <v>45878</v>
@@ -4076,47 +4097,24 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D98" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" s="6">
         <v>2</v>
       </c>
       <c r="F98" s="5">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G98" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M98" s="7">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D99" s="5">
-        <v>10</v>
-      </c>
-      <c r="E99" s="6">
-        <v>2</v>
-      </c>
-      <c r="F99" s="5">
-        <v>60</v>
-      </c>
-      <c r="G99" s="6">
-        <v>1</v>
-      </c>
-      <c r="M99" s="7">
         <v>45878</v>
       </c>
     </row>
@@ -4125,7 +4123,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A13:G13 I13:Q13 A14:Q14 A15:G15 O15:Q15 I15:M15 A16:Q16 O12:Q12 A12:M12 A9:Q11 O8:Q8 A8:M8 A5:Q5 O2:Q4 A3:C3 E3 H3:M3 A4:M4 A2:M2 A1:Q1 A6:M6 O6:Q6 A7:Q7 A17:M17 O17:Q17 A26:Q30 O25:P25 O23:Q24 A23:M25 A19:Q22 L18:Q18 I18:J18 A18:G18 O31:P31 A42:Q99 O41:Q41 A41:M41 A36:Q40 O34:Q35 A34:M35 A33:Q33 O32:Q32 A31:M32" numberStoredAsText="1"/>
+    <ignoredError sqref="A19 A31:M31 O31:Q31 A32:Q32 A33:M34 O33:Q34 A35:Q39 A40:M40 O40:Q40 A41:Q98 A18:G18 I18:J18 L18:N18 P18:Q18 A20:Q22 A23:M25 O23:Q24 O25:P25 A26:Q29 O17:Q17 A17:M17 A7:Q7 O6:Q6 A6:M6 A1:Q1 A2:M2 A4:M4 H3:M3 E3 A3:C3 O2:Q4 A5:Q5 A8:M8 O8:Q8 A9:Q11 A12:M12 O12:Q12 A16:Q16 I15:M15 O15:Q15 A15:G15 A14:Q14 I13:Q13 A13:G13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4139,7 +4137,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -752,6 +752,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -759,12 +765,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,68 +1242,65 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1624,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1702,7 +1699,7 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1743,7 +1740,7 @@
         <f>L2*2</f>
         <v>24</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="10">
         <f t="shared" ref="P2:P19" si="1">O2-N2</f>
         <v>1.58</v>
       </c>
@@ -1759,7 +1756,7 @@
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="5">
@@ -1775,14 +1772,14 @@
         <v>13</v>
       </c>
       <c r="H3" s="6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K3" s="6">
         <v>1</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" s="7">
         <v>45888</v>
@@ -1792,15 +1789,15 @@
       </c>
       <c r="O3" s="8">
         <f t="shared" ref="O3:O19" si="2">L3*2</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P3" s="9">
         <f t="shared" si="1"/>
-        <v>8.35</v>
-      </c>
-      <c r="Q3" s="28">
+        <v>6.35</v>
+      </c>
+      <c r="Q3" s="12">
         <f t="shared" ref="Q3:Q19" si="3">O3*0.75-N3</f>
-        <v>0.850000000000001</v>
+        <v>-0.649999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1846,7 +1843,7 @@
         <f t="shared" si="1"/>
         <v>-2.08</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="12">
         <f t="shared" si="3"/>
         <v>-5.58</v>
       </c>
@@ -1858,7 +1855,7 @@
       <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="5">
@@ -1897,7 +1894,7 @@
         <f t="shared" si="1"/>
         <v>-1.65</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="12">
         <f t="shared" si="3"/>
         <v>-4.15</v>
       </c>
@@ -1909,7 +1906,7 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="5">
@@ -1925,14 +1922,14 @@
         <v>5</v>
       </c>
       <c r="H6" s="6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="7">
         <v>45891</v>
@@ -1942,15 +1939,15 @@
       </c>
       <c r="O6" s="8">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="1"/>
-        <v>-2.36</v>
-      </c>
-      <c r="Q6" s="28">
+        <v>-4.36</v>
+      </c>
+      <c r="Q6" s="12">
         <f t="shared" si="3"/>
-        <v>-5.86</v>
+        <v>-7.36</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1996,7 +1993,7 @@
         <f t="shared" si="1"/>
         <v>-0.18</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="12">
         <f t="shared" si="3"/>
         <v>-3.68</v>
       </c>
@@ -2008,7 +2005,7 @@
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="5">
@@ -2047,7 +2044,7 @@
         <f t="shared" si="1"/>
         <v>-1.98</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="12">
         <f t="shared" si="3"/>
         <v>-5.48</v>
       </c>
@@ -2059,7 +2056,7 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="5">
@@ -2098,7 +2095,7 @@
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="12">
         <f t="shared" si="3"/>
         <v>-2.17</v>
       </c>
@@ -2110,7 +2107,7 @@
       <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="5">
@@ -2149,7 +2146,7 @@
         <f t="shared" si="1"/>
         <v>-2.52</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="12">
         <f t="shared" si="3"/>
         <v>-7.02</v>
       </c>
@@ -2248,7 +2245,7 @@
         <f t="shared" si="1"/>
         <v>-0.0299999999999994</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="12">
         <f t="shared" si="3"/>
         <v>-2.53</v>
       </c>
@@ -2299,7 +2296,7 @@
         <f t="shared" si="1"/>
         <v>-0.149999999999999</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="12">
         <f t="shared" si="3"/>
         <v>-4.65</v>
       </c>
@@ -2311,7 +2308,7 @@
       <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="5">
@@ -2352,7 +2349,7 @@
         <f t="shared" si="1"/>
         <v>0.149999999999999</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="12">
         <f t="shared" si="3"/>
         <v>-4.35</v>
       </c>
@@ -2448,7 +2445,7 @@
         <f t="shared" si="1"/>
         <v>0.0399999999999991</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="12">
         <f t="shared" si="3"/>
         <v>-4.46</v>
       </c>
@@ -2476,14 +2473,14 @@
         <v>3</v>
       </c>
       <c r="H17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="6">
         <v>1</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17" s="7">
         <v>45917</v>
@@ -2493,15 +2490,15 @@
       </c>
       <c r="O17" s="9">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="P17" s="23">
+        <v>12</v>
+      </c>
+      <c r="P17" s="14">
         <f t="shared" si="1"/>
-        <v>2.74</v>
+        <v>0.74</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="3"/>
-        <v>-0.76</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2546,7 +2543,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="14">
         <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
@@ -2578,14 +2575,14 @@
         <v>4</v>
       </c>
       <c r="H19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
       </c>
       <c r="L19" s="6">
-        <f>E19+G19+J19+H19+I19+K19</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="M19" s="7">
         <v>45954</v>
@@ -2594,21 +2591,21 @@
         <v>10.81</v>
       </c>
       <c r="O19" s="9">
-        <f>L19*2</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="P19" s="9">
-        <f>O19-N19</f>
-        <v>5.19</v>
-      </c>
-      <c r="Q19" s="29">
-        <f>O19*0.75-N19</f>
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="20" spans="15:16">
+        <f t="shared" si="1"/>
+        <v>7.19</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="3"/>
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="O20" s="9"/>
-      <c r="P20" s="23"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
@@ -2626,12 +2623,12 @@
       <c r="O21" s="8">
         <v>10</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="14">
         <f t="shared" ref="P19:P27" si="4">O21-N21</f>
         <v>5.71</v>
       </c>
-      <c r="Q21" s="22">
-        <f>O21*0.75-N21</f>
+      <c r="Q21" s="10">
+        <f t="shared" ref="Q21:Q27" si="5">O21*0.75-N21</f>
         <v>3.21</v>
       </c>
     </row>
@@ -2651,12 +2648,12 @@
       <c r="O22" s="8">
         <v>15</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="14">
         <f t="shared" si="4"/>
         <v>10.14</v>
       </c>
-      <c r="Q22" s="22">
-        <f>O22*0.75-N22</f>
+      <c r="Q22" s="10">
+        <f t="shared" si="5"/>
         <v>6.39</v>
       </c>
     </row>
@@ -2676,12 +2673,12 @@
       <c r="O23" s="8">
         <v>15</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="14">
         <f t="shared" si="4"/>
         <v>8.16</v>
       </c>
-      <c r="Q23" s="22">
-        <f>O23*0.75-N23</f>
+      <c r="Q23" s="10">
+        <f t="shared" si="5"/>
         <v>4.41</v>
       </c>
     </row>
@@ -2701,12 +2698,12 @@
       <c r="O24" s="8">
         <v>40</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="14">
         <f t="shared" si="4"/>
         <v>-4.74</v>
       </c>
-      <c r="Q24" s="28">
-        <f>O24*0.75-N24</f>
+      <c r="Q24" s="12">
+        <f t="shared" si="5"/>
         <v>-14.74</v>
       </c>
     </row>
@@ -2726,12 +2723,12 @@
       <c r="O25" s="8">
         <v>15</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="14">
         <f t="shared" si="4"/>
         <v>-0.93</v>
       </c>
-      <c r="Q25" s="28">
-        <f>O25*0.75-N25</f>
+      <c r="Q25" s="12">
+        <f t="shared" si="5"/>
         <v>-4.68</v>
       </c>
     </row>
@@ -2751,12 +2748,12 @@
       <c r="O26" s="8">
         <v>10</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="14">
         <f t="shared" si="4"/>
         <v>2.95</v>
       </c>
       <c r="Q26" s="9">
-        <f>O26*0.75-N26</f>
+        <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
     </row>
@@ -2776,16 +2773,16 @@
       <c r="O27" s="9">
         <v>50</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="14">
         <f t="shared" si="4"/>
         <v>13.64</v>
       </c>
       <c r="Q27" s="9">
-        <f>O27*0.75-N27</f>
+        <f t="shared" si="5"/>
         <v>1.14</v>
       </c>
     </row>
-    <row r="28" spans="15:16">
+    <row r="28" spans="1:17">
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
@@ -2829,8 +2826,8 @@
         <f>O29-N29</f>
         <v>-0.41</v>
       </c>
-      <c r="Q29" s="28">
-        <f t="shared" ref="Q28:Q41" si="5">O29*0.75-N29</f>
+      <c r="Q29" s="12">
+        <f t="shared" ref="Q28:Q41" si="6">O29*0.75-N29</f>
         <v>-2.16</v>
       </c>
     </row>
@@ -2877,8 +2874,8 @@
         <f>O31-N31</f>
         <v>-1.64</v>
       </c>
-      <c r="Q31" s="28">
-        <f t="shared" si="5"/>
+      <c r="Q31" s="12">
+        <f t="shared" si="6"/>
         <v>-2.89</v>
       </c>
     </row>
@@ -2889,7 +2886,7 @@
       <c r="B32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="5">
@@ -2923,7 +2920,7 @@
         <v>-0.37</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.37</v>
       </c>
     </row>
@@ -2934,7 +2931,7 @@
       <c r="B33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="5">
@@ -2967,8 +2964,8 @@
         <f>O33-N33</f>
         <v>-2.24</v>
       </c>
-      <c r="Q33" s="28">
-        <f t="shared" si="5"/>
+      <c r="Q33" s="12">
+        <f t="shared" si="6"/>
         <v>-3.24</v>
       </c>
     </row>
@@ -3013,11 +3010,11 @@
         <v>-0.34</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.09</v>
       </c>
     </row>
-    <row r="36" spans="15:16">
+    <row r="36" spans="1:17">
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
@@ -3028,7 +3025,7 @@
       <c r="B37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="5">
@@ -3073,7 +3070,7 @@
       <c r="B38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="5">
@@ -3109,7 +3106,7 @@
         <f>O38-N38</f>
         <v>-8</v>
       </c>
-      <c r="Q38" s="28">
+      <c r="Q38" s="12">
         <f>O38*0.75-N38</f>
         <v>-9.5</v>
       </c>
@@ -3121,7 +3118,7 @@
       <c r="B39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="5">
@@ -3169,7 +3166,7 @@
       <c r="B40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="5">
@@ -3208,155 +3205,155 @@
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:17">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="16">
         <v>10</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="17">
         <v>2</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="16">
         <v>33</v>
       </c>
-      <c r="G43" s="14">
-        <v>1</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14">
-        <v>1</v>
-      </c>
-      <c r="L43" s="14">
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17">
+        <v>1</v>
+      </c>
+      <c r="L43" s="17">
         <f>E43+G43+J43+H43+I43+K43</f>
         <v>4</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="18">
         <v>45888</v>
       </c>
-      <c r="N43" s="25">
+      <c r="N43" s="19">
         <v>3.1</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O43" s="19">
         <f>L43*1</f>
         <v>4</v>
       </c>
-      <c r="P43" s="25">
+      <c r="P43" s="19">
         <f>O43-N43</f>
         <v>0.9</v>
       </c>
-      <c r="Q43" s="25">
+      <c r="Q43" s="19">
         <f>O43*0.75-N43</f>
         <v>-0.1</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:17">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="21">
         <v>3.5</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="22">
         <v>0</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="21">
         <v>40</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="22">
         <v>2</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="22">
         <v>-1</v>
       </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17">
-        <f t="shared" ref="L48:L60" si="6">E48+G48+J48+H48+I48+K48</f>
-        <v>1</v>
-      </c>
-      <c r="M48" s="26">
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22">
+        <f t="shared" ref="L48:L60" si="7">E48+G48+J48+H48+I48+K48</f>
+        <v>1</v>
+      </c>
+      <c r="M48" s="23">
         <v>45896</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N48" s="24">
         <v>2.46</v>
       </c>
-      <c r="O48" s="27">
-        <f t="shared" ref="O48:O59" si="7">L48*1</f>
-        <v>1</v>
-      </c>
-      <c r="P48" s="27">
-        <f t="shared" ref="P48:P60" si="8">O48-N48</f>
+      <c r="O48" s="24">
+        <f t="shared" ref="O48:O59" si="8">L48*1</f>
+        <v>1</v>
+      </c>
+      <c r="P48" s="24">
+        <f t="shared" ref="P48:P60" si="9">O48-N48</f>
         <v>-1.46</v>
       </c>
-      <c r="Q48" s="27"/>
+      <c r="Q48" s="24"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:17">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="21">
         <v>8.5</v>
       </c>
-      <c r="E49" s="17">
-        <v>1</v>
-      </c>
-      <c r="F49" s="16">
+      <c r="E49" s="22">
+        <v>1</v>
+      </c>
+      <c r="F49" s="21">
         <v>49</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="22">
         <v>2</v>
       </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M49" s="26">
-        <v>45890</v>
-      </c>
-      <c r="N49" s="27">
-        <v>3.12</v>
-      </c>
-      <c r="O49" s="27">
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P49" s="27">
+      <c r="M49" s="23">
+        <v>45890</v>
+      </c>
+      <c r="N49" s="24">
+        <v>3.12</v>
+      </c>
+      <c r="O49" s="24">
         <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P49" s="24">
+        <f t="shared" si="9"/>
         <v>-0.12</v>
       </c>
-      <c r="Q49" s="30"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="25"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="26" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -3378,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M50" s="7">
@@ -3388,220 +3385,220 @@
         <v>4.42</v>
       </c>
       <c r="O50" s="9">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="P50" s="9">
+        <f t="shared" si="9"/>
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:17">
+      <c r="A51" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="21">
+        <v>8</v>
+      </c>
+      <c r="E51" s="22">
+        <v>1</v>
+      </c>
+      <c r="F51" s="21">
+        <v>40</v>
+      </c>
+      <c r="G51" s="22">
+        <v>2</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M51" s="23">
+        <v>45867</v>
+      </c>
+      <c r="N51" s="24">
+        <v>2.3</v>
+      </c>
+      <c r="O51" s="24">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P51" s="24">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q51" s="24"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:17">
+      <c r="A52" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="21">
+        <v>8.2</v>
+      </c>
+      <c r="E52" s="22">
+        <v>1</v>
+      </c>
+      <c r="F52" s="21">
+        <v>35</v>
+      </c>
+      <c r="G52" s="22">
+        <v>1</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P50" s="9">
+      <c r="M52" s="23">
+        <v>45908</v>
+      </c>
+      <c r="N52" s="24">
+        <v>5.36</v>
+      </c>
+      <c r="O52" s="24">
         <f t="shared" si="8"/>
-        <v>-2.42</v>
-      </c>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:17">
-      <c r="A51" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="16">
-        <v>8</v>
-      </c>
-      <c r="E51" s="17">
-        <v>1</v>
-      </c>
-      <c r="F51" s="16">
-        <v>40</v>
-      </c>
-      <c r="G51" s="17">
         <v>2</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M51" s="26">
-        <v>45867</v>
-      </c>
-      <c r="N51" s="27">
-        <v>2.3</v>
-      </c>
-      <c r="O51" s="27">
+      <c r="P52" s="24">
+        <f t="shared" si="9"/>
+        <v>-3.36</v>
+      </c>
+      <c r="Q52" s="24"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="5">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" s="5">
+        <v>48</v>
+      </c>
+      <c r="G53" s="6">
+        <v>2</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M53" s="7">
+        <v>45838</v>
+      </c>
+      <c r="N53" s="8">
+        <v>4.22</v>
+      </c>
+      <c r="O53" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="P53" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="5">
+        <v>9</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" s="5">
+        <v>49</v>
+      </c>
+      <c r="G54" s="6">
+        <v>2</v>
+      </c>
+      <c r="H54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M54" s="7">
+        <v>45838</v>
+      </c>
+      <c r="N54" s="8">
+        <v>6.11</v>
+      </c>
+      <c r="O54" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="P54" s="9">
+        <f t="shared" si="9"/>
+        <v>-2.11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="5">
+        <v>10</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" s="5">
+        <v>26</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P51" s="27">
-        <f t="shared" si="8"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q51" s="27"/>
-    </row>
-    <row r="52" s="2" customFormat="1" spans="1:17">
-      <c r="A52" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="16">
-        <v>8.2</v>
-      </c>
-      <c r="E52" s="17">
-        <v>1</v>
-      </c>
-      <c r="F52" s="16">
-        <v>35</v>
-      </c>
-      <c r="G52" s="17">
-        <v>1</v>
-      </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M52" s="26">
-        <v>45908</v>
-      </c>
-      <c r="N52" s="27">
-        <v>5.36</v>
-      </c>
-      <c r="O52" s="27">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="P52" s="27">
-        <f t="shared" si="8"/>
-        <v>-3.36</v>
-      </c>
-      <c r="Q52" s="27"/>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="5">
-        <v>12</v>
-      </c>
-      <c r="E53" s="6">
-        <v>2</v>
-      </c>
-      <c r="F53" s="5">
-        <v>48</v>
-      </c>
-      <c r="G53" s="6">
-        <v>2</v>
-      </c>
-      <c r="L53" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="M53" s="7">
-        <v>45838</v>
-      </c>
-      <c r="N53" s="8">
-        <v>4.22</v>
-      </c>
-      <c r="O53" s="9">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="P53" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="5">
-        <v>9</v>
-      </c>
-      <c r="E54" s="6">
-        <v>2</v>
-      </c>
-      <c r="F54" s="5">
-        <v>49</v>
-      </c>
-      <c r="G54" s="6">
-        <v>2</v>
-      </c>
-      <c r="H54" s="6">
-        <v>-1</v>
-      </c>
-      <c r="K54" s="6">
-        <v>1</v>
-      </c>
-      <c r="L54" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="M54" s="7">
-        <v>45838</v>
-      </c>
-      <c r="N54" s="8">
-        <v>6.11</v>
-      </c>
-      <c r="O54" s="9">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="P54" s="9">
-        <f t="shared" si="8"/>
-        <v>-2.11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="5">
-        <v>10</v>
-      </c>
-      <c r="E55" s="6">
-        <v>2</v>
-      </c>
-      <c r="F55" s="5">
-        <v>26</v>
-      </c>
-      <c r="G55" s="6">
-        <v>1</v>
-      </c>
-      <c r="L55" s="6">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
       <c r="M55" s="7">
         <v>45861</v>
       </c>
@@ -3609,131 +3606,131 @@
         <v>3.41</v>
       </c>
       <c r="O55" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P55" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:17">
+      <c r="A56" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="21">
+        <v>8</v>
+      </c>
+      <c r="E56" s="22">
+        <v>1</v>
+      </c>
+      <c r="F56" s="21">
+        <v>60</v>
+      </c>
+      <c r="G56" s="22">
+        <v>3</v>
+      </c>
+      <c r="H56" s="22">
+        <v>-1</v>
+      </c>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P55" s="9">
+      <c r="M56" s="23">
+        <v>45877</v>
+      </c>
+      <c r="N56" s="24">
+        <v>3.06</v>
+      </c>
+      <c r="O56" s="24">
         <f t="shared" si="8"/>
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="1:17">
-      <c r="A56" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="16">
-        <v>8</v>
-      </c>
-      <c r="E56" s="17">
-        <v>1</v>
-      </c>
-      <c r="F56" s="16">
-        <v>60</v>
-      </c>
-      <c r="G56" s="17">
         <v>3</v>
       </c>
-      <c r="H56" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M56" s="26">
-        <v>45877</v>
-      </c>
-      <c r="N56" s="27">
-        <v>3.06</v>
-      </c>
-      <c r="O56" s="27">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="P56" s="27">
-        <f t="shared" si="8"/>
+      <c r="P56" s="24">
+        <f t="shared" si="9"/>
         <v>-0.0600000000000001</v>
       </c>
-      <c r="Q56" s="27"/>
-    </row>
-    <row r="57" spans="3:16">
-      <c r="C57" s="19"/>
+      <c r="Q56" s="24"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="C57" s="27"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="63" spans="15:16">
+    <row r="63" spans="1:17">
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
     </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="18" t="s">
+    <row r="64" spans="1:17">
+      <c r="A64" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21" t="s">
+      <c r="E64" s="29"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="21" t="s">
+      <c r="I64" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="J64" s="21" t="s">
+      <c r="J64" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K64" s="21" t="s">
+      <c r="K64" s="29" t="s">
         <v>133</v>
       </c>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
     </row>
-    <row r="65" spans="15:16">
+    <row r="65" spans="1:17">
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
     </row>
-    <row r="66" spans="15:16">
+    <row r="66" spans="1:17">
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
     </row>
-    <row r="67" spans="15:16">
+    <row r="67" spans="1:17">
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
     </row>
-    <row r="68" spans="15:16">
+    <row r="68" spans="1:17">
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
     </row>
-    <row r="69" spans="15:16">
+    <row r="69" spans="1:17">
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
     </row>
-    <row r="70" spans="15:16">
+    <row r="70" spans="1:17">
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
     </row>
-    <row r="71" spans="15:16">
+    <row r="71" spans="1:17">
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
     </row>
-    <row r="72" spans="15:16">
+    <row r="72" spans="1:17">
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
     </row>
@@ -3770,7 +3767,7 @@
         <f>L73*2</f>
         <v>2</v>
       </c>
-      <c r="P73" s="23">
+      <c r="P73" s="14">
         <f>O73-N73</f>
         <v>2</v>
       </c>
@@ -3779,7 +3776,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:17">
       <c r="A74" s="3" t="s">
         <v>137</v>
       </c>
@@ -3817,7 +3814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:17">
       <c r="A75" s="3" t="s">
         <v>139</v>
       </c>
@@ -3837,14 +3834,14 @@
         <v>0</v>
       </c>
       <c r="L75" s="6">
-        <f t="shared" ref="L75:L85" si="9">E75+G75+J75+H75+I75+K75</f>
+        <f t="shared" ref="L75:L85" si="10">E75+G75+J75+H75+I75+K75</f>
         <v>0</v>
       </c>
       <c r="M75" s="7">
         <v>45848</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:17">
       <c r="A76" s="3">
         <v>603173</v>
       </c>
@@ -3870,14 +3867,14 @@
         <v>1</v>
       </c>
       <c r="L76" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="M76" s="7">
         <v>45863</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:17">
       <c r="A77" s="3" t="s">
         <v>142</v>
       </c>
@@ -3900,14 +3897,14 @@
         <v>1</v>
       </c>
       <c r="L77" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M77" s="7">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:17">
       <c r="A78" s="3" t="s">
         <v>144</v>
       </c>
@@ -3927,14 +3924,14 @@
         <v>1</v>
       </c>
       <c r="L78" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M78" s="7">
         <v>45878</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:17">
       <c r="A79" s="3" t="s">
         <v>146</v>
       </c>
@@ -3954,14 +3951,14 @@
         <v>0</v>
       </c>
       <c r="L79" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M79" s="7">
         <v>45878</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:17">
       <c r="A80" s="3" t="s">
         <v>148</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>67</v>
       </c>
       <c r="L80" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M80" s="7">
@@ -3996,7 +3993,7 @@
         <v>90</v>
       </c>
       <c r="L81" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M81" s="7">
@@ -4123,7 +4120,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A19 A31:M31 O31:Q31 A32:Q32 A33:M34 O33:Q34 A35:Q39 A40:M40 O40:Q40 A41:Q98 A18:G18 I18:J18 L18:N18 P18:Q18 A20:Q22 A23:M25 O23:Q24 O25:P25 A26:Q29 O17:Q17 A17:M17 A7:Q7 O6:Q6 A6:M6 A1:Q1 A2:M2 A4:M4 H3:M3 E3 A3:C3 O2:Q4 A5:Q5 A8:M8 O8:Q8 A9:Q11 A12:M12 O12:Q12 A16:Q16 I15:M15 O15:Q15 A15:G15 A14:Q14 I13:Q13 A13:G13" numberStoredAsText="1"/>
+    <ignoredError sqref="A13:G13 I13:Q13 A14:Q14 A15:G15 O15:Q15 I15:M15 A16:Q16 O12:Q12 A12:M12 A9:Q11 O8:Q8 A8:M8 A5:G6 I5:Q5 O2:Q4 A3:C3 E3 I3:J3 L3:M3 A4:M4 A2:M2 A1:Q1 I6:M6 O6:Q6 A7:Q7 A17:G18 I17:M17 O17:Q17 A26:Q29 O25:P25 O23:Q24 A23:M25 A20:Q22 P18:Q18 L18:N18 I18:J18 A41:Q98 O40:Q40 A40:M40 A35:Q39 O33:Q34 A33:M34 A32:Q32 O31:Q31 A31:M31 A19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资计划.xlsx
+++ b/投资计划.xlsx
@@ -123,6 +123,75 @@
     <t>医药</t>
   </si>
   <si>
+    <t>603259</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>CRO、医药</t>
+  </si>
+  <si>
+    <t>亿联网络</t>
+  </si>
+  <si>
+    <t>云办公</t>
+  </si>
+  <si>
+    <t>605117</t>
+  </si>
+  <si>
+    <t>德业股份</t>
+  </si>
+  <si>
+    <t>光伏</t>
+  </si>
+  <si>
+    <t>603087</t>
+  </si>
+  <si>
+    <t>甘李药业</t>
+  </si>
+  <si>
+    <t>减肥药、医药</t>
+  </si>
+  <si>
+    <t>002352</t>
+  </si>
+  <si>
+    <t>顺丰控股</t>
+  </si>
+  <si>
+    <t>物流</t>
+  </si>
+  <si>
+    <t>002920</t>
+  </si>
+  <si>
+    <t>德赛西威</t>
+  </si>
+  <si>
+    <t>智能座驾、自驾</t>
+  </si>
+  <si>
+    <t>605305</t>
+  </si>
+  <si>
+    <t>中际联合</t>
+  </si>
+  <si>
+    <t>风电</t>
+  </si>
+  <si>
+    <t>300750</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>电池</t>
+  </si>
+  <si>
     <t>600276</t>
   </si>
   <si>
@@ -132,13 +201,133 @@
     <t>创新药、医药</t>
   </si>
   <si>
-    <t>603259</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>CRO、医药</t>
+    <t>002594</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>汽车、电池</t>
+  </si>
+  <si>
+    <t>002428</t>
+  </si>
+  <si>
+    <t>云南锗业</t>
+  </si>
+  <si>
+    <t>小金属</t>
+  </si>
+  <si>
+    <t>601020</t>
+  </si>
+  <si>
+    <t>华钰矿业</t>
+  </si>
+  <si>
+    <t>688114</t>
+  </si>
+  <si>
+    <t>华大智造</t>
+  </si>
+  <si>
+    <t>AI、医疗</t>
+  </si>
+  <si>
+    <t>002167</t>
+  </si>
+  <si>
+    <t>东方锆业</t>
+  </si>
+  <si>
+    <t>600343</t>
+  </si>
+  <si>
+    <t>航天动力</t>
+  </si>
+  <si>
+    <t>航天</t>
+  </si>
+  <si>
+    <t>513180</t>
+  </si>
+  <si>
+    <t>恒生科技</t>
+  </si>
+  <si>
+    <t>AI、科技</t>
+  </si>
+  <si>
+    <t>603288</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>食品</t>
+  </si>
+  <si>
+    <t>欧派家居</t>
+  </si>
+  <si>
+    <t>家居</t>
+  </si>
+  <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>300015</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>002947</t>
+  </si>
+  <si>
+    <t>恒铭达</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>300558</t>
+  </si>
+  <si>
+    <t>贝达药业</t>
+  </si>
+  <si>
+    <t>300595</t>
+  </si>
+  <si>
+    <t>欧普康视</t>
+  </si>
+  <si>
+    <t>002821</t>
+  </si>
+  <si>
+    <t>凯莱英</t>
+  </si>
+  <si>
+    <t>688050</t>
+  </si>
+  <si>
+    <t>爱博医疗</t>
+  </si>
+  <si>
+    <t>603501</t>
+  </si>
+  <si>
+    <t>豪威集团</t>
+  </si>
+  <si>
+    <t>半导体</t>
   </si>
   <si>
     <t>603129</t>
@@ -148,195 +337,6 @@
   </si>
   <si>
     <t>两轮车</t>
-  </si>
-  <si>
-    <t>亿联网络</t>
-  </si>
-  <si>
-    <t>云办公</t>
-  </si>
-  <si>
-    <t>605117</t>
-  </si>
-  <si>
-    <t>德业股份</t>
-  </si>
-  <si>
-    <t>光伏</t>
-  </si>
-  <si>
-    <t>603087</t>
-  </si>
-  <si>
-    <t>甘李药业</t>
-  </si>
-  <si>
-    <t>减肥药、医药</t>
-  </si>
-  <si>
-    <t>300750</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>电池</t>
-  </si>
-  <si>
-    <t>002352</t>
-  </si>
-  <si>
-    <t>顺丰控股</t>
-  </si>
-  <si>
-    <t>物流</t>
-  </si>
-  <si>
-    <t>002920</t>
-  </si>
-  <si>
-    <t>德赛西威</t>
-  </si>
-  <si>
-    <t>智能座驾、自驾</t>
-  </si>
-  <si>
-    <t>603501</t>
-  </si>
-  <si>
-    <t>豪威集团</t>
-  </si>
-  <si>
-    <t>半导体</t>
-  </si>
-  <si>
-    <t>605305</t>
-  </si>
-  <si>
-    <t>中际联合</t>
-  </si>
-  <si>
-    <t>风电</t>
-  </si>
-  <si>
-    <t>002594</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>汽车、电池</t>
-  </si>
-  <si>
-    <t>002428</t>
-  </si>
-  <si>
-    <t>云南锗业</t>
-  </si>
-  <si>
-    <t>小金属</t>
-  </si>
-  <si>
-    <t>601020</t>
-  </si>
-  <si>
-    <t>华钰矿业</t>
-  </si>
-  <si>
-    <t>688114</t>
-  </si>
-  <si>
-    <t>华大智造</t>
-  </si>
-  <si>
-    <t>AI、医疗</t>
-  </si>
-  <si>
-    <t>002167</t>
-  </si>
-  <si>
-    <t>东方锆业</t>
-  </si>
-  <si>
-    <t>600343</t>
-  </si>
-  <si>
-    <t>航天动力</t>
-  </si>
-  <si>
-    <t>航天</t>
-  </si>
-  <si>
-    <t>513180</t>
-  </si>
-  <si>
-    <t>恒生科技</t>
-  </si>
-  <si>
-    <t>AI、科技</t>
-  </si>
-  <si>
-    <t>603288</t>
-  </si>
-  <si>
-    <t>海天味业</t>
-  </si>
-  <si>
-    <t>食品</t>
-  </si>
-  <si>
-    <t>欧派家居</t>
-  </si>
-  <si>
-    <t>家居</t>
-  </si>
-  <si>
-    <t>600763</t>
-  </si>
-  <si>
-    <t>通策医疗</t>
-  </si>
-  <si>
-    <t>医疗</t>
-  </si>
-  <si>
-    <t>300015</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>002947</t>
-  </si>
-  <si>
-    <t>恒铭达</t>
-  </si>
-  <si>
-    <t>消费电子</t>
-  </si>
-  <si>
-    <t>300558</t>
-  </si>
-  <si>
-    <t>贝达药业</t>
-  </si>
-  <si>
-    <t>300595</t>
-  </si>
-  <si>
-    <t>欧普康视</t>
-  </si>
-  <si>
-    <t>002821</t>
-  </si>
-  <si>
-    <t>凯莱英</t>
-  </si>
-  <si>
-    <t>688050</t>
-  </si>
-  <si>
-    <t>爱博医疗</t>
   </si>
   <si>
     <t>002558</t>
@@ -752,12 +752,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -765,6 +759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,64 +1242,67 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1619,10 +1622,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1699,7 +1702,7 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1721,14 +1724,14 @@
         <v>12</v>
       </c>
       <c r="H2" s="6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K2" s="6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L19" si="0">E2+G2+J2+H2+I2+K2</f>
-        <v>12</v>
+        <f>E2+G2+J2+H2+I2+K2</f>
+        <v>10</v>
       </c>
       <c r="M2" s="7">
         <v>45896</v>
@@ -1738,15 +1741,15 @@
       </c>
       <c r="O2" s="9">
         <f>L2*2</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P2" s="10">
-        <f t="shared" ref="P2:P19" si="1">O2-N2</f>
-        <v>1.58</v>
-      </c>
-      <c r="Q2" s="9">
+        <f>O2-N2</f>
+        <v>-2.42</v>
+      </c>
+      <c r="Q2" s="11">
         <f>O2*0.75-N2</f>
-        <v>-4.42</v>
+        <v>-7.42</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1756,7 +1759,7 @@
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="5">
@@ -1774,12 +1777,9 @@
       <c r="H3" s="6">
         <v>-2</v>
       </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>E3+G3+J3+H3+I3+K3</f>
+        <v>13</v>
       </c>
       <c r="M3" s="7">
         <v>45888</v>
@@ -1788,16 +1788,16 @@
         <v>21.65</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" ref="O3:O19" si="2">L3*2</f>
-        <v>28</v>
+        <f>L3*2</f>
+        <v>26</v>
       </c>
       <c r="P3" s="9">
-        <f t="shared" si="1"/>
-        <v>6.35</v>
-      </c>
-      <c r="Q3" s="12">
-        <f t="shared" ref="Q3:Q19" si="3">O3*0.75-N3</f>
-        <v>-0.649999999999999</v>
+        <f>O3-N3</f>
+        <v>4.35</v>
+      </c>
+      <c r="Q3" s="11">
+        <f>O3*0.75-N3</f>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1822,12 +1822,12 @@
       <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="K4" s="6">
-        <v>1</v>
+      <c r="H4" s="6">
+        <v>-1</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>E4+G4+J4+H4+I4+K4</f>
+        <v>5</v>
       </c>
       <c r="M4" s="7">
         <v>45898</v>
@@ -1836,16 +1836,16 @@
         <v>16.08</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>L4*2</f>
+        <v>10</v>
       </c>
       <c r="P4" s="9">
-        <f t="shared" si="1"/>
-        <v>-2.08</v>
-      </c>
-      <c r="Q4" s="12">
-        <f t="shared" si="3"/>
-        <v>-5.58</v>
+        <f>O4-N4</f>
+        <v>-6.08</v>
+      </c>
+      <c r="Q4" s="11">
+        <f>O4*0.75-N4</f>
+        <v>-8.58</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1855,7 +1855,7 @@
       <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="5">
@@ -1871,14 +1871,11 @@
         <v>4</v>
       </c>
       <c r="H5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>E5+G5+J5+H5+I5+K5</f>
+        <v>3</v>
       </c>
       <c r="M5" s="7">
         <v>45904</v>
@@ -1887,16 +1884,16 @@
         <v>11.65</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>L5*2</f>
+        <v>6</v>
       </c>
       <c r="P5" s="9">
-        <f t="shared" si="1"/>
-        <v>-1.65</v>
-      </c>
-      <c r="Q5" s="12">
-        <f t="shared" si="3"/>
-        <v>-4.15</v>
+        <f>O5-N5</f>
+        <v>-5.65</v>
+      </c>
+      <c r="Q5" s="11">
+        <f>O5*0.75-N5</f>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1906,7 +1903,7 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="5">
@@ -1924,12 +1921,9 @@
       <c r="H6" s="6">
         <v>-2</v>
       </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
       <c r="L6" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>E6+G6+J6+H6+I6+K6</f>
+        <v>5</v>
       </c>
       <c r="M6" s="7">
         <v>45891</v>
@@ -1938,16 +1932,16 @@
         <v>16.36</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>L6*2</f>
+        <v>10</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="1"/>
-        <v>-4.36</v>
-      </c>
-      <c r="Q6" s="12">
-        <f t="shared" si="3"/>
-        <v>-7.36</v>
+        <f>O6-N6</f>
+        <v>-6.36</v>
+      </c>
+      <c r="Q6" s="11">
+        <f>O6*0.75-N6</f>
+        <v>-8.86</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1972,12 +1966,12 @@
       <c r="G7" s="6">
         <v>4</v>
       </c>
-      <c r="K7" s="6">
-        <v>1</v>
+      <c r="H7" s="6">
+        <v>-1</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>E7+G7+J7+H7+I7+K7</f>
+        <v>5</v>
       </c>
       <c r="M7" s="7">
         <v>45838</v>
@@ -1986,16 +1980,16 @@
         <v>14.18</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>L7*2</f>
+        <v>10</v>
       </c>
       <c r="P7" s="9">
-        <f t="shared" si="1"/>
-        <v>-0.18</v>
-      </c>
-      <c r="Q7" s="12">
-        <f t="shared" si="3"/>
-        <v>-3.68</v>
+        <f>O7-N7</f>
+        <v>-4.18</v>
+      </c>
+      <c r="Q7" s="11">
+        <f>O7*0.75-N7</f>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2027,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="0"/>
+        <f>E8+G8+J8+H8+I8+K8</f>
         <v>7</v>
       </c>
       <c r="M8" s="7">
@@ -2037,15 +2031,15 @@
         <v>15.98</v>
       </c>
       <c r="O8" s="9">
-        <f t="shared" si="2"/>
+        <f>L8*2</f>
         <v>14</v>
       </c>
       <c r="P8" s="9">
-        <f t="shared" si="1"/>
+        <f>O8-N8</f>
         <v>-1.98</v>
       </c>
-      <c r="Q8" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q8" s="11">
+        <f>O8*0.75-N8</f>
         <v>-5.48</v>
       </c>
     </row>
@@ -2060,16 +2054,16 @@
         <v>33</v>
       </c>
       <c r="D9" s="5">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
       <c r="F9" s="5">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="G9" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
@@ -2078,176 +2072,176 @@
         <v>1</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>E9+G9+J9+H9+I9+K9</f>
+        <v>9</v>
       </c>
       <c r="M9" s="7">
-        <v>45867</v>
-      </c>
-      <c r="N9" s="9">
-        <v>9.67</v>
+        <v>45901</v>
+      </c>
+      <c r="N9" s="8">
+        <v>20.52</v>
       </c>
       <c r="O9" s="9">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>L9*2</f>
+        <v>18</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" si="1"/>
-        <v>0.33</v>
-      </c>
-      <c r="Q9" s="12">
-        <f t="shared" si="3"/>
-        <v>-2.17</v>
+        <f>O9-N9</f>
+        <v>-2.52</v>
+      </c>
+      <c r="Q9" s="11">
+        <f>O9*0.75-N9</f>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="3">
+        <v>300628</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="5">
-        <v>9.4</v>
+        <v>12.1</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
       </c>
       <c r="F10" s="5">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G10" s="6">
-        <v>5</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="L10" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>E10+G10+J10+H10+I10+K10</f>
+        <v>6</v>
       </c>
       <c r="M10" s="7">
-        <v>45901</v>
+        <v>45868</v>
       </c>
       <c r="N10" s="8">
-        <v>20.52</v>
+        <v>10.03</v>
       </c>
       <c r="O10" s="9">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>L10*2</f>
+        <v>12</v>
       </c>
       <c r="P10" s="9">
-        <f t="shared" si="1"/>
-        <v>-2.52</v>
-      </c>
-      <c r="Q10" s="12">
-        <f t="shared" si="3"/>
-        <v>-7.02</v>
-      </c>
-    </row>
-    <row r="11" ht="14" customHeight="1" spans="1:17">
+        <f>O10-N10</f>
+        <v>1.97</v>
+      </c>
+      <c r="Q10" s="10">
+        <f>O10*0.75-N10</f>
+        <v>-1.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="5">
-        <v>12.9</v>
+        <v>10.8</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
       </c>
       <c r="F11" s="5">
+        <v>117</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <f>E11+G11+J11+H11+I11+K11</f>
         <v>9</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="M11" s="7">
-        <v>45899</v>
+        <v>45883</v>
       </c>
       <c r="N11" s="8">
-        <v>7.29</v>
+        <v>18.15</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>L11*2</f>
+        <v>18</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="1"/>
-        <v>0.71</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="3"/>
-        <v>-1.29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="3">
-        <v>300628</v>
+        <f>O11-N11</f>
+        <v>-0.149999999999999</v>
+      </c>
+      <c r="Q11" s="11">
+        <f>O11*0.75-N11</f>
+        <v>-4.65</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:17">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="5">
-        <v>12.1</v>
+        <v>9.7</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
       </c>
       <c r="F12" s="5">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G12" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="6">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
+        <v>1</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>E12+G12+J12+H12+I12+K12</f>
+        <v>9</v>
       </c>
       <c r="M12" s="7">
-        <v>45868</v>
+        <v>45886</v>
       </c>
       <c r="N12" s="8">
-        <v>10.03</v>
+        <v>17.85</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>L12*2</f>
+        <v>18</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="1"/>
-        <v>-0.0299999999999994</v>
-      </c>
-      <c r="Q12" s="12">
-        <f t="shared" si="3"/>
-        <v>-2.53</v>
+        <f>O12-N12</f>
+        <v>0.149999999999999</v>
+      </c>
+      <c r="Q12" s="11">
+        <f>O12*0.75-N12</f>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2261,54 +2255,48 @@
         <v>44</v>
       </c>
       <c r="D13" s="5">
-        <v>10.8</v>
+        <v>8.8</v>
       </c>
       <c r="E13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="G13" s="6">
-        <v>5</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="0"/>
+        <f>E13+G13+J13+H13+I13+K13</f>
         <v>9</v>
       </c>
       <c r="M13" s="7">
-        <v>45883</v>
+        <v>45898</v>
       </c>
       <c r="N13" s="8">
-        <v>18.15</v>
+        <v>17.96</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="2"/>
+        <f>L13*2</f>
         <v>18</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="1"/>
-        <v>-0.149999999999999</v>
-      </c>
-      <c r="Q13" s="12">
-        <f t="shared" si="3"/>
-        <v>-4.65</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:17">
+        <f>O13-N13</f>
+        <v>0.0399999999999991</v>
+      </c>
+      <c r="Q13" s="11">
+        <f>O13*0.75-N13</f>
+        <v>-4.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="5">
@@ -2318,40 +2306,36 @@
         <v>2</v>
       </c>
       <c r="F14" s="5">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="G14" s="6">
-        <v>5</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="6"/>
       <c r="K14" s="6">
         <v>1</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>E14+G14+J14+H14+I14+K14</f>
+        <v>6</v>
       </c>
       <c r="M14" s="7">
-        <v>45886</v>
+        <v>45917</v>
       </c>
       <c r="N14" s="8">
-        <v>17.85</v>
+        <v>11.26</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="P14" s="9">
-        <f t="shared" si="1"/>
-        <v>0.149999999999999</v>
-      </c>
-      <c r="Q14" s="12">
-        <f t="shared" si="3"/>
-        <v>-4.35</v>
+        <f>L14*2</f>
+        <v>12</v>
+      </c>
+      <c r="P14" s="14">
+        <f>O14-N14</f>
+        <v>0.74</v>
+      </c>
+      <c r="Q14" s="11">
+        <f>O14*0.75-N14</f>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2365,407 +2349,319 @@
         <v>50</v>
       </c>
       <c r="D15" s="5">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>95</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <f>E15+G15+J15+H15+I15+K15</f>
         <v>8</v>
       </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>37</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="M15" s="7">
-        <v>45873</v>
+        <v>45954</v>
       </c>
       <c r="N15" s="8">
-        <v>5.55</v>
+        <v>10.81</v>
       </c>
       <c r="O15" s="9">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>L15*2</f>
+        <v>16</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" si="1"/>
-        <v>2.45</v>
+        <f>O15-N15</f>
+        <v>5.19</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="3"/>
-        <v>0.45</v>
+        <f>O15*0.75-N15</f>
+        <v>1.19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="5">
-        <v>8.8</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>191</v>
-      </c>
-      <c r="G16" s="6">
-        <v>8</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M16" s="7">
-        <v>45898</v>
-      </c>
-      <c r="N16" s="8">
-        <v>17.96</v>
-      </c>
-      <c r="O16" s="9">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="P16" s="9">
-        <f t="shared" si="1"/>
-        <v>0.0399999999999991</v>
-      </c>
-      <c r="Q16" s="12">
-        <f t="shared" si="3"/>
-        <v>-4.46</v>
-      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5">
-        <v>9.7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="G17" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="6">
         <v>1</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>E17+G17+J17+H17+I17+K17</f>
+        <v>4</v>
       </c>
       <c r="M17" s="7">
-        <v>45917</v>
+        <v>45873</v>
       </c>
       <c r="N17" s="8">
-        <v>11.26</v>
+        <v>5.55</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="P17" s="14">
-        <f t="shared" si="1"/>
-        <v>0.74</v>
+        <f>L17*2</f>
+        <v>8</v>
+      </c>
+      <c r="P17" s="9">
+        <f>O17-N17</f>
+        <v>2.45</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="3"/>
-        <v>-2.26</v>
+        <f>O17*0.75-N17</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>25</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <f>E18+G18+J18+H18+I18+K18</f>
+        <v>5</v>
+      </c>
+      <c r="M18" s="7">
+        <v>45867</v>
+      </c>
+      <c r="N18" s="9">
+        <v>9.67</v>
+      </c>
+      <c r="O18" s="9">
+        <f>L18*2</f>
+        <v>10</v>
+      </c>
+      <c r="P18" s="9">
+        <f>O18-N18</f>
+        <v>0.33</v>
+      </c>
+      <c r="Q18" s="11">
+        <f>O18*0.75-N18</f>
+        <v>-2.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="P19" s="14"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="5">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>39</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M18" s="7">
-        <v>45888</v>
-      </c>
-      <c r="N18" s="8">
-        <v>3.75</v>
-      </c>
-      <c r="O18" s="9">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="P18" s="14">
-        <f t="shared" si="1"/>
-        <v>4.25</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="5">
-        <v>9</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>95</v>
-      </c>
-      <c r="G19" s="6">
-        <v>4</v>
-      </c>
-      <c r="H19" s="6">
-        <v>2</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M19" s="7">
-        <v>45954</v>
-      </c>
-      <c r="N19" s="8">
-        <v>10.81</v>
-      </c>
-      <c r="O19" s="9">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="P19" s="9">
-        <f t="shared" si="1"/>
-        <v>7.19</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="shared" si="3"/>
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="O20" s="9"/>
-      <c r="P20" s="14"/>
+      <c r="N20" s="8">
+        <v>4.29</v>
+      </c>
+      <c r="O20" s="8">
+        <v>10</v>
+      </c>
+      <c r="P20" s="14">
+        <f t="shared" ref="P20:P26" si="0">O20-N20</f>
+        <v>5.71</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" ref="Q20:Q26" si="1">O20*0.75-N20</f>
+        <v>3.21</v>
+      </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N21" s="8">
-        <v>4.29</v>
+        <v>4.86</v>
       </c>
       <c r="O21" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P21" s="14">
-        <f t="shared" ref="P19:P27" si="4">O21-N21</f>
-        <v>5.71</v>
-      </c>
-      <c r="Q21" s="10">
-        <f t="shared" ref="Q21:Q27" si="5">O21*0.75-N21</f>
-        <v>3.21</v>
+        <f t="shared" si="0"/>
+        <v>10.14</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="1"/>
+        <v>6.39</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N22" s="8">
-        <v>4.86</v>
+        <v>6.84</v>
       </c>
       <c r="O22" s="8">
         <v>15</v>
       </c>
       <c r="P22" s="14">
-        <f t="shared" si="4"/>
-        <v>10.14</v>
-      </c>
-      <c r="Q22" s="10">
-        <f t="shared" si="5"/>
-        <v>6.39</v>
+        <f t="shared" si="0"/>
+        <v>8.16</v>
+      </c>
+      <c r="Q22" s="15">
+        <f t="shared" si="1"/>
+        <v>4.41</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N23" s="8">
-        <v>6.84</v>
+        <v>44.74</v>
       </c>
       <c r="O23" s="8">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="P23" s="14">
-        <f t="shared" si="4"/>
-        <v>8.16</v>
-      </c>
-      <c r="Q23" s="10">
-        <f t="shared" si="5"/>
-        <v>4.41</v>
+        <f t="shared" si="0"/>
+        <v>-4.74</v>
+      </c>
+      <c r="Q23" s="11">
+        <f t="shared" si="1"/>
+        <v>-14.74</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N24" s="8">
-        <v>44.74</v>
+        <v>15.93</v>
       </c>
       <c r="O24" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="P24" s="14">
-        <f t="shared" si="4"/>
-        <v>-4.74</v>
-      </c>
-      <c r="Q24" s="12">
-        <f t="shared" si="5"/>
-        <v>-14.74</v>
+        <f t="shared" si="0"/>
+        <v>-0.93</v>
+      </c>
+      <c r="Q24" s="11">
+        <f t="shared" si="1"/>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N25" s="8">
-        <v>15.93</v>
+        <v>7.05</v>
       </c>
       <c r="O25" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P25" s="14">
-        <f t="shared" si="4"/>
-        <v>-0.93</v>
-      </c>
-      <c r="Q25" s="12">
-        <f t="shared" si="5"/>
-        <v>-4.68</v>
+        <f t="shared" si="0"/>
+        <v>2.95</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" s="8">
-        <v>7.05</v>
-      </c>
-      <c r="O26" s="8">
-        <v>10</v>
-      </c>
-      <c r="P26" s="14">
-        <f t="shared" si="4"/>
-        <v>2.95</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N27" s="8">
         <v>36.36</v>
@@ -2774,11 +2670,11 @@
         <v>50</v>
       </c>
       <c r="P27" s="14">
-        <f t="shared" si="4"/>
+        <f>O27-N27</f>
         <v>13.64</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" si="5"/>
+        <f>O27*0.75-N27</f>
         <v>1.14</v>
       </c>
     </row>
@@ -2788,13 +2684,13 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D29" s="5">
         <v>6.2</v>
@@ -2826,8 +2722,8 @@
         <f>O29-N29</f>
         <v>-0.41</v>
       </c>
-      <c r="Q29" s="12">
-        <f t="shared" ref="Q28:Q41" si="6">O29*0.75-N29</f>
+      <c r="Q29" s="11">
+        <f>O29*0.75-N29</f>
         <v>-2.16</v>
       </c>
     </row>
@@ -2836,10 +2732,10 @@
         <v>603833</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D31" s="5">
         <v>8</v>
@@ -2874,20 +2770,20 @@
         <f>O31-N31</f>
         <v>-1.64</v>
       </c>
-      <c r="Q31" s="12">
-        <f t="shared" si="6"/>
+      <c r="Q31" s="11">
+        <f>O31*0.75-N31</f>
         <v>-2.89</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D32" s="5">
         <v>4.6</v>
@@ -2920,19 +2816,19 @@
         <v>-0.37</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="6"/>
+        <f>O32*0.75-N32</f>
         <v>-1.37</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D33" s="5">
         <v>3.5</v>
@@ -2964,20 +2860,20 @@
         <f>O33-N33</f>
         <v>-2.24</v>
       </c>
-      <c r="Q33" s="12">
-        <f t="shared" si="6"/>
+      <c r="Q33" s="11">
+        <f>O33*0.75-N33</f>
         <v>-3.24</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D34" s="5">
         <v>9</v>
@@ -3010,45 +2906,135 @@
         <v>-0.34</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" si="6"/>
+        <f>O34*0.75-N34</f>
         <v>-1.09</v>
       </c>
     </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>92</v>
+      </c>
+      <c r="G35" s="6">
+        <v>4</v>
+      </c>
+      <c r="L35" s="6">
+        <f>E35+G35+J35+H35+I35+K35</f>
+        <v>4</v>
+      </c>
+      <c r="M35" s="7">
+        <v>45891</v>
+      </c>
+      <c r="N35" s="8">
+        <v>4.65</v>
+      </c>
+      <c r="O35" s="9">
+        <f>L35*1</f>
+        <v>4</v>
+      </c>
+      <c r="P35" s="9">
+        <f>O35-N35</f>
+        <v>-0.65</v>
+      </c>
+      <c r="Q35" s="9">
+        <f>O35*0.75-N35</f>
+        <v>-1.65</v>
+      </c>
+    </row>
     <row r="36" spans="1:17">
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
+      <c r="A36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="5">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>150</v>
+      </c>
+      <c r="G36" s="6">
+        <v>6</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="L36" s="6">
+        <f>E36+G36+J36+H36+I36+K36</f>
+        <v>7</v>
+      </c>
+      <c r="M36" s="7">
+        <v>45892</v>
+      </c>
+      <c r="N36" s="8">
+        <v>14</v>
+      </c>
+      <c r="O36" s="9">
+        <f>L36*1</f>
+        <v>7</v>
+      </c>
+      <c r="P36" s="9">
+        <f>O36-N36</f>
+        <v>-7</v>
+      </c>
+      <c r="Q36" s="11">
+        <f>O36*0.75-N36</f>
+        <v>-8.75</v>
+      </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="5">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G37" s="6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H37" s="6">
+        <v>-1</v>
       </c>
       <c r="L37" s="6">
         <f>E37+G37+J37+H37+I37+K37</f>
         <v>4</v>
       </c>
       <c r="M37" s="7">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="N37" s="8">
-        <v>4.65</v>
+        <v>6.36</v>
       </c>
       <c r="O37" s="9">
         <f>L37*1</f>
@@ -3056,649 +3042,662 @@
       </c>
       <c r="P37" s="9">
         <f>O37-N37</f>
-        <v>-0.65</v>
-      </c>
-      <c r="Q37" s="9">
+        <v>-2.36</v>
+      </c>
+      <c r="Q37" s="11">
         <f>O37*0.75-N37</f>
-        <v>-1.65</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E38" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="5">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="G38" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H38" s="6">
         <v>-1</v>
       </c>
       <c r="L38" s="6">
         <f>E38+G38+J38+H38+I38+K38</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" s="7">
-        <v>45892</v>
+        <v>45897</v>
       </c>
       <c r="N38" s="8">
-        <v>14</v>
+        <v>6.18</v>
       </c>
       <c r="O38" s="9">
         <f>L38*1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P38" s="9">
         <f>O38-N38</f>
-        <v>-8</v>
-      </c>
-      <c r="Q38" s="12">
+        <v>-2.18</v>
+      </c>
+      <c r="Q38" s="11">
         <f>O38*0.75-N38</f>
-        <v>-9.5</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="D39" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="5">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="G39" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="K39" s="6">
         <v>1</v>
       </c>
       <c r="L39" s="6">
         <f>E39+G39+J39+H39+I39+K39</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M39" s="7">
-        <v>45895</v>
+        <v>45888</v>
       </c>
       <c r="N39" s="8">
-        <v>6.36</v>
+        <v>3.75</v>
       </c>
       <c r="O39" s="9">
-        <f>L39*1</f>
-        <v>6</v>
-      </c>
-      <c r="P39" s="9">
+        <f>L39*2</f>
+        <v>8</v>
+      </c>
+      <c r="P39" s="14">
         <f>O39-N39</f>
-        <v>-0.36</v>
-      </c>
-      <c r="Q39" s="9">
+        <v>4.25</v>
+      </c>
+      <c r="Q39" s="10">
         <f>O39*0.75-N39</f>
-        <v>-1.86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="40" ht="14" customHeight="1" spans="1:17">
       <c r="A40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D40" s="5">
-        <v>5</v>
+        <v>12.9</v>
       </c>
       <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5">
+        <v>9</v>
+      </c>
+      <c r="G40" s="6">
         <v>0</v>
       </c>
-      <c r="F40" s="5">
-        <v>111</v>
-      </c>
-      <c r="G40" s="6">
-        <v>5</v>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1</v>
       </c>
       <c r="L40" s="6">
         <f>E40+G40+J40+H40+I40+K40</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M40" s="7">
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="N40" s="8">
-        <v>6.18</v>
+        <v>7.29</v>
       </c>
       <c r="O40" s="9">
-        <f>L40*1</f>
-        <v>5</v>
+        <f>L40*2</f>
+        <v>8</v>
       </c>
       <c r="P40" s="9">
         <f>O40-N40</f>
-        <v>-1.18</v>
+        <v>0.71</v>
       </c>
       <c r="Q40" s="9">
         <f>O40*0.75-N40</f>
-        <v>-2.43</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:17">
-      <c r="A43" s="15" t="s">
+        <v>-1.29</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:17">
+      <c r="A42" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C42" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D42" s="17">
         <v>10</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E42" s="18">
         <v>2</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F42" s="17">
         <v>33</v>
       </c>
-      <c r="G43" s="17">
-        <v>1</v>
-      </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17">
-        <v>1</v>
-      </c>
-      <c r="L43" s="17">
-        <f>E43+G43+J43+H43+I43+K43</f>
+      <c r="G42" s="18">
+        <v>1</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18">
+        <v>1</v>
+      </c>
+      <c r="L42" s="18">
+        <f>E42+G42+J42+H42+I42+K42</f>
         <v>4</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M42" s="19">
         <v>45888</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N42" s="20">
         <v>3.1</v>
       </c>
-      <c r="O43" s="19">
-        <f>L43*1</f>
+      <c r="O42" s="20">
+        <f>L42*1</f>
         <v>4</v>
       </c>
-      <c r="P43" s="19">
-        <f>O43-N43</f>
+      <c r="P42" s="20">
+        <f>O42-N42</f>
         <v>0.9</v>
       </c>
-      <c r="Q43" s="19">
-        <f>O43*0.75-N43</f>
+      <c r="Q42" s="20">
+        <f>O42*0.75-N42</f>
         <v>-0.1</v>
       </c>
     </row>
+    <row r="47" s="2" customFormat="1" spans="1:17">
+      <c r="A47" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="E47" s="23">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <v>40</v>
+      </c>
+      <c r="G47" s="23">
+        <v>2</v>
+      </c>
+      <c r="H47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23">
+        <f t="shared" ref="L47:L59" si="2">E47+G47+J47+H47+I47+K47</f>
+        <v>1</v>
+      </c>
+      <c r="M47" s="24">
+        <v>45896</v>
+      </c>
+      <c r="N47" s="25">
+        <v>2.46</v>
+      </c>
+      <c r="O47" s="25">
+        <f t="shared" ref="O47:O58" si="3">L47*1</f>
+        <v>1</v>
+      </c>
+      <c r="P47" s="25">
+        <f t="shared" ref="P47:P59" si="4">O47-N47</f>
+        <v>-1.46</v>
+      </c>
+      <c r="Q47" s="25"/>
+    </row>
     <row r="48" s="2" customFormat="1" spans="1:17">
-      <c r="A48" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="E48" s="22">
+      <c r="A48" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="E48" s="23">
+        <v>1</v>
+      </c>
+      <c r="F48" s="22">
+        <v>49</v>
+      </c>
+      <c r="G48" s="23">
+        <v>2</v>
+      </c>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M48" s="24">
+        <v>45890</v>
+      </c>
+      <c r="N48" s="25">
+        <v>3.12</v>
+      </c>
+      <c r="O48" s="25">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P48" s="25">
+        <f t="shared" si="4"/>
+        <v>-0.12</v>
+      </c>
+      <c r="Q48" s="26"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E49" s="6">
         <v>0</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F49" s="5">
+        <v>37</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M49" s="7">
+        <v>45897</v>
+      </c>
+      <c r="N49" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="4"/>
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:17">
+      <c r="A50" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="22">
+        <v>8</v>
+      </c>
+      <c r="E50" s="23">
+        <v>1</v>
+      </c>
+      <c r="F50" s="22">
         <v>40</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G50" s="23">
         <v>2</v>
       </c>
-      <c r="H48" s="22">
-        <v>-1</v>
-      </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22">
-        <f t="shared" ref="L48:L60" si="7">E48+G48+J48+H48+I48+K48</f>
-        <v>1</v>
-      </c>
-      <c r="M48" s="23">
-        <v>45896</v>
-      </c>
-      <c r="N48" s="24">
-        <v>2.46</v>
-      </c>
-      <c r="O48" s="24">
-        <f t="shared" ref="O48:O59" si="8">L48*1</f>
-        <v>1</v>
-      </c>
-      <c r="P48" s="24">
-        <f t="shared" ref="P48:P60" si="9">O48-N48</f>
-        <v>-1.46</v>
-      </c>
-      <c r="Q48" s="24"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:17">
-      <c r="A49" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="21">
-        <v>8.5</v>
-      </c>
-      <c r="E49" s="22">
-        <v>1</v>
-      </c>
-      <c r="F49" s="21">
-        <v>49</v>
-      </c>
-      <c r="G49" s="22">
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M50" s="24">
+        <v>45867</v>
+      </c>
+      <c r="N50" s="25">
+        <v>2.3</v>
+      </c>
+      <c r="O50" s="25">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P50" s="25">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q50" s="25"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:17">
+      <c r="A51" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="22">
+        <v>8.2</v>
+      </c>
+      <c r="E51" s="23">
+        <v>1</v>
+      </c>
+      <c r="F51" s="22">
+        <v>35</v>
+      </c>
+      <c r="G51" s="23">
+        <v>1</v>
+      </c>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="M49" s="23">
-        <v>45890</v>
-      </c>
-      <c r="N49" s="24">
-        <v>3.12</v>
-      </c>
-      <c r="O49" s="24">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="P49" s="24">
-        <f t="shared" si="9"/>
-        <v>-0.12</v>
-      </c>
-      <c r="Q49" s="25"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="5">
-        <v>37</v>
-      </c>
-      <c r="G50" s="6">
-        <v>1</v>
-      </c>
-      <c r="K50" s="6">
-        <v>1</v>
-      </c>
-      <c r="L50" s="6">
-        <f t="shared" si="7"/>
+      <c r="M51" s="24">
+        <v>45908</v>
+      </c>
+      <c r="N51" s="25">
+        <v>5.36</v>
+      </c>
+      <c r="O51" s="25">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M50" s="7">
-        <v>45897</v>
-      </c>
-      <c r="N50" s="8">
-        <v>4.42</v>
-      </c>
-      <c r="O50" s="9">
-        <f t="shared" si="8"/>
+      <c r="P51" s="25">
+        <f t="shared" si="4"/>
+        <v>-3.36</v>
+      </c>
+      <c r="Q51" s="25"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="5">
+        <v>12</v>
+      </c>
+      <c r="E52" s="6">
         <v>2</v>
       </c>
-      <c r="P50" s="9">
-        <f t="shared" si="9"/>
-        <v>-2.42</v>
-      </c>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:17">
-      <c r="A51" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="21">
-        <v>8</v>
-      </c>
-      <c r="E51" s="22">
-        <v>1</v>
-      </c>
-      <c r="F51" s="21">
-        <v>40</v>
-      </c>
-      <c r="G51" s="22">
+      <c r="F52" s="5">
+        <v>48</v>
+      </c>
+      <c r="G52" s="6">
         <v>2</v>
       </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="M51" s="23">
-        <v>45867</v>
-      </c>
-      <c r="N51" s="24">
-        <v>2.3</v>
-      </c>
-      <c r="O51" s="24">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="P51" s="24">
-        <f t="shared" si="9"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q51" s="24"/>
-    </row>
-    <row r="52" s="2" customFormat="1" spans="1:17">
-      <c r="A52" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="21">
-        <v>8.2</v>
-      </c>
-      <c r="E52" s="22">
-        <v>1</v>
-      </c>
-      <c r="F52" s="21">
-        <v>35</v>
-      </c>
-      <c r="G52" s="22">
-        <v>1</v>
-      </c>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="M52" s="23">
-        <v>45908</v>
-      </c>
-      <c r="N52" s="24">
-        <v>5.36</v>
-      </c>
-      <c r="O52" s="24">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="P52" s="24">
-        <f t="shared" si="9"/>
-        <v>-3.36</v>
-      </c>
-      <c r="Q52" s="24"/>
+      <c r="L52" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M52" s="7">
+        <v>45838</v>
+      </c>
+      <c r="N52" s="8">
+        <v>4.22</v>
+      </c>
+      <c r="O52" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P52" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>120</v>
+      <c r="A53" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D53" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E53" s="6">
         <v>2</v>
       </c>
       <c r="F53" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G53" s="6">
         <v>2</v>
       </c>
+      <c r="H53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1</v>
+      </c>
       <c r="L53" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M53" s="7">
         <v>45838</v>
       </c>
       <c r="N53" s="8">
-        <v>4.22</v>
+        <v>6.11</v>
       </c>
       <c r="O53" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P53" s="9">
-        <f t="shared" si="9"/>
-        <v>-0.22</v>
+        <f t="shared" si="4"/>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>124</v>
+      <c r="A54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D54" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" s="6">
         <v>2</v>
       </c>
       <c r="F54" s="5">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G54" s="6">
-        <v>2</v>
-      </c>
-      <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M54" s="7">
+        <v>45861</v>
+      </c>
+      <c r="N54" s="8">
+        <v>3.41</v>
+      </c>
+      <c r="O54" s="9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P54" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:17">
+      <c r="A55" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="22">
+        <v>8</v>
+      </c>
+      <c r="E55" s="23">
+        <v>1</v>
+      </c>
+      <c r="F55" s="22">
+        <v>60</v>
+      </c>
+      <c r="G55" s="23">
+        <v>3</v>
+      </c>
+      <c r="H55" s="23">
         <v>-1</v>
       </c>
-      <c r="K54" s="6">
-        <v>1</v>
-      </c>
-      <c r="L54" s="6">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="M54" s="7">
-        <v>45838</v>
-      </c>
-      <c r="N54" s="8">
-        <v>6.11</v>
-      </c>
-      <c r="O54" s="9">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="P54" s="9">
-        <f t="shared" si="9"/>
-        <v>-2.11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="5">
-        <v>10</v>
-      </c>
-      <c r="E55" s="6">
-        <v>2</v>
-      </c>
-      <c r="F55" s="5">
-        <v>26</v>
-      </c>
-      <c r="G55" s="6">
-        <v>1</v>
-      </c>
-      <c r="L55" s="6">
-        <f t="shared" si="7"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M55" s="7">
-        <v>45861</v>
-      </c>
-      <c r="N55" s="8">
-        <v>3.41</v>
-      </c>
-      <c r="O55" s="9">
-        <f t="shared" si="8"/>
+      <c r="M55" s="24">
+        <v>45877</v>
+      </c>
+      <c r="N55" s="25">
+        <v>3.06</v>
+      </c>
+      <c r="O55" s="25">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P55" s="9">
-        <f t="shared" si="9"/>
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="1:17">
-      <c r="A56" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="21" t="s">
+      <c r="P55" s="25">
+        <f t="shared" si="4"/>
+        <v>-0.0600000000000001</v>
+      </c>
+      <c r="Q55" s="25"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="C56" s="28"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="21">
-        <v>8</v>
-      </c>
-      <c r="E56" s="22">
-        <v>1</v>
-      </c>
-      <c r="F56" s="21">
-        <v>60</v>
-      </c>
-      <c r="G56" s="22">
-        <v>3</v>
-      </c>
-      <c r="H56" s="22">
-        <v>-1</v>
-      </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="M56" s="23">
-        <v>45877</v>
-      </c>
-      <c r="N56" s="24">
-        <v>3.06</v>
-      </c>
-      <c r="O56" s="24">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="P56" s="24">
-        <f t="shared" si="9"/>
-        <v>-0.0600000000000001</v>
-      </c>
-      <c r="Q56" s="24"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="C57" s="27"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="D63" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="30"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I63" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J63" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K63" s="30" t="s">
+        <v>133</v>
+      </c>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="J64" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="K64" s="29" t="s">
-        <v>133</v>
-      </c>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
     </row>
@@ -3731,131 +3730,160 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
+      <c r="A72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>33</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="L72" s="6">
+        <f>E72+G72+J72+H72+I72+K72</f>
+        <v>1</v>
+      </c>
+      <c r="M72" s="7">
+        <v>45916</v>
+      </c>
+      <c r="O72" s="9">
+        <f>L72*2</f>
+        <v>2</v>
+      </c>
+      <c r="P72" s="14">
+        <f>O72-N72</f>
+        <v>2</v>
+      </c>
+      <c r="Q72" s="9">
+        <f>O72*0.75-N72</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D73" s="5">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="5">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="G73" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L73" s="6">
         <f>E73+G73+J73+H73+I73+K73</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M73" s="7">
-        <v>45916</v>
+        <v>45894</v>
+      </c>
+      <c r="N73" s="8">
+        <v>0</v>
       </c>
       <c r="O73" s="9">
         <f>L73*2</f>
-        <v>2</v>
-      </c>
-      <c r="P73" s="14">
+        <v>16</v>
+      </c>
+      <c r="P73" s="9">
         <f>O73-N73</f>
-        <v>2</v>
-      </c>
-      <c r="Q73" s="9">
-        <f>O73*0.75-N73</f>
-        <v>1.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D74" s="5">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
       </c>
       <c r="F74" s="5">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="G74" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L74" s="6">
-        <f>E74+G74+J74+H74+I74+K74</f>
-        <v>8</v>
+        <f t="shared" ref="L74:L84" si="5">E74+G74+J74+H74+I74+K74</f>
+        <v>0</v>
       </c>
       <c r="M74" s="7">
-        <v>45894</v>
-      </c>
-      <c r="N74" s="8">
-        <v>0</v>
-      </c>
-      <c r="O74" s="9">
-        <f>L74*2</f>
-        <v>16</v>
-      </c>
-      <c r="P74" s="9">
-        <f>O74-N74</f>
-        <v>16</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="3" t="s">
-        <v>139</v>
+      <c r="A75" s="3">
+        <v>603173</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D75" s="5">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="E75" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G75" s="6">
         <v>0</v>
       </c>
+      <c r="H75" s="6">
+        <v>1</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1</v>
+      </c>
       <c r="L75" s="6">
-        <f t="shared" ref="L75:L85" si="10">E75+G75+J75+H75+I75+K75</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="M75" s="7">
-        <v>45848</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="3">
-        <v>603173</v>
+      <c r="A76" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D76" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
       </c>
       <c r="F76" s="5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G76" s="6">
         <v>0</v>
@@ -3863,68 +3891,62 @@
       <c r="H76" s="6">
         <v>1</v>
       </c>
-      <c r="J76" s="6">
-        <v>1</v>
-      </c>
       <c r="L76" s="6">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="M76" s="7">
-        <v>45863</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D77" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E77" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F77" s="5">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G77" s="6">
-        <v>0</v>
-      </c>
-      <c r="H77" s="6">
         <v>1</v>
       </c>
       <c r="L77" s="6">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="M77" s="7">
-        <v>45869</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D78" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5">
+        <v>47</v>
+      </c>
+      <c r="G78" s="6">
         <v>0</v>
       </c>
-      <c r="F78" s="5">
-        <v>68</v>
-      </c>
-      <c r="G78" s="6">
-        <v>1</v>
-      </c>
       <c r="L78" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M78" s="7">
@@ -3933,79 +3955,75 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D79" s="5">
-        <v>7</v>
-      </c>
-      <c r="E79" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" s="5">
-        <v>47</v>
-      </c>
-      <c r="G79" s="6">
+        <v>67</v>
+      </c>
+      <c r="L79" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L79" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
       <c r="M79" s="7">
-        <v>45878</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D80" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F80" s="5">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="L80" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M80" s="7">
         <v>45881</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="5">
-        <v>7</v>
-      </c>
-      <c r="F81" s="5">
-        <v>90</v>
-      </c>
-      <c r="L81" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="7">
-        <v>45881</v>
+    <row r="93" spans="1:13">
+      <c r="A93" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="5">
+        <v>9</v>
+      </c>
+      <c r="E93" s="6">
+        <v>2</v>
+      </c>
+      <c r="F93" s="5">
+        <v>110</v>
+      </c>
+      <c r="G93" s="6">
+        <v>3</v>
+      </c>
+      <c r="M93" s="7">
+        <v>45878</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D94" s="5">
         <v>9</v>
@@ -4014,10 +4032,10 @@
         <v>2</v>
       </c>
       <c r="F94" s="5">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="G94" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M94" s="7">
         <v>45878</v>
@@ -4025,10 +4043,10 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D95" s="5">
         <v>9</v>
@@ -4037,10 +4055,10 @@
         <v>2</v>
       </c>
       <c r="F95" s="5">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G95" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M95" s="7">
         <v>45878</v>
@@ -4048,22 +4066,22 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D96" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E96" s="6">
         <v>2</v>
       </c>
       <c r="F96" s="5">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G96" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M96" s="7">
         <v>45878</v>
@@ -4071,47 +4089,24 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D97" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E97" s="6">
         <v>2</v>
       </c>
       <c r="F97" s="5">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G97" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M97" s="7">
-        <v>45878</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" s="5">
-        <v>10</v>
-      </c>
-      <c r="E98" s="6">
-        <v>2</v>
-      </c>
-      <c r="F98" s="5">
-        <v>60</v>
-      </c>
-      <c r="G98" s="6">
-        <v>1</v>
-      </c>
-      <c r="M98" s="7">
         <v>45878</v>
       </c>
     </row>
@@ -4120,7 +4115,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A13:G13 I13:Q13 A14:Q14 A15:G15 O15:Q15 I15:M15 A16:Q16 O12:Q12 A12:M12 A9:Q11 O8:Q8 A8:M8 A5:G6 I5:Q5 O2:Q4 A3:C3 E3 I3:J3 L3:M3 A4:M4 A2:M2 A1:Q1 I6:M6 O6:Q6 A7:Q7 A17:G18 I17:M17 O17:Q17 A26:Q29 O25:P25 O23:Q24 A23:M25 A20:Q22 P18:Q18 L18:N18 I18:J18 A41:Q98 O40:Q40 A40:M40 A35:Q39 O33:Q34 A33:M34 A32:Q32 O31:Q31 A31:M31 A19" numberStoredAsText="1"/>
+    <ignoredError sqref="A27:Q35 A36:G38 I36:Q38 A39:Q97 A20:Q25 A1:Q18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
